--- a/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/Demo-里程碑9/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38480" yWindow="460" windowWidth="36380" windowHeight="21100" tabRatio="500"/>
+    <workbookView xWindow="3080" yWindow="1340" windowWidth="30340" windowHeight="19160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="20160224" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="工作表5" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20160224'!$A$1:$P$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20160224'!$A$1:$P$194</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="466">
   <si>
     <t>类别</t>
   </si>
@@ -433,10 +433,6 @@
     <t>提交配置</t>
   </si>
   <si>
-    <t>MG-2353</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
     <t>等级开启功能</t>
     <rPh sb="0" eb="1">
       <t>deng'ji</t>
@@ -1312,14 +1308,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>小珍</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务新需求</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>小龙</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2113,14 +2101,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>第三章副本-小怪，小怪boss，大boss技能配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三章副本-小怪bossAI配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>第三章副本-大bossAI配置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2414,10 +2394,6 @@
     <t>MG-2510</t>
   </si>
   <si>
-    <t>MG-2511</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>MG-2512</t>
   </si>
   <si>
@@ -2506,6 +2482,79 @@
       <t>jin'wan</t>
     </rPh>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章副本-小怪（D4），小怪boss，大boss技能（D6）配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2353</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>通用技能配置修改-逻辑，表现</t>
+    <rPh sb="0" eb="1">
+      <t>tong'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>luo'ji</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>biao'xian</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xing</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2534</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章副本-小怪bossAI配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2511</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚确认</t>
+    <rPh sb="0" eb="1">
+      <t>jin'wan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>que'ren</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测完</t>
+    <rPh sb="0" eb="1">
+      <t>ce'wan</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
 </sst>
 </file>
@@ -2624,24 +2673,18 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2693,7 +2736,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2738,7 +2781,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2774,27 +2816,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="45">
     <dxf>
       <font>
         <color indexed="60"/>
@@ -2881,12 +2923,11 @@
     </dxf>
     <dxf>
       <font>
-        <color indexed="60"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2902,11 +2943,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color indexed="60"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3250,37 +3292,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -3557,11 +3568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P354"/>
+  <dimension ref="A1:P353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K196" sqref="K196"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -3637,13 +3648,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3651,19 +3662,19 @@
         <v>48</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -3678,30 +3689,30 @@
         <v>41</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5">
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3710,19 +3721,19 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G6">
         <v>0.5</v>
       </c>
       <c r="H6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3731,10 +3742,10 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G7">
         <v>0.5</v>
@@ -3752,13 +3763,19 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F9" t="s">
-        <v>378</v>
+        <v>375</v>
+      </c>
+      <c r="I9" t="s">
+        <v>465</v>
+      </c>
+      <c r="L9" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3773,10 +3790,16 @@
         <v>41</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>42</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="L10" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3785,19 +3808,25 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>374</v>
-      </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>425</v>
+        <v>420</v>
+      </c>
+      <c r="I11" t="s">
+        <v>465</v>
+      </c>
+      <c r="L11" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -3805,19 +3834,19 @@
         <v>48</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -3826,19 +3855,19 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3847,10 +3876,10 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3859,31 +3888,31 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>55</v>
@@ -3892,662 +3921,806 @@
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>465</v>
+      </c>
+      <c r="L18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19">
+        <v>0.25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20">
+        <v>0.25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22">
+        <v>1.5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23">
+        <v>1.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E24" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="D20" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="D21" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="D22" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="D23" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="D24" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24">
-        <v>1.5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="D25" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>47</v>
+      <c r="F25" t="s">
+        <v>51</v>
       </c>
       <c r="G25">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="D26" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>61</v>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>456</v>
       </c>
       <c r="G26">
         <v>1.5</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="D27" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>61</v>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="D28" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>61</v>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="D29" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>61</v>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
       <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" t="s">
-        <v>203</v>
+        <v>49</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
       <c r="C31" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>75</v>
+      <c r="D31" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="s">
-        <v>396</v>
-      </c>
-      <c r="E33" t="s">
-        <v>397</v>
-      </c>
-      <c r="F33" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
       <c r="C34" t="s">
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E34" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="F34" t="s">
-        <v>190</v>
-      </c>
-      <c r="G34">
-        <v>0.5</v>
+        <v>188</v>
       </c>
       <c r="H34" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E35" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>189</v>
+      </c>
+      <c r="G35">
+        <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>393</v>
+      </c>
+      <c r="E36" t="s">
+        <v>392</v>
+      </c>
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="D36" t="s">
-        <v>399</v>
-      </c>
-      <c r="E36" t="s">
-        <v>374</v>
-      </c>
-      <c r="F36" t="s">
-        <v>202</v>
-      </c>
-      <c r="G36">
+      <c r="D37" t="s">
+        <v>394</v>
+      </c>
+      <c r="E37" t="s">
+        <v>371</v>
+      </c>
+      <c r="F37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C38" t="s">
-        <v>370</v>
-      </c>
-      <c r="D38" t="s">
-        <v>400</v>
-      </c>
-      <c r="E38" t="s">
-        <v>381</v>
-      </c>
-      <c r="H38" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
       <c r="C39" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D39" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E39" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
-      </c>
-      <c r="G39">
-        <v>0.5</v>
+        <v>272</v>
       </c>
       <c r="H39" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="C40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D40" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E40" t="s">
-        <v>397</v>
+        <v>371</v>
+      </c>
+      <c r="F40" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40">
+        <v>0.5</v>
       </c>
       <c r="H40" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>367</v>
       </c>
       <c r="D41" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E41" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="F41" t="s">
-        <v>203</v>
-      </c>
-      <c r="G41">
-        <v>0.5</v>
+        <v>200</v>
       </c>
       <c r="H41" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E42" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="F42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42">
+        <v>0.5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" t="s">
         <v>49</v>
       </c>
       <c r="D43" t="s">
+        <v>397</v>
+      </c>
+      <c r="E43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>399</v>
+      </c>
+      <c r="E44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>401</v>
+      </c>
+      <c r="E46" t="s">
+        <v>402</v>
+      </c>
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>403</v>
+      </c>
+      <c r="F47" t="s">
+        <v>198</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>465</v>
+      </c>
+      <c r="K47" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>403</v>
+      </c>
+      <c r="F48" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>443</v>
+      </c>
+      <c r="I48" t="s">
+        <v>465</v>
+      </c>
+      <c r="L48" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="E43" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" t="s">
-        <v>406</v>
-      </c>
-      <c r="E45" t="s">
-        <v>407</v>
-      </c>
-      <c r="F45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45">
+      <c r="E49" t="s">
+        <v>403</v>
+      </c>
+      <c r="F49" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" t="s">
-        <v>408</v>
-      </c>
-      <c r="F46" t="s">
-        <v>201</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="K46" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" t="s">
-        <v>408</v>
-      </c>
-      <c r="F47" t="s">
-        <v>188</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="E48" t="s">
-        <v>408</v>
-      </c>
-      <c r="F48" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48">
-        <v>0.5</v>
-      </c>
-      <c r="H48" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="E49" t="s">
-        <v>408</v>
-      </c>
-      <c r="F49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
       <c r="H49" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="I49" t="s">
+        <v>465</v>
+      </c>
+      <c r="L49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>52</v>
+        <v>405</v>
       </c>
       <c r="E50" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F50" t="s">
         <v>187</v>
       </c>
       <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>445</v>
+      </c>
+      <c r="I50" t="s">
+        <v>465</v>
+      </c>
+      <c r="L50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>403</v>
+      </c>
+      <c r="F51" t="s">
+        <v>186</v>
+      </c>
+      <c r="G51">
         <v>0.5</v>
       </c>
-      <c r="H50" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>48</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E52" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E53" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E54" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F54" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E55" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E56" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G56">
         <v>0.5</v>
       </c>
       <c r="H56" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="C57" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E57" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="I57" t="s">
+        <v>465</v>
+      </c>
+      <c r="L57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E58" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G58">
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D60" s="15"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
         <v>48</v>
@@ -4556,55 +4729,55 @@
         <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
         <v>51</v>
       </c>
       <c r="H61" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="C62" t="s">
         <v>48</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s">
         <v>51</v>
       </c>
       <c r="H62" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="C63" t="s">
         <v>48</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G63">
         <v>1.5</v>
       </c>
       <c r="H63" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="C64" t="s">
         <v>49</v>
@@ -4613,13 +4786,13 @@
         <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s">
         <v>51</v>
       </c>
       <c r="H64" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4628,16 +4801,19 @@
         <v>48</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="F65" t="s">
+        <v>188</v>
       </c>
       <c r="G65">
         <v>0.1</v>
       </c>
       <c r="H65" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4646,19 +4822,19 @@
         <v>48</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4670,13 +4846,13 @@
         <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F67" t="s">
         <v>51</v>
       </c>
       <c r="H67" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4685,19 +4861,19 @@
         <v>48</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4706,19 +4882,19 @@
         <v>48</v>
       </c>
       <c r="D69" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" t="s">
         <v>196</v>
       </c>
-      <c r="E69" t="s">
-        <v>197</v>
-      </c>
       <c r="F69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4727,19 +4903,19 @@
         <v>49</v>
       </c>
       <c r="D70" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" t="s">
         <v>194</v>
       </c>
-      <c r="E70" t="s">
-        <v>195</v>
-      </c>
       <c r="F70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G70">
         <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4748,22 +4924,22 @@
         <v>48</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G71">
         <v>1.5</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K71" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4772,19 +4948,19 @@
         <v>48</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4793,10 +4969,10 @@
         <v>48</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F73" t="s">
         <v>51</v>
@@ -4805,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4814,19 +4990,19 @@
         <v>48</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J74" s="17"/>
     </row>
@@ -4836,28 +5012,28 @@
         <v>48</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G75">
         <v>0.5</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="D76" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4866,19 +5042,19 @@
         <v>48</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G77" s="17">
         <v>1.5</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4887,19 +5063,19 @@
         <v>48</v>
       </c>
       <c r="D78" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G78">
         <v>0.5</v>
       </c>
       <c r="H78" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4908,19 +5084,19 @@
         <v>48</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G79" s="17">
         <v>0.5</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4929,19 +5105,19 @@
         <v>48</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G80" s="17">
         <v>2</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4950,19 +5126,19 @@
         <v>48</v>
       </c>
       <c r="D81" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G81">
         <v>0.5</v>
       </c>
       <c r="H81" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4971,19 +5147,19 @@
         <v>48</v>
       </c>
       <c r="D82" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G82">
         <v>0.5</v>
       </c>
       <c r="H82" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4992,19 +5168,19 @@
         <v>48</v>
       </c>
       <c r="D83" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G83">
         <v>0.5</v>
       </c>
       <c r="H83" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5013,19 +5189,19 @@
         <v>48</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G84" s="17">
         <v>1</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5034,10 +5210,10 @@
         <v>48</v>
       </c>
       <c r="D85" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>51</v>
@@ -5046,7 +5222,7 @@
         <v>3</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5055,10 +5231,10 @@
         <v>49</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F86" s="16" t="s">
         <v>51</v>
@@ -5067,7 +5243,7 @@
         <v>0.5</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5076,10 +5252,10 @@
         <v>49</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F87" s="16" t="s">
         <v>51</v>
@@ -5088,19 +5264,19 @@
         <v>1</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="D88" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="D89" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5109,10 +5285,10 @@
         <v>49</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -5122,7 +5298,7 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
         <v>48</v>
@@ -5131,13 +5307,13 @@
         <v>44</v>
       </c>
       <c r="E92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F92" t="s">
         <v>51</v>
       </c>
       <c r="H92" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5146,16 +5322,16 @@
         <v>48</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F93" t="s">
         <v>51</v>
       </c>
       <c r="H93" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5164,16 +5340,16 @@
         <v>48</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E94" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F94" t="s">
         <v>51</v>
       </c>
       <c r="H94" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -5182,58 +5358,64 @@
         <v>48</v>
       </c>
       <c r="D95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
       <c r="H95" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+      <c r="A96" s="5"/>
       <c r="C96" t="s">
         <v>49</v>
       </c>
-      <c r="D96" t="s">
-        <v>199</v>
+      <c r="D96" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="E96" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="F96" t="s">
-        <v>193</v>
-      </c>
-      <c r="G96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="H96" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="C97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="E97" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="F97" t="s">
-        <v>51</v>
+        <v>187</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
       </c>
       <c r="H97" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="L97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="C98" t="s">
         <v>48</v>
@@ -5242,7 +5424,7 @@
         <v>117</v>
       </c>
       <c r="E98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F98" t="s">
         <v>188</v>
@@ -5254,7 +5436,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="C99" t="s">
         <v>48</v>
@@ -5263,459 +5445,462 @@
         <v>118</v>
       </c>
       <c r="E99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F99" t="s">
         <v>189</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="C100" t="s">
         <v>48</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="E100" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
-      </c>
-      <c r="G100">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H100" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="C101" t="s">
-        <v>48</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E101" t="s">
-        <v>192</v>
-      </c>
-      <c r="F101" t="s">
-        <v>51</v>
-      </c>
-      <c r="H101" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="C102" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" s="14" t="s">
         <v>123</v>
       </c>
+      <c r="F102" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G102">
+        <v>0.5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
       <c r="C103" t="s">
         <v>48</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>187</v>
+        <v>61</v>
+      </c>
+      <c r="E103" t="s">
+        <v>123</v>
+      </c>
+      <c r="F103" t="s">
+        <v>186</v>
       </c>
       <c r="G103">
         <v>0.5</v>
       </c>
       <c r="H103" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="C104" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="14" t="s">
-        <v>62</v>
+      <c r="D104" t="s">
+        <v>40</v>
       </c>
       <c r="E104" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G104">
         <v>0.5</v>
       </c>
       <c r="H104" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="C105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="E105" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="F105" t="s">
+        <v>186</v>
       </c>
       <c r="G105">
         <v>0.5</v>
       </c>
       <c r="H105" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="C106" t="s">
         <v>48</v>
       </c>
       <c r="D106" t="s">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="E106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F106" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G106">
         <v>0.5</v>
       </c>
       <c r="H106" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="C107" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="D107" t="s">
+        <v>39</v>
       </c>
       <c r="E107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F107" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="G107">
         <v>0.5</v>
       </c>
       <c r="H107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" t="s">
+        <v>188</v>
+      </c>
+      <c r="H109" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="C110" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" t="s">
+        <v>128</v>
+      </c>
+      <c r="F110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G110">
+        <v>0.5</v>
+      </c>
+      <c r="H110" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="C108" t="s">
-        <v>48</v>
-      </c>
-      <c r="D108" t="s">
-        <v>322</v>
-      </c>
-      <c r="E108" t="s">
-        <v>147</v>
-      </c>
-      <c r="F108" t="s">
-        <v>190</v>
-      </c>
-      <c r="G108">
-        <v>0.5</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="K110" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E111" t="s">
+        <v>128</v>
+      </c>
+      <c r="F111" t="s">
+        <v>192</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" t="s">
-        <v>125</v>
-      </c>
-      <c r="C110" t="s">
-        <v>48</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F110" t="s">
-        <v>189</v>
-      </c>
-      <c r="H110" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="C111" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E111" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F111" t="s">
-        <v>201</v>
-      </c>
-      <c r="G111">
-        <v>0.5</v>
-      </c>
-      <c r="H111" t="s">
-        <v>324</v>
-      </c>
-      <c r="K111" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>133</v>
-      </c>
       <c r="E112" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F112" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
       <c r="C113" t="s">
         <v>48</v>
       </c>
-      <c r="D113" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E113" t="s">
-        <v>128</v>
+      <c r="D113" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="F113" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="C114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D114" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E114" s="19" t="s">
-        <v>124</v>
+      <c r="E114" t="s">
+        <v>127</v>
       </c>
       <c r="F114" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="G114">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
       <c r="C115" t="s">
         <v>49</v>
       </c>
-      <c r="D115" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E115" t="s">
-        <v>128</v>
+      <c r="D115" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="F115" t="s">
         <v>51</v>
       </c>
       <c r="G115">
-        <v>3</v>
-      </c>
-      <c r="H115" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="C116" t="s">
         <v>49</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E116" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E116" t="s">
+        <v>128</v>
+      </c>
+      <c r="G116">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F118" t="s">
+        <v>192</v>
+      </c>
+      <c r="H118" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" t="s">
         <v>140</v>
       </c>
-      <c r="F116" t="s">
-        <v>51</v>
-      </c>
-      <c r="G116">
+      <c r="C120" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F120" t="s">
+        <v>187</v>
+      </c>
+      <c r="G120">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="C117" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E117" t="s">
-        <v>129</v>
-      </c>
-      <c r="G117">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="B119" t="s">
-        <v>142</v>
-      </c>
-      <c r="C119" t="s">
-        <v>48</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E119" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F119" t="s">
-        <v>193</v>
-      </c>
-      <c r="H119" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>328</v>
+      </c>
+      <c r="L120" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
-      <c r="B121" t="s">
-        <v>141</v>
-      </c>
       <c r="C121" t="s">
         <v>48</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="F121" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="C122" t="s">
         <v>48</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F122" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="C123" t="s">
         <v>48</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F123" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="C124" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F124" t="s">
         <v>51</v>
@@ -5724,60 +5909,60 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" t="s">
+        <v>50</v>
+      </c>
+      <c r="C126" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F126" t="s">
+        <v>186</v>
+      </c>
+      <c r="G126">
+        <v>0.5</v>
+      </c>
+      <c r="H126" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="C125" t="s">
-        <v>48</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F125" t="s">
-        <v>51</v>
-      </c>
-      <c r="G125">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F127" t="s">
+        <v>192</v>
+      </c>
+      <c r="G127">
         <v>1</v>
       </c>
-      <c r="H125" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" t="s">
-        <v>50</v>
-      </c>
-      <c r="C127" t="s">
-        <v>48</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F127" t="s">
-        <v>187</v>
-      </c>
-      <c r="G127">
-        <v>0.5</v>
-      </c>
       <c r="H127" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
       <c r="C128" t="s">
         <v>48</v>
       </c>
@@ -5785,1075 +5970,1090 @@
         <v>136</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F128" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="C129" t="s">
         <v>48</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F129" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="G129">
         <v>0.5</v>
       </c>
       <c r="H129" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="C130" t="s">
-        <v>48</v>
-      </c>
-      <c r="D130" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E130" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F130" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+    </row>
+    <row r="131" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E131" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F131" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="G131" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H131" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="K131" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="C132" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="E132" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F132" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G132" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H132" s="38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="C133" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E133" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F133" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G133" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="H133" s="38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="C134" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E134" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F134" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G134" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H134" s="38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="C135" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E135" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F135" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G135" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H135" s="38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="C136" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E136" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F136" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G136" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H136" s="38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="C137" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G137" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="H137" s="38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="C138" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E138" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G138" s="20">
+        <v>3</v>
+      </c>
+      <c r="H138" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="C139" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E139" s="34"/>
+    </row>
+    <row r="140" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="C140" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="F140" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="G140" s="33">
+        <v>1</v>
+      </c>
+      <c r="H140" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K140" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="L140" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="C141" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="E141" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="F141" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="G141" s="33">
+        <v>1</v>
+      </c>
+      <c r="H141" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="K141" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="C142" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E142" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="F142" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G130">
+      <c r="H142" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="C143" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="E143" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F143" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="G143" s="33">
+        <v>1</v>
+      </c>
+      <c r="H143" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K143" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="C144" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E144" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="F144" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="G144" s="33">
+        <v>1</v>
+      </c>
+      <c r="H144" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="C145" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E145" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F145" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H145" s="33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="C146" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E146" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F146" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G146" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="H146" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="C147" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E147" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F147" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G147" s="33">
         <v>0.5</v>
       </c>
-      <c r="H130" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-    </row>
-    <row r="132" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132" s="34" t="s">
+      <c r="H147" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="C148" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E148" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F148" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G148" s="33">
+        <v>1</v>
+      </c>
+      <c r="H148" s="33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="C149" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E149" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F149" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G149" s="33">
+        <v>1</v>
+      </c>
+      <c r="H149" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="L149" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="C150" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D150" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E150" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F150" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G150" s="33">
+        <v>1</v>
+      </c>
+      <c r="H150" s="33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="C151" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D151" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="E151" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F151" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G151" s="33">
+        <v>1</v>
+      </c>
+      <c r="H151" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="C152" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="E152" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="F152" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G152" s="33">
+        <v>1</v>
+      </c>
+      <c r="H152" s="33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="C153" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E153" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F153" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G153" s="33">
+        <v>1</v>
+      </c>
+      <c r="H153" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="C154" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E154" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F154" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G154" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="H154" s="33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="C155" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E155" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F155" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G155" s="33">
+        <v>5</v>
+      </c>
+      <c r="H155" s="33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="20"/>
+    </row>
+    <row r="157" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D157" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="E157" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="F157" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G157" s="33">
+        <v>1</v>
+      </c>
+      <c r="H157" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="L157" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="C158" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E158" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F158" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G158" s="33">
+        <v>1</v>
+      </c>
+      <c r="H158" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L158" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="C159" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="E159" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F159" s="37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="C160" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E160" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="F160" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G160" s="33">
+        <v>6</v>
+      </c>
+      <c r="H160" s="33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="C161" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D161" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="E161" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="F161" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="G161" s="33">
+        <v>3</v>
+      </c>
+      <c r="H161" s="33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="C162" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E162" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="F162" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="C163" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="E163" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="F163" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="C164" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="E164" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="F164" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="E165" s="37"/>
+    </row>
+    <row r="166" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D166" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="E166" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="F166" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G166" s="33">
+        <v>3</v>
+      </c>
+      <c r="H166" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="E167" s="37"/>
+    </row>
+    <row r="168" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D168" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E168" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F168" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="C169" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D169" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E169" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F169" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="E170" s="34"/>
+    </row>
+    <row r="171" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D171" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="E171" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F171" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G171" s="33">
+        <v>3</v>
+      </c>
+      <c r="H171" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="C172" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D172" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E172" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F172" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G172" s="33">
+        <v>2</v>
+      </c>
+      <c r="H172" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="C173" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D173" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="E173" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F173" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G173" s="33">
+        <v>3</v>
+      </c>
+      <c r="H173" s="33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="C174" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D174" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E174" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F174" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G174" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="E175" s="37"/>
+    </row>
+    <row r="176" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D176" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="E176" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F176" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="C177" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D177" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="E177" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F177" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="C178" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D178" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="E178" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F178" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="E179" s="20"/>
+    </row>
+    <row r="180" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D180" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E180" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F180" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G180" s="20">
+        <v>2</v>
+      </c>
+      <c r="H180" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="C181" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D181" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E181" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F181" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G181" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="C182" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D182" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E182" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F182" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G182" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="E183" s="34"/>
+    </row>
+    <row r="184" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C184" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D184" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="E184" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E132" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="F132" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="G132" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H132" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="K132" s="34" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="C133" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D133" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="E133" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="F133" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="G133" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H133" s="39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="C134" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F134" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G134" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="H134" s="39" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="C135" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D135" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F135" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G135" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H135" s="39" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="C136" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="F136" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="G136" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H136" s="39" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="C137" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D137" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="E137" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="F137" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="G137" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H137" s="39" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="C138" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="E138" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="F138" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="G138" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="H138" s="39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="C139" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E139" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F139" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="G139" s="21">
-        <v>3</v>
-      </c>
-      <c r="H139" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="C140" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E140" s="35"/>
-    </row>
-    <row r="141" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="C141" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="E141" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="F141" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="G141" s="34">
-        <v>1</v>
-      </c>
-      <c r="H141" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="K141" s="34" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="C142" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D142" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="E142" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="F142" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="G142" s="34">
-        <v>1</v>
-      </c>
-      <c r="H142" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="K142" s="34" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="C143" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D143" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="E143" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="F143" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H143" s="34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="C144" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D144" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="E144" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="F144" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="G144" s="34">
-        <v>1</v>
-      </c>
-      <c r="H144" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="K144" s="34" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="C145" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D145" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="E145" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="F145" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="G145" s="34">
-        <v>1</v>
-      </c>
-      <c r="H145" s="34" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="C146" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D146" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="E146" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="F146" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H146" s="34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="C147" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D147" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F147" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="G147" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="H147" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="C148" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D148" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="E148" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F148" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="G148" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="H148" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="C149" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D149" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="F149" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="G149" s="34">
-        <v>1</v>
-      </c>
-      <c r="H149" s="34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-      <c r="C150" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D150" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="F150" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="G150" s="34">
-        <v>1</v>
-      </c>
-      <c r="H150" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="C151" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D151" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="F151" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G151" s="34">
-        <v>1</v>
-      </c>
-      <c r="H151" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="C152" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D152" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F152" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="G152" s="34">
-        <v>1</v>
-      </c>
-      <c r="H152" s="34" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
-      <c r="C153" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D153" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="F153" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G153" s="34">
-        <v>1</v>
-      </c>
-      <c r="H153" s="34" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-      <c r="C154" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D154" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="E154" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="F154" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="G154" s="34">
-        <v>1</v>
-      </c>
-      <c r="H154" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="C155" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D155" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="F155" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G155" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="H155" s="34" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="C156" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D156" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="F156" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G156" s="34">
-        <v>5</v>
-      </c>
-      <c r="H156" s="34" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="D157" s="23"/>
-      <c r="E157" s="21"/>
-    </row>
-    <row r="158" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C158" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D158" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="E158" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="F158" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="G158" s="34">
-        <v>1</v>
-      </c>
-      <c r="H158" s="38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="C159" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D159" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="E159" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F159" s="38"/>
-      <c r="G159" s="34">
-        <v>1</v>
-      </c>
-      <c r="H159" s="34" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="C160" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D160" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="E160" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F160" s="38"/>
-    </row>
-    <row r="161" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="C161" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D161" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="E161" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F161" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G161" s="34">
-        <v>6</v>
-      </c>
-      <c r="H161" s="34" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="C162" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D162" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="E162" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="F162" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="G162" s="34">
-        <v>3</v>
-      </c>
-      <c r="H162" s="34" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-      <c r="C163" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D163" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="E163" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="F163" s="38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
-      <c r="C164" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D164" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="E164" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="F164" s="38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-      <c r="C165" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D165" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="E165" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="F165" s="38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-      <c r="E166" s="38"/>
-    </row>
-    <row r="167" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
-      <c r="B167" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C167" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D167" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="E167" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="F167" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G167" s="34">
-        <v>3</v>
-      </c>
-      <c r="H167" s="34" t="s">
+      <c r="F184" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H184" s="33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="C185" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D185" s="33" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="E168" s="38"/>
-    </row>
-    <row r="169" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="B169" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C169" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D169" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E169" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F169" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
-      <c r="C170" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D170" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="E170" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F170" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
-      <c r="E171" s="35"/>
-    </row>
-    <row r="172" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
-      <c r="B172" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="C172" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D172" s="34" t="s">
+      <c r="E185" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F185" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H185" s="33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="C186" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D186" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="E172" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="F172" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="G172" s="34">
-        <v>3</v>
-      </c>
-      <c r="H172" s="34" t="s">
+      <c r="E186" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F186" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H186" s="33" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
-      <c r="C173" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D173" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="E173" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="F173" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="G173" s="34">
-        <v>2</v>
-      </c>
-      <c r="H173" s="34" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
-      <c r="C174" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D174" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="E174" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="F174" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G174" s="34">
-        <v>3</v>
-      </c>
-      <c r="H174" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
-      <c r="C175" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D175" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="E175" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="F175" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G175" s="34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
-      <c r="E176" s="38"/>
-    </row>
-    <row r="177" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
-      <c r="B177" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C177" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D177" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E177" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F177" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4"/>
-      <c r="C178" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D178" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="E178" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F178" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
-      <c r="C179" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D179" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="E179" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F179" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
-      <c r="E180" s="21"/>
-    </row>
-    <row r="181" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="4"/>
-      <c r="B181" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C181" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D181" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="E181" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="F181" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G181" s="21">
-        <v>2</v>
-      </c>
-      <c r="H181" s="19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
-      <c r="C182" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D182" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="E182" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F182" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G182" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
-      <c r="C183" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D183" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="E183" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F183" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G183" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="4"/>
-      <c r="E184" s="35"/>
-    </row>
-    <row r="185" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4"/>
-      <c r="B185" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C185" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D185" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="E185" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F185" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="H185" s="34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
-      <c r="C186" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D186" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="E186" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F186" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="H186" s="34" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
-      <c r="C187" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D187" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="E187" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F187" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="H187" s="34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
-    </row>
-    <row r="190" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
+    </row>
+    <row r="189" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B190" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="8"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+    </row>
+    <row r="190" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+      <c r="B190" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -6862,17 +7062,11 @@
       <c r="H190" s="8"/>
       <c r="I190" s="9"/>
       <c r="J190" s="8"/>
-      <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
     </row>
     <row r="191" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
+      <c r="A191" s="2"/>
       <c r="B191" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -6884,9 +7078,9 @@
       <c r="J191" s="8"/>
     </row>
     <row r="192" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
+      <c r="A192" s="3"/>
       <c r="B192" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -6897,10 +7091,10 @@
       <c r="I192" s="9"/>
       <c r="J192" s="8"/>
     </row>
-    <row r="193" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
-      <c r="B193" s="8" t="s">
-        <v>23</v>
+    <row r="193" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+      <c r="B193" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -6913,33 +7107,33 @@
     </row>
     <row r="194" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
-      <c r="B194" s="10" t="s">
-        <v>24</v>
+      <c r="B194" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
+      <c r="D194" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F194" s="14"/>
+      <c r="G194" s="14"/>
+      <c r="H194" s="14"/>
       <c r="I194" s="9"/>
       <c r="J194" s="8"/>
     </row>
     <row r="195" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
-      <c r="B195" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="B195" s="8"/>
       <c r="C195" s="2"/>
-      <c r="D195" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F195" s="14"/>
-      <c r="G195" s="14"/>
-      <c r="H195" s="14"/>
+      <c r="D195" t="s">
+        <v>39</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195"/>
       <c r="I195" s="9"/>
       <c r="J195" s="8"/>
     </row>
@@ -6948,39 +7142,41 @@
       <c r="B196" s="8"/>
       <c r="C196" s="2"/>
       <c r="D196" t="s">
-        <v>39</v>
-      </c>
-      <c r="E196" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="F196"/>
-      <c r="G196"/>
-      <c r="H196"/>
+      <c r="G196" s="14"/>
+      <c r="H196" s="14"/>
       <c r="I196" s="9"/>
       <c r="J196" s="8"/>
     </row>
     <row r="197" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
-      <c r="B197" s="8"/>
       <c r="C197" s="2"/>
-      <c r="D197" t="s">
-        <v>40</v>
+      <c r="D197" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F197"/>
-      <c r="G197" s="14"/>
+        <v>270</v>
+      </c>
+      <c r="F197" s="14"/>
+      <c r="G197"/>
       <c r="H197" s="14"/>
       <c r="I197" s="9"/>
       <c r="J197" s="8"/>
     </row>
     <row r="198" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
       <c r="C198" s="2"/>
-      <c r="D198" s="14" t="s">
-        <v>57</v>
+      <c r="D198" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F198" s="14"/>
       <c r="G198"/>
@@ -6992,42 +7188,38 @@
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
-      <c r="D199" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F199" s="14"/>
-      <c r="G199"/>
-      <c r="H199" s="14"/>
+      <c r="E199" s="2"/>
+      <c r="F199"/>
+      <c r="G199" s="14"/>
+      <c r="H199"/>
       <c r="I199" s="9"/>
       <c r="J199" s="8"/>
     </row>
     <row r="200" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
+      <c r="B200" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C200" s="2"/>
+      <c r="D200" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="E200" s="2"/>
-      <c r="F200"/>
-      <c r="G200" s="14"/>
-      <c r="H200"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="8"/>
+      <c r="H200" s="8"/>
       <c r="I200" s="9"/>
-      <c r="J200" s="8"/>
+      <c r="J200" s="9"/>
     </row>
     <row r="201" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
-      <c r="B201" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B201" s="2"/>
       <c r="C201" s="2"/>
-      <c r="D201" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
     </row>
@@ -7042,10 +7234,18 @@
       <c r="H202" s="2"/>
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
     </row>
     <row r="203" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
+      <c r="B203" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -7061,52 +7261,55 @@
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
-      <c r="B204" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="9"/>
-      <c r="J204" s="9"/>
+      <c r="B204" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G204" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H204" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I204" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J204" s="13"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
-      <c r="P204" s="2"/>
-    </row>
-    <row r="205" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
-      <c r="B205" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D205" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E205" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F205" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G205" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H205" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I205" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="B205" s="24"/>
+      <c r="C205" s="24"/>
+      <c r="D205" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E205" s="25"/>
+      <c r="F205" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G205" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="H205" s="27"/>
+      <c r="I205" s="28"/>
       <c r="J205" s="13"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
@@ -7115,190 +7318,170 @@
       <c r="O205" s="2"/>
     </row>
     <row r="206" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
-      <c r="D206" s="26" t="s">
+      <c r="B206" s="31"/>
+      <c r="C206" s="31"/>
+      <c r="D206" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E206" s="31"/>
+      <c r="F206" s="31"/>
+      <c r="G206" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H206" s="31"/>
+      <c r="I206" s="30"/>
+      <c r="J206" s="13"/>
+    </row>
+    <row r="207" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C207" s="24"/>
+      <c r="D207" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E207" s="24"/>
+      <c r="F207" s="24"/>
+      <c r="G207" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="H207" s="24"/>
+      <c r="I207" s="30"/>
+      <c r="J207" s="13"/>
+    </row>
+    <row r="208" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C208" s="31"/>
+      <c r="D208" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E208" s="31"/>
+      <c r="F208" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E206" s="26"/>
-      <c r="F206" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="G206" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="H206" s="28"/>
-      <c r="I206" s="29"/>
-      <c r="J206" s="13"/>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
-      <c r="O206" s="2"/>
-    </row>
-    <row r="207" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="32"/>
-      <c r="C207" s="32"/>
-      <c r="D207" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E207" s="32"/>
-      <c r="F207" s="32"/>
-      <c r="G207" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="H207" s="32"/>
-      <c r="I207" s="31"/>
-      <c r="J207" s="13"/>
-    </row>
-    <row r="208" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C208" s="25"/>
-      <c r="D208" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E208" s="25"/>
-      <c r="F208" s="25"/>
-      <c r="G208" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="H208" s="25"/>
-      <c r="I208" s="31"/>
+      <c r="G208" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H208" s="31"/>
+      <c r="I208" s="30"/>
       <c r="J208" s="13"/>
     </row>
     <row r="209" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C209" s="32"/>
-      <c r="D209" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E209" s="32"/>
-      <c r="F209" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="G209" s="27" t="s">
+      <c r="B209" s="24"/>
+      <c r="C209" s="24"/>
+      <c r="D209" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="H209" s="32"/>
-      <c r="I209" s="31"/>
+      <c r="E209" s="24"/>
+      <c r="F209" s="24"/>
+      <c r="G209" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H209" s="24"/>
+      <c r="I209" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="J209" s="13"/>
     </row>
     <row r="210" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="25"/>
-      <c r="C210" s="25"/>
-      <c r="D210" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="E210" s="25"/>
-      <c r="F210" s="25"/>
-      <c r="G210" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="H210" s="25"/>
-      <c r="I210" s="31" t="s">
+      <c r="B210" s="31"/>
+      <c r="C210" s="31"/>
+      <c r="D210" s="31" t="s">
         <v>177</v>
       </c>
+      <c r="E210" s="31"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H210" s="31"/>
+      <c r="I210" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="J210" s="13"/>
     </row>
     <row r="211" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="32"/>
-      <c r="C211" s="32"/>
-      <c r="D211" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="E211" s="32"/>
-      <c r="F211" s="33"/>
-      <c r="G211" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="H211" s="32"/>
-      <c r="I211" s="31" t="s">
+      <c r="B211" s="31"/>
+      <c r="C211" s="31"/>
+      <c r="D211" s="31" t="s">
         <v>180</v>
       </c>
+      <c r="E211" s="31"/>
+      <c r="F211" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G211" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H211" s="31"/>
+      <c r="I211" s="30" t="s">
+        <v>273</v>
+      </c>
       <c r="J211" s="13"/>
     </row>
     <row r="212" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="32"/>
-      <c r="C212" s="32"/>
-      <c r="D212" s="32" t="s">
+      <c r="B212" s="31"/>
+      <c r="C212" s="31"/>
+      <c r="D212" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E212" s="31"/>
+      <c r="F212" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="E212" s="32"/>
-      <c r="F212" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G212" s="27" t="s">
+      <c r="G212" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="H212" s="32"/>
-      <c r="I212" s="31" t="s">
-        <v>276</v>
-      </c>
+      <c r="H212" s="24"/>
+      <c r="I212" s="11"/>
       <c r="J212" s="13"/>
     </row>
-    <row r="213" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="32"/>
-      <c r="C213" s="32"/>
-      <c r="D213" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="E213" s="32"/>
-      <c r="F213" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G213" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="H213" s="25"/>
-      <c r="I213" s="11"/>
-      <c r="J213" s="13"/>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="30"/>
+      <c r="C213" s="30"/>
+      <c r="D213" s="30"/>
+      <c r="E213" s="30"/>
+      <c r="F213" s="30"/>
+      <c r="G213" s="30"/>
+      <c r="H213" s="30"/>
+      <c r="I213" s="30"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B214" s="31"/>
-      <c r="C214" s="31"/>
-      <c r="D214" s="31"/>
-      <c r="E214" s="31"/>
-      <c r="F214" s="31"/>
-      <c r="G214" s="31"/>
-      <c r="H214" s="31"/>
-      <c r="I214" s="31"/>
+      <c r="A214" s="7"/>
+      <c r="B214" s="30"/>
+      <c r="C214" s="30"/>
+      <c r="D214" s="30"/>
+      <c r="E214" s="30"/>
+      <c r="F214" s="30"/>
+      <c r="G214" s="30"/>
+      <c r="H214" s="30"/>
+      <c r="I214" s="30"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
-      <c r="B215" s="31"/>
-      <c r="C215" s="31"/>
-      <c r="D215" s="31"/>
-      <c r="E215" s="31"/>
-      <c r="F215" s="31"/>
-      <c r="G215" s="31"/>
-      <c r="H215" s="31"/>
-      <c r="I215" s="31"/>
+      <c r="B215" s="30"/>
+      <c r="C215" s="30"/>
+      <c r="D215" s="30"/>
+      <c r="E215" s="30"/>
+      <c r="F215" s="30"/>
+      <c r="G215" s="30"/>
+      <c r="H215" s="30"/>
+      <c r="I215" s="30"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" s="7"/>
-      <c r="B216" s="31"/>
-      <c r="C216" s="31"/>
-      <c r="D216" s="31"/>
-      <c r="E216" s="31"/>
-      <c r="F216" s="31"/>
-      <c r="G216" s="31"/>
-      <c r="H216" s="31"/>
-      <c r="I216" s="31"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B217" s="31"/>
-      <c r="C217" s="31"/>
-      <c r="D217" s="31"/>
-      <c r="E217" s="31"/>
-      <c r="F217" s="31"/>
-      <c r="G217" s="31"/>
-      <c r="H217" s="31"/>
-      <c r="I217" s="31"/>
+      <c r="B216" s="30"/>
+      <c r="C216" s="30"/>
+      <c r="D216" s="30"/>
+      <c r="E216" s="30"/>
+      <c r="F216" s="30"/>
+      <c r="G216" s="30"/>
+      <c r="H216" s="30"/>
+      <c r="I216" s="30"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="7"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
@@ -7672,13 +7855,10 @@
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="7"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:P195"/>
+  <autoFilter ref="A1:P194"/>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="I218:I1048576 I188:I189 I1 I32:I50 I52:I131">
+  <conditionalFormatting sqref="I217:I1048576 I187:I188 I1 I33:I130">
     <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
@@ -7686,79 +7866,79 @@
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A194:A200 B194:F194 A188:A189 A206:A1048576 J206:XFD213 C195:C200 E195:E200 G190:XFD194 A201:XFD205 I195:XFD200 A1 A46:A50 A32:A44 A52:A131">
+  <conditionalFormatting sqref="A193:A199 B193:F193 A187:A188 A205:A1048576 J205:XFD212 C194:C199 E194:E199 G189:XFD193 A200:XFD204 I194:XFD199 A1 A33:A45 A47:A130">
     <cfRule type="cellIs" dxfId="42" priority="51" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B195:B197 A190:F193">
+  <conditionalFormatting sqref="B194:B196 A189:F192">
     <cfRule type="cellIs" dxfId="41" priority="49" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D107 D104">
+  <conditionalFormatting sqref="D105 D103">
     <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I214:I217">
+  <conditionalFormatting sqref="I213:I216">
     <cfRule type="containsText" dxfId="39" priority="34" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I214)))</formula>
+      <formula>NOT(ISERROR(SEARCH("阻碍",I213)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I214)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未完成",I213)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I213">
+  <conditionalFormatting sqref="I212">
     <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I207:I211">
+  <conditionalFormatting sqref="I206:I210">
     <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I207)))</formula>
+      <formula>NOT(ISERROR(SEARCH("阻碍",I206)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="35" priority="30" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I207)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未完成",I206)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D198">
+  <conditionalFormatting sqref="D197">
     <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I143:I187 I132:I141">
+  <conditionalFormatting sqref="I142:I186 I131:I140">
     <cfRule type="expression" dxfId="33" priority="16" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I132)))</formula>
+      <formula>NOT(ISERROR(SEARCH("阻碍",I131)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="17" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("未完成",I132)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未完成",I131)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A143:A187 A132:A141">
+  <conditionalFormatting sqref="A142:A186 A131:A140">
     <cfRule type="cellIs" dxfId="31" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I142">
+  <conditionalFormatting sqref="I141">
     <cfRule type="expression" dxfId="30" priority="19" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I142)))</formula>
+      <formula>NOT(ISERROR(SEARCH("阻碍",I141)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="20" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("未完成",I142)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未完成",I141)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
+  <conditionalFormatting sqref="A141">
     <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F198:F199">
+  <conditionalFormatting sqref="F197:F198">
     <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I30 I2:I5">
+  <conditionalFormatting sqref="I7:I31 I2:I5">
     <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I2)))</formula>
     </cfRule>
@@ -7766,7 +7946,7 @@
       <formula>NOT(ISERROR(SEARCH("未完成",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A30 A2:A5">
+  <conditionalFormatting sqref="A7:A31 A2:A5">
     <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -7795,16 +7975,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C214:C1048576 C1:C50 C52:C189">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C213:C1048576 C1:C188">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F214:F1048576 H195:H200 F1:F16 F18:F50 F52:F189">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F213:F1048576 H194:H199 F1:F16 F18:F188">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I214:I1048576 I1:I30 I32:I50 I52:I189">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I213:I1048576 I1:I31 I33:I188">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B131:B205 B214:B1048576 B112:B124 B126:B129 B1:B9 B35:B38 B16:B30 B11:B13 B32:B33 B40:B50 B52:B110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B130:B204 B213:B1048576 B111:B123 B125:B128 B1:B9 B36:B39 B16:B31 B11:B13 B33:B34 B41:B109">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8893,19 +9073,19 @@
         <v>48</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E11" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -9772,7 +9952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11801,7 +11981,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>47</v>
@@ -11809,7 +11989,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>47</v>
@@ -11817,7 +11997,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>47</v>
@@ -11825,7 +12005,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>47</v>
@@ -11833,7 +12013,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>47</v>
@@ -11841,7 +12021,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>47</v>
@@ -11849,7 +12029,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>47</v>
@@ -11857,42 +12037,42 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="36180" windowHeight="19160" tabRatio="500"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="37980" windowHeight="19880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="20160224" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="工作表5" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20160224'!$A$1:$P$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20160224'!$A$1:$S$200</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="541">
   <si>
     <t>类别</t>
   </si>
@@ -1302,9 +1302,6 @@
     <t>sf1，铁马3</t>
   </si>
   <si>
-    <t>对局修改（其他待排期）</t>
-  </si>
-  <si>
     <t>MG-2240</t>
   </si>
   <si>
@@ -1628,10 +1625,6 @@
     <t>MG-2462</t>
   </si>
   <si>
-    <t>立绘-1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通天塔-boss场景原画（需要对一下需求）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -2425,10 +2418,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>第三章副本-小怪（D4），小怪boss，大boss技能（D6）配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>D6</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -2951,10 +2940,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>MG-2562</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>等级开启功能-框架，宠物</t>
     <rPh sb="0" eb="1">
       <t>deng'ji</t>
@@ -2985,6 +2970,61 @@
       <t>gong'neng</t>
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day7</t>
+  </si>
+  <si>
+    <t>Day8</t>
+  </si>
+  <si>
+    <t>Day9</t>
+  </si>
+  <si>
+    <t>第三章副本-小怪（D4），小怪boss，大boss技能（D6）配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>等策划确认</t>
+    <rPh sb="0" eb="1">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>que'ren</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading界面修改</t>
+  </si>
+  <si>
+    <t>MG-2562</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘-1 冰雪女王</t>
+    <rPh sb="5" eb="6">
+      <t>bing'xue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nv'wang</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3116,18 +3156,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3181,7 +3215,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3260,8 +3294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -3292,327 +3324,7 @@
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="101">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="88">
     <dxf>
       <font>
         <color indexed="60"/>
@@ -4054,6 +3766,126 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color indexed="60"/>
       </font>
       <fill>
@@ -4132,17 +3964,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4285,6 +4106,88 @@
         <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4584,11 +4487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P367"/>
+  <dimension ref="A1:S367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q201" sqref="Q201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4600,7 +4503,7 @@
     <col min="6" max="6" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4649,8 +4552,17 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4664,27 +4576,27 @@
         <v>37</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>184</v>
       </c>
       <c r="H2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" t="s">
         <v>359</v>
-      </c>
-      <c r="I2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="E3" t="s">
-        <v>361</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>184</v>
@@ -4693,16 +4605,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" t="s">
         <v>48</v>
@@ -4717,21 +4629,27 @@
         <v>188</v>
       </c>
       <c r="H4" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="I4" t="s">
+        <v>507</v>
       </c>
       <c r="O4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="E5" t="s">
         <v>362</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="E5" t="s">
-        <v>364</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>188</v>
@@ -4740,22 +4658,25 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="O5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="C6" t="s">
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F6" t="s">
         <v>196</v>
@@ -4764,28 +4685,28 @@
         <v>0.5</v>
       </c>
       <c r="H6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>38</v>
@@ -4794,22 +4715,22 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F9" t="s">
         <v>368</v>
       </c>
-      <c r="E9" t="s">
-        <v>369</v>
-      </c>
-      <c r="F9" t="s">
-        <v>370</v>
-      </c>
       <c r="I9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10" t="s">
         <v>48</v>
@@ -4827,22 +4748,22 @@
         <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="C11" t="s">
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F11" t="s">
         <v>183</v>
@@ -4851,24 +4772,24 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L11" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F12" t="s">
         <v>182</v>
@@ -4877,25 +4798,25 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F13" t="s">
         <v>188</v>
@@ -4904,28 +4825,28 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>57</v>
@@ -4934,10 +4855,10 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F16" t="s">
         <v>184</v>
@@ -4946,19 +4867,19 @@
         <v>2</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N16" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>55</v>
@@ -4967,10 +4888,10 @@
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F18" t="s">
         <v>183</v>
@@ -4979,22 +4900,22 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L18" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M18" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>47</v>
@@ -5006,22 +4927,22 @@
         <v>0.25</v>
       </c>
       <c r="H19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I19" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N19" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>47</v>
@@ -5033,22 +4954,22 @@
         <v>0.25</v>
       </c>
       <c r="H20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I20" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N20" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>47</v>
@@ -5060,19 +4981,19 @@
         <v>0.5</v>
       </c>
       <c r="H21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>47</v>
@@ -5084,16 +5005,16 @@
         <v>1.5</v>
       </c>
       <c r="H22" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="C23" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>47</v>
@@ -5105,16 +5026,16 @@
         <v>1.5</v>
       </c>
       <c r="H23" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="C24" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>47</v>
@@ -5126,16 +5047,16 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="C25" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>47</v>
@@ -5147,40 +5068,46 @@
         <v>0.5</v>
       </c>
       <c r="H25" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="C26" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G26">
         <v>1.5</v>
       </c>
       <c r="H26" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="I26" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="C27" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F27" t="s">
         <v>51</v>
@@ -5189,16 +5116,16 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="C28" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>60</v>
@@ -5210,16 +5137,16 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="C29" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>60</v>
@@ -5231,16 +5158,16 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="C30" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>60</v>
@@ -5249,16 +5176,16 @@
         <v>3.5</v>
       </c>
       <c r="H30" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>74</v>
@@ -5270,15 +5197,15 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>74</v>
@@ -5290,36 +5217,36 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F33" t="s">
         <v>184</v>
       </c>
       <c r="H33" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N33" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>58</v>
@@ -5328,34 +5255,34 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E35" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
       </c>
       <c r="H35" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I35" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N35" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E36" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -5364,37 +5291,43 @@
         <v>0.5</v>
       </c>
       <c r="H36" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="I36" t="s">
+        <v>507</v>
+      </c>
+      <c r="O36" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E37" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F37" t="s">
         <v>51</v>
       </c>
       <c r="H37" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
         <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -5403,40 +5336,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D40" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E40" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H40" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D41" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E41" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F41" t="s">
         <v>185</v>
@@ -5445,37 +5378,37 @@
         <v>0.5</v>
       </c>
       <c r="H41" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F42" t="s">
         <v>196</v>
       </c>
       <c r="H42" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" t="s">
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F43" t="s">
         <v>196</v>
@@ -5484,37 +5417,37 @@
         <v>0.5</v>
       </c>
       <c r="H43" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" t="s">
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E44" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
         <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E45" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>50</v>
       </c>
@@ -5522,10 +5455,10 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E47" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F47" t="s">
         <v>51</v>
@@ -5534,7 +5467,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>48</v>
       </c>
@@ -5542,7 +5475,7 @@
         <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F48" t="s">
         <v>194</v>
@@ -5551,13 +5484,13 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K48" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>48</v>
       </c>
@@ -5565,7 +5498,7 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F49" t="s">
         <v>183</v>
@@ -5574,24 +5507,24 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I49" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L49" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E50" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F50" t="s">
         <v>183</v>
@@ -5600,24 +5533,24 @@
         <v>0.5</v>
       </c>
       <c r="H50" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I50" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L50" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>48</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E51" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F51" t="s">
         <v>183</v>
@@ -5626,16 +5559,16 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I51" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L51" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>48</v>
       </c>
@@ -5643,7 +5576,7 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F52" t="s">
         <v>182</v>
@@ -5652,27 +5585,27 @@
         <v>0.5</v>
       </c>
       <c r="H52" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I52" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M52" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="N52" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F53" t="s">
         <v>185</v>
@@ -5681,18 +5614,18 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E54" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F54" t="s">
         <v>184</v>
@@ -5701,24 +5634,24 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I54" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N54" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E55" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F55" t="s">
         <v>195</v>
@@ -5727,18 +5660,24 @@
         <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="I55" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E56" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F56" t="s">
         <v>185</v>
@@ -5747,18 +5686,21 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="I56" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E57" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F57" t="s">
         <v>196</v>
@@ -5767,10 +5709,10 @@
         <v>0.5</v>
       </c>
       <c r="H57" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="C58" t="s">
         <v>48</v>
@@ -5779,7 +5721,7 @@
         <v>181</v>
       </c>
       <c r="E58" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F58" t="s">
         <v>183</v>
@@ -5788,24 +5730,24 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I58" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L58" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E59" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F59" t="s">
         <v>185</v>
@@ -5814,17 +5756,17 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="I60"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D61" s="15"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
@@ -5844,10 +5786,10 @@
         <v>51</v>
       </c>
       <c r="H62" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="C63" t="s">
         <v>48</v>
@@ -5862,43 +5804,43 @@
         <v>51</v>
       </c>
       <c r="H63" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="42" t="s">
+      <c r="E64" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F64" s="42" t="s">
+      <c r="F64" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G64" s="42">
+      <c r="G64" s="40">
         <v>1.5</v>
       </c>
-      <c r="H64" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="I64" s="42" t="s">
-        <v>510</v>
+      <c r="H64" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="I64" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="M64" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O64" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="C65" t="s">
         <v>49</v>
@@ -5913,45 +5855,45 @@
         <v>51</v>
       </c>
       <c r="H65" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="C66" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="H66" s="40" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="C66" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="E66" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="F66" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G66" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="H66" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="I66" s="42" t="s">
-        <v>510</v>
+      <c r="I66" s="40" t="s">
+        <v>507</v>
       </c>
       <c r="N66" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="42" t="s">
+      <c r="E67" s="40" t="s">
         <v>82</v>
       </c>
       <c r="F67" t="s">
@@ -5961,16 +5903,16 @@
         <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I67" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M67" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="C68" t="s">
         <v>48</v>
@@ -5985,79 +5927,85 @@
         <v>51</v>
       </c>
       <c r="H68" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="42" t="s">
+      <c r="E69" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F69" s="42" t="s">
+      <c r="F69" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="G69" s="42">
+      <c r="G69" s="40">
         <v>1</v>
       </c>
-      <c r="H69" s="42" t="s">
-        <v>352</v>
+      <c r="H69" s="40" t="s">
+        <v>350</v>
       </c>
       <c r="N69" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E70" s="42" t="s">
+      <c r="E70" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="F70" s="42" t="s">
+      <c r="F70" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="G70" s="42">
+      <c r="G70" s="40">
         <v>1</v>
       </c>
-      <c r="H70" s="42" t="s">
-        <v>353</v>
+      <c r="H70" s="40" t="s">
+        <v>351</v>
       </c>
       <c r="O70" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="C71" t="s">
+      <c r="C71" s="40" t="s">
         <v>49</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="40">
         <v>2</v>
       </c>
-      <c r="H71" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="C72" t="s">
         <v>48</v>
@@ -6078,13 +6026,13 @@
         <v>106</v>
       </c>
       <c r="I72" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K72" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="C73" t="s">
         <v>48</v>
@@ -6105,62 +6053,62 @@
         <v>109</v>
       </c>
       <c r="I73" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L73" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="C74" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="17" t="s">
+      <c r="C74" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="40">
         <v>1</v>
       </c>
-      <c r="H74" s="17" t="s">
+      <c r="H74" s="41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="C75" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="43" t="s">
+      <c r="C75" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E75" s="42" t="s">
+      <c r="E75" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="42" t="s">
+      <c r="F75" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="G75" s="42">
+      <c r="G75" s="40">
         <v>1</v>
       </c>
-      <c r="H75" s="43" t="s">
+      <c r="H75" s="41" t="s">
         <v>107</v>
       </c>
       <c r="I75" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J75" s="17"/>
       <c r="N75" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="C76" t="s">
         <v>48</v>
@@ -6181,22 +6129,22 @@
         <v>108</v>
       </c>
       <c r="I76" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L76" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="E77" s="42" t="s">
-        <v>482</v>
+        <v>517</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>479</v>
       </c>
       <c r="F77" t="s">
         <v>184</v>
@@ -6205,45 +6153,45 @@
         <v>0.1</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I77" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="C78" s="42" t="s">
+      <c r="C78" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="E78" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="F78" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="F78" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="G78" s="42">
+      <c r="G78" s="40">
         <v>0.1</v>
       </c>
-      <c r="H78" s="43" t="s">
-        <v>522</v>
+      <c r="H78" s="41" t="s">
+        <v>519</v>
       </c>
       <c r="I78" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="C79" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="43" t="s">
+      <c r="C79" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E79" s="43" t="s">
+      <c r="E79" s="41" t="s">
         <v>91</v>
       </c>
       <c r="F79" s="16" t="s">
@@ -6256,22 +6204,22 @@
         <v>94</v>
       </c>
       <c r="I79" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M79" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="C80" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="42" t="s">
-        <v>340</v>
+      <c r="C80" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="40" t="s">
+        <v>338</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>182</v>
@@ -6280,73 +6228,76 @@
         <v>0.5</v>
       </c>
       <c r="H80" t="s">
+        <v>335</v>
+      </c>
+      <c r="I80" t="s">
+        <v>507</v>
+      </c>
+      <c r="M80" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="C81" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="I80" t="s">
-        <v>510</v>
-      </c>
-      <c r="M80" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="C81" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="E81" s="43" t="s">
+      <c r="E81" s="41" t="s">
         <v>91</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G81" s="43">
+      <c r="G81" s="41">
         <v>0.5</v>
       </c>
-      <c r="H81" s="43" t="s">
+      <c r="H81" s="41" t="s">
         <v>92</v>
       </c>
       <c r="O81" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="C82" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="43" t="s">
+      <c r="C82" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="E82" s="43" t="s">
+      <c r="E82" s="41" t="s">
         <v>91</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G82" s="43">
+      <c r="G82" s="41">
         <v>2</v>
       </c>
-      <c r="H82" s="43" t="s">
+      <c r="H82" s="41" t="s">
         <v>96</v>
       </c>
       <c r="I82" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="C83" t="s">
         <v>48</v>
       </c>
       <c r="D83" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>196</v>
@@ -6355,19 +6306,25 @@
         <v>0.5</v>
       </c>
       <c r="H83" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="I83" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="C84" t="s">
         <v>48</v>
       </c>
       <c r="D84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>196</v>
@@ -6376,19 +6333,25 @@
         <v>0.5</v>
       </c>
       <c r="H84" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="I84" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="C85" t="s">
         <v>48</v>
       </c>
       <c r="D85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F85" s="14" t="s">
         <v>196</v>
@@ -6397,10 +6360,16 @@
         <v>0.5</v>
       </c>
       <c r="H85" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="I85" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="C86" t="s">
         <v>48</v>
@@ -6421,7 +6390,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="C87" t="s">
         <v>48</v>
@@ -6442,7 +6411,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="C88" t="s">
         <v>49</v>
@@ -6463,7 +6432,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="C89" t="s">
         <v>49</v>
@@ -6484,86 +6453,92 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
       <c r="D90" s="14" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="E90" t="s">
+        <v>525</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="I90" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="C91" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="F90" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G90" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="D91" s="14" t="s">
-        <v>533</v>
-      </c>
       <c r="E91" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F91" s="16" t="s">
         <v>51</v>
       </c>
       <c r="G91" s="17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="C92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="E92" t="s">
+        <v>526</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92" s="17">
+        <v>1</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="C93" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D93" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="D93" s="14"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" t="s">
+      <c r="D94" s="14"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" t="s">
         <v>78</v>
       </c>
-      <c r="C94" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" s="14" t="s">
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="E94" t="s">
-        <v>79</v>
-      </c>
-      <c r="F94" t="s">
-        <v>51</v>
-      </c>
-      <c r="H94" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="C95" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="E95" t="s">
         <v>79</v>
@@ -6572,240 +6547,234 @@
         <v>51</v>
       </c>
       <c r="H95" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="C96" t="s">
         <v>48</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="E96" t="s">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="F96" t="s">
         <v>51</v>
       </c>
       <c r="H96" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="C97" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="42" t="s">
+      <c r="C97" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="E97" t="s">
+        <v>258</v>
+      </c>
+      <c r="F97" t="s">
+        <v>51</v>
+      </c>
+      <c r="H97" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="C98" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E97" s="42" t="s">
+      <c r="E98" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F97" s="42" t="s">
+      <c r="F98" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G97" s="42">
+      <c r="G98" s="40">
         <v>2</v>
       </c>
-      <c r="H97" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="I97" s="42" t="s">
+      <c r="H98" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="I98" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="M98" t="s">
+        <v>471</v>
+      </c>
+      <c r="N98" t="s">
         <v>510</v>
       </c>
-      <c r="M97" t="s">
-        <v>474</v>
-      </c>
-      <c r="N97" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="C98" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E98" t="s">
-        <v>79</v>
-      </c>
-      <c r="F98" t="s">
-        <v>51</v>
-      </c>
-      <c r="H98" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="C99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D99" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99" t="s">
+        <v>51</v>
+      </c>
+      <c r="H99" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>111</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F100" t="s">
         <v>183</v>
-      </c>
-      <c r="G99">
-        <v>2</v>
-      </c>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-      <c r="I99" t="s">
-        <v>510</v>
-      </c>
-      <c r="L99" t="s">
-        <v>264</v>
-      </c>
-      <c r="M99" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="C100" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E100" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="F100" t="s">
-        <v>184</v>
       </c>
       <c r="G100">
         <v>2</v>
       </c>
       <c r="H100" t="s">
+        <v>115</v>
+      </c>
+      <c r="I100" t="s">
+        <v>507</v>
+      </c>
+      <c r="L100" t="s">
+        <v>263</v>
+      </c>
+      <c r="M100" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="C101" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101" t="s">
+        <v>184</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101" t="s">
         <v>116</v>
       </c>
-      <c r="I100" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="C101" t="s">
-        <v>48</v>
-      </c>
-      <c r="D101" s="14" t="s">
+      <c r="I101" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="C102" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="G101">
+      <c r="G102" s="40">
         <v>3</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H102" s="40" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="C102" t="s">
-        <v>48</v>
-      </c>
-      <c r="D102" s="14" t="s">
+      <c r="Q102" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="C103" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>187</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F103" t="s">
         <v>51</v>
       </c>
-      <c r="H102" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="H103" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>118</v>
       </c>
-      <c r="C104" t="s">
-        <v>48</v>
-      </c>
-      <c r="D104" s="14" t="s">
+      <c r="C105" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E105" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F104" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="G104">
-        <v>0.5</v>
-      </c>
-      <c r="H104" t="s">
-        <v>311</v>
-      </c>
-      <c r="I104" t="s">
-        <v>510</v>
-      </c>
-      <c r="M104" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="C105" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E105" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="F105" s="14" t="s">
         <v>182</v>
       </c>
       <c r="G105">
         <v>0.5</v>
       </c>
       <c r="H105" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I105" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M105" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="C106" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" t="s">
-        <v>40</v>
-      </c>
-      <c r="E106" t="s">
-        <v>142</v>
+      <c r="C106" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E106" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="F106" t="s">
         <v>182</v>
@@ -6814,22 +6783,22 @@
         <v>0.5</v>
       </c>
       <c r="H106" t="s">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c r="I106" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M106" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="C107" t="s">
         <v>48</v>
       </c>
-      <c r="D107" s="14" t="s">
-        <v>56</v>
+      <c r="D107" t="s">
+        <v>40</v>
       </c>
       <c r="E107" t="s">
         <v>142</v>
@@ -6841,378 +6810,402 @@
         <v>0.5</v>
       </c>
       <c r="H107" t="s">
-        <v>313</v>
+        <v>141</v>
       </c>
       <c r="I107" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M107" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="C108" t="s">
         <v>48</v>
       </c>
-      <c r="D108" t="s">
-        <v>314</v>
+      <c r="D108" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="E108" t="s">
         <v>142</v>
       </c>
       <c r="F108" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G108">
         <v>0.5</v>
       </c>
       <c r="H108" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="I108" t="s">
+        <v>507</v>
+      </c>
+      <c r="M108" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="C109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D109" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="E109" t="s">
         <v>142</v>
       </c>
+      <c r="F109" t="s">
+        <v>185</v>
+      </c>
       <c r="G109">
         <v>0.5</v>
       </c>
       <c r="H109" t="s">
+        <v>313</v>
+      </c>
+      <c r="I109" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="C110" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" t="s">
+        <v>142</v>
+      </c>
+      <c r="G110">
+        <v>0.5</v>
+      </c>
+      <c r="H110" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" t="s">
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" t="s">
         <v>120</v>
       </c>
-      <c r="C111" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="21" t="s">
+      <c r="C112" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E111" s="21" t="s">
+      <c r="E112" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F112" t="s">
         <v>184</v>
       </c>
-      <c r="H111" t="s">
-        <v>317</v>
-      </c>
-      <c r="I111" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="C112" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="14" t="s">
+      <c r="H112" t="s">
+        <v>315</v>
+      </c>
+      <c r="I112" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="C113" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" t="s">
         <v>124</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>194</v>
       </c>
-      <c r="G112">
+      <c r="G113">
         <v>0.5</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H113" t="s">
+        <v>314</v>
+      </c>
+      <c r="I113" t="s">
+        <v>507</v>
+      </c>
+      <c r="K113" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C114" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="G114" s="40">
+        <v>1</v>
+      </c>
+      <c r="H114" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="I112" t="s">
-        <v>510</v>
-      </c>
-      <c r="K112" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C113" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E113" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F113" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="G113" s="42">
+      <c r="I114" s="40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="C115" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E115" t="s">
+        <v>123</v>
+      </c>
+      <c r="F115" t="s">
+        <v>195</v>
+      </c>
+      <c r="G115">
         <v>1</v>
       </c>
-      <c r="H113" s="42" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="C114" t="s">
-        <v>48</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E114" t="s">
-        <v>123</v>
-      </c>
-      <c r="F114" t="s">
-        <v>195</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="H115" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="C115" t="s">
-        <v>48</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F115" t="s">
-        <v>185</v>
-      </c>
-      <c r="G115">
-        <v>0.5</v>
-      </c>
-      <c r="H115" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I115" s="40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="C116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E116" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="F116" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+        <v>317</v>
+      </c>
+      <c r="I116" s="40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
       <c r="C117" t="s">
         <v>49</v>
       </c>
-      <c r="D117" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>135</v>
+      <c r="D117" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E117" t="s">
+        <v>123</v>
       </c>
       <c r="F117" t="s">
         <v>51</v>
       </c>
       <c r="G117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H117" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="C118" t="s">
         <v>49</v>
       </c>
       <c r="D118" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F118" t="s">
+        <v>51</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="C119" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E119" t="s">
         <v>124</v>
       </c>
-      <c r="G118">
+      <c r="G119">
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
-      <c r="B120" t="s">
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" t="s">
         <v>137</v>
       </c>
-      <c r="C120" t="s">
-        <v>48</v>
-      </c>
-      <c r="D120" s="19" t="s">
+      <c r="C121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E120" s="19" t="s">
+      <c r="E121" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>188</v>
       </c>
-      <c r="H120" t="s">
-        <v>317</v>
-      </c>
-      <c r="O120" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>48</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="E121" s="21" t="s">
+      <c r="H121" t="s">
+        <v>315</v>
+      </c>
+      <c r="O121" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E122" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F121" t="s">
-        <v>265</v>
-      </c>
-      <c r="H121" t="s">
-        <v>481</v>
-      </c>
-      <c r="I121" s="42" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>264</v>
+      </c>
+      <c r="H122" t="s">
+        <v>478</v>
+      </c>
+      <c r="I122" s="40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
-      <c r="B123" t="s">
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" t="s">
         <v>136</v>
       </c>
-      <c r="C123" t="s">
-        <v>48</v>
-      </c>
-      <c r="D123" s="19" t="s">
+      <c r="C124" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E124" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F124" t="s">
         <v>183</v>
       </c>
-      <c r="G123">
+      <c r="G124">
         <v>1</v>
       </c>
-      <c r="H123" t="s">
-        <v>323</v>
-      </c>
-      <c r="L123" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="C124" t="s">
-        <v>48</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E124" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F124" t="s">
-        <v>182</v>
-      </c>
-      <c r="G124">
-        <v>3</v>
-      </c>
       <c r="H124" t="s">
-        <v>322</v>
-      </c>
-      <c r="M124" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="L124" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="C125" t="s">
         <v>48</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E125" s="19" t="s">
         <v>119</v>
       </c>
       <c r="F125" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H125" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="M125" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="C126" t="s">
         <v>48</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E126" s="19" t="s">
         <v>119</v>
       </c>
       <c r="F126" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="G126">
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="I126" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="C127" t="s">
         <v>48</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E127" s="19" t="s">
         <v>119</v>
@@ -7224,349 +7217,385 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" t="s">
+      <c r="C128" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F128" t="s">
+        <v>51</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" t="s">
         <v>50</v>
       </c>
-      <c r="C129" t="s">
-        <v>48</v>
-      </c>
-      <c r="D129" s="19" t="s">
+      <c r="C130" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="E129" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F129" t="s">
-        <v>182</v>
-      </c>
-      <c r="G129">
-        <v>0.5</v>
-      </c>
-      <c r="H129" t="s">
-        <v>328</v>
-      </c>
-      <c r="I129" t="s">
-        <v>510</v>
-      </c>
-      <c r="K129" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
-        <v>48</v>
-      </c>
-      <c r="D130" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="E130" s="19" t="s">
         <v>142</v>
       </c>
       <c r="F130" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="s">
-        <v>329</v>
-      </c>
-      <c r="I130" s="42" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
+        <v>326</v>
+      </c>
+      <c r="I130" t="s">
+        <v>507</v>
+      </c>
+      <c r="K130" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E131" s="19" t="s">
         <v>142</v>
       </c>
       <c r="F131" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G131">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I131" s="40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="C132" t="s">
         <v>48</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E132" s="19" t="s">
         <v>142</v>
       </c>
       <c r="F132" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="G132">
         <v>0.5</v>
       </c>
       <c r="H132" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-    </row>
-    <row r="134" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I132" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="C133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F133" t="s">
+        <v>51</v>
+      </c>
+      <c r="G133">
+        <v>0.5</v>
+      </c>
+      <c r="H133" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+    </row>
+    <row r="135" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="B135" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C134" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D134" s="20" t="s">
+      <c r="C135" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="E134" s="20" t="s">
+      <c r="E135" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="F134" s="33" t="s">
+      <c r="F135" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="G134" s="20">
+      <c r="G135" s="20">
         <v>0.5</v>
       </c>
-      <c r="H134" s="38" t="s">
+      <c r="H135" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="I135" t="s">
+        <v>507</v>
+      </c>
+      <c r="K135" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="C136" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E136" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F136" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G136" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="H136" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="I134" t="s">
-        <v>510</v>
-      </c>
-      <c r="K134" s="33" t="s">
+      <c r="I136" t="s">
+        <v>507</v>
+      </c>
+      <c r="N136" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="O136" s="33" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="135" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="C135" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D135" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E135" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="F135" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="G135" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="H135" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="I135" s="19"/>
-      <c r="N135" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="O135" s="33" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="C136" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="35" t="s">
+    <row r="137" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="C137" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="35" t="s">
         <v>200</v>
-      </c>
-      <c r="E136" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="F136" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="G136" s="35">
-        <v>1.5</v>
-      </c>
-      <c r="H136" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="M136" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="O136" s="33" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="C137" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D137" s="35" t="s">
-        <v>202</v>
       </c>
       <c r="E137" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="F137" s="44" t="s">
+      <c r="F137" s="42" t="s">
         <v>182</v>
       </c>
       <c r="G137" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="H137" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="M137" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O137" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q137" s="33" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="C138" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E138" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F138" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G138" s="35">
         <v>0.5</v>
       </c>
-      <c r="H137" s="46" t="s">
+      <c r="H138" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="M138" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O138" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q138" s="33" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="E139" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="F139" s="42"/>
+      <c r="G139" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="H139" s="44" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="C140" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E140" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F140" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G140" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="H140" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="M137" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="O137" s="33" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="D138" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="E138" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="G138" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="H138" s="38" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="C139" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="E139" s="20" t="s">
+      <c r="Q140" s="33" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="C141" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E141" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="F139" s="33" t="s">
+      <c r="F141" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="G141" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="H141" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q141" s="33" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="C142" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E142" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F142" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="G139" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H139" s="38" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="C140" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="E140" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="F140" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="G140" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H140" s="38" t="s">
+      <c r="G142" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H142" s="44" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="C141" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="E141" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="F141" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="G141" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="H141" s="38" t="s">
+      <c r="Q142" s="33" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="C143" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E143" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F143" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G143" s="35">
+        <v>3</v>
+      </c>
+      <c r="H143" s="14" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="C142" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D142" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E142" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F142" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="G142" s="20">
-        <v>3</v>
-      </c>
-      <c r="H142" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="N142" s="33" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="C143" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E143" s="34"/>
-    </row>
-    <row r="144" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N143" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q143" s="33" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="C144" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D144" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E144" s="33" t="s">
         <v>274</v>
-      </c>
-      <c r="E144" s="33" t="s">
-        <v>275</v>
       </c>
       <c r="F144" s="36" t="s">
         <v>194</v>
@@ -7575,28 +7604,28 @@
         <v>1</v>
       </c>
       <c r="H144" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I144" s="33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K144" s="33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L144" s="33" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="C145" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D145" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E145" s="36" t="s">
         <v>211</v>
-      </c>
-      <c r="E145" s="36" t="s">
-        <v>212</v>
       </c>
       <c r="F145" s="36" t="s">
         <v>194</v>
@@ -7605,43 +7634,43 @@
         <v>1</v>
       </c>
       <c r="H145" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I145" s="33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K145" s="33" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="C146" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D146" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E146" s="34" t="s">
         <v>214</v>
-      </c>
-      <c r="E146" s="34" t="s">
-        <v>215</v>
       </c>
       <c r="F146" s="33" t="s">
         <v>51</v>
       </c>
       <c r="H146" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="C147" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E147" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F147" s="33" t="s">
         <v>194</v>
@@ -7650,25 +7679,25 @@
         <v>1</v>
       </c>
       <c r="H147" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I147" s="33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K147" s="33" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="C148" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D148" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E148" s="20" t="s">
         <v>279</v>
-      </c>
-      <c r="E148" s="20" t="s">
-        <v>280</v>
       </c>
       <c r="F148" s="33" t="s">
         <v>196</v>
@@ -7677,100 +7706,115 @@
         <v>1</v>
       </c>
       <c r="H148" s="33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="I148" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q148" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="C149" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E149" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F149" s="33" t="s">
         <v>51</v>
       </c>
       <c r="H149" s="33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="C150" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D150" s="20" t="s">
+      <c r="C150" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D150" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="E150" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="E150" s="20" t="s">
+      <c r="F150" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G150" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="H150" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="I150" s="33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="C151" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D151" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="F150" s="33" t="s">
+      <c r="E151" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="F151" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="G150" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="H150" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="C151" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D151" s="20" t="s">
+      <c r="G151" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="H151" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I151" s="33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="C152" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="E151" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F151" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="G151" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="H151" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="C152" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D152" s="35" t="s">
+      <c r="E152" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E152" s="35" t="s">
+      <c r="F152" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G152" s="42">
+        <v>1</v>
+      </c>
+      <c r="H152" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="F152" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="G152" s="44">
-        <v>1</v>
-      </c>
-      <c r="H152" s="44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q152" s="33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="C153" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E153" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F153" s="33" t="s">
         <v>183</v>
@@ -7779,121 +7823,124 @@
         <v>1</v>
       </c>
       <c r="H153" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I153" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="L153" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="C154" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="E154" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F154" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G154" s="42">
+        <v>1</v>
+      </c>
+      <c r="H154" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="M154" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="N154" s="33" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="C155" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="I153" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="L153" s="33" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-      <c r="C154" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D154" s="44" t="s">
+      <c r="E155" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="F155" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G155" s="42">
+        <v>1</v>
+      </c>
+      <c r="H155" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="N155" s="33" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="C156" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E156" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="E154" s="35" t="s">
+      <c r="F156" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G156" s="42">
+        <v>1</v>
+      </c>
+      <c r="H156" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="F154" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="G154" s="44">
-        <v>1</v>
-      </c>
-      <c r="H154" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="M154" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="N154" s="33" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="C155" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D155" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="E155" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="F155" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="G155" s="44">
-        <v>1</v>
-      </c>
-      <c r="H155" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="N155" s="33" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="C156" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D156" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="E156" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="F156" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G156" s="33">
-        <v>1</v>
-      </c>
-      <c r="H156" s="33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
-      <c r="C157" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D157" s="44" t="s">
+      <c r="C157" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D157" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="E157" s="35" t="s">
         <v>260</v>
-      </c>
-      <c r="E157" s="35" t="s">
-        <v>261</v>
       </c>
       <c r="F157" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G157" s="44">
+      <c r="G157" s="42">
         <v>1</v>
       </c>
-      <c r="H157" s="44" t="s">
-        <v>285</v>
+      <c r="H157" s="42" t="s">
+        <v>284</v>
       </c>
       <c r="O157" s="33" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+      <c r="Q157" s="33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="C158" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D158" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E158" s="20" t="s">
         <v>232</v>
-      </c>
-      <c r="E158" s="20" t="s">
-        <v>233</v>
       </c>
       <c r="F158" s="33" t="s">
         <v>51</v>
@@ -7902,19 +7949,19 @@
         <v>0.1</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="C159" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E159" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F159" s="33" t="s">
         <v>51</v>
@@ -7923,15 +7970,15 @@
         <v>5</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="D160" s="22"/>
       <c r="E160" s="20"/>
     </row>
-    <row r="161" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="33" t="s">
         <v>155</v>
@@ -7940,10 +7987,10 @@
         <v>48</v>
       </c>
       <c r="D161" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="E161" s="37" t="s">
         <v>235</v>
-      </c>
-      <c r="E161" s="37" t="s">
-        <v>236</v>
       </c>
       <c r="F161" s="37" t="s">
         <v>183</v>
@@ -7952,22 +7999,22 @@
         <v>1</v>
       </c>
       <c r="H161" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I161" s="37" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L161" s="33" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="C162" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E162" s="37" t="s">
         <v>158</v>
@@ -7979,22 +8026,23 @@
         <v>1</v>
       </c>
       <c r="H162" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I162" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="L162" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="42"/>
+      <c r="C163" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D163" s="42" t="s">
         <v>239</v>
-      </c>
-      <c r="I162" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="L162" s="33" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-      <c r="C163" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D163" s="33" t="s">
-        <v>240</v>
       </c>
       <c r="E163" s="37" t="s">
         <v>158</v>
@@ -8002,17 +8050,22 @@
       <c r="F163" s="37" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G163" s="42"/>
+      <c r="H163" s="42"/>
+      <c r="Q163" s="33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="C164" s="33" t="s">
         <v>49</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E164" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F164" s="37" t="s">
         <v>51</v>
@@ -8021,95 +8074,98 @@
         <v>6</v>
       </c>
       <c r="H164" s="33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
-      <c r="C165" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D165" s="44" t="s">
-        <v>301</v>
+      <c r="C165" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D165" s="42" t="s">
+        <v>540</v>
       </c>
       <c r="E165" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F165" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="G165" s="33">
+      <c r="G165" s="42">
         <v>3</v>
       </c>
-      <c r="H165" s="33" t="s">
-        <v>300</v>
+      <c r="H165" s="42" t="s">
+        <v>299</v>
       </c>
       <c r="M165" s="33" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="Q165" s="33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="C166" s="33" t="s">
         <v>49</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E166" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F166" s="37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="C167" s="33" t="s">
         <v>49</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E167" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F167" s="37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="C168" s="33" t="s">
         <v>49</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E168" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F168" s="37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="E169" s="37"/>
     </row>
-    <row r="170" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C170" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D170" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="E170" s="45" t="s">
-        <v>245</v>
+      <c r="C170" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D170" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="E170" s="43" t="s">
+        <v>244</v>
       </c>
       <c r="F170" s="33" t="s">
         <v>182</v>
@@ -8118,23 +8174,23 @@
         <v>3</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I170" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M170" s="33" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N170" s="33" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="E171" s="37"/>
     </row>
-    <row r="172" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="33" t="s">
         <v>156</v>
@@ -8143,7 +8199,7 @@
         <v>48</v>
       </c>
       <c r="D172" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E172" s="34" t="s">
         <v>158</v>
@@ -8152,13 +8208,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="C173" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D173" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E173" s="34" t="s">
         <v>158</v>
@@ -8167,68 +8223,71 @@
         <v>51</v>
       </c>
     </row>
-    <row r="174" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="E174" s="34"/>
     </row>
-    <row r="175" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C175" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D175" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="E175" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="F175" s="33" t="s">
+      <c r="C175" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D175" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="E175" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="F175" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="G175" s="33">
+      <c r="G175" s="42">
         <v>3</v>
       </c>
-      <c r="H175" s="33" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H175" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q175" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
-      <c r="C176" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D176" s="44" t="s">
+      <c r="C176" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D176" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E176" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="E176" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="F176" s="33" t="s">
+      <c r="F176" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G176" s="33">
+      <c r="G176" s="42">
         <v>2</v>
       </c>
-      <c r="H176" s="33" t="s">
-        <v>277</v>
+      <c r="H176" s="42" t="s">
+        <v>276</v>
       </c>
       <c r="N176" s="33" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="C177" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D177" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E177" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F177" s="33" t="s">
         <v>51</v>
@@ -8237,19 +8296,19 @@
         <v>3</v>
       </c>
       <c r="H177" s="33" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="C178" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E178" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F178" s="33" t="s">
         <v>51</v>
@@ -8258,19 +8317,19 @@
         <v>2.5</v>
       </c>
       <c r="H178" s="33" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="C179" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D179" s="33" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E179" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F179" s="33" t="s">
         <v>51</v>
@@ -8279,19 +8338,25 @@
         <v>1</v>
       </c>
       <c r="H179" s="33" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="I179" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="O179" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="C180" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D180" s="33" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E180" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F180" s="33" t="s">
         <v>51</v>
@@ -8300,19 +8365,19 @@
         <v>2</v>
       </c>
       <c r="H180" s="33" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="C181" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D181" s="33" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E181" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F181" s="33" t="s">
         <v>51</v>
@@ -8321,19 +8386,19 @@
         <v>0.5</v>
       </c>
       <c r="H181" s="33" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="C182" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D182" s="33" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F182" s="33" t="s">
         <v>51</v>
@@ -8342,19 +8407,25 @@
         <v>0.5</v>
       </c>
       <c r="H182" s="33" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="I182" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="O182" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="C183" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D183" s="33" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E183" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F183" s="33" t="s">
         <v>51</v>
@@ -8363,18 +8434,18 @@
         <v>0.5</v>
       </c>
       <c r="H183" s="33" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="E184" s="37"/>
     </row>
-    <row r="185" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="E185" s="37"/>
     </row>
-    <row r="186" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="33" t="s">
         <v>157</v>
@@ -8383,7 +8454,7 @@
         <v>48</v>
       </c>
       <c r="D186" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E186" s="37" t="s">
         <v>158</v>
@@ -8392,13 +8463,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="C187" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D187" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E187" s="37" t="s">
         <v>158</v>
@@ -8407,13 +8478,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="C188" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D188" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E188" s="37" t="s">
         <v>158</v>
@@ -8422,11 +8493,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="E189" s="20"/>
     </row>
-    <row r="190" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="33" t="s">
         <v>153</v>
@@ -8435,10 +8506,10 @@
         <v>48</v>
       </c>
       <c r="D190" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E190" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="E190" s="20" t="s">
-        <v>255</v>
       </c>
       <c r="F190" s="33" t="s">
         <v>51</v>
@@ -8447,115 +8518,115 @@
         <v>2</v>
       </c>
       <c r="H190" s="19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
-      <c r="C191" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D191" s="47" t="s">
+      <c r="C191" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D191" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="E191" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="F191" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G191" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="H191" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="I191" s="40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="C192" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D192" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="E192" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="F192" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G192" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="H192" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="I192" s="40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="C193" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D193" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="E193" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="F193" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G193" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="H193" s="45" t="s">
+        <v>505</v>
+      </c>
+      <c r="I193" s="40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="C194" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D194" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="E191" s="47" t="s">
-        <v>505</v>
-      </c>
-      <c r="F191" s="44" t="s">
+      <c r="E194" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="F194" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="G191" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="H191" s="47" t="s">
+      <c r="G194" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="H194" s="45" t="s">
         <v>506</v>
       </c>
-      <c r="I191" s="42" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
-      <c r="C192" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D192" s="47" t="s">
-        <v>502</v>
-      </c>
-      <c r="E192" s="47" t="s">
-        <v>505</v>
-      </c>
-      <c r="F192" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="G192" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="H192" s="47" t="s">
+      <c r="I194" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="I192" s="42" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="4"/>
-      <c r="C193" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D193" s="47" t="s">
-        <v>503</v>
-      </c>
-      <c r="E193" s="47" t="s">
-        <v>505</v>
-      </c>
-      <c r="F193" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="G193" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="H193" s="47" t="s">
-        <v>508</v>
-      </c>
-      <c r="I193" s="42" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
-      <c r="C194" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D194" s="47" t="s">
-        <v>504</v>
-      </c>
-      <c r="E194" s="47" t="s">
-        <v>505</v>
-      </c>
-      <c r="F194" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="G194" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="H194" s="47" t="s">
-        <v>509</v>
-      </c>
-      <c r="I194" s="42" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="C195" s="33" t="s">
         <v>49</v>
       </c>
       <c r="D195" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="E195" s="20" t="s">
         <v>256</v>
-      </c>
-      <c r="E195" s="20" t="s">
-        <v>257</v>
       </c>
       <c r="F195" s="33" t="s">
         <v>51</v>
@@ -8564,16 +8635,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="C196" s="33" t="s">
         <v>49</v>
       </c>
       <c r="D196" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="E196" s="20" t="s">
         <v>256</v>
-      </c>
-      <c r="E196" s="20" t="s">
-        <v>257</v>
       </c>
       <c r="F196" s="33" t="s">
         <v>51</v>
@@ -8582,80 +8653,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="E197" s="34"/>
     </row>
-    <row r="198" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C198" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D198" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E198" s="34" t="s">
+      <c r="C198" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D198" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="E198" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F198" s="33" t="s">
+      <c r="F198" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="H198" s="33" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G198" s="42"/>
+      <c r="H198" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="I198" s="42" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q198" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
-      <c r="C199" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D199" s="40" t="s">
+      <c r="C199" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D199" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="E199" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F199" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G199" s="42"/>
+      <c r="H199" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="I199" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="M199" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="N199" s="33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+      <c r="C200" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D200" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="E200" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F200" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G200" s="42"/>
+      <c r="H200" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="E199" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="F199" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="H199" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="I199" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="M199" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="N199" s="33" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
-      <c r="C200" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D200" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="E200" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F200" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="H200" s="33" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q200" s="33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
     </row>
-    <row r="203" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>19</v>
       </c>
@@ -8675,7 +8758,7 @@
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="8" t="s">
         <v>21</v>
@@ -8689,7 +8772,7 @@
       <c r="I204" s="9"/>
       <c r="J204" s="8"/>
     </row>
-    <row r="205" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="8" t="s">
         <v>22</v>
@@ -8703,7 +8786,7 @@
       <c r="I205" s="9"/>
       <c r="J205" s="8"/>
     </row>
-    <row r="206" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="8" t="s">
         <v>23</v>
@@ -8717,7 +8800,7 @@
       <c r="I206" s="9"/>
       <c r="J206" s="8"/>
     </row>
-    <row r="207" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="10" t="s">
         <v>24</v>
@@ -8731,7 +8814,7 @@
       <c r="I207" s="9"/>
       <c r="J207" s="8"/>
     </row>
-    <row r="208" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="8" t="s">
         <v>25</v>
@@ -8741,7 +8824,7 @@
         <v>37</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F208" s="14"/>
       <c r="G208" s="14"/>
@@ -8771,7 +8854,7 @@
         <v>40</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F210"/>
       <c r="G210" s="14"/>
@@ -8786,7 +8869,7 @@
         <v>56</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F211" s="14"/>
       <c r="G211"/>
@@ -8799,10 +8882,10 @@
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="F212" s="14"/>
       <c r="G212"/>
@@ -9043,7 +9126,7 @@
       </c>
       <c r="H225" s="31"/>
       <c r="I225" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J225" s="13"/>
     </row>
@@ -9051,7 +9134,7 @@
       <c r="B226" s="31"/>
       <c r="C226" s="31"/>
       <c r="D226" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E226" s="31"/>
       <c r="F226" s="32" t="s">
@@ -9482,265 +9565,260 @@
       <c r="A367" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P208"/>
+  <autoFilter ref="A1:S200"/>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="I231:I1048576 I201:I202 I1 I4:I120 I122:I133">
-    <cfRule type="containsText" dxfId="100" priority="88" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I231:I1048576 I201:I202 I1 I123:I134 I4:I121">
+    <cfRule type="containsText" dxfId="79" priority="88" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="89" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="78" priority="89" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A213 B207:F207 A219:A1048576 J219:XFD226 C208:C213 E208:E213 G203:XFD207 A214:XFD218 I208:XFD213 A1 A34:A46 A48:A120 A146:A202 A122:A133">
-    <cfRule type="cellIs" dxfId="98" priority="87" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A207:A213 B207:F207 A219:A1048576 J219:XFD226 C208:C213 E208:E213 G203:XFD207 A214:XFD218 I208:XFD213 A1 A34:A46 A146:A202 A123:A144 A48:A121">
+    <cfRule type="cellIs" dxfId="77" priority="87" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208:B210 A203:F206">
-    <cfRule type="cellIs" dxfId="97" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="85" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D107 D105">
-    <cfRule type="cellIs" dxfId="96" priority="84" operator="equal">
+  <conditionalFormatting sqref="D108 D106">
+    <cfRule type="cellIs" dxfId="75" priority="84" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I227:I230">
-    <cfRule type="containsText" dxfId="95" priority="70" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="74" priority="70" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="71" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="73" priority="71" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I226">
-    <cfRule type="cellIs" dxfId="93" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I220:I224">
-    <cfRule type="containsText" dxfId="92" priority="65" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="71" priority="65" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I220)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="66" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="70" priority="66" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D211">
-    <cfRule type="cellIs" dxfId="90" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="64" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I136:I144 I146:I190 I195:I200">
-    <cfRule type="expression" dxfId="89" priority="52" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I136)))</formula>
+  <conditionalFormatting sqref="I195:I200 I137:I144 I146:I190">
+    <cfRule type="expression" dxfId="68" priority="52" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I137)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="53" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("未完成",I136)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134:A144">
-    <cfRule type="cellIs" dxfId="87" priority="54" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
+    <cfRule type="expression" dxfId="67" priority="53" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("未完成",I137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145">
-    <cfRule type="expression" dxfId="86" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="55" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",I145)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="56" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",I145)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="cellIs" dxfId="84" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:F212">
-    <cfRule type="cellIs" dxfId="83" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="45" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2 I7:I18 I4:I5 I21:I31">
-    <cfRule type="containsText" dxfId="82" priority="43" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="62" priority="43" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="44" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="61" priority="44" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A31 A2:A5">
-    <cfRule type="cellIs" dxfId="80" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57 D5 D3">
-    <cfRule type="cellIs" dxfId="79" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12 D56">
-    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="40" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="77" priority="38" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="57" priority="38" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="39" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="56" priority="39" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="75" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="37" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:I51">
-    <cfRule type="containsText" dxfId="74" priority="35" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="54" priority="35" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="36" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="53" priority="36" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I134">
-    <cfRule type="containsText" dxfId="72" priority="33" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I134)))</formula>
+  <conditionalFormatting sqref="I135:I136">
+    <cfRule type="containsText" dxfId="52" priority="33" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="34" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I134)))</formula>
+    <cfRule type="containsText" dxfId="51" priority="34" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="70" priority="31" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="50" priority="31" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="32" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="49" priority="32" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="68" priority="29" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="30" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="66" priority="27" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="28" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="45" priority="28" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="64" priority="25" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="26" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="43" priority="26" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="62" priority="23" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="42" priority="23" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="24" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="containsText" dxfId="60" priority="21" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="22" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="39" priority="22" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="containsText" dxfId="58" priority="19" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="20" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I78">
-    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="36" priority="17" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="18" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="35" priority="18" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="containsText" dxfId="54" priority="15" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="16" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="33" priority="16" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="14" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I121">
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I121)))</formula>
+  <conditionalFormatting sqref="I122">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I122)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I121)))</formula>
+    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I191">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I192">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I193">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I194)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9751,10 +9829,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F227:F1048576 H208:H213 F1:F16 F18:F202">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I227:I1048576 I1:I31 I33:I99 I101:I104 I106:I110 I112:I134 I136:I202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I227:I1048576 I1:I31 I102:I105 I113:I202 I107:I111 I33:I100">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B227:B1048576 B133:B218 B128:B131 B1:B9 B37:B40 B16:B31 B11:B13 B34:B35 B42:B111 B113:B120 B122:B126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B227:B1048576 B129:B132 B1:B9 B37:B40 B16:B31 B11:B13 B34:B35 B134:B218 B114:B121 B123:B127 B42:B112">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9890,16 +9968,16 @@
         <v>48</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E17" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G17" s="39">
         <v>0.5</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -9907,16 +9985,16 @@
         <v>48</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E18" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G18" s="39">
         <v>2</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -9924,16 +10002,16 @@
         <v>48</v>
       </c>
       <c r="D19" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="E19" t="s">
         <v>492</v>
-      </c>
-      <c r="E19" t="s">
-        <v>495</v>
       </c>
       <c r="G19" s="39">
         <v>1</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -9941,16 +10019,16 @@
         <v>48</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E20" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G20" s="39">
         <v>0.1</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -9958,16 +10036,16 @@
         <v>48</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E21" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G21" s="39">
         <v>0.1</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -10028,16 +10106,16 @@
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="D43" s="39" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E43" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G43">
         <v>0.5</v>
       </c>
       <c r="H43" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -10805,20 +10883,20 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I1:I47 I74:I1048576">
-    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A47 A74:A1048576 A52:A55 B52 C52:F55 G48:XFD73 A56:F73">
-    <cfRule type="cellIs" dxfId="48" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 A48:F51">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10942,10 +11020,10 @@
         <v>48</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F11" t="s">
         <v>188</v>
@@ -10954,7 +11032,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -11803,25 +11881,25 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I1:I10 I75:I1048576 I12:I48">
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A10 A75:A1048576 A53:A56 B53 C53:F56 G49:XFD74 A57:F74 A12:A48">
-    <cfRule type="cellIs" dxfId="44" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54 A49:F52">
-    <cfRule type="cellIs" dxfId="43" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12821,20 +12899,20 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I1:I47 I74:I1048576">
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A47 A74:A1048576 A52:A55 B52 C52:F55 G48:XFD73 A56:F73">
-    <cfRule type="cellIs" dxfId="37" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 A48:F51">
-    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13799,20 +13877,20 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I1:I47 I74:I1048576">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A47 A74:A1048576 A52:A55 B52 C52:F55 G48:XFD73 A56:F73">
-    <cfRule type="cellIs" dxfId="33" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 A48:F51">
-    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="37980" windowHeight="19880" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="33000" windowHeight="19880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="20160224" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="659">
   <si>
     <t>类别</t>
   </si>
@@ -2677,32 +2677,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">换怪变两，换怪大招不响应点击 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>血条带cd</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>切音效</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度调整</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>dot不播受击动作</t>
-    <rPh sb="4" eb="5">
-      <t>bo</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dong'zuo</t>
-    </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>zz</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3010,9 +2984,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>loading界面修改</t>
-  </si>
-  <si>
     <t>MG-2562</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -3025,6 +2996,1156 @@
       <t>nv'wang</t>
     </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物详情界面</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2563</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2564</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <rPh sb="0" eb="1">
+      <t>pang'zi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局调整验收，相关配置</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan'shou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长卡点需求，审核</t>
+  </si>
+  <si>
+    <t>具体任务， 1-8对话 + 审核</t>
+  </si>
+  <si>
+    <t>UI音效（程序部分）</t>
+    <rPh sb="2" eb="3">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI音效（程序部分）-Debug</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动战斗逻辑</t>
+  </si>
+  <si>
+    <t>自动战斗逻辑</t>
+    <rPh sb="0" eb="1">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan'dou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP-debug</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪姬</t>
+    <rPh sb="0" eb="1">
+      <t>xue'ji</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具指引各个系统回归</t>
+  </si>
+  <si>
+    <t>Loading界面美术需求</t>
+  </si>
+  <si>
+    <t>loading界面功能设计</t>
+  </si>
+  <si>
+    <t>宠物详情</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物详情-Debug</t>
+    <rPh sb="0" eb="1">
+      <t>chogn'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'qing</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导</t>
+    <rPh sb="0" eb="1">
+      <t>xin'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin'dao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI特效，动画补充 （回归之前界面）</t>
+  </si>
+  <si>
+    <t>第四章副本-小怪bossAI配置</t>
+    <rPh sb="1" eb="2">
+      <t>si</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章副本-大bossAI配置</t>
+    <rPh sb="1" eb="2">
+      <t>si</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章副本-副本数值配置</t>
+    <rPh sb="1" eb="2">
+      <t>si</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章副本-Debug</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>san</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>f'b</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星，胖子</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pang'zi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3 -4章副本配置Reward - debug</t>
+  </si>
+  <si>
+    <t>老李</t>
+    <rPh sb="0" eb="1">
+      <t>lao'li</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋内容设计</t>
+  </si>
+  <si>
+    <t>通天塔-金钱，经验副本reward配置</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'qian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing'yan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章副本测试（待拆分）</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>san'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店内容设计，配置？</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'rong'she'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局修改-Debug</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">对局-换怪变两，换怪大招不响应点击 </t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-血条带cd</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-切音效</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-速度调整</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-dot不播受击动作</t>
+    <rPh sb="7" eb="8">
+      <t>bo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI音效-Debug</t>
+    <rPh sb="2" eb="3">
+      <t>yin'xiao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物详情-Debug</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'qing</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp-debug</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>师叔，zz</t>
+    <rPh sb="0" eb="1">
+      <t>shi'shu</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端自主任务</t>
+  </si>
+  <si>
+    <t>充值功能预研</t>
+    <rPh sb="0" eb="1">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'yan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器自主任务</t>
+  </si>
+  <si>
+    <t>配置表关联检查</t>
+    <rPh sb="0" eb="1">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guan'lian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian'cha</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <rPh sb="0" eb="1">
+      <t>shuai'shuai</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到-debug</t>
+    <rPh sb="0" eb="1">
+      <t>qian'dao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器配表优化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘美术需求*？</t>
+    <rPh sb="0" eb="1">
+      <t>li'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6版本对局外调整需求（包括美术）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading界面</t>
+    <rPh sb="7" eb="8">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局外修改方案用例设计</t>
+    <rPh sb="9" eb="10">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>道具tips-类型修改测试</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言拆表测试</t>
+    <rPh sb="0" eb="1">
+      <t>duo'yu'yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chai'biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2565</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术的bug跟进不及时，增加了PM的工作量，为什么不能直接发到对应美术？</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji'shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wei'shen</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shen'me</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>mei'shu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-第三四章副本怪物弱点图标</t>
+    <rPh sb="3" eb="4">
+      <t>di</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>san'si'zhang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tu'biao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>差美术表现</t>
+    <rPh sb="0" eb="1">
+      <t>cha</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>biao'xian</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI音效配置待排期</t>
+    <rPh sb="2" eb="3">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <rPh sb="0" eb="1">
+      <t>jin'xing'zhong</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <rPh sb="0" eb="1">
+      <t>jin'xnig'z</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本阵容选择界面换UI</t>
+    <rPh sb="0" eb="1">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本阵容选择界面</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zher'nong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>找小星对</t>
+    <rPh sb="0" eb="1">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dui</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2566 MG-2567</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <rPh sb="0" eb="1">
+      <t>lei'shen</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容选择界面</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到复查bug</t>
+    <rPh sb="0" eb="1">
+      <t>qian'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'cha</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局修改测试，复查bug</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu'cha</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP测试（待拆分）</t>
+    <rPh sb="3" eb="4">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物-详情界面测试，复查bug</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang'qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu'cha</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容选择换UI测试，复查bug</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu'cha</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI音效测试（等资源到位策划配完一起测？还是怎么安排？）</t>
+    <rPh sb="2" eb="3">
+      <t>yin'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi'y</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dao'wei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>pei'wan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zen'me</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>an'pai</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败指引测试（等级开启部分），复查bug</t>
+    <rPh sb="0" eb="1">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'yin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng'ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai'qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fu'cha</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级开启（基础框架，宠物）测试</t>
+    <rPh sb="0" eb="1">
+      <t>deng'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kuang'jia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物详情用例设计</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4章副本用例设计</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-失败指引-Debug</t>
+    <rPh sb="3" eb="4">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'yin</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物详情-调UI，Debug</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘-九尾狐（外包）</t>
+    <rPh sb="3" eb="4">
+      <t>jiu'wei'hu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wai'bao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘-K（外包）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘-艾萨克牛顿（外包）</t>
+    <rPh sb="3" eb="4">
+      <t>ai'sa'ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>niu'dun</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>云祥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>云祥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图标-找资源</t>
+    <rPh sb="5" eb="6">
+      <t>zhao'zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标*40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石Icon*4</t>
+    <rPh sb="0" eb="1">
+      <t>bao'shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘-其他（等需求）</t>
+    <rPh sb="0" eb="1">
+      <t>li'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-Boss场景拼接</t>
+    <rPh sb="0" eb="1">
+      <t>tong't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pin'jie</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <rPh sb="0" eb="1">
+      <t>luo'yang</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落-场景拼接</t>
+    <rPh sb="0" eb="1">
+      <t>cun'luo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pin'jie</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-对局外调整（0.6）</t>
+    <rPh sb="3" eb="4">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI优化计划</t>
+    <rPh sb="2" eb="3">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效-天使长，射手座，冰雪女王</t>
+    <rPh sb="3" eb="4">
+      <t>tian'shi'zhang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mo'gu'ren</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bing'xue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nv'wang</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效-九尾狐</t>
+    <rPh sb="0" eb="1">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiu'wei'hu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效-冰龙</t>
+    <rPh sb="0" eb="1">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bing'long</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效-铁匠</t>
+    <rPh sb="0" eb="1">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tie'jiang</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>云祥</t>
+    <rPh sb="0" eb="1">
+      <t>yun'xiang</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔场景</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主场景家具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作-射手座</t>
+    <rPh sb="0" eb="1">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>she'shou'zuo</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作-三头犬</t>
+    <rPh sb="0" eb="1">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>san'tou'quan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D-蘑菇人</t>
+    <rPh sb="3" eb="4">
+      <t>mo'gu'ren</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <rPh sb="0" eb="1">
+      <t>sun'fan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作-铁匠</t>
+    <rPh sb="0" eb="1">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tie'jiang</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D-第一章boss</t>
+    <rPh sb="3" eb="4">
+      <t>di'yi'zhang</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-公会祈福*3</t>
+    <rPh sb="3" eb="4">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi'fu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2568</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3188,7 +4309,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3214,8 +4335,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3300,8 +4427,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="27">
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -3311,6 +4451,9 @@
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
@@ -3323,8 +4466,11 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="109">
     <dxf>
       <font>
         <color indexed="60"/>
@@ -3459,6 +4605,310 @@
         <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4129,88 +5579,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -4490,8 +5858,8 @@
   <dimension ref="A1:S367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q201" sqref="Q201"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D195" sqref="D195:E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4553,13 +5921,13 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4585,7 +5953,7 @@
         <v>357</v>
       </c>
       <c r="I2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -4608,7 +5976,7 @@
         <v>411</v>
       </c>
       <c r="I3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N3" t="s">
         <v>445</v>
@@ -4632,10 +6000,10 @@
         <v>414</v>
       </c>
       <c r="I4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="O4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="Q4" t="s">
         <v>445</v>
@@ -4686,6 +6054,12 @@
       </c>
       <c r="H6" t="s">
         <v>417</v>
+      </c>
+      <c r="I6" t="s">
+        <v>502</v>
+      </c>
+      <c r="R6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4724,7 +6098,7 @@
         <v>368</v>
       </c>
       <c r="I9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L9" t="s">
         <v>445</v>
@@ -4748,7 +6122,7 @@
         <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L10" t="s">
         <v>445</v>
@@ -4775,7 +6149,7 @@
         <v>413</v>
       </c>
       <c r="I11" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L11" t="s">
         <v>445</v>
@@ -4801,7 +6175,7 @@
         <v>411</v>
       </c>
       <c r="I12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M12" t="s">
         <v>445</v>
@@ -4873,13 +6247,13 @@
         <v>445</v>
       </c>
       <c r="N16" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>55</v>
@@ -4900,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L18" t="s">
         <v>455</v>
@@ -4909,7 +6283,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
         <v>48</v>
@@ -4930,13 +6304,13 @@
         <v>418</v>
       </c>
       <c r="I19" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N19" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
         <v>48</v>
@@ -4957,13 +6331,13 @@
         <v>419</v>
       </c>
       <c r="I20" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N20" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
         <v>48</v>
@@ -4986,8 +6360,11 @@
       <c r="N21" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22" t="s">
         <v>48</v>
@@ -5007,8 +6384,11 @@
       <c r="H22" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="C23" t="s">
         <v>48</v>
@@ -5028,8 +6408,11 @@
       <c r="H23" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="C24" t="s">
         <v>48</v>
@@ -5049,8 +6432,14 @@
       <c r="H24" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>445</v>
+      </c>
+      <c r="R24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="C25" t="s">
         <v>48</v>
@@ -5071,13 +6460,13 @@
         <v>420</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="C26" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>60</v>
@@ -5092,13 +6481,13 @@
         <v>449</v>
       </c>
       <c r="I26" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q26" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="C27" t="s">
         <v>49</v>
@@ -5119,7 +6508,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="C28" t="s">
         <v>49</v>
@@ -5140,7 +6529,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="C29" t="s">
         <v>49</v>
@@ -5161,7 +6550,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="C30" t="s">
         <v>49</v>
@@ -5179,7 +6568,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31" t="s">
         <v>48</v>
@@ -5199,8 +6588,14 @@
       <c r="H31" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>445</v>
+      </c>
+      <c r="R31" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>48</v>
       </c>
@@ -5220,7 +6615,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>48</v>
       </c>
@@ -5237,16 +6632,16 @@
         <v>476</v>
       </c>
       <c r="I33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N33" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>58</v>
@@ -5267,13 +6662,13 @@
         <v>430</v>
       </c>
       <c r="I35" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N35" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
         <v>48</v>
@@ -5294,13 +6689,13 @@
         <v>429</v>
       </c>
       <c r="I36" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="O36" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
         <v>48</v>
@@ -5317,8 +6712,14 @@
       <c r="H37" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>502</v>
+      </c>
+      <c r="R37" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
         <v>49</v>
@@ -5330,16 +6731,16 @@
         <v>364</v>
       </c>
       <c r="F38" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>43</v>
@@ -5359,8 +6760,11 @@
       <c r="H40" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" t="s">
         <v>360</v>
@@ -5380,8 +6784,11 @@
       <c r="H41" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
         <v>360</v>
@@ -5398,8 +6805,11 @@
       <c r="H42" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" t="s">
         <v>48</v>
@@ -5419,8 +6829,11 @@
       <c r="H43" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" t="s">
         <v>49</v>
@@ -5432,7 +6845,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
         <v>49</v>
@@ -5444,10 +6857,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>50</v>
       </c>
@@ -5467,7 +6880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>48</v>
       </c>
@@ -5484,13 +6897,13 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K48" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>48</v>
       </c>
@@ -5510,13 +6923,13 @@
         <v>436</v>
       </c>
       <c r="I49" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L49" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>48</v>
       </c>
@@ -5536,13 +6949,13 @@
         <v>437</v>
       </c>
       <c r="I50" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L50" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>48</v>
       </c>
@@ -5562,13 +6975,13 @@
         <v>438</v>
       </c>
       <c r="I51" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L51" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>48</v>
       </c>
@@ -5588,7 +7001,7 @@
         <v>435</v>
       </c>
       <c r="I52" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M52" t="s">
         <v>470</v>
@@ -5597,7 +7010,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>48</v>
       </c>
@@ -5617,7 +7030,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>48</v>
       </c>
@@ -5640,10 +7053,10 @@
         <v>445</v>
       </c>
       <c r="N54" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>48</v>
       </c>
@@ -5663,13 +7076,13 @@
         <v>403</v>
       </c>
       <c r="I55" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q55" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>48</v>
       </c>
@@ -5689,10 +7102,10 @@
         <v>442</v>
       </c>
       <c r="I56" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>48</v>
       </c>
@@ -5711,8 +7124,14 @@
       <c r="H57" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>502</v>
+      </c>
+      <c r="R57" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="C58" t="s">
         <v>48</v>
@@ -5733,13 +7152,13 @@
         <v>407</v>
       </c>
       <c r="I58" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L58" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>48</v>
       </c>
@@ -5758,15 +7177,21 @@
       <c r="H59" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>502</v>
+      </c>
+      <c r="R59" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="I60"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D61" s="15"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
@@ -5789,7 +7214,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="C63" t="s">
         <v>48</v>
@@ -5807,7 +7232,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="C64" s="40" t="s">
         <v>48</v>
@@ -5828,7 +7253,7 @@
         <v>342</v>
       </c>
       <c r="I64" s="40" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M64" t="s">
         <v>471</v>
@@ -5837,10 +7262,10 @@
         <v>264</v>
       </c>
       <c r="O64" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="C65" t="s">
         <v>49</v>
@@ -5858,7 +7283,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="C66" s="40" t="s">
         <v>48</v>
@@ -5879,13 +7304,13 @@
         <v>347</v>
       </c>
       <c r="I66" s="40" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N66" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="C67" s="40" t="s">
         <v>48</v>
@@ -5906,13 +7331,13 @@
         <v>348</v>
       </c>
       <c r="I67" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M67" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="C68" t="s">
         <v>48</v>
@@ -5930,7 +7355,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="C69" s="40" t="s">
         <v>48</v>
@@ -5951,13 +7376,16 @@
         <v>350</v>
       </c>
       <c r="N69" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="Q69" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="C70" s="40" t="s">
         <v>48</v>
@@ -5980,8 +7408,14 @@
       <c r="O70" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q70" t="s">
+        <v>447</v>
+      </c>
+      <c r="R70" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="C71" s="40" t="s">
         <v>49</v>
@@ -6001,11 +7435,14 @@
       <c r="H71" s="40" t="s">
         <v>355</v>
       </c>
+      <c r="I71" s="40" t="s">
+        <v>502</v>
+      </c>
       <c r="Q71" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="C72" t="s">
         <v>48</v>
@@ -6026,13 +7463,13 @@
         <v>106</v>
       </c>
       <c r="I72" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K72" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="C73" t="s">
         <v>48</v>
@@ -6053,13 +7490,13 @@
         <v>109</v>
       </c>
       <c r="I73" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L73" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="C74" s="40" t="s">
         <v>48</v>
@@ -6079,8 +7516,14 @@
       <c r="H74" s="41" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="C75" s="40" t="s">
         <v>48</v>
@@ -6101,14 +7544,14 @@
         <v>107</v>
       </c>
       <c r="I75" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="J75" s="17"/>
       <c r="N75" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="C76" t="s">
         <v>48</v>
@@ -6129,19 +7572,19 @@
         <v>108</v>
       </c>
       <c r="I76" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L76" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="C77" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E77" s="40" t="s">
         <v>479</v>
@@ -6156,16 +7599,16 @@
         <v>480</v>
       </c>
       <c r="I77" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="C78" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>479</v>
@@ -6177,13 +7620,13 @@
         <v>0.1</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="I78" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="C79" s="40" t="s">
         <v>48</v>
@@ -6204,13 +7647,13 @@
         <v>94</v>
       </c>
       <c r="I79" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M79" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="C80" s="40" t="s">
         <v>48</v>
@@ -6231,7 +7674,7 @@
         <v>335</v>
       </c>
       <c r="I80" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M80" t="s">
         <v>445</v>
@@ -6258,10 +7701,10 @@
         <v>92</v>
       </c>
       <c r="O81" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="Q81" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -6285,7 +7728,7 @@
         <v>96</v>
       </c>
       <c r="I82" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -6309,7 +7752,7 @@
         <v>330</v>
       </c>
       <c r="I83" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q83" t="s">
         <v>445</v>
@@ -6336,7 +7779,7 @@
         <v>332</v>
       </c>
       <c r="I84" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q84" t="s">
         <v>445</v>
@@ -6363,30 +7806,30 @@
         <v>334</v>
       </c>
       <c r="I85" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q85" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="C86" t="s">
-        <v>48</v>
-      </c>
-      <c r="D86" s="17" t="s">
+      <c r="C86" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E86" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="F86" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G86" s="41">
         <v>1</v>
       </c>
-      <c r="H86" s="17" t="s">
+      <c r="H86" s="41" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6459,16 +7902,19 @@
         <v>48</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="E90" t="s">
-        <v>525</v>
+        <v>520</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G90" s="17">
+        <v>1.5</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="I90" t="s">
-        <v>445</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
@@ -6477,68 +7923,65 @@
         <v>48</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E91" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F91" s="16" t="s">
         <v>51</v>
       </c>
       <c r="G91" s="17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>529</v>
+        <v>89</v>
       </c>
       <c r="E92" t="s">
-        <v>526</v>
-      </c>
-      <c r="F92" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G92" s="17">
-        <v>1</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>527</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="C93" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E93" t="s">
-        <v>193</v>
-      </c>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="D94" s="14"/>
+      <c r="B94" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" t="s">
+        <v>79</v>
+      </c>
+      <c r="F94" t="s">
+        <v>51</v>
+      </c>
+      <c r="H94" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" t="s">
-        <v>78</v>
-      </c>
       <c r="C95" t="s">
         <v>48</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E95" t="s">
         <v>79</v>
@@ -6547,7 +7990,7 @@
         <v>51</v>
       </c>
       <c r="H95" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
@@ -6556,225 +7999,240 @@
         <v>48</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="E96" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="F96" t="s">
         <v>51</v>
       </c>
       <c r="H96" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="C97" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="E97" t="s">
-        <v>258</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="C97" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E97" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F97" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G97" s="40">
+        <v>2</v>
+      </c>
+      <c r="H97" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="I97" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="M97" t="s">
+        <v>471</v>
+      </c>
+      <c r="N97" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="C98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" t="s">
+        <v>79</v>
+      </c>
+      <c r="F98" t="s">
         <v>51</v>
       </c>
-      <c r="H97" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="C98" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D98" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E98" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F98" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="G98" s="40">
-        <v>2</v>
-      </c>
-      <c r="H98" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="I98" s="40" t="s">
-        <v>507</v>
-      </c>
-      <c r="M98" t="s">
-        <v>471</v>
-      </c>
-      <c r="N98" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="C99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="E99" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="F99" t="s">
-        <v>51</v>
+        <v>183</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="I99" t="s">
+        <v>502</v>
+      </c>
+      <c r="L99" t="s">
+        <v>263</v>
+      </c>
+      <c r="M99" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
-      <c r="C100" t="s">
+      <c r="C100" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E100" t="s">
+        <v>113</v>
+      </c>
+      <c r="E100" s="40" t="s">
         <v>111</v>
       </c>
       <c r="F100" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G100">
         <v>2</v>
       </c>
       <c r="H100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I100" t="s">
-        <v>507</v>
-      </c>
-      <c r="L100" t="s">
-        <v>263</v>
-      </c>
-      <c r="M100" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="C101" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E101" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F101" t="s">
-        <v>184</v>
-      </c>
-      <c r="G101">
-        <v>2</v>
-      </c>
-      <c r="H101" t="s">
-        <v>116</v>
-      </c>
-      <c r="I101" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F101" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G101" s="40">
+        <v>3</v>
+      </c>
+      <c r="H101" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I101" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>530</v>
+      </c>
+      <c r="R101" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
-      <c r="C102" s="40" t="s">
+      <c r="C102" t="s">
         <v>48</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E102" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F102" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="G102" s="40">
-        <v>3</v>
-      </c>
-      <c r="H102" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="E102" t="s">
+        <v>187</v>
+      </c>
+      <c r="F102" t="s">
+        <v>51</v>
+      </c>
+      <c r="H102" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
-      <c r="C103" t="s">
-        <v>48</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E103" t="s">
-        <v>187</v>
-      </c>
-      <c r="F103" t="s">
-        <v>51</v>
-      </c>
-      <c r="H103" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B104" t="s">
         <v>118</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G104">
+        <v>0.5</v>
+      </c>
+      <c r="H104" t="s">
+        <v>309</v>
+      </c>
+      <c r="I104" t="s">
+        <v>502</v>
+      </c>
+      <c r="M104" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="C105" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" t="s">
         <v>182</v>
       </c>
       <c r="G105">
         <v>0.5</v>
       </c>
       <c r="H105" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I105" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M105" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="C106" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E106" s="40" t="s">
-        <v>119</v>
+      <c r="C106" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106" t="s">
+        <v>142</v>
       </c>
       <c r="F106" t="s">
         <v>182</v>
@@ -6783,22 +8241,22 @@
         <v>0.5</v>
       </c>
       <c r="H106" t="s">
-        <v>310</v>
+        <v>141</v>
       </c>
       <c r="I106" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M106" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="C107" t="s">
         <v>48</v>
       </c>
-      <c r="D107" t="s">
-        <v>40</v>
+      <c r="D107" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="E107" t="s">
         <v>142</v>
@@ -6810,228 +8268,222 @@
         <v>0.5</v>
       </c>
       <c r="H107" t="s">
-        <v>141</v>
+        <v>311</v>
       </c>
       <c r="I107" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M107" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="C108" t="s">
         <v>48</v>
       </c>
-      <c r="D108" s="14" t="s">
-        <v>56</v>
+      <c r="D108" t="s">
+        <v>312</v>
       </c>
       <c r="E108" t="s">
         <v>142</v>
       </c>
       <c r="F108" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G108">
         <v>0.5</v>
       </c>
       <c r="H108" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I108" t="s">
-        <v>507</v>
-      </c>
-      <c r="M108" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="C109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D109" t="s">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="E109" t="s">
         <v>142</v>
       </c>
-      <c r="F109" t="s">
-        <v>185</v>
-      </c>
       <c r="G109">
         <v>0.5</v>
       </c>
       <c r="H109" t="s">
-        <v>313</v>
-      </c>
-      <c r="I109" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="C110" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" t="s">
-        <v>39</v>
-      </c>
-      <c r="E110" t="s">
-        <v>142</v>
-      </c>
-      <c r="G110">
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F111" t="s">
+        <v>184</v>
+      </c>
+      <c r="H111" t="s">
+        <v>315</v>
+      </c>
+      <c r="I111" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E112" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G112">
         <v>0.5</v>
       </c>
-      <c r="H110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" t="s">
-        <v>120</v>
-      </c>
-      <c r="C112" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F112" t="s">
-        <v>184</v>
-      </c>
       <c r="H112" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I112" t="s">
-        <v>507</v>
+        <v>502</v>
+      </c>
+      <c r="K112" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="C113" t="s">
+      <c r="C113" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E113" t="s">
+        <v>128</v>
+      </c>
+      <c r="E113" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F113" t="s">
-        <v>194</v>
-      </c>
-      <c r="G113">
+      <c r="F113" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="G113" s="40">
+        <v>1</v>
+      </c>
+      <c r="H113" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="I113" s="40" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="C114" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" t="s">
+        <v>123</v>
+      </c>
+      <c r="F114" t="s">
+        <v>195</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>126</v>
+      </c>
+      <c r="I114" s="40" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="C115" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F115" t="s">
+        <v>185</v>
+      </c>
+      <c r="G115">
         <v>0.5</v>
       </c>
-      <c r="H113" t="s">
-        <v>314</v>
-      </c>
-      <c r="I113" t="s">
-        <v>507</v>
-      </c>
-      <c r="K113" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C114" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E114" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F114" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="G114" s="40">
-        <v>1</v>
-      </c>
-      <c r="H114" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="I114" s="40" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="C115" t="s">
-        <v>48</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E115" t="s">
-        <v>123</v>
-      </c>
-      <c r="F115" t="s">
-        <v>195</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
       <c r="H115" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="I115" s="40" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="C116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>119</v>
+        <v>130</v>
+      </c>
+      <c r="E116" t="s">
+        <v>123</v>
       </c>
       <c r="F116" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="G116">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H116" t="s">
-        <v>317</v>
-      </c>
-      <c r="I116" s="40" t="s">
-        <v>507</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
+      <c r="A117" s="4"/>
       <c r="C117" t="s">
         <v>49</v>
       </c>
-      <c r="D117" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E117" t="s">
-        <v>123</v>
+      <c r="D117" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="F117" t="s">
         <v>51</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>318</v>
+        <v>608</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -7040,60 +8492,63 @@
         <v>49</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F118" t="s">
-        <v>51</v>
+        <v>122</v>
+      </c>
+      <c r="E118" t="s">
+        <v>124</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="C119" t="s">
-        <v>49</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E119" t="s">
-        <v>124</v>
-      </c>
-      <c r="G119">
-        <v>0.5</v>
-      </c>
+      <c r="A119" s="5"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
+      <c r="B120" t="s">
+        <v>137</v>
+      </c>
+      <c r="C120" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F120" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="G120" s="40"/>
+      <c r="H120" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="O120" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" t="s">
-        <v>137</v>
-      </c>
       <c r="C121" t="s">
         <v>48</v>
       </c>
-      <c r="D121" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E121" s="19" t="s">
-        <v>135</v>
+      <c r="D121" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="F121" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="H121" t="s">
-        <v>315</v>
-      </c>
-      <c r="O121" t="s">
-        <v>472</v>
+        <v>478</v>
+      </c>
+      <c r="I121" s="40" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
@@ -7101,20 +8556,18 @@
         <v>48</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>477</v>
+        <v>588</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>142</v>
+        <v>589</v>
       </c>
       <c r="F122" t="s">
-        <v>264</v>
+        <v>51</v>
       </c>
       <c r="H122" t="s">
-        <v>478</v>
-      </c>
-      <c r="I122" s="40" t="s">
-        <v>507</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="I122" s="40"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
@@ -7126,22 +8579,22 @@
       <c r="B124" t="s">
         <v>136</v>
       </c>
-      <c r="C124" t="s">
-        <v>48</v>
-      </c>
-      <c r="D124" s="19" t="s">
+      <c r="C124" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E124" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="40">
         <v>1</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="40" t="s">
         <v>321</v>
       </c>
       <c r="L124" t="s">
@@ -7150,22 +8603,22 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
-      <c r="C125" t="s">
-        <v>48</v>
-      </c>
-      <c r="D125" s="19" t="s">
+      <c r="C125" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="40">
         <v>3</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="40" t="s">
         <v>320</v>
       </c>
       <c r="M125" t="s">
@@ -7193,7 +8646,7 @@
         <v>322</v>
       </c>
       <c r="I126" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q126" t="s">
         <v>445</v>
@@ -7241,12 +8694,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" t="s">
         <v>50</v>
@@ -7270,13 +8723,13 @@
         <v>326</v>
       </c>
       <c r="I130" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K130" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>48</v>
       </c>
@@ -7296,10 +8749,10 @@
         <v>327</v>
       </c>
       <c r="I131" s="40" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="C132" t="s">
         <v>48</v>
@@ -7320,10 +8773,10 @@
         <v>325</v>
       </c>
       <c r="I132" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="C133" t="s">
         <v>48</v>
@@ -7344,11 +8797,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
     </row>
-    <row r="135" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>18</v>
       </c>
@@ -7374,13 +8827,13 @@
         <v>285</v>
       </c>
       <c r="I135" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K135" s="33" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="136" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="C136" s="42" t="s">
         <v>48</v>
@@ -7401,16 +8854,16 @@
         <v>286</v>
       </c>
       <c r="I136" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N136" s="33" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="O136" s="33" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="137" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="C137" s="42" t="s">
         <v>48</v>
@@ -7434,13 +8887,13 @@
         <v>264</v>
       </c>
       <c r="O137" s="33" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="Q137" s="33" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="C138" s="42" t="s">
         <v>48</v>
@@ -7464,22 +8917,26 @@
         <v>264</v>
       </c>
       <c r="O138" s="33" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="Q138" s="33" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
-      <c r="C139" s="42"/>
+      <c r="C139" s="42" t="s">
+        <v>48</v>
+      </c>
       <c r="D139" s="45" t="s">
         <v>481</v>
       </c>
       <c r="E139" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="F139" s="42"/>
+      <c r="F139" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="G139" s="35">
         <v>1.5</v>
       </c>
@@ -7487,7 +8944,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="140" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="C140" s="42" t="s">
         <v>48</v>
@@ -7507,11 +8964,15 @@
       <c r="H140" s="44" t="s">
         <v>289</v>
       </c>
+      <c r="I140" s="42"/>
       <c r="Q140" s="33" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="R140" s="33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="C141" s="42" t="s">
         <v>48</v>
@@ -7532,10 +8993,13 @@
         <v>290</v>
       </c>
       <c r="Q141" s="33" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="R141" s="33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="C142" s="42" t="s">
         <v>48</v>
@@ -7556,10 +9020,13 @@
         <v>291</v>
       </c>
       <c r="Q142" s="33" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="R142" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="C143" s="42" t="s">
         <v>48</v>
@@ -7580,13 +9047,16 @@
         <v>292</v>
       </c>
       <c r="N143" s="33" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q143" s="33" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="R143" s="33" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="C144" s="33" t="s">
         <v>48</v>
@@ -7607,7 +9077,7 @@
         <v>209</v>
       </c>
       <c r="I144" s="33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K144" s="33" t="s">
         <v>446</v>
@@ -7616,7 +9086,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="C145" s="33" t="s">
         <v>48</v>
@@ -7637,13 +9107,13 @@
         <v>212</v>
       </c>
       <c r="I145" s="33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K145" s="33" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="C146" s="33" t="s">
         <v>48</v>
@@ -7661,7 +9131,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="147" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="C147" s="33" t="s">
         <v>48</v>
@@ -7682,13 +9152,13 @@
         <v>282</v>
       </c>
       <c r="I147" s="33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K147" s="33" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="148" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="C148" s="33" t="s">
         <v>48</v>
@@ -7709,13 +9179,13 @@
         <v>281</v>
       </c>
       <c r="I148" s="33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q148" s="33" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="149" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="C149" s="33" t="s">
         <v>48</v>
@@ -7733,7 +9203,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="150" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="C150" s="42" t="s">
         <v>48</v>
@@ -7754,10 +9224,10 @@
         <v>151</v>
       </c>
       <c r="I150" s="33" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="C151" s="42" t="s">
         <v>48</v>
@@ -7778,10 +9248,10 @@
         <v>152</v>
       </c>
       <c r="I151" s="33" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="C152" s="42" t="s">
         <v>48</v>
@@ -7801,11 +9271,14 @@
       <c r="H152" s="42" t="s">
         <v>222</v>
       </c>
+      <c r="I152" s="42" t="s">
+        <v>502</v>
+      </c>
       <c r="Q152" s="33" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="153" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="C153" s="33" t="s">
         <v>48</v>
@@ -7826,13 +9299,13 @@
         <v>224</v>
       </c>
       <c r="I153" s="33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L153" s="33" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="154" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="C154" s="42" t="s">
         <v>48</v>
@@ -7852,14 +9325,20 @@
       <c r="H154" s="42" t="s">
         <v>224</v>
       </c>
+      <c r="I154" s="42" t="s">
+        <v>445</v>
+      </c>
       <c r="M154" s="33" t="s">
         <v>473</v>
       </c>
       <c r="N154" s="33" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="R154" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="C155" s="42" t="s">
         <v>48</v>
@@ -7879,11 +9358,14 @@
       <c r="H155" s="42" t="s">
         <v>227</v>
       </c>
+      <c r="I155" s="42" t="s">
+        <v>604</v>
+      </c>
       <c r="N155" s="33" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="C156" s="42" t="s">
         <v>49</v>
@@ -7904,7 +9386,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="C157" s="42" t="s">
         <v>48</v>
@@ -7924,14 +9406,17 @@
       <c r="H157" s="42" t="s">
         <v>284</v>
       </c>
+      <c r="I157" s="42" t="s">
+        <v>502</v>
+      </c>
       <c r="O157" s="33" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Q157" s="33" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="158" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="C158" s="33" t="s">
         <v>48</v>
@@ -7952,7 +9437,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="159" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="C159" s="33" t="s">
         <v>48</v>
@@ -7973,12 +9458,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="160" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="D160" s="22"/>
       <c r="E160" s="20"/>
     </row>
-    <row r="161" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="33" t="s">
         <v>155</v>
@@ -8002,13 +9487,13 @@
         <v>236</v>
       </c>
       <c r="I161" s="37" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L161" s="33" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="162" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="C162" s="33" t="s">
         <v>48</v>
@@ -8029,13 +9514,13 @@
         <v>238</v>
       </c>
       <c r="I162" s="33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L162" s="33" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="163" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="42"/>
       <c r="C163" s="42" t="s">
@@ -8052,11 +9537,14 @@
       </c>
       <c r="G163" s="42"/>
       <c r="H163" s="42"/>
+      <c r="I163" s="42" t="s">
+        <v>502</v>
+      </c>
       <c r="Q163" s="33" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="164" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="C164" s="33" t="s">
         <v>49</v>
@@ -8077,13 +9565,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="C165" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D165" s="42" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E165" s="37" t="s">
         <v>235</v>
@@ -8097,6 +9585,9 @@
       <c r="H165" s="42" t="s">
         <v>299</v>
       </c>
+      <c r="I165" s="42" t="s">
+        <v>605</v>
+      </c>
       <c r="M165" s="33" t="s">
         <v>457</v>
       </c>
@@ -8104,7 +9595,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="166" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="C166" s="33" t="s">
         <v>49</v>
@@ -8119,7 +9610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="C167" s="33" t="s">
         <v>49</v>
@@ -8134,7 +9625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="C168" s="33" t="s">
         <v>49</v>
@@ -8149,11 +9640,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="E169" s="37"/>
     </row>
-    <row r="170" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="33" t="s">
         <v>154</v>
@@ -8186,11 +9677,11 @@
         <v>445</v>
       </c>
     </row>
-    <row r="171" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="E171" s="37"/>
     </row>
-    <row r="172" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="33" t="s">
         <v>156</v>
@@ -8208,7 +9699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="C173" s="33" t="s">
         <v>48</v>
@@ -8223,11 +9714,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="174" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="E174" s="34"/>
     </row>
-    <row r="175" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="33" t="s">
         <v>159</v>
@@ -8250,11 +9741,15 @@
       <c r="H175" s="42" t="s">
         <v>303</v>
       </c>
+      <c r="I175" s="42"/>
       <c r="Q175" s="33" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R175" s="33" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="C176" s="42" t="s">
         <v>48</v>
@@ -8275,7 +9770,7 @@
         <v>276</v>
       </c>
       <c r="N176" s="33" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8341,7 +9836,7 @@
         <v>465</v>
       </c>
       <c r="I179" s="33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="O179" s="33" t="s">
         <v>445</v>
@@ -8410,7 +9905,7 @@
         <v>468</v>
       </c>
       <c r="I182" s="33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="O182" s="33" t="s">
         <v>445</v>
@@ -8520,6 +10015,9 @@
       <c r="H190" s="19" t="s">
         <v>293</v>
       </c>
+      <c r="I190" s="20" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="191" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
@@ -8527,10 +10025,10 @@
         <v>48</v>
       </c>
       <c r="D191" s="45" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E191" s="45" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F191" s="42" t="s">
         <v>188</v>
@@ -8539,10 +10037,10 @@
         <v>0.5</v>
       </c>
       <c r="H191" s="45" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I191" s="40" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="192" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -8551,10 +10049,10 @@
         <v>48</v>
       </c>
       <c r="D192" s="45" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E192" s="45" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F192" s="42" t="s">
         <v>188</v>
@@ -8563,22 +10061,22 @@
         <v>0.5</v>
       </c>
       <c r="H192" s="45" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="I192" s="40" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="193" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="C193" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D193" s="45" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E193" s="45" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F193" s="42" t="s">
         <v>188</v>
@@ -8587,22 +10085,22 @@
         <v>0.5</v>
       </c>
       <c r="H193" s="45" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I193" s="40" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="C194" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D194" s="45" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E194" s="45" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F194" s="42" t="s">
         <v>188</v>
@@ -8611,13 +10109,13 @@
         <v>0.2</v>
       </c>
       <c r="H194" s="45" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I194" s="40" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="C195" s="33" t="s">
         <v>49</v>
@@ -8635,7 +10133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="C196" s="33" t="s">
         <v>49</v>
@@ -8653,11 +10151,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="E197" s="34"/>
     </row>
-    <row r="198" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="33" t="s">
         <v>50</v>
@@ -8679,13 +10177,13 @@
         <v>307</v>
       </c>
       <c r="I198" s="42" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q198" s="33" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="199" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="C199" s="42" t="s">
         <v>48</v>
@@ -8704,16 +10202,16 @@
         <v>308</v>
       </c>
       <c r="I199" s="33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M199" s="33" t="s">
         <v>447</v>
       </c>
       <c r="N199" s="33" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="C200" s="42" t="s">
         <v>48</v>
@@ -8734,11 +10232,14 @@
       <c r="Q200" s="33" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R200" s="33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
     </row>
-    <row r="203" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>19</v>
       </c>
@@ -8758,7 +10259,7 @@
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="1:17" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="8" t="s">
         <v>21</v>
@@ -8772,7 +10273,7 @@
       <c r="I204" s="9"/>
       <c r="J204" s="8"/>
     </row>
-    <row r="205" spans="1:17" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="8" t="s">
         <v>22</v>
@@ -8786,7 +10287,7 @@
       <c r="I205" s="9"/>
       <c r="J205" s="8"/>
     </row>
-    <row r="206" spans="1:17" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="8" t="s">
         <v>23</v>
@@ -8800,7 +10301,7 @@
       <c r="I206" s="9"/>
       <c r="J206" s="8"/>
     </row>
-    <row r="207" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="10" t="s">
         <v>24</v>
@@ -8814,7 +10315,7 @@
       <c r="I207" s="9"/>
       <c r="J207" s="8"/>
     </row>
-    <row r="208" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="8" t="s">
         <v>25</v>
@@ -9567,258 +11068,258 @@
   </sheetData>
   <autoFilter ref="A1:S200"/>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="I231:I1048576 I201:I202 I1 I123:I134 I4:I121">
-    <cfRule type="containsText" dxfId="79" priority="88" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I231:I1048576 I201:I202 I1 I123:I134 I4:I120">
+    <cfRule type="containsText" dxfId="108" priority="88" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="89" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="107" priority="89" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A213 B207:F207 A219:A1048576 J219:XFD226 C208:C213 E208:E213 G203:XFD207 A214:XFD218 I208:XFD213 A1 A34:A46 A146:A202 A123:A144 A48:A121">
-    <cfRule type="cellIs" dxfId="77" priority="87" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A207:A213 B207:F207 A219:A1048576 J219:XFD226 C208:C213 E208:E213 G203:XFD207 A214:XFD218 I208:XFD213 A1 A34:A46 A146:A202 A123:A144 A48:A120">
+    <cfRule type="cellIs" dxfId="106" priority="87" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208:B210 A203:F206">
-    <cfRule type="cellIs" dxfId="76" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="85" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108 D106">
-    <cfRule type="cellIs" dxfId="75" priority="84" operator="equal">
+  <conditionalFormatting sqref="D107 D105">
+    <cfRule type="cellIs" dxfId="104" priority="84" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I227:I230">
-    <cfRule type="containsText" dxfId="74" priority="70" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="103" priority="70" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="71" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="102" priority="71" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I226">
-    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="67" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I220:I224">
-    <cfRule type="containsText" dxfId="71" priority="65" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="100" priority="65" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I220)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="66" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="99" priority="66" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D211">
-    <cfRule type="cellIs" dxfId="69" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="64" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195:I200 I137:I144 I146:I190">
-    <cfRule type="expression" dxfId="68" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="52" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",I137)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="53" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",I137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145">
-    <cfRule type="expression" dxfId="66" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="55" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",I145)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="56" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",I145)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="57" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:F212">
-    <cfRule type="cellIs" dxfId="63" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="45" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2 I7:I18 I4:I5 I21:I31">
-    <cfRule type="containsText" dxfId="62" priority="43" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="91" priority="43" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="44" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="90" priority="44" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A31 A2:A5">
-    <cfRule type="cellIs" dxfId="60" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57 D5 D3">
-    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12 D56">
-    <cfRule type="cellIs" dxfId="58" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="40" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="57" priority="38" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="86" priority="38" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="39" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="85" priority="39" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="55" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="37" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:I51">
-    <cfRule type="containsText" dxfId="54" priority="35" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="83" priority="35" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="36" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="82" priority="36" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135:I136">
-    <cfRule type="containsText" dxfId="52" priority="33" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="81" priority="33" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="34" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="80" priority="34" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="50" priority="31" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="79" priority="31" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="32" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="78" priority="32" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="77" priority="29" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="76" priority="30" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="75" priority="27" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="28" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="74" priority="28" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="73" priority="25" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="26" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="72" priority="26" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="42" priority="23" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="70" priority="24" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="69" priority="21" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="22" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="68" priority="22" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="66" priority="20" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I78">
-    <cfRule type="containsText" dxfId="36" priority="17" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="18" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="64" priority="18" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="16" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="61" priority="13" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="60" priority="14" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="58" priority="12" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I122">
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I122)))</formula>
+  <conditionalFormatting sqref="I121:I122">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I121)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I122)))</formula>
+    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I191">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I192">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I193">
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I194)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9829,10 +11330,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F227:F1048576 H208:H213 F1:F16 F18:F202">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I227:I1048576 I1:I31 I102:I105 I113:I202 I107:I111 I33:I100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I227:I1048576 I1:I31 I101:I104 I112:I202 I106:I110 I33:I99">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B227:B1048576 B129:B132 B1:B9 B37:B40 B16:B31 B11:B13 B34:B35 B134:B218 B114:B121 B123:B127 B42:B112">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B227:B1048576 B129:B132 B1:B9 B37:B40 B16:B31 B11:B13 B34:B35 B134:B218 B113:B120 B123:B127 B42:B111">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9844,17 +11345,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P214"/>
+  <dimension ref="A1:P322"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17:H21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118:G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="4" max="4" width="50.83203125" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" customWidth="1"/>
@@ -9914,920 +11415,2375 @@
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E2" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
+      <c r="D3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
+      <c r="D4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E4" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
+      <c r="D5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>585</v>
+      </c>
+      <c r="E7" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
+      <c r="D8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E8" t="s">
+        <v>538</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
+      <c r="D9" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="E9" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
+      <c r="D10" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="E10" t="s">
+        <v>547</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
+      <c r="D11" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="E11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
+      <c r="D12" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="E12" t="s">
+        <v>547</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>1.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>1.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3"/>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <v>3.5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="D23" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="D24" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="D25" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="D26" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="E26" t="s">
+        <v>561</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>387</v>
+      </c>
+      <c r="E28" t="s">
+        <v>364</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>551</v>
+      </c>
+      <c r="E29" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>539</v>
+      </c>
+      <c r="E30" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>542</v>
+      </c>
+      <c r="E31" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E33" t="s">
+        <v>364</v>
+      </c>
+      <c r="G33">
+        <v>0.5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>552</v>
+      </c>
+      <c r="E34" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>390</v>
+      </c>
+      <c r="E35" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>392</v>
+      </c>
+      <c r="E36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>543</v>
+      </c>
+      <c r="E37" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>546</v>
+      </c>
+      <c r="E38" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>558</v>
+      </c>
+      <c r="E39" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="E40" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="E42" t="s">
+        <v>396</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="D43" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="E43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="D44" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="E44" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="D45" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="E45" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="D46" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="E46" t="s">
+        <v>547</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="D47" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="E47" t="s">
+        <v>561</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="D48" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="E48" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B50" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="39" t="s">
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="E50" t="s">
         <v>487</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G50" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="E51" t="s">
+        <v>487</v>
+      </c>
+      <c r="G51" s="39">
+        <v>2</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="E52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G52" s="39">
+        <v>1</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="E53" t="s">
+        <v>487</v>
+      </c>
+      <c r="G53" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="E54" t="s">
+        <v>487</v>
+      </c>
+      <c r="G54" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="H54" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="G17" s="39">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17">
         <v>0.5</v>
       </c>
-      <c r="H17" s="39" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>488</v>
-      </c>
-      <c r="E18" t="s">
-        <v>492</v>
-      </c>
-      <c r="G18" s="39">
+      <c r="H56" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="17">
+        <v>1</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E59" t="s">
+        <v>521</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="17">
+        <v>1</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="E60" t="s">
+        <v>521</v>
+      </c>
+      <c r="F60" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" t="s">
+        <v>535</v>
+      </c>
+      <c r="E61" t="s">
+        <v>521</v>
+      </c>
+      <c r="G61">
+        <v>0.5</v>
+      </c>
+      <c r="H61" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="E62" t="s">
+        <v>521</v>
+      </c>
+      <c r="F62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" t="s">
+        <v>195</v>
+      </c>
+      <c r="H63" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" t="s">
+        <v>195</v>
+      </c>
+      <c r="H64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="C65" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40">
+        <v>1</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="C66" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40">
+        <v>1</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="E67" t="s">
+        <v>520</v>
+      </c>
+      <c r="F67" s="16"/>
+      <c r="G67" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="D69" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="E69" t="s">
+        <v>479</v>
+      </c>
+      <c r="F69" s="16"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="D70" s="14"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" t="s">
+        <v>576</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="16"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" s="16"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" t="s">
+        <v>578</v>
+      </c>
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="E75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="16"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="E76" t="s">
+        <v>580</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="D77" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="F77" s="16"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="D78" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="D79" t="s">
+        <v>582</v>
+      </c>
+      <c r="F79" s="16"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" t="s">
+        <v>611</v>
+      </c>
+      <c r="E81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="D82" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" t="s">
+        <v>142</v>
+      </c>
+      <c r="G82">
+        <v>0.5</v>
+      </c>
+      <c r="H82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D83" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="E83" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="D84" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="E84" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="D85" s="48" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" t="s">
+        <v>123</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="D88" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="D89" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="D90" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="E90" t="s">
+        <v>124</v>
+      </c>
+      <c r="G90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="D91" s="19" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="D92" s="19"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+      <c r="D93" t="s">
+        <v>613</v>
+      </c>
+      <c r="E93" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="D94" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="D95" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="D96" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="D97" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="D98" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="D99" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="D100" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="D101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="106" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E106" t="s">
+        <v>485</v>
+      </c>
+      <c r="F106" s="42"/>
+      <c r="G106" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="H106" s="44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="C107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="E107" t="s">
+        <v>485</v>
+      </c>
+      <c r="F107"/>
+      <c r="G107">
+        <v>0.5</v>
+      </c>
+      <c r="H107" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" t="s">
+        <v>624</v>
+      </c>
+      <c r="E108" t="s">
+        <v>485</v>
+      </c>
+      <c r="G108">
+        <v>0.1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="C109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" t="s">
+        <v>593</v>
+      </c>
+      <c r="E109" t="s">
+        <v>485</v>
+      </c>
+      <c r="H109" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="C110" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E110" t="s">
+        <v>485</v>
+      </c>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="C111" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="E111" t="s">
+        <v>485</v>
+      </c>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="C112" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E112" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42">
+        <v>1</v>
+      </c>
+      <c r="H112" s="42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="C113" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E113" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F113" s="35"/>
+      <c r="G113" s="42">
+        <v>1</v>
+      </c>
+      <c r="H113" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="I113"/>
+    </row>
+    <row r="114" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="C114" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E114" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="G114" s="33">
+        <v>5</v>
+      </c>
+      <c r="H114" s="33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="C115" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" t="s">
+        <v>633</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="G115" s="33">
+        <v>3</v>
+      </c>
+      <c r="H115"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C116" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" t="s">
+        <v>634</v>
+      </c>
+      <c r="E116" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33">
+        <v>1</v>
+      </c>
+      <c r="H116" s="33"/>
+    </row>
+    <row r="117" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="C117" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E119" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" s="37"/>
+      <c r="G119" s="33">
+        <v>6</v>
+      </c>
+      <c r="H119" s="33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="C120" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="E120" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="C121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="E121" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="C122" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="E122" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="D123" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="E123" s="37"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E125" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E126" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="E127" s="34" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="E128" s="34" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E130" s="43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="C131" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" t="s">
+        <v>648</v>
+      </c>
+      <c r="E131" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="C132" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" t="s">
+        <v>649</v>
+      </c>
+      <c r="E132" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G132">
         <v>2</v>
       </c>
-      <c r="H18" s="39" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="E19" t="s">
-        <v>492</v>
-      </c>
-      <c r="G19" s="39">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="C133" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="E133" s="43" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="E134" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="D135" s="33" t="s">
+        <v>640</v>
+      </c>
+      <c r="E135" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="G135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="G136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="34"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E138" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E139" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E140" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="E141" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="C142" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>651</v>
+      </c>
+      <c r="E142" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="C143" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="E143" s="37" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="37"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" t="s">
+        <v>643</v>
+      </c>
+      <c r="E145" t="s">
+        <v>647</v>
+      </c>
+      <c r="G145">
         <v>1</v>
       </c>
-      <c r="H19" s="39" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>490</v>
-      </c>
-      <c r="E20" t="s">
-        <v>492</v>
-      </c>
-      <c r="G20" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>491</v>
-      </c>
-      <c r="E21" t="s">
-        <v>492</v>
-      </c>
-      <c r="G21" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="D43" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="33"/>
+      <c r="C146" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" t="s">
+        <v>644</v>
+      </c>
+      <c r="E146" t="s">
+        <v>647</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="33"/>
+      <c r="C147" t="s">
+        <v>48</v>
+      </c>
+      <c r="D147" t="s">
+        <v>645</v>
+      </c>
+      <c r="E147" t="s">
+        <v>647</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="33"/>
+      <c r="C148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" t="s">
+        <v>646</v>
+      </c>
+      <c r="E148" t="s">
+        <v>647</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="33"/>
+      <c r="C149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="E149" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="33"/>
+      <c r="C150" t="s">
+        <v>48</v>
+      </c>
+      <c r="D150" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="E150" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" t="s">
+        <v>641</v>
+      </c>
+      <c r="E152" t="s">
         <v>485</v>
       </c>
-      <c r="G43">
-        <v>0.5</v>
-      </c>
-      <c r="H43" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="48" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="G152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="C153" t="s">
+        <v>48</v>
+      </c>
+      <c r="D153" t="s">
+        <v>642</v>
+      </c>
+      <c r="E153" t="s">
+        <v>485</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="C154" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="50" t="s">
+        <v>632</v>
+      </c>
+      <c r="E154" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="F154" s="33"/>
+      <c r="G154" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="50" t="s">
+        <v>632</v>
+      </c>
+      <c r="E155" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="G155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="8" t="s">
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+    </row>
+    <row r="157" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="8" t="s">
+      <c r="C157" s="2"/>
+      <c r="D157"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="8"/>
+    </row>
+    <row r="158" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="8" t="s">
+      <c r="C158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="8"/>
+    </row>
+    <row r="159" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+      <c r="B159" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="10" t="s">
+      <c r="C159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="8"/>
+    </row>
+    <row r="160" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="8" t="s">
+      <c r="C160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="8"/>
+    </row>
+    <row r="161" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="8"/>
+    </row>
+    <row r="162" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="8"/>
+    </row>
+    <row r="163" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="8"/>
+    </row>
+    <row r="164" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-    </row>
-    <row r="59" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
+      <c r="C164" s="2"/>
+      <c r="D164" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+    </row>
+    <row r="165" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+    </row>
+    <row r="166" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+    </row>
+    <row r="167" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+    </row>
+    <row r="168" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="11" t="s">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+    </row>
+    <row r="169" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C169" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D169" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E169" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F169" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G169" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H169" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I169" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J61" s="13"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="13"/>
-    </row>
-    <row r="66" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="13"/>
-    </row>
-    <row r="67" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="13"/>
-    </row>
-    <row r="68" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="13"/>
-    </row>
-    <row r="69" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="13"/>
-    </row>
-    <row r="70" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="13"/>
-    </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="13"/>
-    </row>
-    <row r="72" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="13"/>
-    </row>
-    <row r="73" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="13"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="7"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="7"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="7"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="7"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="7"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="7"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="7"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="7"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="7"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="7"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="7"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="7"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="7"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="7"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="7"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="7"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="7"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="7"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="7"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="7"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="7"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="7"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="7"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="7"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="7"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="7"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="7"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="7"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="7"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="7"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="7"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="7"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J169" s="13"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+    </row>
+    <row r="170" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E170" s="25"/>
+      <c r="F170" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G170" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H170" s="27"/>
+      <c r="I170" s="28"/>
+      <c r="J170" s="13"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+    </row>
+    <row r="171" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H171" s="31"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+    </row>
+    <row r="172" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E172" s="24"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H172" s="24"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="13"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+    </row>
+    <row r="173" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C173" s="31"/>
+      <c r="D173" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E173" s="31"/>
+      <c r="F173" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G173" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H173" s="31"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="13"/>
+    </row>
+    <row r="174" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="24"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H174" s="24"/>
+      <c r="I174" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="J174" s="13"/>
+    </row>
+    <row r="175" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="31"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E175" s="31"/>
+      <c r="F175" s="32"/>
+      <c r="G175" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H175" s="31"/>
+      <c r="I175" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J175" s="13"/>
+    </row>
+    <row r="176" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="31"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E176" s="31"/>
+      <c r="F176" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G176" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H176" s="31"/>
+      <c r="I176" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="J176" s="13"/>
+    </row>
+    <row r="177" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="31"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E177" s="31"/>
+      <c r="F177" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G177" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="H177" s="24"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="13"/>
+    </row>
+    <row r="178" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="13"/>
+    </row>
+    <row r="179" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="13"/>
+    </row>
+    <row r="180" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="13"/>
+    </row>
+    <row r="181" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="13"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="7"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="7"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="7"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="7"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="7"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="7"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="7"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="7"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="7"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="7"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="7"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
@@ -10880,42 +13836,564 @@
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
     </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="7"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="7"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="7"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="7"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="7"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="7"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="7"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="7"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="7"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="7"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="7"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="7"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="7"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="7"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="7"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="7"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="7"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="7"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="7"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="7"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="7"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="7"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="7"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="7"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="7"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="7"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="7"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="7"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="7"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="7"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="7"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="7"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="7"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="7"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="7"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="7"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="7"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="7"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="7"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="7"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="7"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="7"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="7"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="7"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="7"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="7"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="7"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="7"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="7"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="7"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="7"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="7"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="7"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="7"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="7"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="7"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="7"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="7"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="7"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="7"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="7"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="7"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="7"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="7"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="7"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="7"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="7"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="7"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="7"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="7"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="7"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="7"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="7"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="7"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="7"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="7"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="7"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="7"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="7"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="7"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="7"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="7"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="7"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="7"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="7"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="7"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="7"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="7"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="7"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="7"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="7"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="7"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="7"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="7"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="7"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="7"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="7"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="7"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="7"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I47 I74:I1048576">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I182:I1048576 I59:I62 I1:I39 I43:I55 I67:I87 I90:I105 I108:I110 I112:I113 I118:I155">
+    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="46" priority="40" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A47 A74:A1048576 A52:A55 B52 C52:F55 G48:XFD73 A56:F73">
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A182:A1048576 A160:A163 G156:XFD169 A164:F169 A1:A62 A170:A177 A178:XFD181 J170:XFD177 A112 A109:A110 A67:A106 A115 A156:C156 E156:F156 C161:F163 B160:C160 A157:F157 A158:C159 E158:F160 D145:D148 A117:A155">
+    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53 A48:F51">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B161">
+    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="containsText" dxfId="43" priority="35" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="36" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D12 D45">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="containsText" dxfId="40" priority="31" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="32" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="cellIs" dxfId="38" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="containsText" dxfId="37" priority="28" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="cellIs" dxfId="35" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65:I66">
+    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:A66">
+    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I88:I89">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I177">
+    <cfRule type="cellIs" dxfId="27" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I171:I175">
+    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I171)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I171)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="cellIs" dxfId="21" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I111 I115 I117">
+    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I111)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("未完成",I111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="cellIs" dxfId="18" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I47 I74:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I182:I1048576 I1:I39 I42:I115 I117:I155">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F47 F74:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F182:F1048576 F7:F39 F1:F5 F42:F116 F154:F155 F152 F118:F150">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C74:C1048576 C1:C47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C182:C1048576 C42:C73 C1:C40 C75:C155">
       <formula1>"必须,超额,长期"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B178:B1048576 B1:B87 B89:B107 B109:B115 B134:B169 B117:B132">
+      <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="110" operator="containsText" text="阻碍" id="{B4878211-3CCD-0846-AABC-EB70CEE71E01}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160224'!I53)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="111" operator="containsText" text="未完成" id="{AF154715-B74C-C945-9395-1A9ABB27FA4A}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160224'!I53)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I56:I58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="13" stopIfTrue="1" id="{A37534BF-3BBC-DC41-940E-32AFDC9CE069}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160224'!I109)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="60"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <fgColor indexed="10"/>
+                  <bgColor indexed="29"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="14" stopIfTrue="1" id="{3A4D955C-73FA-BA47-A641-C52848239B2C}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160224'!I109)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="60"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <fgColor indexed="10"/>
+                  <bgColor indexed="29"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I106:I107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" stopIfTrue="1" id="{1DCCB88C-DDE1-4D4C-BA69-AE404FE8F7A0}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160224'!I114)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="60"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <fgColor indexed="10"/>
+                  <bgColor indexed="29"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="5" stopIfTrue="1" id="{C89C8C44-26A0-534A-94FF-7A44BBB4F39B}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160224'!I114)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="60"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <fgColor indexed="10"/>
+                  <bgColor indexed="29"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I114</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="33000" windowHeight="19880" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="33000" windowHeight="19880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20160224" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="659">
   <si>
     <t>类别</t>
   </si>
@@ -3048,9 +3048,6 @@
     <t>成长卡点需求，审核</t>
   </si>
   <si>
-    <t>具体任务， 1-8对话 + 审核</t>
-  </si>
-  <si>
     <t>UI音效（程序部分）</t>
     <rPh sb="2" eb="3">
       <t>yin'xiao</t>
@@ -3071,19 +3068,6 @@
     <t>自动战斗逻辑</t>
   </si>
   <si>
-    <t>自动战斗逻辑</t>
-    <rPh sb="0" eb="1">
-      <t>zi'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhan'dou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>luo'ji</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>PVP-debug</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3124,33 +3108,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>新手引导</t>
-    <rPh sb="0" eb="1">
-      <t>xin'shou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yin'dao</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI特效，动画补充 （回归之前界面）</t>
-  </si>
-  <si>
-    <t>第四章副本-小怪bossAI配置</t>
-    <rPh sb="1" eb="2">
-      <t>si</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四章副本-大bossAI配置</t>
-    <rPh sb="1" eb="2">
-      <t>si</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>第四章副本-副本数值配置</t>
     <rPh sb="1" eb="2">
       <t>si</t>
@@ -3194,28 +3151,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>抽蛋内容设计</t>
-  </si>
-  <si>
-    <t>通天塔-金钱，经验副本reward配置</t>
-    <rPh sb="0" eb="1">
-      <t>tong'tian'ta</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jin'qian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jing'yan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fu'b</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>pei'zhi</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>第三章副本测试（待拆分）</t>
     <rPh sb="0" eb="1">
       <t>di</t>
@@ -3589,22 +3524,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>副本阵容选择界面</t>
-    <rPh sb="0" eb="1">
-      <t>f'b</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zher'nong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xuan'ze</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>未完成</t>
   </si>
   <si>
@@ -4145,6 +4064,93 @@
   </si>
   <si>
     <t>MG-2568</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>副本阵容选择界面 + 照妖镜 + 换怪</t>
+  </si>
+  <si>
+    <t>新手引导（自主任务）</t>
+  </si>
+  <si>
+    <t>战力模型 - （进阶公式补充， 3-4章）</t>
+  </si>
+  <si>
+    <t>抽蛋内容设计，配置</t>
+  </si>
+  <si>
+    <t>通天塔-试炼之塔 - Boss副本设计（4Boss,16普通）</t>
+  </si>
+  <si>
+    <t>动作资源客户端比美术提交资源大-查原因</t>
+    <rPh sb="0" eb="1">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'h'duuan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>da</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cha</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yuan'yin</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体贴图导致卡的问题-查原因</t>
+    <rPh sb="0" eb="1">
+      <t>zi't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tie'tu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao'zh</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ka</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cha'yuan'y</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8问题总结</t>
+    <rPh sb="2" eb="3">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zong'jie</t>
+    </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4342,7 +4348,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4427,9 +4433,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4470,7 +4473,7 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="113">
     <dxf>
       <font>
         <color indexed="60"/>
@@ -4674,6 +4677,67 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color indexed="60"/>
       </font>
       <fill>
@@ -4766,26 +4830,6 @@
         <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5857,9 +5901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D195" sqref="D195:E196"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -6409,7 +6453,7 @@
         <v>424</v>
       </c>
       <c r="R23" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -6458,6 +6502,9 @@
       </c>
       <c r="H25" t="s">
         <v>420</v>
+      </c>
+      <c r="I25" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -6507,6 +6554,9 @@
       <c r="H27" t="s">
         <v>452</v>
       </c>
+      <c r="I27" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -6528,6 +6578,9 @@
       <c r="H28" t="s">
         <v>454</v>
       </c>
+      <c r="I28" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -6549,6 +6602,9 @@
       <c r="H29" t="s">
         <v>425</v>
       </c>
+      <c r="I29" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -6567,6 +6623,9 @@
       <c r="H30" t="s">
         <v>426</v>
       </c>
+      <c r="I30" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -6613,6 +6672,9 @@
       </c>
       <c r="H32" t="s">
         <v>428</v>
+      </c>
+      <c r="I32" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -6736,6 +6798,9 @@
       <c r="G38">
         <v>2</v>
       </c>
+      <c r="I38" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
@@ -7382,7 +7447,7 @@
         <v>447</v>
       </c>
       <c r="R69" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -7412,7 +7477,7 @@
         <v>447</v>
       </c>
       <c r="R70" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -8483,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -8556,16 +8621,16 @@
         <v>48</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F122" t="s">
         <v>51</v>
       </c>
       <c r="H122" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="I122" s="40"/>
     </row>
@@ -9023,7 +9088,7 @@
         <v>532</v>
       </c>
       <c r="R142" s="33" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="143" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -9053,7 +9118,7 @@
         <v>531</v>
       </c>
       <c r="R143" s="33" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="144" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -9359,7 +9424,7 @@
         <v>227</v>
       </c>
       <c r="I155" s="42" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="N155" s="33" t="s">
         <v>509</v>
@@ -9586,7 +9651,7 @@
         <v>299</v>
       </c>
       <c r="I165" s="42" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="M165" s="33" t="s">
         <v>457</v>
@@ -9746,7 +9811,7 @@
         <v>266</v>
       </c>
       <c r="R175" s="33" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="176" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -10233,7 +10298,7 @@
         <v>447</v>
       </c>
       <c r="R200" s="33" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
@@ -11069,257 +11134,257 @@
   <autoFilter ref="A1:S200"/>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="I231:I1048576 I201:I202 I1 I123:I134 I4:I120">
-    <cfRule type="containsText" dxfId="108" priority="88" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="112" priority="88" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="89" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="111" priority="89" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207:A213 B207:F207 A219:A1048576 J219:XFD226 C208:C213 E208:E213 G203:XFD207 A214:XFD218 I208:XFD213 A1 A34:A46 A146:A202 A123:A144 A48:A120">
-    <cfRule type="cellIs" dxfId="106" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="87" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208:B210 A203:F206">
-    <cfRule type="cellIs" dxfId="105" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="85" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107 D105">
-    <cfRule type="cellIs" dxfId="104" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="84" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I227:I230">
-    <cfRule type="containsText" dxfId="103" priority="70" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="107" priority="70" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="71" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="106" priority="71" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I226">
-    <cfRule type="cellIs" dxfId="101" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="67" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I220:I224">
-    <cfRule type="containsText" dxfId="100" priority="65" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="104" priority="65" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I220)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="66" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="103" priority="66" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D211">
-    <cfRule type="cellIs" dxfId="98" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="64" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195:I200 I137:I144 I146:I190">
-    <cfRule type="expression" dxfId="97" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="52" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",I137)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="53" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",I137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145">
-    <cfRule type="expression" dxfId="95" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="55" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",I145)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="56" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",I145)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="cellIs" dxfId="93" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="57" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211:F212">
-    <cfRule type="cellIs" dxfId="92" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="45" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2 I7:I18 I4:I5 I21:I31">
-    <cfRule type="containsText" dxfId="91" priority="43" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I2 I7:I18 I4:I5 I21:I32">
+    <cfRule type="containsText" dxfId="95" priority="43" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="44" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="94" priority="44" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A31 A2:A5">
-    <cfRule type="cellIs" dxfId="89" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57 D5 D3">
-    <cfRule type="cellIs" dxfId="88" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12 D56">
-    <cfRule type="cellIs" dxfId="87" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="40" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="86" priority="38" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="90" priority="38" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="39" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="89" priority="39" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="84" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="37" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:I51">
-    <cfRule type="containsText" dxfId="83" priority="35" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="87" priority="35" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="36" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="86" priority="36" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135:I136">
-    <cfRule type="containsText" dxfId="81" priority="33" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="85" priority="33" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="34" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="84" priority="34" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="79" priority="31" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="83" priority="31" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="32" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="82" priority="32" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="77" priority="29" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="81" priority="29" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="30" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="80" priority="30" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="75" priority="27" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="79" priority="27" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="28" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="78" priority="28" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="73" priority="25" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="26" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="76" priority="26" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="24" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="74" priority="24" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="containsText" dxfId="69" priority="21" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="22" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="72" priority="22" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="71" priority="19" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="20" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="70" priority="20" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I78">
-    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="18" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="68" priority="18" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="67" priority="15" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="66" priority="16" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="61" priority="13" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="14" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="63" priority="11" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="12" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="62" priority="12" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121:I122">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I121)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="60" priority="10" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I191">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I192">
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I193">
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I194)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11330,7 +11395,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F227:F1048576 H208:H213 F1:F16 F18:F202">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I227:I1048576 I1:I31 I101:I104 I112:I202 I106:I110 I33:I99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I227:I1048576 I101:I104 I112:I202 I106:I110 I1:I99">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B227:B1048576 B129:B132 B1:B9 B37:B40 B16:B31 B11:B13 B34:B35 B134:B218 B113:B120 B123:B127 B42:B111">
@@ -11345,11 +11410,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P322"/>
+  <dimension ref="A1:P315"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118:G123"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -11422,10 +11487,13 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
       <c r="E2" t="s">
         <v>538</v>
+      </c>
+      <c r="F2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -11443,121 +11511,184 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="D4" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E4" t="s">
-        <v>547</v>
+        <v>545</v>
+      </c>
+      <c r="F4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="D5" t="s">
-        <v>545</v>
-      </c>
-      <c r="E5" t="s">
-        <v>538</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" t="s">
-        <v>38</v>
+      <c r="C7" t="s">
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="E7" t="s">
-        <v>364</v>
+        <v>538</v>
+      </c>
+      <c r="F7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="E8" t="s">
         <v>545</v>
       </c>
-      <c r="E8" t="s">
-        <v>538</v>
+      <c r="F8" t="s">
+        <v>194</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
       <c r="D9" s="46" t="s">
         <v>548</v>
       </c>
       <c r="E9" t="s">
-        <v>547</v>
+        <v>545</v>
+      </c>
+      <c r="F9" t="s">
+        <v>194</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="D10" s="47" t="s">
-        <v>549</v>
-      </c>
-      <c r="E10" t="s">
-        <v>547</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="D11" s="47" t="s">
-        <v>550</v>
-      </c>
-      <c r="E11" t="s">
-        <v>547</v>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>184</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="D12" s="47" t="s">
-        <v>553</v>
-      </c>
-      <c r="E12" t="s">
-        <v>547</v>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>184</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13">
+        <v>1.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>47</v>
       </c>
+      <c r="F14" t="s">
+        <v>184</v>
+      </c>
       <c r="G14">
         <v>0.5</v>
       </c>
       <c r="H14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -11566,16 +11697,19 @@
         <v>48</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>47</v>
       </c>
+      <c r="F15" t="s">
+        <v>184</v>
+      </c>
       <c r="G15">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -11584,16 +11718,19 @@
         <v>48</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>195</v>
       </c>
       <c r="G16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -11602,52 +11739,40 @@
         <v>48</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>375</v>
+        <v>551</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>195</v>
       </c>
       <c r="G17">
-        <v>0.5</v>
-      </c>
-      <c r="H17" t="s">
-        <v>421</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18">
-        <v>0.5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>420</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
       <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>60</v>
+      <c r="D19" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" t="s">
+        <v>364</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
       </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>454</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11655,179 +11780,195 @@
       <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>60</v>
+      <c r="D20" t="s">
+        <v>549</v>
+      </c>
+      <c r="E20" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
       </c>
       <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>425</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21">
-        <v>3.5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>426</v>
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E21" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>452</v>
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>541</v>
+      </c>
+      <c r="E22" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="D23" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="D24" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>60</v>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>550</v>
+      </c>
+      <c r="E24" t="s">
+        <v>545</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="D25" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>60</v>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G25">
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="D26" s="16" t="s">
-        <v>563</v>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>392</v>
       </c>
       <c r="E26" t="s">
-        <v>561</v>
+        <v>385</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>542</v>
+      </c>
+      <c r="E27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G27">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>387</v>
+        <v>544</v>
       </c>
       <c r="E28" t="s">
-        <v>364</v>
+        <v>545</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E29" t="s">
-        <v>364</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" t="s">
-        <v>539</v>
+        <v>49</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>554</v>
       </c>
       <c r="E30" t="s">
-        <v>385</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>542</v>
-      </c>
-      <c r="E31" t="s">
-        <v>538</v>
-      </c>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="E32" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
-      <c r="D33" t="s">
-        <v>393</v>
+      <c r="D33" s="15" t="s">
+        <v>399</v>
       </c>
       <c r="E33" t="s">
-        <v>364</v>
+        <v>650</v>
+      </c>
+      <c r="F33" t="s">
+        <v>183</v>
       </c>
       <c r="G33">
-        <v>0.5</v>
-      </c>
-      <c r="H33" t="s">
-        <v>434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -11835,11 +11976,17 @@
       <c r="C34" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
-        <v>552</v>
+      <c r="D34" s="14" t="s">
+        <v>540</v>
       </c>
       <c r="E34" t="s">
-        <v>547</v>
+        <v>396</v>
+      </c>
+      <c r="F34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -11847,11 +11994,17 @@
       <c r="C35" t="s">
         <v>48</v>
       </c>
-      <c r="D35" t="s">
-        <v>390</v>
+      <c r="D35" s="46" t="s">
+        <v>575</v>
       </c>
       <c r="E35" t="s">
-        <v>385</v>
+        <v>576</v>
+      </c>
+      <c r="F35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -11859,47 +12012,71 @@
       <c r="C36" t="s">
         <v>48</v>
       </c>
-      <c r="D36" t="s">
-        <v>392</v>
+      <c r="D36" s="46" t="s">
+        <v>652</v>
       </c>
       <c r="E36" t="s">
-        <v>385</v>
+        <v>545</v>
+      </c>
+      <c r="F36" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" t="s">
-        <v>543</v>
+        <v>49</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>655</v>
       </c>
       <c r="E37" t="s">
-        <v>538</v>
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" t="s">
-        <v>546</v>
+        <v>48</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>653</v>
       </c>
       <c r="E38" t="s">
-        <v>547</v>
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" t="s">
-        <v>558</v>
+        <v>48</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>557</v>
       </c>
       <c r="E39" t="s">
-        <v>559</v>
+        <v>555</v>
+      </c>
+      <c r="F39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -11908,230 +12085,264 @@
         <v>49</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>560</v>
+        <v>654</v>
       </c>
       <c r="E40" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="D41" s="14"/>
+        <v>555</v>
+      </c>
+      <c r="F40" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="E42" t="s">
-        <v>396</v>
-      </c>
-      <c r="G42">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="E43" t="s">
+        <v>487</v>
+      </c>
+      <c r="G43" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="E44" t="s">
+        <v>487</v>
+      </c>
+      <c r="G44" s="39">
+        <v>2</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E45" t="s">
+        <v>487</v>
+      </c>
+      <c r="G45" s="39">
         <v>1</v>
       </c>
-      <c r="H42" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="D43" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="E43" t="s">
-        <v>396</v>
-      </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="D44" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="E44" t="s">
-        <v>396</v>
-      </c>
-      <c r="G44">
+      <c r="H45" s="39" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="E46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G46" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="E47" t="s">
+        <v>487</v>
+      </c>
+      <c r="G47" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>195</v>
+      </c>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="D45" s="47" t="s">
-        <v>583</v>
-      </c>
-      <c r="E45" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="D46" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="E46" t="s">
-        <v>547</v>
-      </c>
-      <c r="G46">
+      <c r="H50" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E52" t="s">
+        <v>521</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="D47" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="E47" t="s">
-        <v>561</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="D48" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="E48" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="E50" t="s">
-        <v>487</v>
-      </c>
-      <c r="G50" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="H50" s="39" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="E51" t="s">
-        <v>487</v>
-      </c>
-      <c r="G51" s="39">
-        <v>2</v>
-      </c>
-      <c r="H51" s="39" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="E52" t="s">
-        <v>487</v>
-      </c>
-      <c r="G52" s="39">
-        <v>1</v>
-      </c>
-      <c r="H52" s="39" t="s">
-        <v>490</v>
+      <c r="H52" s="17" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
       <c r="C53" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="16" t="s">
-        <v>570</v>
+      <c r="D53" s="14" t="s">
+        <v>564</v>
       </c>
       <c r="E53" t="s">
-        <v>487</v>
-      </c>
-      <c r="G53" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>491</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="F53" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="16" t="s">
-        <v>571</v>
+      <c r="D54" t="s">
+        <v>535</v>
       </c>
       <c r="E54" t="s">
-        <v>487</v>
-      </c>
-      <c r="G54" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="H54" s="39" t="s">
-        <v>492</v>
+        <v>521</v>
+      </c>
+      <c r="G54">
+        <v>0.5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="39" t="s">
-        <v>566</v>
+      <c r="D55" s="14" t="s">
+        <v>565</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>521</v>
       </c>
       <c r="F55" t="s">
         <v>195</v>
       </c>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="C56" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>103</v>
+      <c r="D56" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s">
+        <v>195</v>
+      </c>
+      <c r="H56" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -12139,52 +12350,55 @@
       <c r="C57" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="17">
-        <v>1</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>105</v>
+      <c r="D57" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" t="s">
+        <v>195</v>
+      </c>
+      <c r="H57" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="C58" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40">
+        <v>1</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="C59" t="s">
+      <c r="A59" s="4"/>
+      <c r="C59" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="E59" t="s">
-        <v>521</v>
-      </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="17">
+        <v>191</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40">
         <v>1</v>
       </c>
-      <c r="H59" s="17" t="s">
-        <v>522</v>
+      <c r="H59" s="40" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -12193,151 +12407,110 @@
         <v>48</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="E60" t="s">
-        <v>521</v>
-      </c>
-      <c r="F60" t="s">
-        <v>195</v>
-      </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+        <v>520</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
       <c r="C61" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" t="s">
-        <v>535</v>
+        <v>49</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>521</v>
-      </c>
-      <c r="G61">
-        <v>0.5</v>
-      </c>
-      <c r="H61" t="s">
-        <v>536</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>48</v>
-      </c>
+      <c r="A62" s="5"/>
       <c r="D62" s="14" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="E62" t="s">
-        <v>521</v>
-      </c>
-      <c r="F62" t="s">
-        <v>195</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="C63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="A63" s="5"/>
+      <c r="D63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" t="s">
+        <v>568</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F63" t="s">
-        <v>195</v>
-      </c>
-      <c r="H63" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="C64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="F65" s="16"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F64" t="s">
-        <v>195</v>
-      </c>
-      <c r="H64" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="C65" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40">
-        <v>1</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="C66" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E66" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40">
-        <v>1</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>351</v>
-      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="C67" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="E67" t="s">
-        <v>520</v>
-      </c>
       <c r="F67" s="16"/>
-      <c r="G67" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>533</v>
-      </c>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
+      <c r="B68" t="s">
+        <v>570</v>
+      </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>89</v>
+        <v>573</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="17"/>
@@ -12345,11 +12518,14 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
+      <c r="C69" t="s">
+        <v>49</v>
+      </c>
       <c r="D69" s="14" t="s">
-        <v>602</v>
+        <v>544</v>
       </c>
       <c r="E69" t="s">
-        <v>479</v>
+        <v>572</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="17"/>
@@ -12357,24 +12533,17 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="D70" s="14"/>
+      <c r="D70" s="14" t="s">
+        <v>569</v>
+      </c>
       <c r="F70" s="16"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" t="s">
-        <v>576</v>
-      </c>
-      <c r="C71" t="s">
-        <v>48</v>
-      </c>
       <c r="D71" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>479</v>
+        <v>571</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="17"/>
@@ -12382,9 +12551,8 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14" t="s">
-        <v>75</v>
+      <c r="D72" t="s">
+        <v>574</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="17"/>
@@ -12392,674 +12560,685 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="F73" s="16"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="A74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" t="s">
+        <v>602</v>
+      </c>
+      <c r="E74" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" t="s">
-        <v>578</v>
-      </c>
-      <c r="C75" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>581</v>
+      <c r="A75" s="4"/>
+      <c r="D75" t="s">
+        <v>39</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="G75">
+        <v>0.5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="C76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="E76" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="D77" s="47" t="s">
         <v>546</v>
       </c>
-      <c r="E76" t="s">
-        <v>580</v>
-      </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="D77" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
+      <c r="E77" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="D78" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
+      <c r="D78" s="47" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="D79" t="s">
-        <v>582</v>
-      </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
+      <c r="B80" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" t="s">
+        <v>123</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="A81" s="5"/>
+      <c r="D81" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="D82" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="E81" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="D82" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" t="s">
-        <v>142</v>
-      </c>
-      <c r="G82">
+      <c r="E82" s="19" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="D83" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="E83" t="s">
+        <v>124</v>
+      </c>
+      <c r="G83">
         <v>0.5</v>
       </c>
-      <c r="H82" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D83" s="19" t="s">
-        <v>544</v>
-      </c>
-      <c r="E83" t="s">
-        <v>609</v>
-      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="D84" s="48" t="s">
-        <v>548</v>
-      </c>
-      <c r="E84" t="s">
-        <v>610</v>
+      <c r="A84" s="5"/>
+      <c r="D84" s="19" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="D85" s="48" t="s">
-        <v>550</v>
-      </c>
+      <c r="D85" s="19"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
+      <c r="B86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" t="s">
+        <v>604</v>
+      </c>
+      <c r="E86" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
-      <c r="B87" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E87" t="s">
-        <v>123</v>
-      </c>
-      <c r="G87">
-        <v>3</v>
-      </c>
-      <c r="H87" t="s">
-        <v>318</v>
+      <c r="D87" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="D88" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>608</v>
+      <c r="D88" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="D89" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>621</v>
+      <c r="D89" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
-      <c r="D90" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="E90" t="s">
-        <v>124</v>
-      </c>
-      <c r="G90">
-        <v>0.5</v>
+      <c r="D90" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
-      <c r="D91" s="19" t="s">
-        <v>622</v>
+      <c r="D91" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
-      <c r="D92" s="19"/>
+      <c r="D92" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" t="s">
-        <v>136</v>
-      </c>
       <c r="D93" t="s">
-        <v>613</v>
-      </c>
-      <c r="E93" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="D94" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
-      <c r="D95" t="s">
-        <v>612</v>
-      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
+      <c r="A96" s="4"/>
+      <c r="B96" t="s">
+        <v>137</v>
+      </c>
       <c r="D96" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="99" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E99" t="s">
+        <v>485</v>
+      </c>
+      <c r="F99" s="42"/>
+      <c r="G99" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="H99" s="44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="E100" t="s">
+        <v>485</v>
+      </c>
+      <c r="F100"/>
+      <c r="G100">
+        <v>0.5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="D97" t="s">
+      <c r="E101" t="s">
+        <v>485</v>
+      </c>
+      <c r="G101">
+        <v>0.1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="C102" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" t="s">
+        <v>585</v>
+      </c>
+      <c r="E102" t="s">
+        <v>485</v>
+      </c>
+      <c r="H102" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="C103" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E103" t="s">
+        <v>485</v>
+      </c>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="C104" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="E104" t="s">
+        <v>485</v>
+      </c>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="C105" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E105" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42">
+        <v>1</v>
+      </c>
+      <c r="H105" s="42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="C106" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E106" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F106" s="35"/>
+      <c r="G106" s="42">
+        <v>1</v>
+      </c>
+      <c r="H106" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="C107" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E107" s="20" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="D98" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="D99" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="D100" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="D101" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="106" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B106" t="s">
-        <v>149</v>
-      </c>
-      <c r="C106" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E106" t="s">
-        <v>485</v>
-      </c>
-      <c r="F106" s="42"/>
-      <c r="G106" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="H106" s="44" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="C107" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="E107" t="s">
-        <v>485</v>
-      </c>
-      <c r="F107"/>
-      <c r="G107">
-        <v>0.5</v>
-      </c>
-      <c r="H107" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
+      <c r="G107" s="33">
+        <v>5</v>
+      </c>
+      <c r="H107" s="33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="C108" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D108" t="s">
         <v>624</v>
       </c>
-      <c r="E108" t="s">
-        <v>485</v>
-      </c>
-      <c r="G108">
-        <v>0.1</v>
-      </c>
-      <c r="H108" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="C109" t="s">
+      <c r="E108" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="G108" s="33">
+        <v>3</v>
+      </c>
+      <c r="H108"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C109" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D109" t="s">
-        <v>593</v>
-      </c>
-      <c r="E109" t="s">
-        <v>485</v>
-      </c>
-      <c r="H109" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33">
+        <v>1</v>
+      </c>
+      <c r="H109" s="33"/>
+    </row>
+    <row r="110" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="C110" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D110" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="E110" t="s">
-        <v>485</v>
-      </c>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="C111" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="E111" t="s">
-        <v>485</v>
-      </c>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="C112" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="E112" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="F112" s="42"/>
-      <c r="G112" s="42">
-        <v>1</v>
-      </c>
-      <c r="H112" s="42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E112" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" s="37"/>
+      <c r="G112" s="33">
+        <v>6</v>
+      </c>
+      <c r="H112" s="33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="C113" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D113" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="E113" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="F113" s="35"/>
-      <c r="G113" s="42">
-        <v>1</v>
-      </c>
-      <c r="H113" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="I113"/>
-    </row>
-    <row r="114" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="E113" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="C114" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D114" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="E114" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="G114" s="33">
-        <v>5</v>
-      </c>
-      <c r="H114" s="33" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="E114" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="C115" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D115" t="s">
-        <v>633</v>
-      </c>
-      <c r="E115" s="20" t="s">
-        <v>635</v>
-      </c>
-      <c r="G115" s="33">
-        <v>3</v>
-      </c>
-      <c r="H115"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C116" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D116" t="s">
-        <v>634</v>
-      </c>
-      <c r="E116" s="20" t="s">
-        <v>636</v>
-      </c>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33">
-        <v>1</v>
-      </c>
-      <c r="H116" s="33"/>
-    </row>
-    <row r="117" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="E115" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="D116" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="E116" s="37"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="C117" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D117" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="E117" s="20" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E118" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B119" s="33"/>
+      <c r="C119" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="E119" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="F119" s="37"/>
-      <c r="G119" s="33">
-        <v>6</v>
-      </c>
-      <c r="H119" s="33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="E119" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="C120" t="s">
+      <c r="B120" s="33"/>
+      <c r="C120" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="E120" s="37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+      <c r="E120" s="34" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="C121" t="s">
+      <c r="B121" s="33"/>
+      <c r="C121" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="E121" s="37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="E121" s="34" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="C122" t="s">
-        <v>48</v>
-      </c>
-      <c r="D122" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="E122" s="37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="D123" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="E123" s="37"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C123" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D123" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E123" s="43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" t="s">
+        <v>639</v>
+      </c>
+      <c r="E124" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C125" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D125" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E125" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" t="s">
+        <v>640</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D126" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="E126" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C126" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="E126" s="43" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="33"/>
       <c r="C127" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>652</v>
+        <v>249</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33" t="s">
-        <v>48</v>
-      </c>
       <c r="D128" s="33" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>653</v>
+        <v>620</v>
+      </c>
+      <c r="G128">
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="E129" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="G129">
+        <v>4</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="B130" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="C130" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D130" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="E130" s="43" t="s">
-        <v>248</v>
-      </c>
+      <c r="D130" s="33"/>
+      <c r="E130" s="34"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="C131" t="s">
-        <v>48</v>
-      </c>
-      <c r="D131" t="s">
-        <v>648</v>
-      </c>
-      <c r="E131" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="G131">
-        <v>4</v>
+      <c r="B131" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E131" s="37" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="C132" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132" t="s">
-        <v>649</v>
-      </c>
-      <c r="E132" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="G132">
-        <v>2</v>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E132" s="37" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="C133" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D133" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="E133" s="43" t="s">
-        <v>629</v>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E133" s="37" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -13069,721 +13248,665 @@
         <v>48</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="E134" s="34" t="s">
-        <v>629</v>
-      </c>
-      <c r="G134">
-        <v>3</v>
+        <v>641</v>
+      </c>
+      <c r="E134" s="37" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
+      <c r="C135" s="33" t="s">
+        <v>48</v>
+      </c>
       <c r="D135" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="E135" s="34" t="s">
-        <v>629</v>
-      </c>
-      <c r="G135">
-        <v>6</v>
+        <v>642</v>
+      </c>
+      <c r="E135" s="37" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="C136" s="33"/>
+      <c r="C136" s="33" t="s">
+        <v>48</v>
+      </c>
       <c r="D136" s="33" t="s">
-        <v>638</v>
-      </c>
-      <c r="E136" s="34" t="s">
-        <v>629</v>
-      </c>
-      <c r="G136">
-        <v>4</v>
+        <v>645</v>
+      </c>
+      <c r="E136" s="37" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="D137" s="33"/>
-      <c r="E137" s="34"/>
+      <c r="E137" s="37"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="E138" s="37" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="C138" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" t="s">
+        <v>634</v>
+      </c>
+      <c r="E138" t="s">
+        <v>638</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="33"/>
-      <c r="C139" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="E139" s="37" t="s">
-        <v>158</v>
+      <c r="C139" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" t="s">
+        <v>635</v>
+      </c>
+      <c r="E139" t="s">
+        <v>638</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="33"/>
-      <c r="C140" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D140" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="E140" s="37" t="s">
-        <v>158</v>
+      <c r="C140" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" t="s">
+        <v>636</v>
+      </c>
+      <c r="E140" t="s">
+        <v>638</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="33"/>
-      <c r="C141" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="33" t="s">
-        <v>650</v>
-      </c>
-      <c r="E141" s="37" t="s">
-        <v>158</v>
+      <c r="C141" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" t="s">
+        <v>637</v>
+      </c>
+      <c r="E141" t="s">
+        <v>638</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
-      <c r="C142" s="33" t="s">
+      <c r="B142" s="33"/>
+      <c r="C142" t="s">
         <v>48</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>651</v>
-      </c>
-      <c r="E142" s="37" t="s">
-        <v>158</v>
+        <v>255</v>
+      </c>
+      <c r="E142" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
-      <c r="C143" s="33" t="s">
+      <c r="B143" s="33"/>
+      <c r="C143" t="s">
         <v>48</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>654</v>
-      </c>
-      <c r="E143" s="37" t="s">
-        <v>653</v>
+        <v>255</v>
+      </c>
+      <c r="E143" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="37"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
-      <c r="B145" s="33" t="s">
-        <v>153</v>
+      <c r="B145" t="s">
+        <v>50</v>
       </c>
       <c r="C145" t="s">
         <v>48</v>
       </c>
       <c r="D145" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="E145" t="s">
-        <v>647</v>
+        <v>485</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
-      <c r="B146" s="33"/>
       <c r="C146" t="s">
         <v>48</v>
       </c>
       <c r="D146" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="E146" t="s">
-        <v>647</v>
+        <v>485</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
-      <c r="B147" s="33"/>
       <c r="C147" t="s">
         <v>48</v>
       </c>
-      <c r="D147" t="s">
-        <v>645</v>
-      </c>
-      <c r="E147" t="s">
-        <v>647</v>
-      </c>
-      <c r="G147">
+      <c r="D147" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="E147" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="F147" s="33"/>
+      <c r="G147" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="B148" s="33"/>
       <c r="C148" t="s">
         <v>48</v>
       </c>
-      <c r="D148" t="s">
-        <v>646</v>
-      </c>
-      <c r="E148" t="s">
-        <v>647</v>
+      <c r="D148" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="E148" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="G148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="B149" s="33"/>
-      <c r="C149" t="s">
-        <v>48</v>
-      </c>
-      <c r="D149" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="E149" s="20" t="s">
-        <v>630</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-      <c r="B150" s="33"/>
-      <c r="C150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D150" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="E150" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="B152" t="s">
-        <v>50</v>
-      </c>
-      <c r="C152" t="s">
-        <v>48</v>
-      </c>
-      <c r="D152" t="s">
-        <v>641</v>
-      </c>
-      <c r="E152" t="s">
-        <v>485</v>
-      </c>
-      <c r="G152">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
-      <c r="C153" t="s">
-        <v>48</v>
-      </c>
-      <c r="D153" t="s">
-        <v>642</v>
-      </c>
-      <c r="E153" t="s">
-        <v>485</v>
-      </c>
-      <c r="G153">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-      <c r="C154" t="s">
-        <v>48</v>
-      </c>
-      <c r="D154" s="50" t="s">
-        <v>632</v>
-      </c>
-      <c r="E154" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="F154" s="33"/>
-      <c r="G154" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
-        <v>48</v>
-      </c>
-      <c r="D155" s="50" t="s">
-        <v>632</v>
-      </c>
-      <c r="E155" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="G155">
-        <v>2</v>
-      </c>
+    <row r="149" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+      <c r="P149" s="2"/>
+    </row>
+    <row r="150" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="8"/>
+    </row>
+    <row r="151" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="8"/>
+    </row>
+    <row r="152" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="8"/>
+    </row>
+    <row r="153" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="8"/>
+    </row>
+    <row r="154" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="8"/>
+    </row>
+    <row r="155" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="8"/>
     </row>
     <row r="156" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" s="9"/>
       <c r="J156" s="8"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-    </row>
-    <row r="157" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="8" t="s">
-        <v>21</v>
+    </row>
+    <row r="157" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C157" s="2"/>
-      <c r="D157"/>
+      <c r="D157" s="7" t="s">
+        <v>658</v>
+      </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" s="9"/>
-      <c r="J157" s="8"/>
-    </row>
-    <row r="158" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="J157" s="9"/>
+    </row>
+    <row r="158" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
-      <c r="B158" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B158" s="2"/>
       <c r="C158" s="2"/>
+      <c r="D158" s="2" t="s">
+        <v>584</v>
+      </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
       <c r="I158" s="9"/>
-      <c r="J158" s="8"/>
-    </row>
-    <row r="159" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="J158" s="9"/>
+    </row>
+    <row r="159" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
       <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
       <c r="I159" s="9"/>
-      <c r="J159" s="8"/>
+      <c r="J159" s="9"/>
     </row>
     <row r="160" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
-      <c r="B160" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B160" s="2"/>
       <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
       <c r="I160" s="9"/>
-      <c r="J160" s="8"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
     </row>
     <row r="161" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
-      <c r="B161" s="8" t="s">
-        <v>25</v>
+      <c r="B161" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
       <c r="I161" s="9"/>
-      <c r="J161" s="8"/>
-    </row>
-    <row r="162" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J161" s="9"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+    </row>
+    <row r="162" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="8"/>
+      <c r="B162" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J162" s="13"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
     </row>
     <row r="163" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="8"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E163" s="25"/>
+      <c r="F163" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G163" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H163" s="27"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
     </row>
     <row r="164" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
-      <c r="B164" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E164" s="31"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H164" s="31"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
     </row>
     <row r="165" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
+      <c r="B165" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H165" s="24"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="13"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
     </row>
     <row r="166" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
+      <c r="B166" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" s="31"/>
+      <c r="D166" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E166" s="31"/>
+      <c r="F166" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G166" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H166" s="31"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="13"/>
     </row>
     <row r="167" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H167" s="24"/>
+      <c r="I167" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="J167" s="13"/>
     </row>
     <row r="168" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-    </row>
-    <row r="169" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E169" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F169" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I169" s="11" t="s">
-        <v>35</v>
+      <c r="B168" s="31"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E168" s="31"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H168" s="31"/>
+      <c r="I168" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J168" s="13"/>
+    </row>
+    <row r="169" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E169" s="31"/>
+      <c r="F169" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G169" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H169" s="31"/>
+      <c r="I169" s="30" t="s">
+        <v>586</v>
       </c>
       <c r="J169" s="13"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
     </row>
     <row r="170" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="24"/>
-      <c r="D170" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E170" s="25"/>
-      <c r="F170" s="25" t="s">
-        <v>161</v>
+      <c r="B170" s="31"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E170" s="31"/>
+      <c r="F170" s="32" t="s">
+        <v>177</v>
       </c>
       <c r="G170" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H170" s="27"/>
-      <c r="I170" s="28"/>
+        <v>179</v>
+      </c>
+      <c r="H170" s="24"/>
+      <c r="I170" s="11"/>
       <c r="J170" s="13"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
     </row>
     <row r="171" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
-      <c r="D171" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E171" s="31"/>
-      <c r="F171" s="31"/>
-      <c r="G171" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H171" s="31"/>
-      <c r="I171" s="30"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="48" t="s">
+        <v>588</v>
+      </c>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
       <c r="J171" s="13"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
     </row>
     <row r="172" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C172" s="24"/>
-      <c r="D172" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E172" s="24"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="H172" s="24"/>
-      <c r="I172" s="30"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
       <c r="J172" s="13"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
     </row>
     <row r="173" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C173" s="31"/>
-      <c r="D173" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E173" s="31"/>
-      <c r="F173" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="G173" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H173" s="31"/>
-      <c r="I173" s="30"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
       <c r="J173" s="13"/>
     </row>
     <row r="174" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="24"/>
-      <c r="C174" s="24"/>
-      <c r="D174" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="H174" s="24"/>
-      <c r="I174" s="30" t="s">
-        <v>172</v>
-      </c>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
       <c r="J174" s="13"/>
     </row>
-    <row r="175" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="31"/>
-      <c r="C175" s="31"/>
-      <c r="D175" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E175" s="31"/>
-      <c r="F175" s="32"/>
-      <c r="G175" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="H175" s="31"/>
-      <c r="I175" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="J175" s="13"/>
-    </row>
-    <row r="176" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E176" s="31"/>
-      <c r="F176" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="G176" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="H176" s="31"/>
-      <c r="I176" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="J176" s="13"/>
-    </row>
-    <row r="177" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="31"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="E177" s="31"/>
-      <c r="F177" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="G177" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="H177" s="24"/>
-      <c r="I177" s="11"/>
-      <c r="J177" s="13"/>
-    </row>
-    <row r="178" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="E178" s="11"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="49" t="s">
-        <v>596</v>
-      </c>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="13"/>
-    </row>
-    <row r="179" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="11"/>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="13"/>
-    </row>
-    <row r="180" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
-      <c r="J180" s="13"/>
-    </row>
-    <row r="181" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="11"/>
-      <c r="F181" s="11"/>
-      <c r="G181" s="11"/>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
-      <c r="J181" s="13"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="7"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="7"/>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A176" s="7"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="7"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="7"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="7"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="7"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="7"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="7"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="7"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="7"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
@@ -14139,159 +14262,156 @@
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="7"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="7"/>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="7"/>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="7"/>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="7"/>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="7"/>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="7"/>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="I182:I1048576 I59:I62 I1:I39 I43:I55 I67:I87 I90:I105 I108:I110 I112:I113 I118:I155">
-    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I175:I1048576 I52:I55 I60:I80 I83:I98 I101:I103 I105:I106 I111:I148 I34:I35 I42:I48 I39:I40 I1:I29">
+    <cfRule type="containsText" dxfId="51" priority="43" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="40" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="50" priority="44" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A182:A1048576 A160:A163 G156:XFD169 A164:F169 A1:A62 A170:A177 A178:XFD181 J170:XFD177 A112 A109:A110 A67:A106 A115 A156:C156 E156:F156 C161:F163 B160:C160 A157:F157 A158:C159 E158:F160 D145:D148 A117:A155">
-    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A175:A1048576 A153:A156 G149:XFD162 A163:A170 A171:XFD174 J163:XFD170 A105 A102:A103 A60:A99 A108 A149:C149 E149:F149 C154:F156 B153:C153 A150:F150 A151:C152 E151:F153 D138:D141 A110:A148 A42:A55 A39:A40 A1:A35 A157:C157 E157:F157 A158:F162">
+    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B161">
-    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B154">
+    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="containsText" dxfId="43" priority="35" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I42)))</formula>
+  <conditionalFormatting sqref="I32:I33">
+    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="36" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I42)))</formula>
+    <cfRule type="containsText" dxfId="46" priority="40" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D12 D45">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+  <conditionalFormatting sqref="D35 D8:D9">
+    <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="containsText" dxfId="40" priority="31" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I63)))</formula>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="containsText" dxfId="44" priority="35" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="32" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I63)))</formula>
+    <cfRule type="containsText" dxfId="43" priority="36" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="38" priority="30" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A56">
+    <cfRule type="cellIs" dxfId="42" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="containsText" dxfId="37" priority="28" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I64)))</formula>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="containsText" dxfId="41" priority="32" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I64)))</formula>
+    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="35" priority="27" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" dxfId="39" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65:I66">
-    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I65)))</formula>
+  <conditionalFormatting sqref="I58:I59">
+    <cfRule type="containsText" dxfId="38" priority="29" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I65)))</formula>
+    <cfRule type="containsText" dxfId="37" priority="30" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A66">
-    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A58:A59">
+    <cfRule type="cellIs" dxfId="36" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I88:I89">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I88)))</formula>
+  <conditionalFormatting sqref="I81:I82">
+    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I88)))</formula>
+    <cfRule type="containsText" dxfId="34" priority="24" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I81)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I177">
-    <cfRule type="cellIs" dxfId="27" priority="18" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I170">
+    <cfRule type="cellIs" dxfId="33" priority="22" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I171:I175">
-    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I171)))</formula>
+  <conditionalFormatting sqref="I164:I168">
+    <cfRule type="containsText" dxfId="32" priority="20" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I171)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="cellIs" dxfId="30" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="cellIs" dxfId="29" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I104 I108 I110">
+    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I104)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("未完成",I104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
-    <cfRule type="cellIs" dxfId="21" priority="12" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I36:I38">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:A38">
+    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I111 I115 I117">
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I111)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("未完成",I111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" dxfId="18" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D36:D37">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I182:I1048576 I1:I39 I42:I115 I117:I155">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I175:I1048576 I110:I148 I32:I40 I42:I108 I1:I29">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F182:F1048576 F7:F39 F1:F5 F42:F116 F154:F155 F152 F118:F150">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F175:F1048576 F1:F4 F147:F148 F145 F111:F143 F42:F109 F32:F40 F6:F29">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C182:C1048576 C42:C73 C1:C40 C75:C155">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C175:C1048576 C68:C148 C42:C66 C32:C40 C1:C30">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B178:B1048576 B1:B87 B89:B107 B109:B115 B134:B169 B117:B132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B171:B1048576 B82:B100 B102:B108 B127:B162 B110:B125 B42:B80 B1:B40">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14301,7 +14421,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="110" operator="containsText" text="阻碍" id="{B4878211-3CCD-0846-AABC-EB70CEE71E01}">
+          <x14:cfRule type="containsText" priority="114" operator="containsText" text="阻碍" id="{B4878211-3CCD-0846-AABC-EB70CEE71E01}">
             <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160224'!I53)))</xm:f>
             <x14:dxf>
               <font>
@@ -14314,7 +14434,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="111" operator="containsText" text="未完成" id="{AF154715-B74C-C945-9395-1A9ABB27FA4A}">
+          <x14:cfRule type="containsText" priority="115" operator="containsText" text="未完成" id="{AF154715-B74C-C945-9395-1A9ABB27FA4A}">
             <xm:f>NOT(ISERROR(SEARCH("未完成",'20160224'!I53)))</xm:f>
             <x14:dxf>
               <font>
@@ -14327,10 +14447,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I56:I58</xm:sqref>
+          <xm:sqref>I49:I51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" stopIfTrue="1" id="{A37534BF-3BBC-DC41-940E-32AFDC9CE069}">
+          <x14:cfRule type="expression" priority="17" stopIfTrue="1" id="{A37534BF-3BBC-DC41-940E-32AFDC9CE069}">
             <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160224'!I109)))</xm:f>
             <x14:dxf>
               <font>
@@ -14344,7 +14464,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" stopIfTrue="1" id="{3A4D955C-73FA-BA47-A641-C52848239B2C}">
+          <x14:cfRule type="expression" priority="18" stopIfTrue="1" id="{3A4D955C-73FA-BA47-A641-C52848239B2C}">
             <xm:f>NOT(ISERROR(SEARCH("未完成",'20160224'!I109)))</xm:f>
             <x14:dxf>
               <font>
@@ -14358,10 +14478,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I106:I107</xm:sqref>
+          <xm:sqref>I99:I100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" stopIfTrue="1" id="{1DCCB88C-DDE1-4D4C-BA69-AE404FE8F7A0}">
+          <x14:cfRule type="expression" priority="8" stopIfTrue="1" id="{1DCCB88C-DDE1-4D4C-BA69-AE404FE8F7A0}">
             <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160224'!I114)))</xm:f>
             <x14:dxf>
               <font>
@@ -14375,7 +14495,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="5" stopIfTrue="1" id="{C89C8C44-26A0-534A-94FF-7A44BBB4F39B}">
+          <x14:cfRule type="expression" priority="9" stopIfTrue="1" id="{C89C8C44-26A0-534A-94FF-7A44BBB4F39B}">
             <xm:f>NOT(ISERROR(SEARCH("未完成",'20160224'!I114)))</xm:f>
             <x14:dxf>
               <font>
@@ -14389,7 +14509,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I114</xm:sqref>
+          <xm:sqref>I107</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37760" windowHeight="19500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="660" windowWidth="37760" windowHeight="20000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20160224" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20160224'!$A$1:$S$201</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20160302'!$A$1:$P$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20160302'!$A$1:$P$185</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="825">
   <si>
     <t>类别</t>
   </si>
@@ -4032,10 +4032,6 @@
     <rPh sb="7" eb="8">
       <t>kuang'jiachong'wu</t>
     </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>师叔</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -4341,10 +4337,6 @@
     <t>MG-2579</t>
   </si>
   <si>
-    <t>Icon需求 + 审核 （孔老师反馈后）+技能icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>MG-2528</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4514,10 +4506,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>loading（待排期）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>压力测试（测试内容待补充）</t>
     <rPh sb="5" eb="6">
       <t>ce'shi</t>
@@ -4542,33 +4530,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>副本阵容选择界面换UI（待排期）</t>
-    <rPh sb="0" eb="1">
-      <t>fu'b</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhen'rong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xuan'ze</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>huan</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>照妖镜修改（待排期）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI动画调整（区分手动触发）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>等级开启换接口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4828,6 +4789,165 @@
   </si>
   <si>
     <t>all</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效美术需求-九尾狐，冰雪女王，铁匠</t>
+  </si>
+  <si>
+    <t>MG-2623</t>
+  </si>
+  <si>
+    <t>loading功能</t>
+    <rPh sb="7" eb="8">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2624</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2495</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan'chweng</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <rPh sb="0" eb="1">
+      <t>wei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-loading调整</t>
+    <rPh sb="10" eb="11">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zheng</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2629</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2630</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2631</t>
+  </si>
+  <si>
+    <t>MG-2632</t>
+  </si>
+  <si>
+    <t>对局-弱点图标旋转，照妖镜修改</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-aoe挂点</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-影子</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI动画调整（区分手动触发）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Momo,龙女D5，三头犬等3D</t>
+    <rPh sb="5" eb="6">
+      <t>long'nv</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>san'tou'quan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小图*12今晚，大图*6暂停</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'tu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin'wan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da'tu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zan'ting</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <rPh sb="0" eb="1">
+      <t>zan'ting</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻碍</t>
+  </si>
+  <si>
+    <t>Icon需求 + 审核 （孔老师反馈后）+技能icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级UI需求</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4974,7 +5094,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4984,12 +5104,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5198,25 +5312,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5230,15 +5329,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5250,13 +5340,37 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -5313,87 +5427,7 @@
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="126">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="122">
     <dxf>
       <font>
         <color indexed="60"/>
@@ -5648,6 +5682,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color indexed="60"/>
       </font>
       <fill>
@@ -5848,6 +5902,26 @@
         <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6883,8 +6957,8 @@
   <dimension ref="A1:S368"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -8237,7 +8311,7 @@
         <v>444</v>
       </c>
       <c r="I59" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="R59" t="s">
         <v>445</v>
@@ -8245,18 +8319,18 @@
     </row>
     <row r="60" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="D60" s="74" t="s">
-        <v>798</v>
-      </c>
-      <c r="E60" s="74" t="s">
-        <v>799</v>
-      </c>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73" t="s">
-        <v>669</v>
+      <c r="D60" s="63" t="s">
+        <v>792</v>
+      </c>
+      <c r="E60" s="63" t="s">
+        <v>793</v>
+      </c>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -9839,7 +9913,7 @@
         <v>584</v>
       </c>
       <c r="J128" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -10037,7 +10111,7 @@
       <c r="I137" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="J137" s="72" t="s">
+      <c r="J137" s="76" t="s">
         <v>643</v>
       </c>
       <c r="M137" s="33" t="s">
@@ -10073,7 +10147,7 @@
       <c r="I138" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="J138" s="72"/>
+      <c r="J138" s="76"/>
       <c r="M138" s="33" t="s">
         <v>264</v>
       </c>
@@ -10191,7 +10265,7 @@
       <c r="I142" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="J142" s="72" t="s">
+      <c r="J142" s="76" t="s">
         <v>643</v>
       </c>
       <c r="Q142" s="33" t="s">
@@ -10224,7 +10298,7 @@
       <c r="I143" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="J143" s="72"/>
+      <c r="J143" s="76"/>
       <c r="N143" s="33" t="s">
         <v>507</v>
       </c>
@@ -10651,7 +10725,7 @@
       <c r="I159" s="41" t="s">
         <v>584</v>
       </c>
-      <c r="J159" s="72" t="s">
+      <c r="J159" s="76" t="s">
         <v>635</v>
       </c>
     </row>
@@ -10659,7 +10733,7 @@
       <c r="A160" s="4"/>
       <c r="D160" s="22"/>
       <c r="E160" s="20"/>
-      <c r="J160" s="72"/>
+      <c r="J160" s="76"/>
     </row>
     <row r="161" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
@@ -10984,7 +11058,7 @@
       <c r="I176" s="41" t="s">
         <v>584</v>
       </c>
-      <c r="J176" s="72" t="s">
+      <c r="J176" s="76" t="s">
         <v>643</v>
       </c>
       <c r="N176" s="33" t="s">
@@ -11014,7 +11088,7 @@
       <c r="I177" s="41" t="s">
         <v>584</v>
       </c>
-      <c r="J177" s="72"/>
+      <c r="J177" s="76"/>
     </row>
     <row r="178" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
@@ -11258,7 +11332,7 @@
         <v>584</v>
       </c>
       <c r="J189" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="190" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -11394,7 +11468,7 @@
         <v>49</v>
       </c>
       <c r="D196" s="33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E196" s="20" t="s">
         <v>256</v>
@@ -11409,7 +11483,7 @@
         <v>502</v>
       </c>
       <c r="J196" s="41" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="197" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -12360,313 +12434,313 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="I232:I1048576 I202:I203 I1 I123:I134 J128 I4:I58 I60:I120">
-    <cfRule type="containsText" dxfId="125" priority="104" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="121" priority="104" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="105" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="120" priority="105" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208:A214 B208:F208 A220:A1048576 J220:XFD227 C209:C214 E209:E214 G204:XFD208 A215:XFD219 I209:XFD214 A1 A34:A46 A146:A203 A123:A144 A48:A120">
-    <cfRule type="cellIs" dxfId="123" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="103" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B211 A204:F207">
-    <cfRule type="cellIs" dxfId="122" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="101" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107 D105">
-    <cfRule type="cellIs" dxfId="121" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="100" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I228:I231">
-    <cfRule type="containsText" dxfId="120" priority="86" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="116" priority="86" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="87" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="115" priority="87" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I227">
-    <cfRule type="cellIs" dxfId="118" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="83" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I221:I225">
-    <cfRule type="containsText" dxfId="117" priority="81" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="113" priority="81" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="82" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="112" priority="82" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212">
-    <cfRule type="cellIs" dxfId="115" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="80" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J158:J159 J172:J173 J181 I146:I191 J186 J188:J189 I198:I201 I137:I144">
-    <cfRule type="expression" dxfId="114" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="68" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",I137)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="69" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",I137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145">
-    <cfRule type="expression" dxfId="112" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="71" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",I145)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="72" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",I145)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="cellIs" dxfId="110" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="73" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212:F213">
-    <cfRule type="cellIs" dxfId="109" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="61" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2 I7:I18 I4:I5 I21:I32">
-    <cfRule type="containsText" dxfId="108" priority="59" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="104" priority="59" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="60" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="103" priority="60" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A31 A2:A5">
-    <cfRule type="cellIs" dxfId="106" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57 D5 D3">
-    <cfRule type="cellIs" dxfId="105" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="57" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12 D56">
-    <cfRule type="cellIs" dxfId="104" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="56" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="103" priority="54" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="99" priority="54" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="55" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="98" priority="55" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="101" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="53" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:I51">
-    <cfRule type="containsText" dxfId="100" priority="51" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="96" priority="51" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="52" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="95" priority="52" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135:I136">
-    <cfRule type="containsText" dxfId="98" priority="49" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="94" priority="49" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="50" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="93" priority="50" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="96" priority="47" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="92" priority="47" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="48" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="91" priority="48" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="94" priority="45" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="90" priority="45" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="46" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="89" priority="46" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="92" priority="43" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="88" priority="43" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="44" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="87" priority="44" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="90" priority="41" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="86" priority="41" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="42" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="85" priority="42" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="88" priority="39" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="84" priority="39" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="40" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="83" priority="40" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="containsText" dxfId="86" priority="37" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="82" priority="37" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="38" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="81" priority="38" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="containsText" dxfId="84" priority="35" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="80" priority="35" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="36" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="79" priority="36" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I78">
-    <cfRule type="containsText" dxfId="82" priority="33" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="78" priority="33" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="34" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="77" priority="34" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="containsText" dxfId="80" priority="31" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="76" priority="31" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="32" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="75" priority="32" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="78" priority="29" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="74" priority="29" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="30" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="73" priority="30" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="76" priority="27" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="72" priority="27" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="28" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="71" priority="28" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121:I122">
-    <cfRule type="containsText" dxfId="74" priority="25" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="70" priority="25" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I121)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="26" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="69" priority="26" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I192">
-    <cfRule type="containsText" dxfId="72" priority="23" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="68" priority="23" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="24" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="67" priority="24" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I193">
-    <cfRule type="containsText" dxfId="70" priority="21" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="22" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="65" priority="22" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194">
-    <cfRule type="containsText" dxfId="68" priority="19" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="64" priority="19" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="20" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="63" priority="20" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195">
-    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="62" priority="17" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="18" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="61" priority="18" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J183">
-    <cfRule type="expression" dxfId="64" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="15" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",J183)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="16" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",J183)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I196:J196">
-    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="58" priority="13" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="14" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="57" priority="14" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197">
-    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="12" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="55" priority="12" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J176">
-    <cfRule type="expression" dxfId="58" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="9" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",J176)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="10" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",J176)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J137">
-    <cfRule type="expression" dxfId="56" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="7" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",J137)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="8" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",J137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J142">
-    <cfRule type="expression" dxfId="54" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="5" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",J142)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="6" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",J142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I59)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12695,11 +12769,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P323"/>
+  <dimension ref="A1:P326"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F196" sqref="F196"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -12761,2872 +12835,3111 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>699</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>538</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>816</v>
+      </c>
+      <c r="H2" s="66" t="s">
         <v>700</v>
       </c>
-      <c r="E2" s="49" t="s">
+    </row>
+    <row r="3" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
+      <c r="C3" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>568</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>541</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>693</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="C4" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65"/>
+    </row>
+    <row r="6" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>699</v>
+      </c>
+      <c r="E6" s="66" t="s">
         <v>538</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F6" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="66">
+        <v>1</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>700</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="C7" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>541</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>693</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="K7" s="68" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="C8" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>543</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>541</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>693</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="C9" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>701</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="66">
+        <v>1</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65"/>
+      <c r="C10" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="66">
+        <v>1</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+    </row>
+    <row r="12" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>702</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>422</v>
+      </c>
+      <c r="I12" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="K12" s="66" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="C13" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>703</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="K13" s="66" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65"/>
+      <c r="C14" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="49" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="C3" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>568</v>
-      </c>
-      <c r="E3" s="49" t="s">
+      <c r="G14" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="N14" s="66" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="C15" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>705</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>421</v>
+      </c>
+      <c r="N15" s="66" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="65"/>
+      <c r="C16" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>706</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>420</v>
+      </c>
+      <c r="N16" s="66" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="65"/>
+      <c r="C17" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>707</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="66">
+        <v>2</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="C18" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>546</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="66">
+        <v>2</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="65"/>
+      <c r="C19" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>551</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>550</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="66">
+        <v>2</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="65"/>
+      <c r="C20" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>626</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>550</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="66">
+        <v>2</v>
+      </c>
+      <c r="H20" s="66" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
+    </row>
+    <row r="22" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+      <c r="B22" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>708</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="66">
+        <v>2</v>
+      </c>
+      <c r="H22" s="66" t="s">
+        <v>709</v>
+      </c>
+      <c r="N22" s="66" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="C23" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>544</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="66" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="C24" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>385</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>697</v>
+      </c>
+      <c r="N24" s="66" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65"/>
+    </row>
+    <row r="26" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="65"/>
+      <c r="B26" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>545</v>
+      </c>
+      <c r="E26" s="66" t="s">
         <v>541</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F26" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="66" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="C27" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>711</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>385</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="66" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="65"/>
+      <c r="C28" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>385</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="H28" s="66" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="65"/>
+      <c r="C29" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>540</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>541</v>
+      </c>
+      <c r="G29" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="66" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="65"/>
+      <c r="D30" s="69"/>
+    </row>
+    <row r="31" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>824</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F31" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G31" s="66">
+        <v>1</v>
+      </c>
+      <c r="H31" s="66" t="s">
+        <v>440</v>
+      </c>
+      <c r="N31" s="66" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65"/>
+      <c r="C32" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>823</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>625</v>
+      </c>
+      <c r="F32" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="66">
+        <v>1</v>
+      </c>
+      <c r="H32" s="66" t="s">
+        <v>714</v>
+      </c>
+      <c r="L32" s="66" t="s">
+        <v>802</v>
+      </c>
+      <c r="N32" s="66" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="C33" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>539</v>
+      </c>
+      <c r="E33" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="66">
+        <v>2</v>
+      </c>
+      <c r="H33" s="66" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
+      <c r="C34" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>680</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>567</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
+      <c r="C35" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>716</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>541</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="66">
+        <v>2</v>
+      </c>
+      <c r="H35" s="66" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="C36" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="69" t="s">
+        <v>718</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="66">
+        <v>2</v>
+      </c>
+      <c r="H36" s="66" t="s">
+        <v>719</v>
+      </c>
+      <c r="N36" s="66" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="71"/>
+      <c r="D37" s="72" t="s">
+        <v>794</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="65"/>
+    </row>
+    <row r="39" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>553</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" s="51">
         <v>0.5</v>
       </c>
-      <c r="H3" s="49" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="C4" s="49" t="s">
+      <c r="H39" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="I39" s="49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="C40" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>554</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="51">
+        <v>2</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>489</v>
+      </c>
+      <c r="N40" s="49" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="C41" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>555</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="51">
+        <v>1</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="I41" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="L41" s="49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="52"/>
+      <c r="C42" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>556</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="L42" s="49" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="C43" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>557</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>492</v>
+      </c>
+      <c r="I43" s="49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52"/>
+      <c r="C44" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>552</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="48"/>
+      <c r="C45" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="53">
+        <v>1</v>
+      </c>
+      <c r="H45" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="K45" s="49" t="s">
+        <v>786</v>
+      </c>
+      <c r="L45" s="49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="48"/>
+      <c r="C46" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>365</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="F4" s="49" t="s">
+      <c r="D46" s="53" t="s">
+        <v>559</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="F46" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G46" s="53"/>
+      <c r="H46" s="53" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="54"/>
+      <c r="C47" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="53">
+        <v>1</v>
+      </c>
+      <c r="H47" s="53" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="52"/>
+      <c r="C48" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>535</v>
+      </c>
+      <c r="E48" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="F48" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" s="49">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-    </row>
-    <row r="6" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>700</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>538</v>
-      </c>
-      <c r="F6" s="49" t="s">
+      <c r="H48" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="I48" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="L48" s="49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="52"/>
+      <c r="C49" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>558</v>
+      </c>
+      <c r="E49" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H49" s="49" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="48"/>
+      <c r="C50" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="48"/>
+      <c r="C51" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>691</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H51" s="49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="48"/>
+      <c r="C52" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="G52" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="K52" s="49" t="s">
+        <v>786</v>
+      </c>
+      <c r="L52" s="49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="54"/>
+      <c r="C53" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>655</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>520</v>
+      </c>
+      <c r="F53" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G53" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="H53" s="53" t="s">
+        <v>533</v>
+      </c>
+      <c r="I53" s="49" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="54"/>
+      <c r="C54" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>733</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>520</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="G54" s="53">
         <v>1</v>
       </c>
-      <c r="H6" s="49" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="C7" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>542</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>541</v>
-      </c>
-      <c r="F7" s="49" t="s">
+      <c r="H54" s="53" t="s">
+        <v>734</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="L54" s="49" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="48"/>
+      <c r="C55" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>798</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>682</v>
+      </c>
+      <c r="F55" s="50"/>
+      <c r="G55" s="53">
+        <v>1</v>
+      </c>
+      <c r="H55" s="50" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="48"/>
+      <c r="C56" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G56" s="49">
+        <v>1</v>
+      </c>
+      <c r="H56" s="49" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="48"/>
+      <c r="C57" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" s="49">
+        <v>1</v>
+      </c>
+      <c r="H57" s="49" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="54"/>
+      <c r="C58" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+    </row>
+    <row r="59" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="54"/>
+      <c r="C59" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>812</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" s="53">
+        <v>1</v>
+      </c>
+      <c r="H59" s="53" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="54"/>
+      <c r="C60" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>813</v>
+      </c>
+      <c r="E60" s="49" t="s">
+        <v>807</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="H60" s="53" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="54"/>
+      <c r="C61" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>814</v>
+      </c>
+      <c r="E61" s="49" t="s">
+        <v>808</v>
+      </c>
+      <c r="F61" s="50"/>
+      <c r="G61" s="53">
+        <v>1</v>
+      </c>
+      <c r="H61" s="53" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="48"/>
+      <c r="C62" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>815</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="54"/>
+      <c r="H63" s="53"/>
+    </row>
+    <row r="64" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="54"/>
+      <c r="B64" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>735</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="F64" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="G64" s="53">
+        <v>1</v>
+      </c>
+      <c r="H64" s="49" t="s">
+        <v>736</v>
+      </c>
+      <c r="I64" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="L64" s="49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="54"/>
+      <c r="C65" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="50" t="s">
+        <v>562</v>
+      </c>
+      <c r="E65" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="F65" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65" s="53">
+        <v>1</v>
+      </c>
+      <c r="H65" s="49" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="54"/>
+      <c r="C66" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>739</v>
+      </c>
+      <c r="E66" s="50" t="s">
+        <v>662</v>
+      </c>
+      <c r="F66" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G66" s="53"/>
+      <c r="H66" s="49" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+    </row>
+    <row r="68" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="54"/>
+      <c r="B68" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="C68" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="E68" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="H68" s="49" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="54"/>
+      <c r="C69" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="F69" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" s="50">
+        <v>1</v>
+      </c>
+      <c r="H69" s="50" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="54"/>
+      <c r="C70" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>657</v>
+      </c>
+      <c r="E70" s="49" t="s">
+        <v>658</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="G70" s="53">
+        <v>1</v>
+      </c>
+      <c r="H70" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="I70" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="L70" s="49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="54"/>
+      <c r="C71" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>562</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F71" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G71" s="53">
+        <v>1</v>
+      </c>
+      <c r="H71" s="49" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="54"/>
+      <c r="C72" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>730</v>
+      </c>
+      <c r="E72" s="49" t="s">
+        <v>683</v>
+      </c>
+      <c r="F72" s="50"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="49" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="54"/>
+      <c r="C73" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>564</v>
+      </c>
+      <c r="E73" s="49" t="s">
+        <v>660</v>
+      </c>
+      <c r="F73" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="G73" s="53">
+        <v>2</v>
+      </c>
+      <c r="H73" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="L73" s="49" t="s">
+        <v>802</v>
+      </c>
+      <c r="N73" s="49" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="54"/>
+      <c r="C74" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>748</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>661</v>
+      </c>
+      <c r="F74" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G74" s="50">
+        <v>4</v>
+      </c>
+      <c r="H74" s="49" t="s">
+        <v>747</v>
+      </c>
+      <c r="I74" s="49" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="54"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="53"/>
+    </row>
+    <row r="76" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="66" t="s">
+        <v>750</v>
+      </c>
+      <c r="E76" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="G76" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H76" s="66" t="s">
+        <v>751</v>
+      </c>
+      <c r="I76" s="66" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="73"/>
+      <c r="C77" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="G77" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H77" s="66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="74"/>
+      <c r="C78" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="75" t="s">
+        <v>787</v>
+      </c>
+      <c r="E78" s="66" t="s">
+        <v>590</v>
+      </c>
+      <c r="F78" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G78" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H78" s="66" t="s">
+        <v>752</v>
+      </c>
+      <c r="I78" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="K78" s="66" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="74"/>
+    </row>
+    <row r="80" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="74"/>
+      <c r="B80" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G80" s="66">
+        <v>3</v>
+      </c>
+      <c r="H80" s="66" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="74"/>
+      <c r="C81" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="69" t="s">
+        <v>598</v>
+      </c>
+      <c r="E81" s="68" t="s">
+        <v>599</v>
+      </c>
+      <c r="F81" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81" s="66">
         <v>0.25</v>
       </c>
-      <c r="H7" s="49" t="s">
-        <v>694</v>
-      </c>
-      <c r="I7" s="49" t="s">
+      <c r="H81" s="66" t="s">
+        <v>753</v>
+      </c>
+      <c r="I81" s="66" t="s">
         <v>502</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K81" s="66" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="74"/>
+      <c r="C82" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="69" t="s">
+        <v>666</v>
+      </c>
+      <c r="E82" s="66" t="s">
+        <v>665</v>
+      </c>
+      <c r="F82" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G82" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H82" s="66" t="s">
+        <v>754</v>
+      </c>
+      <c r="I82" s="66" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="C8" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>543</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>541</v>
-      </c>
-      <c r="F8" s="49" t="s">
+      <c r="K82" s="66" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="74"/>
+      <c r="C83" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="69" t="s">
+        <v>569</v>
+      </c>
+      <c r="E83" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G83" s="66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="74"/>
+      <c r="C84" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>600</v>
+      </c>
+      <c r="E84" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="G84" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="74"/>
+      <c r="D85" s="68"/>
+    </row>
+    <row r="86" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="74"/>
+      <c r="B86" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="66" t="s">
+        <v>592</v>
+      </c>
+      <c r="E86" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="F86" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G86" s="66">
+        <v>1</v>
+      </c>
+      <c r="H86" s="66" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="74"/>
+      <c r="C87" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="66" t="s">
+        <v>596</v>
+      </c>
+      <c r="E87" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="F87" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="H87" s="66" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="74"/>
+      <c r="C88" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="66" t="s">
+        <v>591</v>
+      </c>
+      <c r="E88" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="F88" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="H88" s="66" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="74"/>
+      <c r="C89" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="66" t="s">
+        <v>593</v>
+      </c>
+      <c r="E89" s="66" t="s">
+        <v>665</v>
+      </c>
+      <c r="F89" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G89" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H89" s="66" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="74"/>
+      <c r="C90" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="66" t="s">
+        <v>690</v>
+      </c>
+      <c r="E90" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="F90" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G90" s="66">
+        <v>3</v>
+      </c>
+      <c r="H90" s="66" t="s">
+        <v>759</v>
+      </c>
+      <c r="N90" s="66" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="74"/>
+      <c r="C91" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="66" t="s">
+        <v>572</v>
+      </c>
+      <c r="E91" s="66" t="s">
+        <v>665</v>
+      </c>
+      <c r="F91" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="G91" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="H91" s="66" t="s">
+        <v>760</v>
+      </c>
+      <c r="I91" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="L91" s="66" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="74"/>
+      <c r="C92" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="66" t="s">
+        <v>664</v>
+      </c>
+      <c r="E92" s="66" t="s">
+        <v>665</v>
+      </c>
+      <c r="F92" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="G92" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H92" s="66" t="s">
+        <v>754</v>
+      </c>
+      <c r="I92" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="L92" s="66" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="74"/>
+      <c r="C93" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="66" t="s">
+        <v>594</v>
+      </c>
+      <c r="E93" s="66" t="s">
+        <v>665</v>
+      </c>
+      <c r="F93" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G93" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="74"/>
+      <c r="C94" s="66" t="s">
+        <v>667</v>
+      </c>
+      <c r="D94" s="66" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="74"/>
+      <c r="C95" s="66" t="s">
+        <v>667</v>
+      </c>
+      <c r="D95" s="66" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="74"/>
+    </row>
+    <row r="97" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="73"/>
+      <c r="B97" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="66" t="s">
+        <v>724</v>
+      </c>
+      <c r="E97" s="68" t="s">
+        <v>725</v>
+      </c>
+      <c r="G97" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H97" s="66" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="73"/>
+      <c r="C98" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="66" t="s">
+        <v>726</v>
+      </c>
+      <c r="E98" s="68" t="s">
+        <v>725</v>
+      </c>
+      <c r="G98" s="66">
+        <v>1</v>
+      </c>
+      <c r="H98" s="66" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="73"/>
+      <c r="C99" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="66" t="s">
+        <v>727</v>
+      </c>
+      <c r="E99" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="G99" s="66">
+        <v>2</v>
+      </c>
+      <c r="H99" s="66" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="73"/>
+      <c r="C100" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="66" t="s">
+        <v>728</v>
+      </c>
+      <c r="E100" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="G100" s="66">
+        <v>1</v>
+      </c>
+      <c r="H100" s="66" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="73"/>
+      <c r="C101" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="66" t="s">
+        <v>729</v>
+      </c>
+      <c r="E101" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="G101" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H101" s="66" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="73"/>
+    </row>
+    <row r="103" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="73"/>
+      <c r="B103" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="66" t="s">
+        <v>761</v>
+      </c>
+      <c r="E103" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="F103" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G103" s="66">
         <v>0.25</v>
       </c>
-      <c r="H8" s="49" t="s">
-        <v>694</v>
-      </c>
-      <c r="I8" s="49" t="s">
+      <c r="H103" s="66" t="s">
+        <v>762</v>
+      </c>
+      <c r="I103" s="66" t="s">
         <v>502</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K103" s="66" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="71"/>
+    </row>
+    <row r="105" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="E105" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="F105" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="G105" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H105" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="I105" s="49"/>
+    </row>
+    <row r="106" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="48"/>
+      <c r="C106" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E106" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="F106" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G106" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="H106" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="I106" s="49" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="C9" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>702</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="F9" s="49" t="s">
+      <c r="K106" s="49" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="48"/>
+      <c r="C107" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="E107" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="F107" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G107" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H107" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="I107" s="49"/>
+    </row>
+    <row r="108" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="52"/>
+      <c r="C108" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="49" t="s">
+        <v>602</v>
+      </c>
+      <c r="E108" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="F108" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="G108" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="H108" s="49" t="s">
+        <v>537</v>
+      </c>
+      <c r="I108" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="K108" s="49" t="s">
+        <v>788</v>
+      </c>
+      <c r="L108" s="49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="48"/>
+      <c r="C109" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="E109" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="F109" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="G109" s="49">
+        <v>1</v>
+      </c>
+      <c r="H109" s="49" t="s">
+        <v>624</v>
+      </c>
+      <c r="K109" s="49" t="s">
+        <v>789</v>
+      </c>
+      <c r="L109" s="49" t="s">
+        <v>802</v>
+      </c>
+      <c r="N109" s="49" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="48"/>
+      <c r="C110" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="E110" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="F110" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G110" s="55"/>
+      <c r="H110" s="55" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="48"/>
+      <c r="C111" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="56" t="s">
+        <v>601</v>
+      </c>
+      <c r="E111" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="F111" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G111" s="49"/>
+      <c r="H111" s="55" t="s">
+        <v>768</v>
+      </c>
+      <c r="I111" s="49"/>
+    </row>
+    <row r="112" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="48"/>
+      <c r="C112" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="55" t="s">
+        <v>692</v>
+      </c>
+      <c r="E112" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="F112" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="G112" s="55">
+        <v>1</v>
+      </c>
+      <c r="H112" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="I112" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="L112" s="55" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="48"/>
+      <c r="C113" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="E113" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="F113" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="G113" s="55">
+        <v>1</v>
+      </c>
+      <c r="H113" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="I113" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="L113" s="55" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="48"/>
+      <c r="C114" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="E114" s="56" t="s">
+        <v>603</v>
+      </c>
+      <c r="F114" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="G114" s="55">
+        <v>2</v>
+      </c>
+      <c r="H114" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="I114" s="49"/>
+      <c r="L114" s="55" t="s">
+        <v>802</v>
+      </c>
+      <c r="N114" s="55" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="48"/>
+      <c r="C115" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="49" t="s">
+        <v>769</v>
+      </c>
+      <c r="E115" s="56" t="s">
+        <v>608</v>
+      </c>
+      <c r="F115" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G115" s="55">
+        <v>3</v>
+      </c>
+      <c r="H115" s="55" t="s">
+        <v>771</v>
+      </c>
+      <c r="I115" s="49"/>
+    </row>
+    <row r="116" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="52"/>
+      <c r="C116" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="E116" s="56" t="s">
+        <v>609</v>
+      </c>
+      <c r="F116" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="G116" s="55">
         <v>1</v>
       </c>
-      <c r="H9" s="49" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="C10" s="49" t="s">
+      <c r="H116" s="55" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="48"/>
+      <c r="C117" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D117" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="E117" s="56" t="s">
+        <v>623</v>
+      </c>
+      <c r="F117" s="56" t="s">
+        <v>685</v>
+      </c>
+      <c r="I117" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="L117" s="55" t="s">
+        <v>803</v>
+      </c>
+      <c r="N117" s="55" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="48"/>
+      <c r="C118" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="56" t="s">
+        <v>686</v>
+      </c>
+      <c r="E118" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="F118" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="G118" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="H118" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="I118" s="49"/>
+      <c r="J118" s="59"/>
+    </row>
+    <row r="119" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="48"/>
+      <c r="C119" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="E119" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="F119" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G119" s="56">
+        <v>3</v>
+      </c>
+      <c r="H119" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="I119" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="J119" s="59"/>
+      <c r="L119" s="55" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="48"/>
+      <c r="C120" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="E120" s="56" t="s">
+        <v>687</v>
+      </c>
+      <c r="F120" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="G120" s="55">
+        <v>2</v>
+      </c>
+      <c r="H120" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="I120" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="L120" s="55" t="s">
+        <v>786</v>
+      </c>
+      <c r="N120" s="55" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="48"/>
+      <c r="D121" s="55" t="s">
+        <v>805</v>
+      </c>
+      <c r="E121" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="G121" s="55">
+        <v>1</v>
+      </c>
+      <c r="H121" s="55" t="s">
+        <v>806</v>
+      </c>
+      <c r="I121" s="49"/>
+    </row>
+    <row r="122" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="48"/>
+    </row>
+    <row r="123" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="48"/>
+      <c r="B123" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D123" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="E123" s="56" t="s">
+        <v>653</v>
+      </c>
+      <c r="F123" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="G123" s="55">
+        <v>5</v>
+      </c>
+      <c r="H123" s="55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="48"/>
+      <c r="C124" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="55" t="s">
+        <v>632</v>
+      </c>
+      <c r="E124" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F124" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="G124" s="55">
+        <v>2</v>
+      </c>
+      <c r="H124" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="I124" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="K124" s="60" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="48"/>
+      <c r="C125" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="55" t="s">
+        <v>604</v>
+      </c>
+      <c r="E125" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F125" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="H125" s="55" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="48"/>
+      <c r="C126" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="E126" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F126" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="G126" s="49">
+        <v>5</v>
+      </c>
+      <c r="H126" s="55" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="48"/>
+      <c r="D127" s="55" t="s">
+        <v>610</v>
+      </c>
+      <c r="E127" s="56"/>
+    </row>
+    <row r="128" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="48"/>
+      <c r="C128" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F128" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="I128" s="49"/>
+    </row>
+    <row r="129" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="48"/>
+    </row>
+    <row r="130" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="48"/>
+      <c r="B130" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C130" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="D130" s="55" t="s">
+        <v>633</v>
+      </c>
+      <c r="E130" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="F130" s="55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="48"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="D131" s="55" t="s">
+        <v>648</v>
+      </c>
+      <c r="E131" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="F131" s="55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="48"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="E132" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="F132" s="55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="48"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="55" t="s">
+        <v>619</v>
+      </c>
+      <c r="E133" s="61" t="s">
+        <v>620</v>
+      </c>
+      <c r="F133" s="55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="48"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="53" t="s">
-        <v>724</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="49" t="s">
+      <c r="D134" s="55" t="s">
+        <v>634</v>
+      </c>
+      <c r="E134" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="F134" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="49">
+    </row>
+    <row r="135" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="48"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D135" s="55" t="s">
+        <v>622</v>
+      </c>
+      <c r="E135" s="61" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="48"/>
+    </row>
+    <row r="137" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="48"/>
+      <c r="B137" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C137" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="55" t="s">
+        <v>645</v>
+      </c>
+      <c r="E137" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="F137" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="H137" s="49" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="48"/>
+      <c r="C138" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="49" t="s">
+        <v>646</v>
+      </c>
+      <c r="E138" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="F138" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G138" s="49">
+        <v>2</v>
+      </c>
+      <c r="H138" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="I138" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="L138" s="49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="48"/>
+      <c r="C139" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" s="49" t="s">
+        <v>649</v>
+      </c>
+      <c r="E139" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="F139" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G139" s="49">
+        <v>2</v>
+      </c>
+      <c r="H139" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="I139" s="49" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="48"/>
+      <c r="C140" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="49" t="s">
+        <v>650</v>
+      </c>
+      <c r="E140" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="F140" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G140" s="49">
+        <v>2</v>
+      </c>
+      <c r="H140" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="48"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="E141" s="61" t="s">
+        <v>688</v>
+      </c>
+      <c r="F141" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G141" s="49">
+        <v>2</v>
+      </c>
+      <c r="H141" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="I141" s="49" t="s">
+        <v>822</v>
+      </c>
+      <c r="N141" s="49" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="48"/>
+      <c r="C142" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="E142" s="61" t="s">
+        <v>605</v>
+      </c>
+      <c r="F142" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G142" s="49">
+        <v>2</v>
+      </c>
+      <c r="H142" s="49" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="48"/>
+      <c r="C143" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D143" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="E143" s="61" t="s">
+        <v>605</v>
+      </c>
+      <c r="G143" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="48"/>
+      <c r="C144" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D144" s="49" t="s">
+        <v>651</v>
+      </c>
+      <c r="E144" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F144" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="G144" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="48"/>
+      <c r="D145" s="55"/>
+      <c r="E145" s="61"/>
+    </row>
+    <row r="146" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="48"/>
+      <c r="B146" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="E146" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F146" s="56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="48"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D147" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="E147" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F147" s="56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="48"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" s="55" t="s">
+        <v>630</v>
+      </c>
+      <c r="E148" s="56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="48"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="55" t="s">
+        <v>618</v>
+      </c>
+      <c r="E149" s="56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="48"/>
+      <c r="C150" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" s="55" t="s">
+        <v>621</v>
+      </c>
+      <c r="E150" s="56" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="48"/>
+      <c r="D151" s="55"/>
+      <c r="E151" s="56"/>
+    </row>
+    <row r="152" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="48"/>
+      <c r="B152" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="E152" s="49" t="s">
+        <v>617</v>
+      </c>
+      <c r="F152" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G152" s="49">
         <v>1</v>
       </c>
-      <c r="H10" s="49" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-    </row>
-    <row r="12" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>703</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="49">
+      <c r="H152" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="N152" s="49" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="48"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D153" s="49" t="s">
+        <v>615</v>
+      </c>
+      <c r="E153" s="49" t="s">
+        <v>617</v>
+      </c>
+      <c r="F153" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G153" s="49">
+        <v>2</v>
+      </c>
+      <c r="H153" s="49" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="48"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="E154" s="49" t="s">
+        <v>617</v>
+      </c>
+      <c r="F154" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G154" s="49">
+        <v>1</v>
+      </c>
+      <c r="H154" s="49" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="48"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="55" t="s">
+        <v>783</v>
+      </c>
+      <c r="E155" s="56" t="s">
+        <v>606</v>
+      </c>
+      <c r="F155" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="G155" s="49">
+        <v>1</v>
+      </c>
+      <c r="H155" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="I155" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="L155" s="49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="48"/>
+    </row>
+    <row r="157" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="48"/>
+      <c r="B157" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D157" s="49" t="s">
+        <v>614</v>
+      </c>
+      <c r="E157" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="F157" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G157" s="49">
+        <v>2</v>
+      </c>
+      <c r="H157" s="49" t="s">
+        <v>784</v>
+      </c>
+      <c r="I157" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="L157" s="49" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="48"/>
+      <c r="C158" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="49" t="s">
+        <v>613</v>
+      </c>
+      <c r="E158" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="F158" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G158" s="49">
+        <v>4</v>
+      </c>
+      <c r="H158" s="49" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="48"/>
+      <c r="C159" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D159" s="49" t="s">
+        <v>796</v>
+      </c>
+      <c r="E159" s="49" t="s">
+        <v>617</v>
+      </c>
+      <c r="F159" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G159" s="49">
         <v>0.5</v>
       </c>
-      <c r="H12" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="C13" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>704</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>423</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="C14" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>705</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="C15" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>706</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="C16" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>707</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="C17" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>708</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="49">
-        <v>2</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="C18" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>546</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" s="49">
-        <v>2</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="C19" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>551</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>550</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19" s="49">
-        <v>2</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="C20" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>626</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>550</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="49">
-        <v>2</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-    </row>
-    <row r="22" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>709</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="49">
-        <v>2</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="C23" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>544</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="C24" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>711</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>385</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-    </row>
-    <row r="26" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>545</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>541</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="C27" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>712</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>385</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G27" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="49" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="C28" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>385</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="C29" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>540</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>541</v>
-      </c>
-      <c r="G29" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="D30" s="51"/>
-    </row>
-    <row r="31" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>396</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="49">
-        <v>1</v>
-      </c>
-      <c r="H31" s="49" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="C32" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>715</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>625</v>
-      </c>
-      <c r="F32" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="49">
-        <v>1</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="C33" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>539</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>396</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="49">
-        <v>2</v>
-      </c>
-      <c r="H33" s="49" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="C34" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>681</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>567</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="C35" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>718</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>541</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" s="49">
-        <v>2</v>
-      </c>
-      <c r="H35" s="49" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="C36" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>720</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="49">
-        <v>2</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="D37" s="76" t="s">
-        <v>800</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-    </row>
-    <row r="39" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>553</v>
-      </c>
-      <c r="E39" s="56" t="s">
-        <v>487</v>
-      </c>
-      <c r="F39" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="G39" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="H39" s="58" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="C40" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>554</v>
-      </c>
-      <c r="E40" s="56" t="s">
-        <v>487</v>
-      </c>
-      <c r="F40" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" s="58">
-        <v>2</v>
-      </c>
-      <c r="H40" s="58" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="C41" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>555</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>487</v>
-      </c>
-      <c r="F41" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="G41" s="58">
-        <v>1</v>
-      </c>
-      <c r="H41" s="58" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="C42" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>556</v>
-      </c>
-      <c r="E42" s="56" t="s">
-        <v>487</v>
-      </c>
-      <c r="F42" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="G42" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="H42" s="58" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="C43" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="57" t="s">
-        <v>557</v>
-      </c>
-      <c r="E43" s="56" t="s">
-        <v>487</v>
-      </c>
-      <c r="F43" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="G43" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="58" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="C44" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>552</v>
-      </c>
-      <c r="E44" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="C45" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="G45" s="60">
-        <v>1</v>
-      </c>
-      <c r="H45" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="K45" s="56" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="C46" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>559</v>
-      </c>
-      <c r="E46" s="60" t="s">
-        <v>560</v>
-      </c>
-      <c r="F46" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="C47" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>524</v>
-      </c>
-      <c r="E47" s="56" t="s">
-        <v>521</v>
-      </c>
-      <c r="F47" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G47" s="60">
-        <v>1</v>
-      </c>
-      <c r="H47" s="60" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="C48" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>535</v>
-      </c>
-      <c r="E48" s="56" t="s">
-        <v>521</v>
-      </c>
-      <c r="F48" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="G48" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="H48" s="56" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="C49" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>558</v>
-      </c>
-      <c r="E49" s="56" t="s">
-        <v>521</v>
-      </c>
-      <c r="F49" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="H49" s="56" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="C50" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="H50" s="56" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="C51" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>692</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="F51" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="H51" s="56" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="C52" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="F52" s="57" t="s">
-        <v>657</v>
-      </c>
-      <c r="G52" s="60">
-        <v>0.5</v>
-      </c>
-      <c r="H52" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="K52" s="56" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="C53" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="57" t="s">
-        <v>655</v>
-      </c>
-      <c r="E53" s="56" t="s">
-        <v>520</v>
-      </c>
-      <c r="F53" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="G53" s="60">
-        <v>1.5</v>
-      </c>
-      <c r="H53" s="60" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="C54" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="57" t="s">
-        <v>739</v>
-      </c>
-      <c r="E54" s="56" t="s">
-        <v>520</v>
-      </c>
-      <c r="F54" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="G54" s="60">
-        <v>1</v>
-      </c>
-      <c r="H54" s="60" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="C55" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="57" t="s">
-        <v>732</v>
-      </c>
-      <c r="E55" s="57" t="s">
-        <v>683</v>
-      </c>
-      <c r="F55" s="57"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-    </row>
-    <row r="56" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="C56" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G56" s="56">
-        <v>1</v>
-      </c>
-      <c r="H56" s="56" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="C57" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="E57" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="F57" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G57" s="56">
-        <v>1</v>
-      </c>
-      <c r="H57" s="56" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="C58" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="F58" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-    </row>
-    <row r="59" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="C59" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="57" t="s">
-        <v>736</v>
-      </c>
-      <c r="E59" s="56" t="s">
-        <v>479</v>
-      </c>
-      <c r="F59" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-    </row>
-    <row r="60" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="C60" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="57" t="s">
-        <v>737</v>
-      </c>
-      <c r="E60" s="56" t="s">
-        <v>656</v>
-      </c>
-      <c r="F60" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-    </row>
-    <row r="61" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="C61" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="57" t="s">
-        <v>738</v>
-      </c>
-      <c r="E61" s="56" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="H62" s="60"/>
-    </row>
-    <row r="63" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="56" t="s">
-        <v>561</v>
-      </c>
-      <c r="C63" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="57" t="s">
-        <v>741</v>
-      </c>
-      <c r="E63" s="57" t="s">
-        <v>654</v>
-      </c>
-      <c r="F63" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="G63" s="60">
-        <v>1</v>
-      </c>
-      <c r="H63" s="56" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="C64" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="57" t="s">
-        <v>562</v>
-      </c>
-      <c r="E64" s="57" t="s">
-        <v>479</v>
-      </c>
-      <c r="F64" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G64" s="60">
-        <v>1</v>
-      </c>
-      <c r="H64" s="56" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="C65" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="57" t="s">
-        <v>745</v>
-      </c>
-      <c r="E65" s="57" t="s">
-        <v>663</v>
-      </c>
-      <c r="F65" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G65" s="60"/>
-      <c r="H65" s="56" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-    </row>
-    <row r="67" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="56" t="s">
-        <v>563</v>
-      </c>
-      <c r="C67" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="57" t="s">
-        <v>566</v>
-      </c>
-      <c r="E67" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G67" s="60">
-        <v>0.1</v>
-      </c>
-      <c r="H67" s="56" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
-      <c r="C68" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="57" t="s">
-        <v>540</v>
-      </c>
-      <c r="E68" s="56" t="s">
-        <v>565</v>
-      </c>
-      <c r="F68" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G68" s="57">
-        <v>1</v>
-      </c>
-      <c r="H68" s="57" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="C69" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="57" t="s">
-        <v>658</v>
-      </c>
-      <c r="E69" s="56" t="s">
-        <v>659</v>
-      </c>
-      <c r="F69" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="G69" s="60">
-        <v>1</v>
-      </c>
-      <c r="H69" s="56" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="C70" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="57" t="s">
-        <v>562</v>
-      </c>
-      <c r="E70" s="56" t="s">
-        <v>660</v>
-      </c>
-      <c r="F70" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G70" s="60">
-        <v>1</v>
-      </c>
-      <c r="H70" s="56" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="C71" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="57" t="s">
-        <v>733</v>
-      </c>
-      <c r="E71" s="56" t="s">
-        <v>684</v>
-      </c>
-      <c r="F71" s="57"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="56" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
-      <c r="C72" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="57" t="s">
-        <v>564</v>
-      </c>
-      <c r="E72" s="56" t="s">
-        <v>661</v>
-      </c>
-      <c r="F72" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="G72" s="60">
-        <v>2</v>
-      </c>
-      <c r="H72" s="56" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="C73" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="56" t="s">
-        <v>754</v>
-      </c>
-      <c r="E73" s="56" t="s">
-        <v>662</v>
-      </c>
-      <c r="F73" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G73" s="57">
-        <v>4</v>
-      </c>
-      <c r="H73" s="56" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-    </row>
-    <row r="75" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="49" t="s">
-        <v>756</v>
-      </c>
-      <c r="E75" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F75" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="G75" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H75" s="49" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
-      <c r="C76" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D76" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F76" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="G76" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H76" s="49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
-      <c r="C77" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="64" t="s">
-        <v>793</v>
-      </c>
-      <c r="E77" s="49" t="s">
-        <v>590</v>
-      </c>
-      <c r="F77" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="G77" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H77" s="49" t="s">
-        <v>758</v>
-      </c>
-      <c r="I77" s="49" t="s">
-        <v>502</v>
-      </c>
-      <c r="K77" s="49" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="63"/>
-    </row>
-    <row r="79" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="63"/>
-      <c r="B79" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="C79" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F79" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G79" s="49">
-        <v>3</v>
-      </c>
-      <c r="H79" s="49" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="63"/>
-      <c r="C80" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="51" t="s">
-        <v>598</v>
-      </c>
-      <c r="E80" s="50" t="s">
-        <v>599</v>
-      </c>
-      <c r="F80" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="G80" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="H80" s="49" t="s">
-        <v>759</v>
-      </c>
-      <c r="I80" s="49" t="s">
-        <v>502</v>
-      </c>
-      <c r="K80" s="49" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="63"/>
-      <c r="C81" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>667</v>
-      </c>
-      <c r="E81" s="49" t="s">
-        <v>666</v>
-      </c>
-      <c r="F81" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="G81" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H81" s="49" t="s">
-        <v>760</v>
-      </c>
-      <c r="I81" s="49" t="s">
-        <v>502</v>
-      </c>
-      <c r="K81" s="49" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="63"/>
-      <c r="C82" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>569</v>
-      </c>
-      <c r="E82" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G82" s="49">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
-      <c r="C83" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="50" t="s">
-        <v>600</v>
-      </c>
-      <c r="E83" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="G83" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="63"/>
-      <c r="D84" s="50"/>
-    </row>
-    <row r="85" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="63"/>
-      <c r="B85" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D85" s="49" t="s">
-        <v>592</v>
-      </c>
-      <c r="E85" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="F85" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G85" s="49">
-        <v>1</v>
-      </c>
-      <c r="H85" s="49" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="63"/>
-      <c r="C86" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D86" s="49" t="s">
-        <v>596</v>
-      </c>
-      <c r="E86" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="F86" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H86" s="49" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
-      <c r="C87" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="49" t="s">
-        <v>591</v>
-      </c>
-      <c r="E87" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="F87" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H87" s="49" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="63"/>
-      <c r="C88" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" s="49" t="s">
-        <v>593</v>
-      </c>
-      <c r="E88" s="49" t="s">
-        <v>666</v>
-      </c>
-      <c r="F88" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G88" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H88" s="49" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="63"/>
-      <c r="C89" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" s="49" t="s">
-        <v>691</v>
-      </c>
-      <c r="E89" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="F89" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G89" s="49">
-        <v>3</v>
-      </c>
-      <c r="H89" s="49" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="63"/>
-      <c r="C90" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D90" s="49" t="s">
-        <v>572</v>
-      </c>
-      <c r="E90" s="49" t="s">
-        <v>666</v>
-      </c>
-      <c r="F90" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G90" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="H90" s="49" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="63"/>
-      <c r="C91" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D91" s="49" t="s">
-        <v>665</v>
-      </c>
-      <c r="E91" s="49" t="s">
-        <v>666</v>
-      </c>
-      <c r="F91" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G91" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H91" s="49" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="63"/>
-      <c r="C92" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" s="49" t="s">
-        <v>594</v>
-      </c>
-      <c r="E92" s="49" t="s">
-        <v>666</v>
-      </c>
-      <c r="F92" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G92" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="63"/>
-      <c r="C93" s="49" t="s">
-        <v>668</v>
-      </c>
-      <c r="D93" s="49" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
-      <c r="C94" s="49" t="s">
-        <v>668</v>
-      </c>
-      <c r="D94" s="49" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="63"/>
-    </row>
-    <row r="96" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="62"/>
-      <c r="B96" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="C96" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="E96" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="G96" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H96" s="49" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
-      <c r="C97" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="E97" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="G97" s="49">
-        <v>1</v>
-      </c>
-      <c r="H97" s="49" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="62"/>
-      <c r="C98" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="49" t="s">
-        <v>729</v>
-      </c>
-      <c r="E98" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="G98" s="49">
-        <v>2</v>
-      </c>
-      <c r="H98" s="49" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
-      <c r="C99" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" s="49" t="s">
-        <v>730</v>
-      </c>
-      <c r="E99" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="G99" s="49">
-        <v>1</v>
-      </c>
-      <c r="H99" s="49" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
-      <c r="C100" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="49" t="s">
-        <v>731</v>
-      </c>
-      <c r="E100" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="G100" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H100" s="49" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="62"/>
-    </row>
-    <row r="102" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="62"/>
-      <c r="B102" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C102" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D102" s="49" t="s">
-        <v>767</v>
-      </c>
-      <c r="E102" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="F102" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="G102" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="H102" s="49" t="s">
-        <v>768</v>
-      </c>
-      <c r="I102" s="49" t="s">
-        <v>502</v>
-      </c>
-      <c r="K102" s="49" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="54"/>
-    </row>
-    <row r="104" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B104" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C104" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D104" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="E104" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="F104" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="G104" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="H104" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="I104" s="56"/>
-    </row>
-    <row r="105" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
-      <c r="C105" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D105" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="F105" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="G105" s="66">
-        <v>1.5</v>
-      </c>
-      <c r="H105" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="I105" s="56" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
-      <c r="C106" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="57" t="s">
-        <v>484</v>
-      </c>
-      <c r="E106" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="F106" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="G106" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="H106" s="56" t="s">
-        <v>486</v>
-      </c>
-      <c r="I106" s="56"/>
-    </row>
-    <row r="107" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="59"/>
-      <c r="C107" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="56" t="s">
-        <v>602</v>
-      </c>
-      <c r="E107" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="F107" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="G107" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="H107" s="56" t="s">
-        <v>537</v>
-      </c>
-      <c r="K107" s="56" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
-      <c r="C108" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D108" s="56" t="s">
-        <v>575</v>
-      </c>
-      <c r="E108" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="F108" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="G108" s="56">
-        <v>1</v>
-      </c>
-      <c r="H108" s="56" t="s">
-        <v>624</v>
-      </c>
-      <c r="K108" s="56" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="C109" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D109" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="E109" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="F109" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
-      <c r="C110" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D110" s="66" t="s">
-        <v>601</v>
-      </c>
-      <c r="E110" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="F110" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="G110" s="56"/>
-      <c r="H110" s="65" t="s">
-        <v>774</v>
-      </c>
-      <c r="I110" s="56"/>
-    </row>
-    <row r="111" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
-      <c r="C111" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="65" t="s">
-        <v>693</v>
-      </c>
-      <c r="E111" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="F111" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="G111" s="65">
-        <v>1</v>
-      </c>
-      <c r="H111" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="I111" s="56"/>
-    </row>
-    <row r="112" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
-      <c r="C112" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="E112" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="F112" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="G112" s="65">
-        <v>1</v>
-      </c>
-      <c r="H112" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="I112" s="56"/>
-    </row>
-    <row r="113" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
-      <c r="C113" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D113" s="68" t="s">
-        <v>295</v>
-      </c>
-      <c r="E113" s="66" t="s">
-        <v>603</v>
-      </c>
-      <c r="F113" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="G113" s="65">
-        <v>2</v>
-      </c>
-      <c r="H113" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="I113" s="56"/>
-    </row>
-    <row r="114" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="55"/>
-      <c r="C114" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D114" s="56" t="s">
-        <v>775</v>
-      </c>
-      <c r="E114" s="66" t="s">
-        <v>608</v>
-      </c>
-      <c r="F114" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="G114" s="65">
-        <v>3</v>
-      </c>
-      <c r="H114" s="65" t="s">
-        <v>777</v>
-      </c>
-      <c r="I114" s="56"/>
-    </row>
-    <row r="115" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="59"/>
-      <c r="C115" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D115" s="56" t="s">
-        <v>607</v>
-      </c>
-      <c r="E115" s="66" t="s">
-        <v>609</v>
-      </c>
-      <c r="F115" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="G115" s="65">
-        <v>1</v>
-      </c>
-      <c r="H115" s="65" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
-      <c r="C116" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D116" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="E116" s="66" t="s">
-        <v>623</v>
-      </c>
-      <c r="F116" s="66" t="s">
-        <v>686</v>
-      </c>
-      <c r="I116" s="56"/>
-    </row>
-    <row r="117" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
-      <c r="C117" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D117" s="66" t="s">
-        <v>687</v>
-      </c>
-      <c r="E117" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="F117" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="G117" s="66">
-        <v>0.2</v>
-      </c>
-      <c r="H117" s="67" t="s">
-        <v>291</v>
-      </c>
-      <c r="I117" s="56"/>
-      <c r="J117" s="69"/>
-    </row>
-    <row r="118" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="55"/>
-      <c r="C118" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D118" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="E118" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="F118" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="G118" s="66">
-        <v>3</v>
-      </c>
-      <c r="H118" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="I118" s="56"/>
-      <c r="J118" s="69"/>
-    </row>
-    <row r="119" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="55"/>
-      <c r="C119" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D119" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="E119" s="66" t="s">
-        <v>688</v>
-      </c>
-      <c r="F119" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="G119" s="65">
-        <v>2</v>
-      </c>
-      <c r="H119" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="I119" s="56"/>
-    </row>
-    <row r="120" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
-    </row>
-    <row r="121" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
-      <c r="B121" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="C121" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D121" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="E121" s="66" t="s">
-        <v>653</v>
-      </c>
-      <c r="F121" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="G121" s="65">
-        <v>5</v>
-      </c>
-      <c r="H121" s="65" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
-      <c r="C122" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D122" s="65" t="s">
-        <v>632</v>
-      </c>
-      <c r="E122" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="F122" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="G122" s="65">
-        <v>2</v>
-      </c>
-      <c r="H122" s="65" t="s">
-        <v>778</v>
-      </c>
-      <c r="I122" s="56" t="s">
-        <v>502</v>
-      </c>
-      <c r="K122" s="70" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
-      <c r="C123" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D123" s="65" t="s">
-        <v>604</v>
-      </c>
-      <c r="E123" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="F123" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="H123" s="65" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
-      <c r="C124" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D124" s="65" t="s">
-        <v>631</v>
-      </c>
-      <c r="E124" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="F124" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="G124" s="56">
-        <v>5</v>
-      </c>
-      <c r="H124" s="65" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
-      <c r="D125" s="65" t="s">
-        <v>610</v>
-      </c>
-      <c r="E125" s="66"/>
-    </row>
-    <row r="126" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
-      <c r="C126" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D126" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="E126" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="F126" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="I126" s="56"/>
-    </row>
-    <row r="127" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
-    </row>
-    <row r="128" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="55"/>
-      <c r="B128" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="C128" s="65" t="s">
-        <v>647</v>
-      </c>
-      <c r="D128" s="65" t="s">
-        <v>633</v>
-      </c>
-      <c r="E128" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="F128" s="65" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="55"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="65" t="s">
-        <v>647</v>
-      </c>
-      <c r="D129" s="65" t="s">
-        <v>648</v>
-      </c>
-      <c r="E129" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="F129" s="65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="55"/>
-      <c r="B130" s="65"/>
-      <c r="C130" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D130" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="E130" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="F130" s="65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="55"/>
-      <c r="B131" s="65"/>
-      <c r="C131" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D131" s="65" t="s">
-        <v>619</v>
-      </c>
-      <c r="E131" s="71" t="s">
-        <v>620</v>
-      </c>
-      <c r="F131" s="65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
-      <c r="B132" s="65"/>
-      <c r="C132" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="65" t="s">
-        <v>634</v>
-      </c>
-      <c r="E132" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="F132" s="65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" s="65" t="s">
-        <v>622</v>
-      </c>
-      <c r="E133" s="71" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
-    </row>
-    <row r="135" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="55"/>
-      <c r="B135" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="C135" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D135" s="65" t="s">
-        <v>645</v>
-      </c>
-      <c r="E135" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="F135" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="H135" s="56" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="55"/>
-      <c r="C136" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="56" t="s">
-        <v>646</v>
-      </c>
-      <c r="E136" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="F136" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="G136" s="56">
-        <v>2</v>
-      </c>
-      <c r="H136" s="56" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="55"/>
-      <c r="C137" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D137" s="56" t="s">
-        <v>649</v>
-      </c>
-      <c r="E137" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="F137" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="G137" s="56">
-        <v>2</v>
-      </c>
-      <c r="H137" s="56" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="55"/>
-      <c r="C138" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="56" t="s">
-        <v>650</v>
-      </c>
-      <c r="E138" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="F138" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="G138" s="56">
-        <v>2</v>
-      </c>
-      <c r="H138" s="56" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="55"/>
-      <c r="B139" s="65"/>
-      <c r="C139" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="E139" s="71" t="s">
-        <v>689</v>
-      </c>
-      <c r="F139" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G139" s="56">
-        <v>2</v>
-      </c>
-      <c r="H139" s="56" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="55"/>
-      <c r="C140" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D140" s="65" t="s">
-        <v>612</v>
-      </c>
-      <c r="E140" s="71" t="s">
-        <v>605</v>
-      </c>
-      <c r="F140" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="G140" s="56">
-        <v>2</v>
-      </c>
-      <c r="H140" s="56" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="55"/>
-      <c r="C141" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D141" s="65" t="s">
-        <v>611</v>
-      </c>
-      <c r="E141" s="71" t="s">
-        <v>605</v>
-      </c>
-      <c r="G141" s="56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="55"/>
-      <c r="C142" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D142" s="56" t="s">
-        <v>651</v>
-      </c>
-      <c r="E142" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="F142" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="G142" s="56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="55"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="71"/>
-    </row>
-    <row r="144" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="55"/>
-      <c r="B144" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D144" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="E144" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="F144" s="66" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="55"/>
-      <c r="B145" s="65"/>
-      <c r="C145" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D145" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="E145" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="F145" s="66" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="55"/>
-      <c r="B146" s="65"/>
-      <c r="C146" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D146" s="65" t="s">
-        <v>630</v>
-      </c>
-      <c r="E146" s="66" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="55"/>
-      <c r="B147" s="65"/>
-      <c r="C147" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D147" s="65" t="s">
-        <v>618</v>
-      </c>
-      <c r="E147" s="66" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="55"/>
-      <c r="C148" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D148" s="65" t="s">
-        <v>621</v>
-      </c>
-      <c r="E148" s="66" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="55"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="66"/>
-    </row>
-    <row r="150" spans="1:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="55"/>
-      <c r="B150" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="C150" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D150" s="56" t="s">
-        <v>652</v>
-      </c>
-      <c r="E150" s="56" t="s">
-        <v>617</v>
-      </c>
-      <c r="F150" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="G150" s="56">
-        <v>1</v>
-      </c>
-      <c r="H150" s="56" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="55"/>
-      <c r="B151" s="65"/>
-      <c r="C151" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D151" s="56" t="s">
-        <v>615</v>
-      </c>
-      <c r="E151" s="56" t="s">
-        <v>617</v>
-      </c>
-      <c r="F151" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="G151" s="56">
-        <v>2</v>
-      </c>
-      <c r="H151" s="56" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="55"/>
-      <c r="B152" s="65"/>
-      <c r="C152" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D152" s="56" t="s">
-        <v>616</v>
-      </c>
-      <c r="E152" s="56" t="s">
-        <v>617</v>
-      </c>
-      <c r="F152" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="G152" s="56">
-        <v>1</v>
-      </c>
-      <c r="H152" s="56" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="55"/>
-      <c r="B153" s="65"/>
-      <c r="C153" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D153" s="65" t="s">
-        <v>789</v>
-      </c>
-      <c r="E153" s="66" t="s">
-        <v>606</v>
-      </c>
-      <c r="F153" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="G153" s="56">
-        <v>1</v>
-      </c>
-      <c r="H153" s="56" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="55"/>
-    </row>
-    <row r="155" spans="1:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="55"/>
-      <c r="B155" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C155" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D155" s="56" t="s">
-        <v>614</v>
-      </c>
-      <c r="E155" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="F155" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="G155" s="56">
-        <v>2</v>
-      </c>
-      <c r="H155" s="56" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="55"/>
-      <c r="C156" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D156" s="56" t="s">
-        <v>613</v>
-      </c>
-      <c r="E156" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="F156" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="G156" s="56">
-        <v>4</v>
-      </c>
-      <c r="H156" s="56" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
+      <c r="H159" s="49" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="9"/>
-      <c r="J157" s="8"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-    </row>
-    <row r="158" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="8"/>
-    </row>
-    <row r="159" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="8"/>
-    </row>
-    <row r="160" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -15634,13 +15947,20 @@
       <c r="H160" s="8"/>
       <c r="I160" s="9"/>
       <c r="J160" s="8"/>
-    </row>
-    <row r="161" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="10" t="s">
-        <v>24</v>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+    </row>
+    <row r="161" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C161" s="2"/>
+      <c r="D161"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="8"/>
@@ -15648,33 +15968,26 @@
       <c r="I161" s="9"/>
       <c r="J161" s="8"/>
     </row>
-    <row r="162" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C162" s="2"/>
-      <c r="D162" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>676</v>
-      </c>
+      <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="9"/>
       <c r="J162" s="8"/>
     </row>
-    <row r="163" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
+    <row r="163" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C163" s="2"/>
-      <c r="D163" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>677</v>
-      </c>
+      <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
@@ -15683,14 +15996,11 @@
     </row>
     <row r="164" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
+      <c r="B164" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C164" s="2"/>
-      <c r="D164" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>678</v>
-      </c>
+      <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
@@ -15699,181 +16009,163 @@
     </row>
     <row r="165" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
-      <c r="B165" s="2" t="s">
-        <v>26</v>
+      <c r="B165" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C165" s="2"/>
-      <c r="D165" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="E165" s="2"/>
+      <c r="D165" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>675</v>
+      </c>
       <c r="F165" s="2"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
       <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
+      <c r="J165" s="8"/>
     </row>
     <row r="166" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="E166" s="2"/>
+        <v>673</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>676</v>
+      </c>
       <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
       <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
+      <c r="J166" s="8"/>
     </row>
     <row r="167" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E167" s="2"/>
+        <v>674</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>677</v>
+      </c>
       <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
       <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
+      <c r="J167" s="8"/>
     </row>
     <row r="168" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
+      <c r="B168" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C168" s="2"/>
-      <c r="D168" s="2" t="s">
-        <v>749</v>
+      <c r="D168" s="7" t="s">
+        <v>629</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
     </row>
     <row r="169" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
-      <c r="B169" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B169" s="2"/>
       <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
+      <c r="D169" s="2" t="s">
+        <v>574</v>
+      </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-    </row>
-    <row r="170" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
-      <c r="B170" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E170" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F170" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H170" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I170" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J170" s="13"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
     </row>
     <row r="171" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E171" s="25"/>
-      <c r="F171" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G171" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H171" s="27"/>
-      <c r="I171" s="28"/>
-      <c r="J171" s="13"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
     </row>
     <row r="172" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
-      <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
-      <c r="G172" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H172" s="31"/>
-      <c r="I172" s="30"/>
-      <c r="J172" s="13"/>
+      <c r="B172" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
-    </row>
-    <row r="173" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P172" s="2"/>
+    </row>
+    <row r="173" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
-      <c r="B173" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C173" s="24"/>
-      <c r="D173" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E173" s="24"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="H173" s="24"/>
-      <c r="I173" s="30"/>
+      <c r="B173" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H173" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I173" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="J173" s="13"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
@@ -15882,136 +16174,158 @@
       <c r="O173" s="2"/>
     </row>
     <row r="174" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="31" t="s">
+      <c r="A174" s="2"/>
+      <c r="B174" s="24"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E174" s="25"/>
+      <c r="F174" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G174" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H174" s="27"/>
+      <c r="I174" s="28"/>
+      <c r="J174" s="13"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+    </row>
+    <row r="175" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31"/>
+      <c r="G175" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H175" s="31"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="13"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+    </row>
+    <row r="176" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C176" s="24"/>
+      <c r="D176" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H176" s="24"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+    </row>
+    <row r="177" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C174" s="31"/>
-      <c r="D174" s="14" t="s">
+      <c r="C177" s="31"/>
+      <c r="D177" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E174" s="31"/>
-      <c r="F174" s="24" t="s">
+      <c r="E177" s="31"/>
+      <c r="F177" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G174" s="26" t="s">
+      <c r="G177" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="H174" s="31"/>
-      <c r="I174" s="30"/>
-      <c r="J174" s="13"/>
-    </row>
-    <row r="175" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="24"/>
-      <c r="C175" s="24"/>
-      <c r="D175" s="24" t="s">
+      <c r="H177" s="31"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="13"/>
+    </row>
+    <row r="178" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="24"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="29" t="s">
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="H175" s="24"/>
-      <c r="I175" s="30" t="s">
+      <c r="H178" s="24"/>
+      <c r="I178" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="J175" s="13"/>
-    </row>
-    <row r="176" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="31" t="s">
+      <c r="J178" s="13"/>
+    </row>
+    <row r="179" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="31"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E176" s="31"/>
-      <c r="F176" s="32"/>
-      <c r="G176" s="26" t="s">
+      <c r="E179" s="31"/>
+      <c r="F179" s="32"/>
+      <c r="G179" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="H176" s="31"/>
-      <c r="I176" s="30" t="s">
+      <c r="H179" s="31"/>
+      <c r="I179" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="J176" s="13"/>
-    </row>
-    <row r="177" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="31"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31" t="s">
+      <c r="J179" s="13"/>
+    </row>
+    <row r="180" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="31"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="E177" s="31"/>
-      <c r="F177" s="32" t="s">
+      <c r="E180" s="31"/>
+      <c r="F180" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="G177" s="26" t="s">
+      <c r="G180" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H177" s="31"/>
-      <c r="I177" s="30" t="s">
+      <c r="H180" s="31"/>
+      <c r="I180" s="30" t="s">
         <v>576</v>
       </c>
-      <c r="J177" s="13"/>
-    </row>
-    <row r="178" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="31"/>
-      <c r="C178" s="31"/>
-      <c r="D178" s="31" t="s">
+      <c r="J180" s="13"/>
+    </row>
+    <row r="181" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="31"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="E178" s="31"/>
-      <c r="F178" s="32" t="s">
+      <c r="E181" s="31"/>
+      <c r="F181" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="G178" s="26" t="s">
+      <c r="G181" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="H178" s="24"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="13"/>
-    </row>
-    <row r="179" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="E179" s="11"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="45" t="s">
-        <v>578</v>
-      </c>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="13"/>
-    </row>
-    <row r="180" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="E180" s="11"/>
-      <c r="F180" s="11"/>
-      <c r="G180" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
-      <c r="J180" s="13"/>
-    </row>
-    <row r="181" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="E181" s="11"/>
-      <c r="F181" s="11"/>
-      <c r="G181" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H181" s="11"/>
+      <c r="H181" s="24"/>
       <c r="I181" s="11"/>
       <c r="J181" s="13"/>
     </row>
@@ -16019,48 +16333,61 @@
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11" t="s">
-        <v>679</v>
+        <v>577</v>
       </c>
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
-      <c r="G182" s="11" t="s">
-        <v>680</v>
+      <c r="G182" s="45" t="s">
+        <v>578</v>
       </c>
       <c r="H182" s="11"/>
       <c r="I182" s="11"/>
       <c r="J182" s="13"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B183" s="30"/>
-      <c r="C183" s="30"/>
-      <c r="D183" s="30"/>
-      <c r="E183" s="30"/>
-      <c r="F183" s="30"/>
-      <c r="G183" s="30"/>
-      <c r="H183" s="30"/>
-      <c r="I183" s="30"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="7"/>
-      <c r="B184" s="30"/>
-      <c r="C184" s="30"/>
-      <c r="D184" s="30"/>
-      <c r="E184" s="30"/>
-      <c r="F184" s="30"/>
-      <c r="G184" s="30"/>
-      <c r="H184" s="30"/>
-      <c r="I184" s="30"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
-      <c r="B185" s="30"/>
-      <c r="C185" s="30"/>
-      <c r="D185" s="30"/>
-      <c r="E185" s="30"/>
-      <c r="F185" s="30"/>
-      <c r="G185" s="30"/>
-      <c r="H185" s="30"/>
-      <c r="I185" s="30"/>
+    <row r="183" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="13"/>
+    </row>
+    <row r="184" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="13"/>
+    </row>
+    <row r="185" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="13"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B186" s="30"/>
@@ -16072,14 +16399,37 @@
       <c r="H186" s="30"/>
       <c r="I186" s="30"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="7"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="7"/>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="7"/>
+      <c r="B187" s="30"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="30"/>
+      <c r="E187" s="30"/>
+      <c r="F187" s="30"/>
+      <c r="G187" s="30"/>
+      <c r="H187" s="30"/>
+      <c r="I187" s="30"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="7"/>
+      <c r="B188" s="30"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30"/>
+      <c r="E188" s="30"/>
+      <c r="F188" s="30"/>
+      <c r="G188" s="30"/>
+      <c r="H188" s="30"/>
+      <c r="I188" s="30"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="30"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="30"/>
+      <c r="F189" s="30"/>
+      <c r="G189" s="30"/>
+      <c r="H189" s="30"/>
+      <c r="I189" s="30"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
@@ -16447,132 +16797,149 @@
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="7"/>
     </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="7"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="7"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P182"/>
+  <autoFilter ref="A1:P185"/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="I183:I1048576 I1:I156">
-    <cfRule type="containsText" dxfId="52" priority="68" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I186:I1048576 I1:I159">
+    <cfRule type="containsText" dxfId="46" priority="70" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="69" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="45" priority="71" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A183:A1048576 A161:A164 G157:XFD170 A171:A178 A179:XFD182 J171:XFD178 A108:A109 A114 A157:C157 E157:F157 C162:F164 B161:C161 A158:F158 A159:C160 E159:F161 A165:C165 E165:F165 A166:F170 A116 A120:A125 D150:D152 A1:A36 A101:A104 A38:A50 A52:A55 A58:A95 A127:A156">
-    <cfRule type="cellIs" dxfId="50" priority="67" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A186:A1048576 A164:A167 G160:XFD173 A174:A181 A182:XFD185 J174:XFD181 A109:A110 A115 A160:C160 E160:F160 C165:F167 B164:C164 A161:F161 A162:C163 E162:F164 A168:C168 E168:F168 A169:F173 A117 A122:A127 D152:D154 A1:A36 A102:A105 A38:A50 A52:A55 A58:A96 A129:A159">
+    <cfRule type="cellIs" dxfId="44" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="49" priority="66" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B165">
+    <cfRule type="cellIs" dxfId="43" priority="68" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D35 D10">
-    <cfRule type="cellIs" dxfId="48" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="65" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="47" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A57">
-    <cfRule type="cellIs" dxfId="46" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="55" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I178">
-    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I181">
+    <cfRule type="cellIs" dxfId="39" priority="49" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I172:I176">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I172)))</formula>
+  <conditionalFormatting sqref="I175:I179">
+    <cfRule type="containsText" dxfId="38" priority="47" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I175)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I172)))</formula>
+    <cfRule type="containsText" dxfId="37" priority="48" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I175)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="cellIs" dxfId="36" priority="46" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="cellIs" dxfId="35" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="cellIs" dxfId="34" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="cellIs" dxfId="33" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
-    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A118:A119">
+    <cfRule type="cellIs" dxfId="31" priority="22" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" dxfId="39" priority="35" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A120:A121">
+    <cfRule type="cellIs" dxfId="29" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="cellIs" dxfId="38" priority="25" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A118">
-    <cfRule type="cellIs" dxfId="37" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
-    <cfRule type="cellIs" dxfId="36" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
-    <cfRule type="cellIs" dxfId="35" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="cellIs" dxfId="34" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A128">
+    <cfRule type="cellIs" dxfId="28" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96:A100">
-    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A97:A101">
+    <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",K53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",K53)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K106">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",K106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",K106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I183:I1048576 I1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I186:I1048576 I1">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F183:F1048576 F63:F115 F1:F4 F6:F29 F31:F36 F38:F61 F155:F156 F117:F153">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F186:F1048576 F64:F116 F1:F4 F6:F29 F31:F36 F38:F62 F118:F155 F157:F159">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C183:C1048576 C38:C61 C1:C29 C31:C36 C63:C65 C155:C156 C67:C153">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C186:C1048576 C157:C159 C1:C29 C31:C36 C64:C66 C68:C155 C38:C62">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B179:B1048576 B108:B114 B38:B106 B1:B36 B116:B170">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B182:B1048576 B109:B115 B38:B107 B1:B36 B117:B173">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K53 I2:I156">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K53 I2:I159 K106">
       <formula1>"完成,未完成,阻碍,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16583,7 +16950,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="23" stopIfTrue="1" id="{C3A649A7-CA54-A941-A4B7-D116C32DA79A}">
+          <x14:cfRule type="expression" priority="25" stopIfTrue="1" id="{C3A649A7-CA54-A941-A4B7-D116C32DA79A}">
             <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160224'!J104)))</xm:f>
             <x14:dxf>
               <font>
@@ -16597,7 +16964,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="24" stopIfTrue="1" id="{05CC23FE-C120-8D41-B8F7-5B3D6D2D3660}">
+          <x14:cfRule type="expression" priority="26" stopIfTrue="1" id="{05CC23FE-C120-8D41-B8F7-5B3D6D2D3660}">
             <xm:f>NOT(ISERROR(SEARCH("未完成",'20160224'!J104)))</xm:f>
             <x14:dxf>
               <font>
@@ -16611,10 +16978,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J105</xm:sqref>
+          <xm:sqref>J106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="18" stopIfTrue="1" id="{FCD6964E-4DC1-EB47-BC13-05582D98EB74}">
+          <x14:cfRule type="expression" priority="20" stopIfTrue="1" id="{FCD6964E-4DC1-EB47-BC13-05582D98EB74}">
             <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160224'!J115)))</xm:f>
             <x14:dxf>
               <font>
@@ -16628,7 +16995,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="19" stopIfTrue="1" id="{76EB63B0-74A7-D04A-9938-A6A398561E05}">
+          <x14:cfRule type="expression" priority="21" stopIfTrue="1" id="{76EB63B0-74A7-D04A-9938-A6A398561E05}">
             <xm:f>NOT(ISERROR(SEARCH("未完成",'20160224'!J115)))</xm:f>
             <x14:dxf>
               <font>
@@ -16642,7 +17009,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J117</xm:sqref>
+          <xm:sqref>J118</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -17630,38 +17997,38 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I1:I10 I75:I1048576 I12 I15:I48">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A10 A75:A1048576 A53:A56 B53 C53:F56 G49:XFD74 A57:F74 A12 A15:A48">
-    <cfRule type="cellIs" dxfId="23" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54 A49:F52">
-    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="21" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18661,20 +19028,20 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I1:I47 I74:I1048576">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A47 A74:A1048576 A52:A55 B52 C52:F55 G48:XFD73 A56:F73">
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 A48:F51">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19639,20 +20006,20 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I1:I47 I74:I1048576">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A47 A74:A1048576 A52:A55 B52 C52:F55 G48:XFD73 A56:F73">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 A48:F51">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="36340" windowHeight="20000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36340" windowHeight="20000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20160224" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20160224'!$A$1:$S$201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20160302'!$A$1:$P$198</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20160309'!$A$1:$P$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20160309'!$A$1:$P$162</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="1123">
   <si>
     <t>类别</t>
   </si>
@@ -6697,10 +6697,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>宠物界面特效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>云祥</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -6773,6 +6769,188 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>wan'zheng'ban</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚</t>
+    <rPh sb="0" eb="1">
+      <t>inwan</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测完</t>
+    <rPh sb="0" eb="1">
+      <t>ce'wan</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <rPh sb="0" eb="1">
+      <t>luo'yang</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三四章怪物调整-材质，缩放</t>
+  </si>
+  <si>
+    <t>MG-2726</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成分解界面调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成特效添加和合成展示界面调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物列表和图鉴整体排版和icon显示数据修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备新tips  装备升级进阶消耗计算公式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店修改（增加钻石显示，物品icon修改）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>师叔</t>
+    <rPh sb="0" eb="1">
+      <t>sh'sh</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会玩法邀请判断是否跳转，抽蛋加入稀有度图标</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到宠物加稀有度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2734</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2735</t>
+  </si>
+  <si>
+    <t>抽蛋获得奖励 图鉴稀有度设计、切图标注、ui调整加动画、装备tips</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店钻石图标、合成分解ui标注、ui调整加动画</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效-大天狗（大招，bossbuff）</t>
+    <rPh sb="0" eb="1">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'tian'gou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>da'zhao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面特效*3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成界面特效*2</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>te'xiao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2737</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今晚 </t>
+    <rPh sb="0" eb="1">
+      <t>jin'wan</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，反馈修改待排期</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fan'kui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案已给策划</t>
+    <rPh sb="0" eb="1">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce'hua</t>
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -7529,17 +7707,6 @@
     </dxf>
     <dxf>
       <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -7577,6 +7744,17 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8932,7 +9110,7 @@
   <dimension ref="A1:S368"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -14747,8 +14925,8 @@
   <dimension ref="A1:P339"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I168" sqref="I168"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -17708,6 +17886,22 @@
         <v>500</v>
       </c>
     </row>
+    <row r="135" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="48"/>
+      <c r="C135" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" s="55" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E135" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F135" s="56"/>
+      <c r="H135" s="55" t="s">
+        <v>765</v>
+      </c>
+    </row>
     <row r="136" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="48"/>
       <c r="C136" s="49" t="s">
@@ -19299,137 +19493,145 @@
   <autoFilter ref="A1:P198"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="I199:I1048576 I132:I134 I1:I128 I136:I172">
-    <cfRule type="containsText" dxfId="53" priority="70" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="53" priority="71" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="71" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="52" priority="72" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199:A1048576 A177:A180 G173:XFD186 A187:A194 A195:XFD198 J187:XFD194 A115:A116 A122 A173:C173 E173:F173 C178:F180 B177:C177 A174:F174 A175:C176 E175:F177 A181:C181 E181:F181 A182:F186 A124 A132:A134 D163:D165 A1:A38 A108:A111 A41:A53 A55:A58 A61:A102 A139:A172 A136:A137">
-    <cfRule type="cellIs" dxfId="51" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="70" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178">
-    <cfRule type="cellIs" dxfId="50" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37 D10">
-    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="66" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="48" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="59" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:A60">
-    <cfRule type="cellIs" dxfId="47" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="56" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194">
-    <cfRule type="cellIs" dxfId="46" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I188:I192">
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I188)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I188)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" dxfId="43" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121">
-    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="cellIs" dxfId="39" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:A126">
-    <cfRule type="cellIs" dxfId="38" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="cellIs" dxfId="37" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:A128">
-    <cfRule type="cellIs" dxfId="36" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="cellIs" dxfId="35" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A107">
-    <cfRule type="cellIs" dxfId="33" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",K56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",K56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K112">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",K112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",K112)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <conditionalFormatting sqref="A135">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I199:I1048576 I1">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F199:F1048576 F68:F123 F1:F4 F6:F29 F31:F38 F41:F66 F170:F172 F125:F128 F132:F134 F136:F168">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F199:F1048576 F68:F123 F1:F4 F6:F29 F31:F38 F41:F66 F170:F172 F125:F128 F132:F168">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C199:C1048576 C170:C172 C1:C29 C68:C70 C41:C66 C31:C39 C72:C128 C132:C134 C136:C168">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C199:C1048576 C170:C172 C1:C29 C68:C70 C41:C66 C31:C39 C72:C128 C132:C168">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B195:B1048576 B115:B122 B41:B113 B1:B38 B124:B128 B132:B134 B136:B186">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B195:B1048576 B115:B122 B41:B113 B1:B38 B124:B128 B132:B186">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K56 K112 I2:I128 I132:I134 I136:I172">
       <formula1>"完成,未完成,阻碍,取消"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I135">
+      <formula1>"完成,未完成,阻碍,取消,暂停"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19439,7 +19641,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="25" stopIfTrue="1" id="{C3A649A7-CA54-A941-A4B7-D116C32DA79A}">
+          <x14:cfRule type="expression" priority="26" stopIfTrue="1" id="{C3A649A7-CA54-A941-A4B7-D116C32DA79A}">
             <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160224'!J104)))</xm:f>
             <x14:dxf>
               <font>
@@ -19453,7 +19655,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="26" stopIfTrue="1" id="{05CC23FE-C120-8D41-B8F7-5B3D6D2D3660}">
+          <x14:cfRule type="expression" priority="27" stopIfTrue="1" id="{05CC23FE-C120-8D41-B8F7-5B3D6D2D3660}">
             <xm:f>NOT(ISERROR(SEARCH("未完成",'20160224'!J104)))</xm:f>
             <x14:dxf>
               <font>
@@ -19470,7 +19672,7 @@
           <xm:sqref>J112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="20" stopIfTrue="1" id="{FCD6964E-4DC1-EB47-BC13-05582D98EB74}">
+          <x14:cfRule type="expression" priority="21" stopIfTrue="1" id="{FCD6964E-4DC1-EB47-BC13-05582D98EB74}">
             <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160224'!J115)))</xm:f>
             <x14:dxf>
               <font>
@@ -19484,7 +19686,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="21" stopIfTrue="1" id="{76EB63B0-74A7-D04A-9938-A6A398561E05}">
+          <x14:cfRule type="expression" priority="22" stopIfTrue="1" id="{76EB63B0-74A7-D04A-9938-A6A398561E05}">
             <xm:f>NOT(ISERROR(SEARCH("未完成",'20160224'!J115)))</xm:f>
             <x14:dxf>
               <font>
@@ -19508,11 +19710,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P321"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:P334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I12:K13"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90:H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -19574,7 +19777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -19596,11 +19799,17 @@
       <c r="H2" t="s">
         <v>946</v>
       </c>
+      <c r="I2" t="s">
+        <v>500</v>
+      </c>
       <c r="K2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>48</v>
       </c>
@@ -19617,11 +19826,17 @@
       <c r="H3" s="16" t="s">
         <v>960</v>
       </c>
+      <c r="I3" s="16" t="s">
+        <v>500</v>
+      </c>
       <c r="K3" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" s="76" t="s">
         <v>48</v>
@@ -19641,8 +19856,17 @@
       <c r="H4" s="76" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I4" s="76" t="s">
+        <v>500</v>
+      </c>
+      <c r="L4" t="s">
+        <v>778</v>
+      </c>
+      <c r="M4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" s="76" t="s">
         <v>49</v>
@@ -19663,10 +19887,10 @@
         <v>995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>38</v>
@@ -19689,6 +19913,12 @@
       <c r="H7" s="66" t="s">
         <v>688</v>
       </c>
+      <c r="I7" s="76" t="s">
+        <v>500</v>
+      </c>
+      <c r="L7" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -19711,7 +19941,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>48</v>
       </c>
@@ -19737,7 +19967,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>48</v>
       </c>
@@ -19763,11 +19993,11 @@
         <v>782</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>55</v>
@@ -19790,11 +20020,17 @@
       <c r="H12" t="s">
         <v>928</v>
       </c>
+      <c r="I12" t="s">
+        <v>782</v>
+      </c>
       <c r="K12" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
         <v>48</v>
@@ -19814,8 +20050,14 @@
       <c r="H13" t="s">
         <v>929</v>
       </c>
+      <c r="I13" t="s">
+        <v>782</v>
+      </c>
       <c r="K13" t="s">
         <v>778</v>
+      </c>
+      <c r="L13" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -19860,7 +20102,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" t="s">
         <v>48</v>
@@ -19880,8 +20122,14 @@
       <c r="H16" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>500</v>
+      </c>
+      <c r="L16" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" t="s">
         <v>48</v>
@@ -19898,8 +20146,14 @@
       <c r="H17" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>500</v>
+      </c>
+      <c r="L17" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" t="s">
         <v>48</v>
@@ -19916,8 +20170,14 @@
       <c r="H18" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>500</v>
+      </c>
+      <c r="L18" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
         <v>48</v>
@@ -19937,8 +20197,17 @@
       <c r="H19" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>500</v>
+      </c>
+      <c r="L19" t="s">
+        <v>985</v>
+      </c>
+      <c r="M19" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
         <v>48</v>
@@ -19965,7 +20234,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
         <v>49</v>
@@ -19992,7 +20261,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
         <v>48</v>
@@ -20012,11 +20281,20 @@
       <c r="H22" t="s">
         <v>714</v>
       </c>
+      <c r="I22" t="s">
+        <v>500</v>
+      </c>
       <c r="K22" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1091</v>
+      </c>
+      <c r="L22" t="s">
+        <v>778</v>
+      </c>
+      <c r="M22" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="C23" t="s">
         <v>48</v>
@@ -20036,8 +20314,14 @@
       <c r="H23" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M23" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="C24" t="s">
         <v>48</v>
@@ -20058,7 +20342,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="C25" t="s">
         <v>48</v>
@@ -20079,7 +20363,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" t="s">
         <v>48</v>
@@ -20099,8 +20383,11 @@
       <c r="H26" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" t="s">
         <v>49</v>
@@ -20121,7 +20408,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" t="s">
         <v>49</v>
@@ -20136,7 +20423,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
         <v>49</v>
@@ -20151,12 +20438,12 @@
         <v>941</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="D30" s="19"/>
       <c r="E30" s="76"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>58</v>
@@ -20177,7 +20464,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
         <v>48</v>
@@ -20194,8 +20481,11 @@
       <c r="H32" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
         <v>49</v>
@@ -20216,12 +20506,12 @@
         <v>952</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="D34" s="19"/>
       <c r="E34" s="76"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>43</v>
@@ -20245,7 +20535,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
         <v>48</v>
@@ -20263,7 +20553,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
         <v>48</v>
@@ -20281,7 +20571,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
         <v>48</v>
@@ -20296,12 +20586,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="D39" s="19"/>
       <c r="E39" s="76"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>50</v>
@@ -20324,8 +20614,11 @@
       <c r="H40" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" t="s">
         <v>48</v>
@@ -20346,7 +20639,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
         <v>48</v>
@@ -20367,7 +20660,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" t="s">
         <v>48</v>
@@ -20387,8 +20680,11 @@
       <c r="H43" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" t="s">
         <v>48</v>
@@ -20409,7 +20705,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
         <v>48</v>
@@ -20429,8 +20725,12 @@
       <c r="H45" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>16</v>
       </c>
@@ -20454,7 +20754,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="52"/>
       <c r="C48" s="49" t="s">
         <v>48</v>
@@ -20472,7 +20772,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="52"/>
       <c r="C49" s="49" t="s">
         <v>48</v>
@@ -20490,7 +20790,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="52"/>
       <c r="C50" s="49" t="s">
         <v>48</v>
@@ -20510,8 +20810,11 @@
       <c r="H50" s="49" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="49" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="52"/>
       <c r="C51" s="49" t="s">
         <v>48</v>
@@ -20531,8 +20834,14 @@
       <c r="H51" s="49" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L51" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
       <c r="C52" s="49" t="s">
         <v>48</v>
@@ -20553,1973 +20862,2131 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
+      <c r="C53" s="49" t="s">
+        <v>48</v>
+      </c>
       <c r="D53" s="50" t="s">
-        <v>89</v>
+        <v>1099</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="F53" s="50"/>
-    </row>
-    <row r="54" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="49">
+        <v>1</v>
+      </c>
+      <c r="H53" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
+      <c r="C54" s="49" t="s">
+        <v>48</v>
+      </c>
       <c r="D54" s="50" t="s">
-        <v>865</v>
+        <v>1100</v>
       </c>
       <c r="E54" s="49" t="s">
-        <v>973</v>
+        <v>75</v>
       </c>
       <c r="F54" s="50"/>
-    </row>
-    <row r="55" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H54" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="C55" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="50" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="50"/>
+      <c r="G55" s="49">
+        <v>1</v>
+      </c>
+      <c r="H55" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="48"/>
+      <c r="C56" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E56" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="50"/>
+      <c r="G56" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H56" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="48"/>
+      <c r="C57" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F57" s="50"/>
+      <c r="G57" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="49" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="48"/>
+      <c r="C58" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="50"/>
+      <c r="G58" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H58" s="49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="48"/>
+      <c r="C59" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F59" s="50"/>
+      <c r="G59" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="H59" s="49" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="48"/>
+      <c r="D60" s="50" t="s">
+        <v>865</v>
+      </c>
+      <c r="E60" s="49" t="s">
+        <v>973</v>
+      </c>
+      <c r="F60" s="50"/>
+    </row>
+    <row r="61" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="48"/>
+      <c r="C61" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="50" t="s">
         <v>807</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E61" s="49" t="s">
         <v>993</v>
       </c>
-      <c r="H55" s="49" t="s">
+      <c r="H61" s="49" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-    </row>
-    <row r="57" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="49" t="s">
+    <row r="62" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="54"/>
+    </row>
+    <row r="63" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="54"/>
+      <c r="B63" s="49" t="s">
         <v>556</v>
       </c>
-      <c r="C57" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="50" t="s">
+      <c r="C63" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="50" t="s">
         <v>732</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E63" s="50" t="s">
         <v>656</v>
       </c>
-      <c r="F57" s="50" t="s">
+      <c r="F63" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="G57" s="53">
+      <c r="G63" s="53">
         <v>3</v>
       </c>
-      <c r="H57" s="49" t="s">
+      <c r="H63" s="49" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="C58" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="50" t="s">
-        <v>961</v>
-      </c>
-      <c r="E58" s="50" t="s">
-        <v>656</v>
-      </c>
-      <c r="F58" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="G58" s="53">
-        <v>1</v>
-      </c>
-      <c r="H58" s="49" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="C59" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="50" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E59" s="50" t="s">
-        <v>656</v>
-      </c>
-      <c r="F59" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="G59" s="53">
-        <v>1</v>
-      </c>
-      <c r="H59" s="49" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="53"/>
-    </row>
-    <row r="61" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
-      <c r="B61" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="50" t="s">
-        <v>538</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>560</v>
-      </c>
-      <c r="F61" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="G61" s="50">
-        <v>1</v>
-      </c>
-      <c r="H61" s="50" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="C62" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="50" t="s">
-        <v>723</v>
-      </c>
-      <c r="E62" s="49" t="s">
-        <v>560</v>
-      </c>
-      <c r="F62" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H62" s="49" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="C63" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="50" t="s">
-        <v>974</v>
-      </c>
-      <c r="E63" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="49" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="54"/>
       <c r="C64" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D64" s="50" t="s">
+        <v>961</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="F64" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G64" s="53">
+        <v>1</v>
+      </c>
+      <c r="H64" s="49" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="54"/>
+      <c r="C65" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="50" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E65" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="F65" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" s="53">
+        <v>1</v>
+      </c>
+      <c r="H65" s="49" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="54"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="53"/>
+    </row>
+    <row r="67" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="E67" s="49" t="s">
+        <v>560</v>
+      </c>
+      <c r="F67" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G67" s="50">
+        <v>1</v>
+      </c>
+      <c r="H67" s="50" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="54"/>
+      <c r="C68" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>723</v>
+      </c>
+      <c r="E68" s="49" t="s">
+        <v>560</v>
+      </c>
+      <c r="F68" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H68" s="49" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="54"/>
+      <c r="C69" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>974</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="54"/>
+      <c r="C70" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="50" t="s">
         <v>1006</v>
       </c>
-      <c r="E64" s="49" t="s">
+      <c r="E70" s="49" t="s">
         <v>1007</v>
       </c>
-      <c r="F64" s="49" t="s">
+      <c r="F70" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="G64" s="49">
+      <c r="G70" s="49">
         <v>2</v>
       </c>
-      <c r="H64" s="49" t="s">
+      <c r="H70" s="49" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B72" t="s">
         <v>118</v>
       </c>
-      <c r="C66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="66" t="s">
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="66" t="s">
         <v>39</v>
-      </c>
-      <c r="E66" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="F66" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="G66" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="H66" s="66" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="C67" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="76" t="s">
-        <v>847</v>
-      </c>
-      <c r="E67" s="76" t="s">
-        <v>848</v>
-      </c>
-      <c r="F67" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="G67" s="76">
-        <v>0.1</v>
-      </c>
-      <c r="H67" s="66" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I67" s="76" t="s">
-        <v>500</v>
-      </c>
-      <c r="K67" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>880</v>
-      </c>
-      <c r="E68" s="76" t="s">
-        <v>848</v>
-      </c>
-      <c r="F68" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="H68" s="66" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I68" s="76" t="s">
-        <v>500</v>
-      </c>
-      <c r="K68" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="C69" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="76" t="s">
-        <v>851</v>
-      </c>
-      <c r="E69" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="F69" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1</v>
-      </c>
-      <c r="H69" s="66" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F70" s="69"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="68" t="s">
-        <v>836</v>
-      </c>
-      <c r="E71" s="68" t="s">
-        <v>584</v>
-      </c>
-      <c r="F71" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="G71" s="66">
-        <v>1</v>
-      </c>
-      <c r="H71" s="66" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="C72" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="77" t="s">
-        <v>864</v>
       </c>
       <c r="E72" s="66" t="s">
         <v>142</v>
       </c>
       <c r="F72" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="G72" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H72" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="I72" s="79" t="s">
+        <v>500</v>
+      </c>
+      <c r="L72" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="C73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="76" t="s">
+        <v>847</v>
+      </c>
+      <c r="E73" s="76" t="s">
+        <v>848</v>
+      </c>
+      <c r="F73" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="G72" s="82">
+      <c r="G73" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="H73" s="66" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I73" s="76" t="s">
+        <v>500</v>
+      </c>
+      <c r="K73" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="E74" s="76" t="s">
+        <v>848</v>
+      </c>
+      <c r="F74" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="G74" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="H74" s="66" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I74" s="76" t="s">
+        <v>500</v>
+      </c>
+      <c r="K74" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="76" t="s">
+        <v>851</v>
+      </c>
+      <c r="E75" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1</v>
+      </c>
+      <c r="H75" s="66" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="69"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="68" t="s">
+        <v>836</v>
+      </c>
+      <c r="E77" s="68" t="s">
+        <v>584</v>
+      </c>
+      <c r="F77" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="G77" s="66">
+        <v>1</v>
+      </c>
+      <c r="H77" s="66" t="s">
+        <v>834</v>
+      </c>
+      <c r="M77" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="C78" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="77" t="s">
+        <v>864</v>
+      </c>
+      <c r="E78" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="G78" s="82">
         <v>0.5</v>
       </c>
-      <c r="H72" s="76" t="s">
+      <c r="H78" s="76" t="s">
         <v>1011</v>
       </c>
-      <c r="K72" t="s">
+      <c r="I78" s="76" t="s">
+        <v>500</v>
+      </c>
+      <c r="K78" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="C73" s="76" t="s">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="C79" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D79" s="68" t="s">
         <v>1012</v>
       </c>
-      <c r="E73" s="66" t="s">
+      <c r="E79" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="F73" s="69"/>
-      <c r="G73" s="82">
+      <c r="F79" s="69"/>
+      <c r="G79" s="82">
         <v>1</v>
       </c>
-      <c r="H73" s="76" t="s">
+      <c r="H79" s="76" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="C74" s="76" t="s">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="C80" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="68" t="s">
+      <c r="D80" s="68" t="s">
         <v>1015</v>
       </c>
-      <c r="E74" s="68" t="s">
+      <c r="E80" s="68" t="s">
         <v>584</v>
       </c>
-      <c r="F74" s="69"/>
-      <c r="G74" s="82">
+      <c r="F80" s="69"/>
+      <c r="G80" s="82">
         <v>1.5</v>
       </c>
-      <c r="H74" s="76" t="s">
+      <c r="H80" s="76" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="F75" s="69"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" t="s">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="F81" s="69"/>
+    </row>
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C82" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" t="s">
         <v>849</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E82" t="s">
         <v>584</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F82" t="s">
         <v>195</v>
       </c>
-      <c r="G76">
+      <c r="G82">
         <v>0.5</v>
       </c>
-      <c r="H76" s="76" t="s">
+      <c r="H82" s="76" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="C77" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="66" t="s">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="C83" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="66" t="s">
         <v>863</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E83" t="s">
         <v>870</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F83" t="s">
         <v>183</v>
       </c>
-      <c r="G77">
+      <c r="G83">
         <v>0.5</v>
       </c>
-      <c r="H77" s="76" t="s">
+      <c r="H83" s="76" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="C78" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="66" t="s">
+      <c r="L83" t="s">
+        <v>985</v>
+      </c>
+      <c r="M83" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="C84" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E84" t="s">
         <v>870</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F84" t="s">
         <v>182</v>
       </c>
-      <c r="G78">
+      <c r="G84">
         <v>0.5</v>
       </c>
-      <c r="H78" s="76" t="s">
+      <c r="H84" s="76" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="D79" s="66"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" t="s">
+      <c r="L84" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="D85" s="66"/>
+    </row>
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" t="s">
         <v>137</v>
       </c>
-      <c r="C80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="66" t="s">
+      <c r="C86" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="66" t="s">
         <v>717</v>
       </c>
-      <c r="E80" s="68" t="s">
+      <c r="E86" s="68" t="s">
         <v>718</v>
       </c>
-      <c r="F80" s="66" t="s">
+      <c r="F86" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="G80" s="66">
+      <c r="G86" s="66">
         <v>0.5</v>
       </c>
-      <c r="H80" s="66" t="s">
+      <c r="H86" s="66" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="C81" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="66" t="s">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="66" t="s">
         <v>719</v>
       </c>
-      <c r="E81" s="68" t="s">
+      <c r="E87" s="68" t="s">
         <v>718</v>
       </c>
-      <c r="F81" s="66" t="s">
+      <c r="F87" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G81" s="66">
+      <c r="G87" s="66">
         <v>1</v>
       </c>
-      <c r="H81" s="66" t="s">
+      <c r="H87" s="66" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="C82" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="66" t="s">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="C88" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="66" t="s">
         <v>720</v>
       </c>
-      <c r="E82" s="66" t="s">
+      <c r="E88" s="66" t="s">
         <v>584</v>
       </c>
-      <c r="F82" s="66" t="s">
+      <c r="F88" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="G82" s="66">
+      <c r="G88" s="66">
         <v>2</v>
       </c>
-      <c r="H82" s="66" t="s">
+      <c r="H88" s="66" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="C83" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="66" t="s">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="66" t="s">
         <v>721</v>
       </c>
-      <c r="E83" s="66" t="s">
+      <c r="E89" s="66" t="s">
         <v>584</v>
       </c>
-      <c r="F83" s="66" t="s">
+      <c r="F89" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G83" s="66">
+      <c r="G89" s="66">
         <v>1</v>
       </c>
-      <c r="H83" s="66" t="s">
+      <c r="H89" s="66" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="C84" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="66" t="s">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="66" t="s">
         <v>722</v>
       </c>
-      <c r="E84" s="66" t="s">
+      <c r="E90" s="66" t="s">
         <v>584</v>
       </c>
-      <c r="F84" s="66" t="s">
+      <c r="F90" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="G84" s="66">
+      <c r="G90" s="66">
         <v>0.5</v>
       </c>
-      <c r="H84" s="66" t="s">
+      <c r="H90" s="66" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="C85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D85" s="79" t="s">
+      <c r="M90" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="C91" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="79" t="s">
         <v>868</v>
       </c>
-      <c r="E85" s="79" t="s">
+      <c r="E91" s="79" t="s">
         <v>869</v>
       </c>
-      <c r="F85" s="79" t="s">
+      <c r="F91" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="G85" s="76"/>
-      <c r="H85" s="79" t="s">
+      <c r="G91" s="76"/>
+      <c r="H91" s="79" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="C86" t="s">
-        <v>48</v>
-      </c>
-      <c r="D86" s="79" t="s">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="C92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="79" t="s">
         <v>1020</v>
       </c>
-      <c r="E86" s="66" t="s">
+      <c r="E92" s="66" t="s">
         <v>584</v>
       </c>
-      <c r="F86" s="79" t="s">
+      <c r="F92" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="G86" s="76"/>
-      <c r="H86" s="79" t="s">
+      <c r="G92" s="76"/>
+      <c r="H92" s="79" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="80" t="s">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="49" t="s">
+      <c r="B94" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C88" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" s="55" t="s">
+      <c r="C94" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="55" t="s">
         <v>1029</v>
       </c>
-      <c r="E88" s="50" t="s">
+      <c r="E94" s="50" t="s">
         <v>916</v>
       </c>
-      <c r="F88" s="55" t="s">
+      <c r="F94" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55" t="s">
+      <c r="G94" s="55"/>
+      <c r="H94" s="55" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="80"/>
-      <c r="C89" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" s="50" t="s">
+    <row r="95" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="80"/>
+      <c r="C95" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="50" t="s">
         <v>900</v>
       </c>
-      <c r="E89" s="83" t="s">
+      <c r="E95" s="83" t="s">
         <v>1031</v>
       </c>
-      <c r="F89" s="49" t="s">
+      <c r="F95" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="G89" s="83">
+      <c r="G95" s="83">
         <v>0.2</v>
       </c>
-      <c r="H89" s="83" t="s">
+      <c r="H95" s="83" t="s">
         <v>818</v>
       </c>
-      <c r="K89" s="49" t="s">
+      <c r="I95" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="K95" s="49" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="80"/>
-      <c r="C90" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D90" s="50" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E90" s="83" t="s">
-        <v>495</v>
-      </c>
-      <c r="F90" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="G90" s="83">
-        <v>1</v>
-      </c>
-      <c r="H90" s="83" t="s">
-        <v>819</v>
-      </c>
-      <c r="I90" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="K90" s="49" t="s">
+      <c r="L95" s="49" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="80"/>
-      <c r="C91" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D91" s="50" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E91" s="83" t="s">
-        <v>495</v>
-      </c>
-      <c r="F91" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="G91" s="83">
-        <v>1</v>
-      </c>
-      <c r="H91" s="83" t="s">
-        <v>820</v>
-      </c>
-      <c r="I91" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="K91" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="80"/>
-      <c r="C92" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="50" t="s">
-        <v>905</v>
-      </c>
-      <c r="E92" s="50" t="s">
-        <v>611</v>
-      </c>
-      <c r="F92" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G92" s="83"/>
-      <c r="H92" s="50" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="80"/>
-      <c r="C93" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D93" s="50" t="s">
-        <v>901</v>
-      </c>
-      <c r="E93" s="83" t="s">
-        <v>817</v>
-      </c>
-      <c r="F93" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="G93" s="83">
-        <v>0.1</v>
-      </c>
-      <c r="H93" s="83" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I93" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="K93" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="81"/>
-      <c r="C94" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" s="50" t="s">
-        <v>904</v>
-      </c>
-      <c r="E94" s="83" t="s">
-        <v>817</v>
-      </c>
-      <c r="F94" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G94" s="83"/>
-      <c r="H94" s="50" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="81"/>
-      <c r="C95" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" s="55" t="s">
-        <v>903</v>
-      </c>
-      <c r="E95" s="83" t="s">
-        <v>817</v>
-      </c>
-      <c r="F95" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="G95" s="55">
-        <v>1</v>
-      </c>
-      <c r="H95" s="55" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I95" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="K95" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="80"/>
       <c r="C96" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D96" s="55" t="s">
-        <v>1038</v>
+      <c r="D96" s="50" t="s">
+        <v>1032</v>
       </c>
       <c r="E96" s="83" t="s">
-        <v>817</v>
-      </c>
-      <c r="F96" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="F96" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="G96" s="83">
+        <v>1</v>
+      </c>
+      <c r="H96" s="83" t="s">
+        <v>819</v>
+      </c>
+      <c r="I96" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="K96" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="80"/>
       <c r="C97" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="49" t="s">
-        <v>902</v>
-      </c>
-      <c r="E97" s="49" t="s">
-        <v>483</v>
+      <c r="D97" s="50" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E97" s="83" t="s">
+        <v>495</v>
       </c>
       <c r="F97" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G97" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="H97" s="49" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="G97" s="83">
+        <v>1</v>
+      </c>
+      <c r="H97" s="83" t="s">
+        <v>820</v>
+      </c>
+      <c r="I97" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="K97" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="80"/>
       <c r="C98" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D98" s="49" t="s">
-        <v>850</v>
-      </c>
-      <c r="E98" s="49" t="s">
-        <v>483</v>
+      <c r="D98" s="50" t="s">
+        <v>905</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>611</v>
       </c>
       <c r="F98" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G98" s="49">
-        <v>1</v>
-      </c>
-      <c r="H98" s="49" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="G98" s="83"/>
+      <c r="H98" s="50" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="80"/>
       <c r="C99" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D99" s="49" t="s">
+      <c r="D99" s="50" t="s">
+        <v>901</v>
+      </c>
+      <c r="E99" s="83" t="s">
+        <v>817</v>
+      </c>
+      <c r="F99" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="G99" s="83">
+        <v>0.1</v>
+      </c>
+      <c r="H99" s="83" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I99" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="K99" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="81"/>
+      <c r="C100" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="50" t="s">
+        <v>904</v>
+      </c>
+      <c r="E100" s="83" t="s">
+        <v>817</v>
+      </c>
+      <c r="F100" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G100" s="83"/>
+      <c r="H100" s="50" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="81"/>
+      <c r="C101" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" s="55" t="s">
+        <v>903</v>
+      </c>
+      <c r="E101" s="83" t="s">
+        <v>817</v>
+      </c>
+      <c r="F101" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G101" s="55">
+        <v>1</v>
+      </c>
+      <c r="H101" s="55" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I101" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="K101" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="80"/>
+      <c r="C102" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="55" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E102" s="83" t="s">
+        <v>817</v>
+      </c>
+      <c r="F102" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="80"/>
+      <c r="C103" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="E103" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="F103" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G103" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="H103" s="49" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="80"/>
+      <c r="C104" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" s="49" t="s">
+        <v>850</v>
+      </c>
+      <c r="E104" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="F104" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G104" s="49">
+        <v>1</v>
+      </c>
+      <c r="H104" s="49" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L104" s="49" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M104" s="49" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="80"/>
+      <c r="C105" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="49" t="s">
         <v>914</v>
       </c>
-      <c r="E99" s="49" t="s">
+      <c r="E105" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="F99" s="49" t="s">
+      <c r="F105" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="H99" s="49" t="s">
+      <c r="H105" s="49" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="80"/>
-      <c r="C100" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D100" s="49" t="s">
+      <c r="I105" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="M105" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="80"/>
+      <c r="C106" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="49" t="s">
         <v>915</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E106" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="F100" s="49" t="s">
+      <c r="F106" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="H100" s="49" t="s">
+      <c r="H106" s="49" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="80"/>
-      <c r="C101" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D101" s="49" t="s">
+    <row r="107" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="80"/>
+      <c r="C107" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="49" t="s">
         <v>909</v>
       </c>
-      <c r="E101" s="49" t="s">
+      <c r="E107" s="49" t="s">
         <v>1043</v>
       </c>
-      <c r="F101" s="49" t="s">
+      <c r="F107" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="G101" s="49">
+      <c r="G107" s="49">
         <v>1</v>
       </c>
-      <c r="H101" s="49" t="s">
+      <c r="H107" s="49" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="81"/>
-      <c r="C102" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D102" s="49" t="s">
+    <row r="108" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="81"/>
+      <c r="C108" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="49" t="s">
         <v>975</v>
       </c>
-      <c r="E102" s="49" t="s">
+      <c r="E108" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="F102" s="56" t="s">
+      <c r="F108" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="G102" s="55">
+      <c r="G108" s="55">
         <v>1</v>
       </c>
-      <c r="H102" s="55" t="s">
+      <c r="H108" s="55" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
-      <c r="C103" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D103" s="55" t="s">
+      <c r="M108" s="49" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="48"/>
+      <c r="C109" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="55" t="s">
         <v>842</v>
       </c>
-      <c r="E103" s="56" t="s">
+      <c r="E109" s="56" t="s">
         <v>1043</v>
       </c>
-      <c r="F103" s="55" t="s">
+      <c r="F109" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="G103" s="55">
+      <c r="G109" s="55">
         <v>1</v>
       </c>
-      <c r="H103" s="55" t="s">
+      <c r="H109" s="55" t="s">
         <v>1048</v>
       </c>
-      <c r="I103" s="49"/>
-      <c r="K103" s="55" t="s">
+      <c r="I109" s="49"/>
+      <c r="K109" s="55" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
-      <c r="C104" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D104" s="55" t="s">
+      <c r="L109" s="55" t="s">
+        <v>985</v>
+      </c>
+      <c r="M109" s="49" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="48"/>
+      <c r="C110" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="55" t="s">
         <v>843</v>
-      </c>
-      <c r="E104" s="56" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F104" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="G104" s="55">
-        <v>1</v>
-      </c>
-      <c r="H104" s="55" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I104" s="49"/>
-      <c r="K104" s="55" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
-      <c r="C105" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D105" s="55" t="s">
-        <v>844</v>
-      </c>
-      <c r="E105" s="56" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F105" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="G105" s="55">
-        <v>1</v>
-      </c>
-      <c r="H105" s="55" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I105" s="49"/>
-    </row>
-    <row r="106" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="48"/>
-      <c r="C106" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="55" t="s">
-        <v>976</v>
-      </c>
-      <c r="E106" s="56" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F106" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="G106" s="55">
-        <v>2</v>
-      </c>
-      <c r="H106" s="55" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I106" s="49"/>
-    </row>
-    <row r="107" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
-      <c r="C107" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="55" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E107" s="56" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F107" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="G107" s="55">
-        <v>1</v>
-      </c>
-      <c r="H107" s="55" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="48"/>
-      <c r="C108" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D108" s="49" t="s">
-        <v>913</v>
-      </c>
-      <c r="E108" s="49" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F108" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G108" s="49">
-        <v>1</v>
-      </c>
-      <c r="H108" s="49" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
-      <c r="C109" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D109" s="49" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E109" s="49" t="s">
-        <v>911</v>
-      </c>
-      <c r="F109" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G109" s="49">
-        <v>5</v>
-      </c>
-      <c r="H109" s="49" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
-      <c r="C110" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D110" s="49" t="s">
-        <v>912</v>
       </c>
       <c r="E110" s="56" t="s">
         <v>1043</v>
       </c>
-      <c r="F110" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G110" s="49">
-        <v>0.7</v>
-      </c>
-      <c r="H110" s="49" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F110" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G110" s="55">
+        <v>1</v>
+      </c>
+      <c r="H110" s="55" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I110" s="49"/>
+      <c r="K110" s="55" t="s">
+        <v>778</v>
+      </c>
+      <c r="L110" s="55" t="s">
+        <v>985</v>
+      </c>
+      <c r="M110" s="49" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="48"/>
-      <c r="C111" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="49" t="s">
-        <v>919</v>
-      </c>
-      <c r="E111" s="49" t="s">
+      <c r="C111" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="55" t="s">
+        <v>844</v>
+      </c>
+      <c r="E111" s="56" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="81"/>
-      <c r="C112" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="49" t="s">
-        <v>1044</v>
+      <c r="F111" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="G111" s="55">
+        <v>1</v>
+      </c>
+      <c r="H111" s="55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I111" s="49"/>
+      <c r="L111" s="55" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M111" s="49" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="48"/>
+      <c r="C112" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="55" t="s">
+        <v>976</v>
       </c>
       <c r="E112" s="56" t="s">
         <v>1043</v>
       </c>
-      <c r="F112" s="56" t="s">
-        <v>195</v>
+      <c r="F112" s="55" t="s">
+        <v>182</v>
       </c>
       <c r="G112" s="55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H112" s="55" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="81"/>
+        <v>1024</v>
+      </c>
+      <c r="I112" s="49"/>
+      <c r="M112" s="49" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="48"/>
       <c r="C113" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="E113" s="56" t="s">
         <v>1043</v>
       </c>
-      <c r="F113" s="55"/>
-      <c r="G113" s="55"/>
+      <c r="F113" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="G113" s="55">
+        <v>1</v>
+      </c>
       <c r="H113" s="55" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I113" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L113" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="48"/>
+      <c r="C114" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="49" t="s">
+        <v>913</v>
+      </c>
+      <c r="E114" s="49" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F114" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G114" s="49">
+        <v>1</v>
+      </c>
+      <c r="H114" s="49" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="48"/>
+      <c r="C115" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="49" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E115" s="49" t="s">
+        <v>911</v>
+      </c>
+      <c r="F115" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G115" s="49">
+        <v>5</v>
+      </c>
+      <c r="H115" s="49" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="48"/>
+      <c r="C116" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="49" t="s">
+        <v>912</v>
+      </c>
+      <c r="E116" s="56" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F116" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G116" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="H116" s="49" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="48"/>
+      <c r="C117" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D117" s="49" t="s">
+        <v>919</v>
+      </c>
+      <c r="E117" s="49" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F117" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="L117" s="49" t="s">
+        <v>985</v>
+      </c>
+      <c r="M117" s="49" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="81"/>
+      <c r="C118" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="49" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E118" s="56" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F118" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="G118" s="55">
+        <v>3</v>
+      </c>
+      <c r="H118" s="55" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="81"/>
+      <c r="C119" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="55" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E119" s="56" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F119" s="55"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="55" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="81"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="55"/>
-    </row>
-    <row r="115" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
-      <c r="B115" s="49" t="s">
+    <row r="120" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="81"/>
+      <c r="C120" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" s="55" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E120" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="H120" s="55" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="81"/>
+      <c r="C121" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" s="55" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E121" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="H121" s="55" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="81"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="56"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+    </row>
+    <row r="123" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="81"/>
+      <c r="E123" s="56"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55"/>
+    </row>
+    <row r="124" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="48"/>
+      <c r="B124" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C115" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D115" s="55" t="s">
+      <c r="C124" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="55" t="s">
         <v>1058</v>
       </c>
-      <c r="E115" s="56" t="s">
+      <c r="E124" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="F115" s="56" t="s">
+      <c r="F124" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="H115" s="55" t="s">
+      <c r="H124" s="55" t="s">
         <v>765</v>
       </c>
-      <c r="I115" s="49" t="s">
+      <c r="I124" s="49" t="s">
         <v>782</v>
       </c>
-      <c r="K115" s="49" t="s">
+      <c r="K124" s="49" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="81"/>
-      <c r="C116" s="49" t="s">
+    <row r="125" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="81"/>
+      <c r="C125" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D116" s="55" t="s">
+      <c r="D125" s="55" t="s">
         <v>910</v>
       </c>
-      <c r="E116" s="56" t="s">
+      <c r="E125" s="56" t="s">
         <v>911</v>
       </c>
-      <c r="F116" s="56"/>
-      <c r="G116" s="55"/>
-      <c r="H116" s="55"/>
-    </row>
-    <row r="117" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="81"/>
-      <c r="D117" s="55"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="56"/>
-      <c r="G117" s="55"/>
-      <c r="H117" s="55"/>
-    </row>
-    <row r="118" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="80"/>
-      <c r="B118" s="55" t="s">
+      <c r="F125" s="56"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="55"/>
+    </row>
+    <row r="126" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="81"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="56"/>
+      <c r="F126" s="56"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+    </row>
+    <row r="127" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="80"/>
+      <c r="B127" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C118" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D118" s="55" t="s">
+      <c r="C127" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="55" t="s">
         <v>977</v>
       </c>
-      <c r="E118" s="61" t="s">
+      <c r="E127" s="61" t="s">
         <v>1060</v>
       </c>
-      <c r="F118" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="G118" s="49">
+      <c r="F127" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="G127" s="49">
         <v>2</v>
       </c>
-      <c r="H118" s="49" t="s">
+      <c r="H127" s="49" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="80"/>
-      <c r="C119" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D119" s="49" t="s">
+      <c r="L127" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="M127" s="49" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="80"/>
+      <c r="C128" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" s="49" t="s">
         <v>1062</v>
       </c>
-      <c r="E119" s="49" t="s">
+      <c r="E128" s="49" t="s">
         <v>1043</v>
       </c>
-      <c r="F119" s="56" t="s">
+      <c r="F128" s="56" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="80"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D120" s="55" t="s">
-        <v>605</v>
-      </c>
-      <c r="E120" s="61" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F120" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G120" s="49">
-        <v>2</v>
-      </c>
-      <c r="H120" s="49" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="80"/>
-      <c r="B121" s="55"/>
-      <c r="C121" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D121" s="55" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E121" s="61" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G121" s="49">
-        <v>2</v>
-      </c>
-      <c r="H121" s="49" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="80"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D122" s="55" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E122" s="61" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F122" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="H122" s="49" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="80"/>
-      <c r="C123" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D123" s="55" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E123" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="F123" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="H123" s="49" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="80"/>
-      <c r="C124" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="E124" s="49" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F124" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G124" s="49">
-        <v>2</v>
-      </c>
-      <c r="H124" s="49" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
-    </row>
-    <row r="126" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="48"/>
-      <c r="B126" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="C126" s="55" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D126" s="55" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E126" s="49" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F126" s="55" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
-      <c r="B127" s="55"/>
-      <c r="C127" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D127" s="55" t="s">
-        <v>978</v>
-      </c>
-      <c r="E127" s="49" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F127" s="55" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
-      <c r="B128" s="55"/>
-      <c r="C128" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D128" s="55" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E128" s="49" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F128" s="55" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="80"/>
       <c r="B129" s="55"/>
       <c r="C129" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D129" s="55" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E129" s="61" t="s">
-        <v>839</v>
+        <v>1063</v>
       </c>
       <c r="F129" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G129" s="49">
+        <v>2</v>
+      </c>
+      <c r="H129" s="49" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="80"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="55" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E130" s="61" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G130" s="49">
+        <v>2</v>
+      </c>
+      <c r="H130" s="49" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="80"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="55" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E131" s="61" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F131" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="G129" s="49">
-        <v>5</v>
-      </c>
-      <c r="H129" s="49" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="80"/>
-    </row>
-    <row r="131" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="80"/>
-      <c r="B131" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="C131" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D131" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="E131" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="F131" s="56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H131" s="49" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="80"/>
-      <c r="B132" s="55"/>
       <c r="C132" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D132" s="55" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E132" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="F132" s="56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1069</v>
+      </c>
+      <c r="E132" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="F132" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="H132" s="49" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="80"/>
-      <c r="B133" s="55"/>
       <c r="C133" s="55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D133" s="55" t="s">
-        <v>612</v>
-      </c>
-      <c r="E133" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="F133" s="56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="80"/>
-      <c r="B134" s="55"/>
-      <c r="C134" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D134" s="55" t="s">
-        <v>615</v>
-      </c>
-      <c r="E134" s="56" t="s">
-        <v>614</v>
-      </c>
-      <c r="F134" s="56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="80"/>
+        <v>249</v>
+      </c>
+      <c r="E133" s="49" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F133" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G133" s="49">
+        <v>2</v>
+      </c>
+      <c r="H133" s="49" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="48"/>
+    </row>
+    <row r="135" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="48"/>
+      <c r="B135" s="55" t="s">
+        <v>156</v>
+      </c>
       <c r="C135" s="55" t="s">
-        <v>49</v>
+        <v>1073</v>
       </c>
       <c r="D135" s="55" t="s">
-        <v>918</v>
-      </c>
-      <c r="E135" s="56" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="80"/>
-      <c r="D136" s="55"/>
-      <c r="E136" s="56"/>
-    </row>
-    <row r="137" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="80"/>
-      <c r="B137" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="C137" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D137" s="49" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+      <c r="E135" s="49" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F135" s="55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="48"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="55" t="s">
+        <v>978</v>
+      </c>
+      <c r="E136" s="49" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F136" s="55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="48"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="55" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E137" s="49" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F137" s="55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="80"/>
       <c r="B138" s="55"/>
-      <c r="C138" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="49" t="s">
-        <v>609</v>
-      </c>
-      <c r="E138" s="49" t="s">
-        <v>611</v>
+      <c r="C138" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="55" t="s">
+        <v>616</v>
+      </c>
+      <c r="E138" s="61" t="s">
+        <v>839</v>
       </c>
       <c r="F138" s="49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G138" s="49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H138" s="49" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="80"/>
       <c r="B139" s="55"/>
-      <c r="C139" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" s="49" t="s">
-        <v>610</v>
-      </c>
-      <c r="E139" s="49" t="s">
-        <v>611</v>
+      <c r="C139" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" s="55" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E139" s="61" t="s">
+        <v>1096</v>
       </c>
       <c r="F139" s="49" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G139" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" s="49" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+      <c r="I139" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L139" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="80"/>
-      <c r="B140" s="55"/>
-      <c r="C140" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D140" s="49" t="s">
-        <v>917</v>
-      </c>
-      <c r="E140" s="49" t="s">
-        <v>611</v>
-      </c>
-      <c r="F140" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G140" s="49">
-        <v>1</v>
-      </c>
-      <c r="H140" s="49" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="80"/>
-      <c r="B141" s="55"/>
-      <c r="C141" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="49" t="s">
-        <v>921</v>
-      </c>
-      <c r="E141" s="49" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H141" s="49" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="E141" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F141" s="56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="80"/>
       <c r="B142" s="55"/>
-      <c r="C142" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D142" s="49" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E142" s="49" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F142" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G142" s="49">
-        <v>1</v>
-      </c>
-      <c r="H142" s="49" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" s="55" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E142" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F142" s="56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="80"/>
-    </row>
-    <row r="144" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="81"/>
-      <c r="B144" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C144" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D144" s="49" t="s">
-        <v>983</v>
-      </c>
-      <c r="E144" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="F144" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G144" s="49">
-        <v>4</v>
-      </c>
-      <c r="H144" s="49" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="55"/>
+      <c r="C143" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="E143" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F143" s="56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="80"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144" s="55" t="s">
+        <v>615</v>
+      </c>
+      <c r="E144" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="F144" s="56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="80"/>
-      <c r="C145" s="49" t="s">
-        <v>48</v>
+      <c r="C145" s="55" t="s">
+        <v>49</v>
       </c>
       <c r="D145" s="55" t="s">
-        <v>875</v>
+        <v>918</v>
       </c>
       <c r="E145" s="56" t="s">
-        <v>611</v>
-      </c>
-      <c r="F145" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="G145" s="55"/>
-      <c r="H145" s="55" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="80"/>
-      <c r="C146" s="49" t="s">
+      <c r="D146" s="55"/>
+      <c r="E146" s="56"/>
+    </row>
+    <row r="147" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="80"/>
+      <c r="B147" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C147" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D146" s="50" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E146" s="49" t="s">
-        <v>611</v>
-      </c>
-      <c r="F146" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G146" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H146" s="49" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="81"/>
-      <c r="C147" s="49" t="s">
-        <v>48</v>
-      </c>
       <c r="D147" s="49" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E147" s="49" t="s">
-        <v>611</v>
-      </c>
-      <c r="F147" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H147" s="49" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="81"/>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="80"/>
+      <c r="B148" s="55"/>
       <c r="C148" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D148" s="49" t="s">
-        <v>1087</v>
+        <v>609</v>
       </c>
       <c r="E148" s="49" t="s">
         <v>611</v>
       </c>
-      <c r="F148" s="56" t="s">
+      <c r="F148" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G148" s="49">
+        <v>2</v>
+      </c>
+      <c r="H148" s="49" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I148" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="L148" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="80"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" s="49" t="s">
+        <v>610</v>
+      </c>
+      <c r="E149" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F149" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G149" s="49">
+        <v>2</v>
+      </c>
+      <c r="H149" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="80"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D150" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="E150" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F150" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G150" s="49">
+        <v>1</v>
+      </c>
+      <c r="H150" s="49" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="80"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D151" s="49" t="s">
+        <v>921</v>
+      </c>
+      <c r="E151" s="49" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F151" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H151" s="49" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="80"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" s="49" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E152" s="49" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F152" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G152" s="49">
+        <v>1</v>
+      </c>
+      <c r="H152" s="49" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="80"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D153" s="49" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E153" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="G153" s="49">
+        <v>1</v>
+      </c>
+      <c r="H153" s="49" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="80"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="49" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E154" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="I154" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L154" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="80"/>
+      <c r="B155" s="55"/>
+    </row>
+    <row r="156" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="80"/>
+    </row>
+    <row r="157" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="81"/>
+      <c r="B157" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D157" s="49" t="s">
+        <v>983</v>
+      </c>
+      <c r="E157" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="F157" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G157" s="49">
+        <v>4</v>
+      </c>
+      <c r="H157" s="49" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="80"/>
+      <c r="C158" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="55" t="s">
+        <v>875</v>
+      </c>
+      <c r="E158" s="56" t="s">
+        <v>611</v>
+      </c>
+      <c r="F158" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="G158" s="55"/>
+      <c r="H158" s="55" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I158" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L158" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="80"/>
+      <c r="C159" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D159" s="50" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E159" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F159" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G159" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H159" s="49" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="81"/>
+      <c r="C160" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D160" s="49" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E160" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F160" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H160" s="49" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="81"/>
+      <c r="C161" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D161" s="49" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E161" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F161" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="G148" s="55"/>
-      <c r="H148" s="55" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="81"/>
-      <c r="E149" s="56"/>
-      <c r="F149" s="56"/>
-      <c r="G149" s="55"/>
-      <c r="H149" s="55"/>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-    </row>
-    <row r="153" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
+      <c r="G161" s="55"/>
+      <c r="H161" s="55" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I161" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="M161" s="49" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="81"/>
+      <c r="E162" s="56"/>
+      <c r="F162" s="56"/>
+      <c r="G162" s="55"/>
+      <c r="H162" s="55"/>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+    </row>
+    <row r="166" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="I153" s="9"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
-      <c r="O153" s="2"/>
-      <c r="P153" s="2"/>
-    </row>
-    <row r="154" spans="1:16" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="9"/>
-      <c r="J154" s="8"/>
-    </row>
-    <row r="155" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="9"/>
-      <c r="J155" s="8"/>
-    </row>
-    <row r="156" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="9"/>
-      <c r="J156" s="8"/>
-    </row>
-    <row r="157" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="9"/>
-      <c r="J157" s="8"/>
-    </row>
-    <row r="158" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="F158" s="2"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="8"/>
-    </row>
-    <row r="159" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="F159" s="2"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="8"/>
-    </row>
-    <row r="160" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="8"/>
-    </row>
-    <row r="161" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="F161" s="2"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-    </row>
-    <row r="162" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
-    </row>
-    <row r="163" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-    </row>
-    <row r="164" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
-    </row>
-    <row r="165" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
-    </row>
-    <row r="166" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
       <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
+      <c r="J166" s="8"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
@@ -22527,439 +22994,593 @@
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2" t="s">
-        <v>27</v>
+    <row r="167" spans="1:16" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="B167" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
       <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
+      <c r="J167" s="8"/>
     </row>
     <row r="168" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
-      <c r="B168" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E168" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F168" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H168" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I168" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J168" s="13"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-    </row>
-    <row r="169" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E169" s="25"/>
-      <c r="F169" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G169" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H169" s="27"/>
-      <c r="I169" s="28"/>
-      <c r="J169" s="13"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
+      <c r="B168" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="8"/>
+    </row>
+    <row r="169" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="8"/>
     </row>
     <row r="170" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
-      <c r="B170" s="31"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H170" s="31"/>
-      <c r="I170" s="30"/>
-      <c r="J170" s="13"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
+      <c r="B170" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="8"/>
     </row>
     <row r="171" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
-      <c r="B171" s="24" t="s">
+      <c r="B171" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="8"/>
+    </row>
+    <row r="172" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="8"/>
+    </row>
+    <row r="173" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="8"/>
+    </row>
+    <row r="174" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="F174" s="2"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+    </row>
+    <row r="175" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
+    </row>
+    <row r="176" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+    </row>
+    <row r="177" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+    </row>
+    <row r="178" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+    </row>
+    <row r="179" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
+    </row>
+    <row r="180" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
+    </row>
+    <row r="181" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G181" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H181" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I181" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J181" s="13"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+    </row>
+    <row r="182" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E182" s="25"/>
+      <c r="F182" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G182" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H182" s="27"/>
+      <c r="I182" s="28"/>
+      <c r="J182" s="13"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+    </row>
+    <row r="183" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31"/>
+      <c r="G183" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H183" s="31"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="13"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+    </row>
+    <row r="184" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C171" s="24"/>
-      <c r="D171" s="24" t="s">
+      <c r="C184" s="24"/>
+      <c r="D184" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="29" t="s">
+      <c r="E184" s="24"/>
+      <c r="F184" s="24"/>
+      <c r="G184" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="H171" s="24"/>
-      <c r="I171" s="30"/>
-      <c r="J171" s="13"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-    </row>
-    <row r="172" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="31" t="s">
+      <c r="H184" s="24"/>
+      <c r="I184" s="30"/>
+      <c r="J184" s="13"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+    </row>
+    <row r="185" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="31"/>
-      <c r="D172" s="14" t="s">
+      <c r="C185" s="31"/>
+      <c r="D185" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E172" s="31"/>
-      <c r="F172" s="24" t="s">
+      <c r="E185" s="31"/>
+      <c r="F185" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G172" s="26" t="s">
+      <c r="G185" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="H172" s="31"/>
-      <c r="I172" s="30"/>
-      <c r="J172" s="13"/>
-    </row>
-    <row r="173" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="24"/>
-      <c r="C173" s="24"/>
-      <c r="D173" s="24" t="s">
+      <c r="H185" s="31"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="13"/>
+    </row>
+    <row r="186" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E173" s="24"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="29" t="s">
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="H173" s="24"/>
-      <c r="I173" s="30" t="s">
+      <c r="H186" s="24"/>
+      <c r="I186" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="J173" s="13"/>
-    </row>
-    <row r="174" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="31"/>
-      <c r="C174" s="31"/>
-      <c r="D174" s="31" t="s">
+      <c r="J186" s="13"/>
+    </row>
+    <row r="187" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="31"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E174" s="31"/>
-      <c r="F174" s="32"/>
-      <c r="G174" s="26" t="s">
+      <c r="E187" s="31"/>
+      <c r="F187" s="32"/>
+      <c r="G187" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="H174" s="31"/>
-      <c r="I174" s="30" t="s">
+      <c r="H187" s="31"/>
+      <c r="I187" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="J174" s="13"/>
-    </row>
-    <row r="175" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="31"/>
-      <c r="C175" s="31"/>
-      <c r="D175" s="31" t="s">
+      <c r="J187" s="13"/>
+    </row>
+    <row r="188" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="31"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="E175" s="31"/>
-      <c r="F175" s="32" t="s">
+      <c r="E188" s="31"/>
+      <c r="F188" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="G175" s="26" t="s">
+      <c r="G188" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H175" s="31"/>
-      <c r="I175" s="30" t="s">
+      <c r="H188" s="31"/>
+      <c r="I188" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="J175" s="13"/>
-    </row>
-    <row r="176" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="31" t="s">
+      <c r="J188" s="13"/>
+    </row>
+    <row r="189" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="E176" s="31"/>
-      <c r="F176" s="32"/>
-      <c r="G176" s="26" t="s">
+      <c r="E189" s="31"/>
+      <c r="F189" s="32"/>
+      <c r="G189" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="H176" s="24" t="s">
+      <c r="H189" s="24" t="s">
         <v>866</v>
       </c>
-      <c r="I176" s="11"/>
-      <c r="J176" s="13"/>
-    </row>
-    <row r="177" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="E177" s="11"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="45" t="s">
-        <v>562</v>
-      </c>
-      <c r="H177" s="11"/>
-      <c r="I177" s="11"/>
-      <c r="J177" s="13"/>
-    </row>
-    <row r="178" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="E178" s="11"/>
-      <c r="F178" s="78">
-        <v>42438</v>
-      </c>
-      <c r="G178" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="13"/>
-    </row>
-    <row r="179" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="E179" s="11"/>
-      <c r="F179" s="78">
-        <v>42438</v>
-      </c>
-      <c r="G179" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="13"/>
-    </row>
-    <row r="180" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11" t="s">
-        <v>867</v>
-      </c>
-      <c r="E180" s="11"/>
-      <c r="F180" s="78">
-        <v>42438</v>
-      </c>
-      <c r="G180" s="45" t="s">
-        <v>673</v>
-      </c>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
-      <c r="J180" s="13"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11" t="s">
-        <v>926</v>
-      </c>
-      <c r="E181" s="11"/>
-      <c r="F181" s="78">
-        <v>42445</v>
-      </c>
-      <c r="G181" s="45" t="s">
-        <v>927</v>
-      </c>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="7"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11" t="s">
-        <v>963</v>
-      </c>
-      <c r="E182" s="11"/>
-      <c r="F182" s="78">
-        <v>42438</v>
-      </c>
-      <c r="G182" s="45" t="s">
-        <v>964</v>
-      </c>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="7"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="E183" s="11"/>
-      <c r="F183" s="78">
-        <v>42432</v>
-      </c>
-      <c r="G183" s="45" t="s">
-        <v>966</v>
-      </c>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
-      <c r="F184" s="11"/>
-      <c r="G184" s="11"/>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11"/>
-      <c r="E185" s="11"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11"/>
-      <c r="F186" s="11"/>
-      <c r="G186" s="11"/>
-      <c r="H186" s="11"/>
-      <c r="I186" s="11"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
-      <c r="F188" s="11"/>
-      <c r="G188" s="11"/>
-      <c r="H188" s="11"/>
-      <c r="I188" s="11"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="11"/>
-      <c r="F189" s="11"/>
-      <c r="G189" s="11"/>
-      <c r="H189" s="11"/>
       <c r="I189" s="11"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J189" s="13"/>
+    </row>
+    <row r="190" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
+      <c r="D190" s="11" t="s">
+        <v>572</v>
+      </c>
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
-      <c r="G190" s="11"/>
+      <c r="G190" s="45" t="s">
+        <v>562</v>
+      </c>
       <c r="H190" s="11"/>
       <c r="I190" s="11"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="7"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="7"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="7"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="7"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="7"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="7"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="7"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="7"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="7"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="7"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="7"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="7"/>
+      <c r="J190" s="13"/>
+    </row>
+    <row r="191" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E191" s="11"/>
+      <c r="F191" s="78">
+        <v>42438</v>
+      </c>
+      <c r="G191" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H191" s="11"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="13"/>
+    </row>
+    <row r="192" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="E192" s="11"/>
+      <c r="F192" s="78">
+        <v>42438</v>
+      </c>
+      <c r="G192" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H192" s="11"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="13"/>
+    </row>
+    <row r="193" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="E193" s="11"/>
+      <c r="F193" s="78">
+        <v>42438</v>
+      </c>
+      <c r="G193" s="45" t="s">
+        <v>673</v>
+      </c>
+      <c r="H193" s="11"/>
+      <c r="I193" s="11"/>
+      <c r="J193" s="13"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="E194" s="11"/>
+      <c r="F194" s="78">
+        <v>42445</v>
+      </c>
+      <c r="G194" s="45" t="s">
+        <v>927</v>
+      </c>
+      <c r="H194" s="11"/>
+      <c r="I194" s="11"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="7"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="E195" s="11"/>
+      <c r="F195" s="78">
+        <v>42438</v>
+      </c>
+      <c r="G195" s="45" t="s">
+        <v>964</v>
+      </c>
+      <c r="H195" s="11"/>
+      <c r="I195" s="11"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="7"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="E196" s="11"/>
+      <c r="F196" s="78">
+        <v>42432</v>
+      </c>
+      <c r="G196" s="45" t="s">
+        <v>966</v>
+      </c>
+      <c r="H196" s="11"/>
+      <c r="I196" s="11"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="11"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="11"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="11"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
@@ -23297,71 +23918,117 @@
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="7"/>
     </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="7"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="7"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="7"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="7"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="7"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="7"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="7"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="7"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="7"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="7"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="7"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="7"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P149"/>
+  <autoFilter ref="A1:P162">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="D1"/>
+        <filter val="D2"/>
+        <filter val="D3"/>
+        <filter val="D4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="B158 A154:F156 A153:C153 A125:A128 A103:A111">
-    <cfRule type="cellIs" dxfId="24" priority="46" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B171 A167:F169 A166:C166 A134:A137 A109:A117 D147:D155">
+    <cfRule type="cellIs" dxfId="23" priority="46" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A45">
-    <cfRule type="cellIs" dxfId="22" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" dxfId="20" priority="24" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I192">
-    <cfRule type="containsText" dxfId="20" priority="214" operator="containsText" text="取消">
-      <formula>NOT(ISERROR(SEARCH("取消",I192)))</formula>
+  <conditionalFormatting sqref="I205">
+    <cfRule type="containsText" dxfId="19" priority="214" operator="containsText" text="取消">
+      <formula>NOT(ISERROR(SEARCH("取消",I205)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A124">
+    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A61">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D137:D142">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A70">
+    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B177:B1048576 B23:B40 B4:B8 B1:B2 B11:B21 B117:B168 B42:B67 B69:B115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B190:B1048576 B23:B40 B4:B8 B1:B2 B11:B21 B75:B124 B42:B73 B126:B181">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I181:I1048576 I1 I150:I152">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I194:I1048576 I1 I163:I165">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F25 F190:F1048576 F27:F38 F40:F45 F131:F149 F126:F129 F47:F124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F25 F203:F1048576 F27:F38 F40:F45 F135:F139 F47:F133 F141:F162">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C181:C1048576 C1:C45 C131:C152 C126:C129 C47:C124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C194:C1048576 C1:C45 C135:C139 C47:C133 C141:C165">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I54 I56:I149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I60 I62:I162">
       <formula1>"完成,未完成,阻碍,取消,暂停"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I61">
       <formula1>"完成,未完成,阻碍,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23398,7 +24065,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I55</xm:sqref>
+          <xm:sqref>I61</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -23410,7 +24077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>

--- a/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20160224'!$A$1:$S$201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20160302'!$A$1:$P$198</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20160309'!$A$1:$P$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20160309'!$A$1:$P$164</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="1144">
   <si>
     <t>类别</t>
   </si>
@@ -6836,10 +6836,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>工会玩法邀请判断是否跳转，抽蛋加入稀有度图标</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>得到宠物加稀有度</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -6952,6 +6948,163 @@
     <rPh sb="4" eb="5">
       <t>ce'hua</t>
     </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落-果实换色</t>
+  </si>
+  <si>
+    <t>MG-2739</t>
+  </si>
+  <si>
+    <t>UI动画调整（区分手动触发）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会玩法邀请判断是否跳转，抽蛋加入稀有度图标</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，等fun+sdk一起提交</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ti'jiao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>差音效</t>
+    <rPh sb="0" eb="1">
+      <t>cha</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yin'xiao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>差特效，音效</t>
+    <rPh sb="0" eb="1">
+      <t>cha</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin'xiao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>差2momo，龙女AI</t>
+    <rPh sb="0" eb="1">
+      <t>cha</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>long'nv</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成98个，但未按任务走</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wan'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>g</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zou</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落-修改第一批</t>
+    <rPh sb="0" eb="1">
+      <t>cun'luo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di'yi'ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2742</t>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚提交</t>
+    <rPh sb="0" eb="1">
+      <t>jin'wan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'jiao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2741</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章boss-黑龙动作需求</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -19711,11 +19864,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P334"/>
+  <dimension ref="A1:P336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90:H107"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -19866,7 +20019,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" s="76" t="s">
         <v>49</v>
@@ -19887,7 +20040,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -19940,6 +20093,9 @@
       <c r="H8" s="76" t="s">
         <v>949</v>
       </c>
+      <c r="N8" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -19993,7 +20149,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="D11" s="14"/>
     </row>
@@ -20080,6 +20236,9 @@
       <c r="H14" t="s">
         <v>930</v>
       </c>
+      <c r="N14" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -20101,6 +20260,9 @@
       <c r="H15" t="s">
         <v>931</v>
       </c>
+      <c r="N15" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -20129,7 +20291,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" t="s">
         <v>48</v>
@@ -20153,7 +20315,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" t="s">
         <v>48</v>
@@ -20177,7 +20339,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
         <v>48</v>
@@ -20207,7 +20369,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
         <v>48</v>
@@ -20234,7 +20396,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
         <v>49</v>
@@ -20261,7 +20423,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
         <v>48</v>
@@ -20294,7 +20456,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="C23" t="s">
         <v>48</v>
@@ -20320,8 +20482,11 @@
       <c r="M23" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="C24" t="s">
         <v>48</v>
@@ -20341,8 +20506,11 @@
       <c r="H24" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="C25" t="s">
         <v>48</v>
@@ -20363,7 +20531,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" t="s">
         <v>48</v>
@@ -20383,11 +20551,14 @@
       <c r="H26" t="s">
         <v>938</v>
       </c>
+      <c r="I26" t="s">
+        <v>500</v>
+      </c>
       <c r="M26" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" t="s">
         <v>49</v>
@@ -20408,7 +20579,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" t="s">
         <v>49</v>
@@ -20423,7 +20594,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
         <v>49</v>
@@ -20438,12 +20609,12 @@
         <v>941</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="D30" s="19"/>
       <c r="E30" s="76"/>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>58</v>
@@ -20464,7 +20635,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
         <v>48</v>
@@ -20481,11 +20652,14 @@
       <c r="H32" t="s">
         <v>942</v>
       </c>
+      <c r="I32" t="s">
+        <v>500</v>
+      </c>
       <c r="M32" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
         <v>49</v>
@@ -20505,13 +20679,19 @@
       <c r="H33" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>500</v>
+      </c>
+      <c r="N33" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="D34" s="19"/>
       <c r="E34" s="76"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>43</v>
@@ -20535,7 +20715,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
         <v>48</v>
@@ -20553,7 +20733,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
         <v>48</v>
@@ -20571,7 +20751,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
         <v>48</v>
@@ -20586,12 +20766,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="D39" s="19"/>
       <c r="E39" s="76"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>50</v>
@@ -20618,7 +20798,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" t="s">
         <v>48</v>
@@ -20638,8 +20818,14 @@
       <c r="H41" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>500</v>
+      </c>
+      <c r="N41" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
         <v>48</v>
@@ -20660,7 +20846,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" t="s">
         <v>48</v>
@@ -20680,11 +20866,17 @@
       <c r="H43" t="s">
         <v>956</v>
       </c>
+      <c r="I43" t="s">
+        <v>782</v>
+      </c>
       <c r="M43" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+      <c r="N43" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" t="s">
         <v>48</v>
@@ -20705,7 +20897,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
         <v>48</v>
@@ -20725,12 +20917,17 @@
       <c r="H45" t="s">
         <v>958</v>
       </c>
+      <c r="I45" t="s">
+        <v>782</v>
+      </c>
       <c r="M45" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>16</v>
       </c>
@@ -20754,7 +20951,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="52"/>
       <c r="C48" s="49" t="s">
         <v>48</v>
@@ -20772,7 +20969,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="52"/>
       <c r="C49" s="49" t="s">
         <v>48</v>
@@ -20790,7 +20987,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="52"/>
       <c r="C50" s="49" t="s">
         <v>48</v>
@@ -20811,10 +21008,13 @@
         <v>792</v>
       </c>
       <c r="M50" s="49" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+      <c r="N50" s="49" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="52"/>
       <c r="C51" s="49" t="s">
         <v>48</v>
@@ -20841,7 +21041,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
       <c r="C52" s="49" t="s">
         <v>48</v>
@@ -20862,7 +21062,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="C53" s="49" t="s">
         <v>48</v>
@@ -20873,7 +21073,9 @@
       <c r="E53" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F53" s="50"/>
+      <c r="F53" s="50" t="s">
+        <v>195</v>
+      </c>
       <c r="G53" s="49">
         <v>1</v>
       </c>
@@ -20881,7 +21083,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="C54" s="49" t="s">
         <v>48</v>
@@ -20892,7 +21094,9 @@
       <c r="E54" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F54" s="50"/>
+      <c r="F54" s="50" t="s">
+        <v>195</v>
+      </c>
       <c r="G54" s="49">
         <v>0.5</v>
       </c>
@@ -20900,7 +21104,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="C55" s="49" t="s">
         <v>48</v>
@@ -20911,7 +21115,9 @@
       <c r="E55" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F55" s="50"/>
+      <c r="F55" s="50" t="s">
+        <v>188</v>
+      </c>
       <c r="G55" s="49">
         <v>1</v>
       </c>
@@ -20919,7 +21125,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="C56" s="49" t="s">
         <v>48</v>
@@ -20930,7 +21136,9 @@
       <c r="E56" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="50"/>
+      <c r="F56" s="50" t="s">
+        <v>188</v>
+      </c>
       <c r="G56" s="49">
         <v>0.5</v>
       </c>
@@ -20938,7 +21146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="C57" s="49" t="s">
         <v>48</v>
@@ -20949,81 +21157,111 @@
       <c r="E57" s="49" t="s">
         <v>1104</v>
       </c>
-      <c r="F57" s="50"/>
+      <c r="F57" s="50" t="s">
+        <v>184</v>
+      </c>
       <c r="G57" s="49">
         <v>0.5</v>
       </c>
       <c r="H57" s="49" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L57" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="C58" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="50" t="s">
-        <v>1105</v>
+        <v>1125</v>
       </c>
       <c r="E58" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="50"/>
+      <c r="F58" s="50" t="s">
+        <v>184</v>
+      </c>
       <c r="G58" s="49">
         <v>0.5</v>
       </c>
       <c r="H58" s="49" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="L58" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="C59" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="50" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E59" s="49" t="s">
         <v>1106</v>
       </c>
-      <c r="E59" s="49" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F59" s="50"/>
+      <c r="F59" s="50" t="s">
+        <v>184</v>
+      </c>
       <c r="G59" s="49">
         <v>0.1</v>
       </c>
       <c r="H59" s="49" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+      <c r="N59" s="49" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
+      <c r="C60" s="49" t="s">
+        <v>48</v>
+      </c>
       <c r="D60" s="50" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E60" s="49" t="s">
+        <v>993</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H60" s="49" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I60" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L60" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="48"/>
+      <c r="D61" s="50" t="s">
         <v>865</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E61" s="49" t="s">
         <v>973</v>
       </c>
-      <c r="F60" s="50"/>
-    </row>
-    <row r="61" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="C61" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="50" t="s">
-        <v>807</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>993</v>
-      </c>
-      <c r="H61" s="49" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="50"/>
+    </row>
+    <row r="62" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="54"/>
     </row>
-    <row r="63" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="54"/>
       <c r="B63" s="49" t="s">
         <v>556</v>
@@ -21049,8 +21287,11 @@
       <c r="M63" s="49" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N63" s="49" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="54"/>
       <c r="C64" s="49" t="s">
         <v>48</v>
@@ -21070,8 +21311,11 @@
       <c r="H64" s="49" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N64" s="49" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54"/>
       <c r="C65" s="49" t="s">
         <v>48</v>
@@ -21091,15 +21335,21 @@
       <c r="H65" s="49" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="N65" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="54"/>
       <c r="D66" s="50"/>
       <c r="E66" s="50"/>
       <c r="F66" s="50"/>
       <c r="G66" s="53"/>
     </row>
-    <row r="67" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="54"/>
       <c r="B67" s="49" t="s">
         <v>78</v>
@@ -21123,7 +21373,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="54"/>
       <c r="C68" s="49" t="s">
         <v>48</v>
@@ -21141,46 +21391,52 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="54"/>
       <c r="C69" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="50" t="s">
-        <v>974</v>
+        <v>1006</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>79</v>
+        <v>1007</v>
       </c>
       <c r="F69" s="49" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="49">
+        <v>2</v>
+      </c>
+      <c r="H69" s="49" t="s">
+        <v>739</v>
+      </c>
+      <c r="I69" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="N69" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="54"/>
       <c r="C70" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D70" s="50" t="s">
-        <v>1006</v>
+        <v>974</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>1007</v>
+        <v>79</v>
       </c>
       <c r="F70" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="G70" s="49">
-        <v>2</v>
-      </c>
-      <c r="H70" s="49" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>17</v>
       </c>
@@ -21212,7 +21468,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="C73" t="s">
         <v>48</v>
@@ -21239,7 +21495,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>48</v>
       </c>
@@ -21265,7 +21521,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="C75" t="s">
         <v>48</v>
@@ -21286,10 +21542,10 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F76" s="69"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" t="s">
         <v>120</v>
@@ -21313,10 +21569,10 @@
         <v>834</v>
       </c>
       <c r="M77" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="C78" s="76" t="s">
         <v>48</v>
@@ -21343,7 +21599,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="C79" s="76" t="s">
         <v>49</v>
@@ -21362,7 +21618,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="C80" s="76" t="s">
         <v>49</v>
@@ -21381,11 +21637,11 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="F81" s="69"/>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" t="s">
         <v>136</v>
@@ -21408,8 +21664,11 @@
       <c r="H82" s="76" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="C83" s="66" t="s">
         <v>48</v>
@@ -21436,7 +21695,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="C84" s="76" t="s">
         <v>48</v>
@@ -21460,11 +21719,11 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="D85" s="66"/>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" t="s">
         <v>137</v>
@@ -21487,8 +21746,11 @@
       <c r="H86" s="66" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="C87" t="s">
         <v>48</v>
@@ -21508,8 +21770,11 @@
       <c r="H87" s="66" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="C88" t="s">
         <v>48</v>
@@ -21529,8 +21794,11 @@
       <c r="H88" s="66" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="C89" t="s">
         <v>48</v>
@@ -21550,8 +21818,11 @@
       <c r="H89" s="66" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="C90" t="s">
         <v>48</v>
@@ -21574,8 +21845,11 @@
       <c r="M90" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="C91" t="s">
         <v>48</v>
@@ -21594,7 +21868,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="C92" t="s">
         <v>48</v>
@@ -21613,8 +21887,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="80" t="s">
         <v>18</v>
       </c>
@@ -21638,7 +21911,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="80"/>
       <c r="C95" s="49" t="s">
         <v>48</v>
@@ -21668,7 +21941,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="80"/>
       <c r="C96" s="49" t="s">
         <v>48</v>
@@ -21695,7 +21968,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="80"/>
       <c r="C97" s="49" t="s">
         <v>48</v>
@@ -21722,7 +21995,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="80"/>
       <c r="C98" s="49" t="s">
         <v>48</v>
@@ -21741,7 +22014,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="80"/>
       <c r="C99" s="49" t="s">
         <v>48</v>
@@ -21768,7 +22041,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="81"/>
       <c r="C100" s="49" t="s">
         <v>48</v>
@@ -21787,7 +22060,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="81"/>
       <c r="C101" s="49" t="s">
         <v>48</v>
@@ -21814,7 +22087,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="80"/>
       <c r="C102" s="49" t="s">
         <v>48</v>
@@ -21833,7 +22106,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="80"/>
       <c r="C103" s="49" t="s">
         <v>48</v>
@@ -21853,8 +22126,14 @@
       <c r="H103" s="49" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="N103" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="80"/>
       <c r="C104" s="49" t="s">
         <v>48</v>
@@ -21874,14 +22153,20 @@
       <c r="H104" s="49" t="s">
         <v>1041</v>
       </c>
+      <c r="I104" s="49" t="s">
+        <v>500</v>
+      </c>
       <c r="L104" s="49" t="s">
         <v>1093</v>
       </c>
       <c r="M104" s="49" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1118</v>
+      </c>
+      <c r="N104" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="80"/>
       <c r="C105" s="49" t="s">
         <v>48</v>
@@ -21905,7 +22190,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="80"/>
       <c r="C106" s="49" t="s">
         <v>48</v>
@@ -21922,8 +22207,11 @@
       <c r="H106" s="49" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N106" s="49" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="80"/>
       <c r="C107" s="49" t="s">
         <v>48</v>
@@ -21943,8 +22231,11 @@
       <c r="H107" s="49" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N107" s="49" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="81"/>
       <c r="C108" s="49" t="s">
         <v>48</v>
@@ -21965,10 +22256,13 @@
         <v>1045</v>
       </c>
       <c r="M108" s="49" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+      <c r="N108" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="48"/>
       <c r="C109" s="55" t="s">
         <v>48</v>
@@ -21996,10 +22290,13 @@
         <v>985</v>
       </c>
       <c r="M109" s="49" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+      <c r="N109" s="55" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="48"/>
       <c r="C110" s="55" t="s">
         <v>48</v>
@@ -22027,10 +22324,10 @@
         <v>985</v>
       </c>
       <c r="M110" s="49" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="48"/>
       <c r="C111" s="55" t="s">
         <v>48</v>
@@ -22055,10 +22352,10 @@
         <v>1094</v>
       </c>
       <c r="M111" s="49" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="48"/>
       <c r="C112" s="55" t="s">
         <v>48</v>
@@ -22080,10 +22377,10 @@
       </c>
       <c r="I112" s="49"/>
       <c r="M112" s="49" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="48"/>
       <c r="C113" s="49" t="s">
         <v>48</v>
@@ -22110,7 +22407,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="48"/>
       <c r="C114" s="49" t="s">
         <v>48</v>
@@ -22130,8 +22427,14 @@
       <c r="H114" s="49" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I114" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L114" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="48"/>
       <c r="C115" s="49" t="s">
         <v>48</v>
@@ -22152,7 +22455,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="48"/>
       <c r="C116" s="49" t="s">
         <v>48</v>
@@ -22173,7 +22476,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="48"/>
       <c r="C117" s="49" t="s">
         <v>48</v>
@@ -22191,10 +22494,13 @@
         <v>985</v>
       </c>
       <c r="M117" s="49" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+      <c r="N117" s="49" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="81"/>
       <c r="C118" s="49" t="s">
         <v>49</v>
@@ -22215,7 +22521,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="81"/>
       <c r="C119" s="49" t="s">
         <v>49</v>
@@ -22232,45 +22538,49 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="81"/>
       <c r="C120" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D120" s="55" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E120" s="56" t="s">
         <v>483</v>
       </c>
-      <c r="F120" s="55"/>
+      <c r="F120" s="55" t="s">
+        <v>810</v>
+      </c>
       <c r="G120" s="55">
         <v>0.6</v>
       </c>
       <c r="H120" s="55" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="81"/>
       <c r="C121" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D121" s="55" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E121" s="56" t="s">
         <v>483</v>
       </c>
-      <c r="F121" s="55"/>
+      <c r="F121" s="55" t="s">
+        <v>810</v>
+      </c>
       <c r="G121" s="55">
         <v>0.6</v>
       </c>
       <c r="H121" s="55" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="81"/>
       <c r="D122" s="55"/>
       <c r="E122" s="56"/>
@@ -22278,14 +22588,14 @@
       <c r="G122" s="55"/>
       <c r="H122" s="55"/>
     </row>
-    <row r="123" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="81"/>
       <c r="E123" s="56"/>
       <c r="F123" s="56"/>
       <c r="G123" s="55"/>
       <c r="H123" s="55"/>
     </row>
-    <row r="124" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="48"/>
       <c r="B124" s="49" t="s">
         <v>155</v>
@@ -22312,7 +22622,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="81"/>
       <c r="C125" s="49" t="s">
         <v>49</v>
@@ -22327,7 +22637,7 @@
       <c r="G125" s="55"/>
       <c r="H125" s="55"/>
     </row>
-    <row r="126" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="81"/>
       <c r="D126" s="55"/>
       <c r="E126" s="56"/>
@@ -22335,7 +22645,7 @@
       <c r="G126" s="55"/>
       <c r="H126" s="55"/>
     </row>
-    <row r="127" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="80"/>
       <c r="B127" s="55" t="s">
         <v>159</v>
@@ -22358,14 +22668,17 @@
       <c r="H127" s="49" t="s">
         <v>1061</v>
       </c>
+      <c r="I127" s="49" t="s">
+        <v>500</v>
+      </c>
       <c r="L127" s="49" t="s">
         <v>778</v>
       </c>
       <c r="M127" s="49" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="80"/>
       <c r="C128" s="49" t="s">
         <v>48</v>
@@ -22379,8 +22692,11 @@
       <c r="F128" s="56" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N128" s="49" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="80"/>
       <c r="B129" s="55"/>
       <c r="C129" s="55" t="s">
@@ -22402,7 +22718,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="80"/>
       <c r="B130" s="55"/>
       <c r="C130" s="55" t="s">
@@ -22421,7 +22737,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="80"/>
       <c r="B131" s="55"/>
       <c r="C131" s="55" t="s">
@@ -22439,8 +22755,11 @@
       <c r="H131" s="49" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N131" s="49" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="80"/>
       <c r="C132" s="55" t="s">
         <v>48</v>
@@ -22458,7 +22777,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="80"/>
       <c r="C133" s="55" t="s">
         <v>49</v>
@@ -22479,51 +22798,64 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="48"/>
-    </row>
-    <row r="135" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" s="55" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E134" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="F134" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G134" s="49">
+        <v>1</v>
+      </c>
+      <c r="H134" s="49" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I134" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="N134" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="48"/>
-      <c r="B135" s="55" t="s">
+      <c r="C135" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" s="55" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E135" s="49" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F135" s="55" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H135" s="49" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="48"/>
+    </row>
+    <row r="137" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="48"/>
+      <c r="B137" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C135" s="55" t="s">
+      <c r="C137" s="55" t="s">
         <v>1073</v>
       </c>
-      <c r="D135" s="55" t="s">
+      <c r="D137" s="55" t="s">
         <v>1074</v>
-      </c>
-      <c r="E135" s="49" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F135" s="55" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="55" t="s">
-        <v>978</v>
-      </c>
-      <c r="E136" s="49" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F136" s="55" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
-      <c r="B137" s="55"/>
-      <c r="C137" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D137" s="55" t="s">
-        <v>1075</v>
       </c>
       <c r="E137" s="49" t="s">
         <v>1071</v>
@@ -22532,101 +22864,107 @@
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="80"/>
+    <row r="138" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="48"/>
       <c r="B138" s="55"/>
       <c r="C138" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D138" s="55" t="s">
-        <v>616</v>
-      </c>
-      <c r="E138" s="61" t="s">
-        <v>839</v>
-      </c>
-      <c r="F138" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G138" s="49">
-        <v>5</v>
-      </c>
-      <c r="H138" s="49" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="80"/>
+        <v>978</v>
+      </c>
+      <c r="E138" s="49" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F138" s="55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="48"/>
       <c r="B139" s="55"/>
       <c r="C139" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D139" s="55" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E139" s="49" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F139" s="55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="80"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="55" t="s">
+        <v>616</v>
+      </c>
+      <c r="E140" s="61" t="s">
+        <v>839</v>
+      </c>
+      <c r="F140" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G140" s="49">
+        <v>5</v>
+      </c>
+      <c r="H140" s="49" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I140" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="N140" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="80"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="55" t="s">
         <v>1097</v>
       </c>
-      <c r="E139" s="61" t="s">
+      <c r="E141" s="61" t="s">
         <v>1096</v>
       </c>
-      <c r="F139" s="49" t="s">
+      <c r="F141" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="G139" s="49">
+      <c r="G141" s="49">
         <v>1</v>
       </c>
-      <c r="H139" s="49" t="s">
+      <c r="H141" s="49" t="s">
         <v>1098</v>
       </c>
-      <c r="I139" s="49" t="s">
+      <c r="I141" s="49" t="s">
         <v>782</v>
       </c>
-      <c r="L139" s="49" t="s">
+      <c r="L141" s="49" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="80"/>
-    </row>
-    <row r="141" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="80"/>
-      <c r="B141" s="55" t="s">
+    <row r="142" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="80"/>
+    </row>
+    <row r="143" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="80"/>
+      <c r="B143" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C141" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="55" t="s">
+      <c r="C143" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="55" t="s">
         <v>251</v>
-      </c>
-      <c r="E141" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="F141" s="56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="80"/>
-      <c r="B142" s="55"/>
-      <c r="C142" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D142" s="55" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E142" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="F142" s="56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="80"/>
-      <c r="B143" s="55"/>
-      <c r="C143" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D143" s="55" t="s">
-        <v>612</v>
       </c>
       <c r="E143" s="56" t="s">
         <v>158</v>
@@ -22634,185 +22972,194 @@
       <c r="F143" s="56" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N143" s="49" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="80"/>
       <c r="B144" s="55"/>
       <c r="C144" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D144" s="55" t="s">
-        <v>615</v>
+        <v>1077</v>
       </c>
       <c r="E144" s="56" t="s">
-        <v>614</v>
+        <v>158</v>
       </c>
       <c r="F144" s="56" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N144" s="49" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="80"/>
+      <c r="B145" s="55"/>
       <c r="C145" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="E145" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F145" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="N145" s="49" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="80"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="55" t="s">
+        <v>615</v>
+      </c>
+      <c r="E146" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="F146" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="N146" s="49" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="80"/>
+      <c r="C147" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D145" s="55" t="s">
+      <c r="D147" s="55" t="s">
         <v>918</v>
       </c>
-      <c r="E145" s="56" t="s">
+      <c r="E147" s="56" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="80"/>
-      <c r="D146" s="55"/>
-      <c r="E146" s="56"/>
-    </row>
-    <row r="147" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="80"/>
-      <c r="B147" s="55" t="s">
+    <row r="148" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="80"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="56"/>
+    </row>
+    <row r="149" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="80"/>
+      <c r="B149" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="C147" s="49" t="s">
+      <c r="C149" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D147" s="49" t="s">
+      <c r="D149" s="49" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="80"/>
-      <c r="B148" s="55"/>
-      <c r="C148" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D148" s="49" t="s">
-        <v>609</v>
-      </c>
-      <c r="E148" s="49" t="s">
-        <v>611</v>
-      </c>
-      <c r="F148" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G148" s="49">
-        <v>2</v>
-      </c>
-      <c r="H148" s="49" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I148" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="L148" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="80"/>
-      <c r="B149" s="55"/>
-      <c r="C149" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D149" s="49" t="s">
-        <v>610</v>
-      </c>
-      <c r="E149" s="49" t="s">
-        <v>611</v>
-      </c>
-      <c r="F149" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G149" s="49">
-        <v>2</v>
-      </c>
-      <c r="H149" s="49" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="80"/>
       <c r="B150" s="55"/>
       <c r="C150" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D150" s="49" t="s">
-        <v>917</v>
+        <v>609</v>
       </c>
       <c r="E150" s="49" t="s">
         <v>611</v>
       </c>
       <c r="F150" s="49" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G150" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150" s="49" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1079</v>
+      </c>
+      <c r="I150" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="L150" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="N150" s="49" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="80"/>
       <c r="B151" s="55"/>
       <c r="C151" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D151" s="49" t="s">
-        <v>921</v>
+        <v>610</v>
       </c>
       <c r="E151" s="49" t="s">
-        <v>1080</v>
+        <v>611</v>
       </c>
       <c r="F151" s="49" t="s">
-        <v>195</v>
+        <v>188</v>
+      </c>
+      <c r="G151" s="49">
+        <v>2</v>
       </c>
       <c r="H151" s="49" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+      <c r="N151" s="49" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="80"/>
       <c r="B152" s="55"/>
       <c r="C152" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D152" s="49" t="s">
-        <v>1113</v>
+        <v>917</v>
       </c>
       <c r="E152" s="49" t="s">
-        <v>1082</v>
+        <v>611</v>
       </c>
       <c r="F152" s="49" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G152" s="49">
         <v>1</v>
       </c>
       <c r="H152" s="49" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="80"/>
       <c r="B153" s="55"/>
       <c r="C153" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D153" s="49" t="s">
-        <v>1114</v>
+        <v>921</v>
       </c>
       <c r="E153" s="49" t="s">
-        <v>611</v>
-      </c>
-      <c r="G153" s="49">
-        <v>1</v>
+        <v>1080</v>
+      </c>
+      <c r="F153" s="49" t="s">
+        <v>195</v>
       </c>
       <c r="H153" s="49" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="80"/>
       <c r="B154" s="55"/>
       <c r="C154" s="49" t="s">
@@ -22822,155 +23169,205 @@
         <v>1112</v>
       </c>
       <c r="E154" s="49" t="s">
-        <v>611</v>
-      </c>
-      <c r="I154" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="L154" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+      <c r="F154" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G154" s="49">
+        <v>1</v>
+      </c>
+      <c r="H154" s="49" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="80"/>
       <c r="B155" s="55"/>
-    </row>
-    <row r="156" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="49" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E155" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F155" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G155" s="49">
+        <v>1</v>
+      </c>
+      <c r="H155" s="49" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="80"/>
-    </row>
-    <row r="157" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="81"/>
-      <c r="B157" s="49" t="s">
+      <c r="B156" s="55"/>
+      <c r="C156" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D156" s="49" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E156" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="I156" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L156" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="80"/>
+      <c r="B157" s="55"/>
+    </row>
+    <row r="158" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="80"/>
+    </row>
+    <row r="159" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="81"/>
+      <c r="B159" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C157" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D157" s="49" t="s">
+      <c r="C159" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D159" s="49" t="s">
         <v>983</v>
       </c>
-      <c r="E157" s="49" t="s">
+      <c r="E159" s="49" t="s">
         <v>483</v>
-      </c>
-      <c r="F157" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G157" s="49">
-        <v>4</v>
-      </c>
-      <c r="H157" s="49" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="80"/>
-      <c r="C158" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D158" s="55" t="s">
-        <v>875</v>
-      </c>
-      <c r="E158" s="56" t="s">
-        <v>611</v>
-      </c>
-      <c r="F158" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="G158" s="55"/>
-      <c r="H158" s="55" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I158" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="L158" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="80"/>
-      <c r="C159" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D159" s="50" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E159" s="49" t="s">
-        <v>611</v>
       </c>
       <c r="F159" s="49" t="s">
         <v>188</v>
       </c>
       <c r="G159" s="49">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H159" s="49" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="81"/>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="80"/>
       <c r="C160" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D160" s="49" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E160" s="49" t="s">
+      <c r="D160" s="55" t="s">
+        <v>875</v>
+      </c>
+      <c r="E160" s="56" t="s">
         <v>611</v>
       </c>
-      <c r="F160" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H160" s="49" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="81"/>
+      <c r="F160" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="G160" s="55"/>
+      <c r="H160" s="55" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I160" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L160" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="80"/>
       <c r="C161" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D161" s="49" t="s">
-        <v>1086</v>
+        <v>49</v>
+      </c>
+      <c r="D161" s="50" t="s">
+        <v>1088</v>
       </c>
       <c r="E161" s="49" t="s">
         <v>611</v>
       </c>
-      <c r="F161" s="56" t="s">
+      <c r="F161" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G161" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H161" s="49" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="81"/>
+      <c r="C162" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" s="49" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E162" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F162" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H162" s="49" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="81"/>
+      <c r="C163" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D163" s="49" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E163" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F163" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="G161" s="55"/>
-      <c r="H161" s="55" t="s">
+      <c r="G163" s="55"/>
+      <c r="H163" s="55" t="s">
         <v>1087</v>
       </c>
-      <c r="I161" s="49" t="s">
+      <c r="I163" s="49" t="s">
         <v>782</v>
       </c>
-      <c r="M161" s="49" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="81"/>
-      <c r="E162" s="56"/>
-      <c r="F162" s="56"/>
-      <c r="G162" s="55"/>
-      <c r="H162" s="55"/>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
+      <c r="M163" s="49" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="81"/>
+      <c r="C164" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D164" s="49" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E164" s="56" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F164" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="G164" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="H164" s="55" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I164" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="N164" s="49" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D165" s="7"/>
@@ -22979,53 +23376,39 @@
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+    </row>
+    <row r="168" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-    </row>
-    <row r="167" spans="1:16" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="8"/>
-    </row>
-    <row r="168" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B168" s="2"/>
       <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
       <c r="I168" s="9"/>
       <c r="J168" s="8"/>
-    </row>
-    <row r="169" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+    </row>
+    <row r="169" spans="1:16" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -23036,10 +23419,10 @@
       <c r="I169" s="9"/>
       <c r="J169" s="8"/>
     </row>
-    <row r="170" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
-      <c r="B170" s="10" t="s">
-        <v>24</v>
+      <c r="B170" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -23050,18 +23433,14 @@
       <c r="I170" s="9"/>
       <c r="J170" s="8"/>
     </row>
-    <row r="171" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
+    <row r="171" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
       <c r="B171" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C171" s="2"/>
-      <c r="D171" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>985</v>
-      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
@@ -23070,13 +23449,12 @@
     </row>
     <row r="172" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
+      <c r="B172" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C172" s="2"/>
-      <c r="D172" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>986</v>
-      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
@@ -23085,10 +23463,16 @@
     </row>
     <row r="173" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
+      <c r="B173" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
+      <c r="D173" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>985</v>
+      </c>
       <c r="F173" s="2"/>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
@@ -23097,51 +23481,46 @@
     </row>
     <row r="174" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
-      <c r="B174" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
-        <v>821</v>
+        <v>987</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>920</v>
+        <v>986</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="9"/>
-      <c r="J174" s="9"/>
+      <c r="J174" s="8"/>
     </row>
     <row r="175" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
       <c r="I175" s="9"/>
-      <c r="J175" s="9"/>
+      <c r="J175" s="8"/>
     </row>
     <row r="176" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
+      <c r="B176" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="E176" s="2"/>
+        <v>821</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>920</v>
+      </c>
       <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
     </row>
@@ -23150,10 +23529,14 @@
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
+        <v>855</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>988</v>
+      </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="9"/>
@@ -23163,6 +23546,10 @@
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
+      <c r="D178" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
@@ -23173,110 +23560,90 @@
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
+      <c r="D179" s="2" t="s">
+        <v>845</v>
+      </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
     </row>
     <row r="180" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
-      <c r="B180" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B180" s="2"/>
       <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-    </row>
-    <row r="181" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
-      <c r="B181" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E181" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F181" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G181" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H181" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I181" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J181" s="13"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
     </row>
     <row r="182" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E182" s="25"/>
-      <c r="F182" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G182" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H182" s="27"/>
-      <c r="I182" s="28"/>
-      <c r="J182" s="13"/>
+      <c r="B182" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
-    </row>
-    <row r="183" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P182" s="2"/>
+    </row>
+    <row r="183" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
-      <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E183" s="31"/>
-      <c r="F183" s="31"/>
-      <c r="G183" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H183" s="31"/>
-      <c r="I183" s="30"/>
+      <c r="B183" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G183" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I183" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="J183" s="13"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
@@ -23286,20 +23653,20 @@
     </row>
     <row r="184" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
-      <c r="B184" s="24" t="s">
-        <v>165</v>
-      </c>
+      <c r="B184" s="24"/>
       <c r="C184" s="24"/>
-      <c r="D184" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E184" s="24"/>
-      <c r="F184" s="24"/>
-      <c r="G184" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="H184" s="24"/>
-      <c r="I184" s="30"/>
+      <c r="D184" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E184" s="25"/>
+      <c r="F184" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G184" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H184" s="27"/>
+      <c r="I184" s="28"/>
       <c r="J184" s="13"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
@@ -23308,74 +23675,82 @@
       <c r="O184" s="2"/>
     </row>
     <row r="185" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="31" t="s">
-        <v>168</v>
-      </c>
+      <c r="A185" s="2"/>
+      <c r="B185" s="31"/>
       <c r="C185" s="31"/>
-      <c r="D185" s="14" t="s">
-        <v>169</v>
+      <c r="D185" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="E185" s="31"/>
-      <c r="F185" s="24" t="s">
-        <v>161</v>
-      </c>
+      <c r="F185" s="31"/>
       <c r="G185" s="26" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H185" s="31"/>
       <c r="I185" s="30"/>
       <c r="J185" s="13"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
     </row>
     <row r="186" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="24"/>
+      <c r="A186" s="2"/>
+      <c r="B186" s="24" t="s">
+        <v>165</v>
+      </c>
       <c r="C186" s="24"/>
       <c r="D186" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E186" s="24"/>
       <c r="F186" s="24"/>
       <c r="G186" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H186" s="24"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="13"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+    </row>
+    <row r="187" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C187" s="31"/>
+      <c r="D187" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E187" s="31"/>
+      <c r="F187" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G187" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H187" s="31"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="13"/>
+    </row>
+    <row r="188" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="24"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E188" s="24"/>
+      <c r="F188" s="24"/>
+      <c r="G188" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="H186" s="24"/>
-      <c r="I186" s="30" t="s">
+      <c r="H188" s="24"/>
+      <c r="I188" s="30" t="s">
         <v>172</v>
-      </c>
-      <c r="J186" s="13"/>
-    </row>
-    <row r="187" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="31"/>
-      <c r="C187" s="31"/>
-      <c r="D187" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E187" s="31"/>
-      <c r="F187" s="32"/>
-      <c r="G187" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="H187" s="31"/>
-      <c r="I187" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="J187" s="13"/>
-    </row>
-    <row r="188" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="31"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E188" s="31"/>
-      <c r="F188" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="G188" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="H188" s="31"/>
-      <c r="I188" s="30" t="s">
-        <v>571</v>
       </c>
       <c r="J188" s="13"/>
     </row>
@@ -23383,48 +23758,52 @@
       <c r="B189" s="31"/>
       <c r="C189" s="31"/>
       <c r="D189" s="31" t="s">
-        <v>268</v>
+        <v>173</v>
       </c>
       <c r="E189" s="31"/>
       <c r="F189" s="32"/>
       <c r="G189" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H189" s="31"/>
+      <c r="I189" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J189" s="13"/>
+    </row>
+    <row r="190" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E190" s="31"/>
+      <c r="F190" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G190" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H190" s="31"/>
+      <c r="I190" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="J190" s="13"/>
+    </row>
+    <row r="191" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="31"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E191" s="31"/>
+      <c r="F191" s="32"/>
+      <c r="G191" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="H189" s="24" t="s">
+      <c r="H191" s="24" t="s">
         <v>866</v>
       </c>
-      <c r="I189" s="11"/>
-      <c r="J189" s="13"/>
-    </row>
-    <row r="190" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="E190" s="11"/>
-      <c r="F190" s="11"/>
-      <c r="G190" s="45" t="s">
-        <v>562</v>
-      </c>
-      <c r="H190" s="11"/>
-      <c r="I190" s="11"/>
-      <c r="J190" s="13"/>
-    </row>
-    <row r="191" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="E191" s="11"/>
-      <c r="F191" s="78">
-        <v>42438</v>
-      </c>
-      <c r="G191" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H191" s="11"/>
       <c r="I191" s="11"/>
       <c r="J191" s="13"/>
     </row>
@@ -23432,14 +23811,12 @@
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11" t="s">
-        <v>622</v>
+        <v>572</v>
       </c>
       <c r="E192" s="11"/>
-      <c r="F192" s="78">
-        <v>42438</v>
-      </c>
+      <c r="F192" s="11"/>
       <c r="G192" s="45" t="s">
-        <v>90</v>
+        <v>562</v>
       </c>
       <c r="H192" s="11"/>
       <c r="I192" s="11"/>
@@ -23449,86 +23826,100 @@
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11" t="s">
-        <v>867</v>
+        <v>621</v>
       </c>
       <c r="E193" s="11"/>
       <c r="F193" s="78">
         <v>42438</v>
       </c>
       <c r="G193" s="45" t="s">
-        <v>673</v>
+        <v>90</v>
       </c>
       <c r="H193" s="11"/>
       <c r="I193" s="11"/>
       <c r="J193" s="13"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11" t="s">
-        <v>926</v>
+        <v>622</v>
       </c>
       <c r="E194" s="11"/>
       <c r="F194" s="78">
-        <v>42445</v>
+        <v>42438</v>
       </c>
       <c r="G194" s="45" t="s">
-        <v>927</v>
+        <v>90</v>
       </c>
       <c r="H194" s="11"/>
       <c r="I194" s="11"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="7"/>
+      <c r="J194" s="13"/>
+    </row>
+    <row r="195" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11" t="s">
-        <v>963</v>
+        <v>867</v>
       </c>
       <c r="E195" s="11"/>
       <c r="F195" s="78">
         <v>42438</v>
       </c>
       <c r="G195" s="45" t="s">
-        <v>964</v>
+        <v>673</v>
       </c>
       <c r="H195" s="11"/>
       <c r="I195" s="11"/>
+      <c r="J195" s="13"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="7"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11" t="s">
-        <v>965</v>
+        <v>926</v>
       </c>
       <c r="E196" s="11"/>
       <c r="F196" s="78">
-        <v>42432</v>
+        <v>42445</v>
       </c>
       <c r="G196" s="45" t="s">
-        <v>966</v>
+        <v>927</v>
       </c>
       <c r="H196" s="11"/>
       <c r="I196" s="11"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="7"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
+      <c r="D197" s="11" t="s">
+        <v>963</v>
+      </c>
       <c r="E197" s="11"/>
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
+      <c r="F197" s="78">
+        <v>42438</v>
+      </c>
+      <c r="G197" s="45" t="s">
+        <v>964</v>
+      </c>
       <c r="H197" s="11"/>
       <c r="I197" s="11"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="7"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
+      <c r="D198" s="11" t="s">
+        <v>965</v>
+      </c>
       <c r="E198" s="11"/>
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
+      <c r="F198" s="78">
+        <v>42432</v>
+      </c>
+      <c r="G198" s="45" t="s">
+        <v>966</v>
+      </c>
       <c r="H198" s="11"/>
       <c r="I198" s="11"/>
     </row>
@@ -23582,11 +23973,25 @@
       <c r="H203" s="11"/>
       <c r="I203" s="11"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="7"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="7"/>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
@@ -23957,22 +24362,20 @@
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="7"/>
     </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="7"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P162">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="D1"/>
-        <filter val="D2"/>
-        <filter val="D3"/>
-        <filter val="D4"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:P164">
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="B171 A167:F169 A166:C166 A134:A137 A109:A117 D147:D155">
+  <conditionalFormatting sqref="B173 A169:F171 A168:C168 A136:A139 A109:A117 D149:D157">
     <cfRule type="cellIs" dxfId="23" priority="46" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -23987,14 +24390,14 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+  <conditionalFormatting sqref="A70">
     <cfRule type="cellIs" dxfId="20" priority="24" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I205">
+  <conditionalFormatting sqref="I207">
     <cfRule type="containsText" dxfId="19" priority="214" operator="containsText" text="取消">
-      <formula>NOT(ISERROR(SEARCH("取消",I205)))</formula>
+      <formula>NOT(ISERROR(SEARCH("取消",I207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
@@ -24002,33 +24405,33 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
+  <conditionalFormatting sqref="A60">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A69">
     <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B190:B1048576 B23:B40 B4:B8 B1:B2 B11:B21 B75:B124 B42:B73 B126:B181">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B192:B1048576 B23:B40 B4:B8 B1:B2 B11:B21 B75:B124 B126:B183 B42:B73">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I194:I1048576 I1 I163:I165">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I196:I1048576 I1 I165:I167">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F25 F203:F1048576 F27:F38 F40:F45 F135:F139 F47:F133 F141:F162">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F25 F205:F1048576 F27:F38 F40:F45 F137:F141 F143:F164 F47:F135">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C194:C1048576 C1:C45 C135:C139 C47:C133 C141:C165">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C196:C1048576 C1:C45 C137:C141 C143:C167 C47:C135">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I60 I62:I162">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I59 I61:I164">
       <formula1>"完成,未完成,阻碍,取消,暂停"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I60">
       <formula1>"完成,未完成,阻碍,取消"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24065,7 +24468,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I61</xm:sqref>
+          <xm:sqref>I60</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -24077,8 +24480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -24286,6 +24689,15 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
+      <c r="D45" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E45" t="s">
+        <v>483</v>
+      </c>
+      <c r="H45">
+        <v>2740</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>

--- a/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36340" windowHeight="20000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3040" yWindow="460" windowWidth="37040" windowHeight="20000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20160224" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20160224'!$A$1:$S$201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20160302'!$A$1:$P$198</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20160309'!$A$1:$P$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20160309'!$A$1:$P$169</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="1164">
   <si>
     <t>类别</t>
   </si>
@@ -7030,10 +7030,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>D5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成98个，但未按任务走</t>
     <rPh sb="0" eb="1">
       <t>yi'wan'cheng</t>
@@ -7105,6 +7101,118 @@
   </si>
   <si>
     <t>第一章boss-黑龙动作需求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5晚</t>
+    <rPh sb="2" eb="3">
+      <t>wan</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>等策划反馈</t>
+    <rPh sb="0" eb="1">
+      <t>deng'ce'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fan'kui</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行图标优化</t>
+    <rPh sb="0" eb="1">
+      <t>wu'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2744</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物血条位置调整</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue'tiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2743</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">副本掉落信息回归文档（第一到四章） </t>
+  </si>
+  <si>
+    <t>副本入口信息补充（第一二章）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回归特效文档（第一到第四章） </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归任务设计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2745</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2746</t>
+  </si>
+  <si>
+    <t>MG-2747</t>
+  </si>
+  <si>
+    <t>MG-2748</t>
+  </si>
+  <si>
+    <t>老李</t>
+    <rPh sb="0" eb="1">
+      <t>llao'li</t>
+    </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -7658,7 +7766,27 @@
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="129">
+  <dxfs count="136">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color indexed="60"/>
@@ -7827,6 +7955,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color indexed="60"/>
       </font>
       <fill>
@@ -7855,16 +8023,6 @@
         <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8984,6 +9142,26 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -14740,313 +14918,313 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I232:I1048576 I202:I203 I1 I123:I134 J128 I4:I58 I60:I120">
-    <cfRule type="containsText" dxfId="128" priority="104" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="133" priority="104" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="105" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="132" priority="105" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208:A214 B208:F208 A220:A1048576 J220:XFD227 C209:C214 E209:E214 G204:XFD208 A215:XFD219 I209:XFD214 A1 A34:A46 A146:A203 A123:A144 A48:A120">
-    <cfRule type="cellIs" dxfId="126" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="103" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B211 A204:F207">
-    <cfRule type="cellIs" dxfId="125" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="101" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107 D105">
-    <cfRule type="cellIs" dxfId="124" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="100" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I228:I231">
-    <cfRule type="containsText" dxfId="123" priority="86" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="128" priority="86" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="87" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="127" priority="87" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I227">
-    <cfRule type="cellIs" dxfId="121" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="83" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I221:I225">
-    <cfRule type="containsText" dxfId="120" priority="81" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="125" priority="81" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="82" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="124" priority="82" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212">
-    <cfRule type="cellIs" dxfId="118" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="80" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J158:J159 J172:J173 J181 I146:I191 J186 J188:J189 I198:I201 I137:I144">
-    <cfRule type="expression" dxfId="117" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="68" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",I137)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="69" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",I137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145">
-    <cfRule type="expression" dxfId="115" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="71" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",I145)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="72" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",I145)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="cellIs" dxfId="113" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="73" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212:F213">
-    <cfRule type="cellIs" dxfId="112" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="61" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2 I7:I18 I4:I5 I21:I32">
-    <cfRule type="containsText" dxfId="111" priority="59" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="116" priority="59" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="60" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="115" priority="60" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A31 A2:A5">
-    <cfRule type="cellIs" dxfId="109" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57 D5 D3">
-    <cfRule type="cellIs" dxfId="108" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="57" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12 D56">
-    <cfRule type="cellIs" dxfId="107" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="56" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="106" priority="54" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="111" priority="54" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="55" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="110" priority="55" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="104" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="53" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:I51">
-    <cfRule type="containsText" dxfId="103" priority="51" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="108" priority="51" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="52" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="107" priority="52" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135:I136">
-    <cfRule type="containsText" dxfId="101" priority="49" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="106" priority="49" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="50" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="105" priority="50" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="99" priority="47" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="104" priority="47" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="48" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="103" priority="48" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="97" priority="45" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="102" priority="45" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="46" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="101" priority="46" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="95" priority="43" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="100" priority="43" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="44" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="99" priority="44" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="93" priority="41" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="98" priority="41" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="42" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="97" priority="42" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="91" priority="39" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="96" priority="39" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="40" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="95" priority="40" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="containsText" dxfId="89" priority="37" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="94" priority="37" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="38" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="93" priority="38" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="containsText" dxfId="87" priority="35" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="92" priority="35" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="36" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="91" priority="36" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I78">
-    <cfRule type="containsText" dxfId="85" priority="33" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="90" priority="33" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="34" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="89" priority="34" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="containsText" dxfId="83" priority="31" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="88" priority="31" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="32" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="87" priority="32" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="81" priority="29" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="86" priority="29" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="30" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="85" priority="30" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="79" priority="27" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="84" priority="27" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="28" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="83" priority="28" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121:I122">
-    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="82" priority="25" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I121)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="26" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="81" priority="26" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I192">
-    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="80" priority="23" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="24" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="79" priority="24" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I193">
-    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="78" priority="21" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="22" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="77" priority="22" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194">
-    <cfRule type="containsText" dxfId="71" priority="19" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="76" priority="19" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="20" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="75" priority="20" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195">
-    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="74" priority="17" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="18" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="73" priority="18" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J183">
-    <cfRule type="expression" dxfId="67" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="15" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",J183)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="16" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",J183)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I196:J196">
-    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197">
-    <cfRule type="containsText" dxfId="63" priority="11" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="12" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="67" priority="12" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J176">
-    <cfRule type="expression" dxfId="61" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="9" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",J176)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="10" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",J176)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J137">
-    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="7" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",J137)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="8" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",J137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J142">
-    <cfRule type="expression" dxfId="57" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="5" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",J142)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="6" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",J142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="60" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="59" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I59)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19646,124 +19824,124 @@
   <autoFilter ref="A1:P198"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="I199:I1048576 I132:I134 I1:I128 I136:I172">
-    <cfRule type="containsText" dxfId="53" priority="71" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="58" priority="71" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="72" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="57" priority="72" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199:A1048576 A177:A180 G173:XFD186 A187:A194 A195:XFD198 J187:XFD194 A115:A116 A122 A173:C173 E173:F173 C178:F180 B177:C177 A174:F174 A175:C176 E175:F177 A181:C181 E181:F181 A182:F186 A124 A132:A134 D163:D165 A1:A38 A108:A111 A41:A53 A55:A58 A61:A102 A139:A172 A136:A137">
-    <cfRule type="cellIs" dxfId="51" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="70" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178">
-    <cfRule type="cellIs" dxfId="50" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37 D10">
-    <cfRule type="cellIs" dxfId="49" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="48" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="59" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:A60">
-    <cfRule type="cellIs" dxfId="47" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194">
-    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="50" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I188:I192">
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="50" priority="48" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I188)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I188)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" dxfId="43" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="47" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121">
-    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="cellIs" dxfId="39" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:A126">
-    <cfRule type="cellIs" dxfId="38" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="cellIs" dxfId="37" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:A128">
-    <cfRule type="cellIs" dxfId="36" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="cellIs" dxfId="35" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A107">
-    <cfRule type="cellIs" dxfId="33" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56">
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",K56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",K56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K112">
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",K112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",K112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19863,12 +20041,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P336"/>
+  <dimension ref="A1:P340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N61" sqref="N61"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -19930,7 +20107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -19962,7 +20139,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>48</v>
       </c>
@@ -19989,7 +20166,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" s="76" t="s">
         <v>48</v>
@@ -20043,7 +20220,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>38</v>
@@ -20093,11 +20270,14 @@
       <c r="H8" s="76" t="s">
         <v>949</v>
       </c>
+      <c r="I8" s="76" t="s">
+        <v>500</v>
+      </c>
       <c r="N8" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>48</v>
       </c>
@@ -20123,7 +20303,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>48</v>
       </c>
@@ -20153,7 +20333,7 @@
       <c r="A11" s="3"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>55</v>
@@ -20186,7 +20366,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
         <v>48</v>
@@ -20264,7 +20444,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" t="s">
         <v>48</v>
@@ -20291,7 +20471,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" t="s">
         <v>48</v>
@@ -20315,7 +20495,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" t="s">
         <v>48</v>
@@ -20339,7 +20519,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
         <v>48</v>
@@ -20369,7 +20549,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
         <v>48</v>
@@ -20396,7 +20576,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
         <v>49</v>
@@ -20423,7 +20603,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
         <v>48</v>
@@ -20456,7 +20636,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="C23" t="s">
         <v>48</v>
@@ -20476,6 +20656,9 @@
       <c r="H23" t="s">
         <v>935</v>
       </c>
+      <c r="I23" t="s">
+        <v>782</v>
+      </c>
       <c r="L23" t="s">
         <v>1092</v>
       </c>
@@ -20486,7 +20669,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="C24" t="s">
         <v>48</v>
@@ -20506,11 +20689,14 @@
       <c r="H24" t="s">
         <v>936</v>
       </c>
+      <c r="I24" t="s">
+        <v>782</v>
+      </c>
       <c r="N24" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="C25" t="s">
         <v>48</v>
@@ -20530,8 +20716,14 @@
       <c r="H25" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>579</v>
+      </c>
+      <c r="O25" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" t="s">
         <v>48</v>
@@ -20558,7 +20750,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" t="s">
         <v>49</v>
@@ -20579,7 +20771,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" t="s">
         <v>49</v>
@@ -20594,7 +20786,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
         <v>49</v>
@@ -20609,12 +20801,12 @@
         <v>941</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="D30" s="19"/>
       <c r="E30" s="76"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>58</v>
@@ -20634,8 +20826,14 @@
       <c r="H31" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>500</v>
+      </c>
+      <c r="O31" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
         <v>48</v>
@@ -20659,7 +20857,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
         <v>49</v>
@@ -20686,12 +20884,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="D34" s="19"/>
       <c r="E34" s="76"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>43</v>
@@ -20714,8 +20912,14 @@
       <c r="H35" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>500</v>
+      </c>
+      <c r="O35" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
         <v>48</v>
@@ -20733,7 +20937,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
         <v>48</v>
@@ -20751,7 +20955,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
         <v>48</v>
@@ -20766,12 +20970,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="D39" s="19"/>
       <c r="E39" s="76"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>50</v>
@@ -20798,7 +21002,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" t="s">
         <v>48</v>
@@ -20825,7 +21029,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
         <v>48</v>
@@ -20846,7 +21050,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" t="s">
         <v>48</v>
@@ -20876,7 +21080,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" t="s">
         <v>48</v>
@@ -20896,8 +21100,14 @@
       <c r="H44" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>579</v>
+      </c>
+      <c r="O44" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
         <v>48</v>
@@ -20927,489 +21137,533 @@
         <v>782</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E46" s="76" t="s">
+        <v>824</v>
+      </c>
+      <c r="F46" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I46" t="s">
+        <v>782</v>
+      </c>
+      <c r="O46" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E47" s="76" t="s">
+        <v>546</v>
+      </c>
+      <c r="F47" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I47" t="s">
+        <v>782</v>
+      </c>
+      <c r="O47" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E48" s="76" t="s">
+        <v>824</v>
+      </c>
+      <c r="F48" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I48" t="s">
+        <v>782</v>
+      </c>
+      <c r="O48" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E49" s="76" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F49" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I49" t="s">
+        <v>782</v>
+      </c>
+      <c r="O49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B51" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="53" t="s">
+      <c r="C51" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="53" t="s">
         <v>554</v>
       </c>
-      <c r="E47" s="53" t="s">
+      <c r="E51" s="53" t="s">
         <v>555</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="F51" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53" t="s">
+      <c r="G51" s="53"/>
+      <c r="H51" s="53" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="C48" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="49" t="s">
+    <row r="52" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="52"/>
+      <c r="C52" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="49" t="s">
         <v>861</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E52" s="49" t="s">
         <v>862</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="H48" s="49" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
-      <c r="C49" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="49" t="s">
-        <v>959</v>
-      </c>
-      <c r="E49" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="H49" s="49" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="C50" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="G50" s="49">
-        <v>1</v>
-      </c>
-      <c r="H50" s="49" t="s">
-        <v>792</v>
-      </c>
-      <c r="M50" s="49" t="s">
-        <v>1116</v>
-      </c>
-      <c r="N50" s="49" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="C51" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="G51" s="49">
-        <v>1</v>
-      </c>
-      <c r="H51" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="I51" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="L51" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="C52" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="50" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>982</v>
       </c>
       <c r="F52" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G52" s="49">
-        <v>2</v>
-      </c>
       <c r="H52" s="49" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+        <v>947</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="52"/>
       <c r="C53" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="50" t="s">
-        <v>1099</v>
+      <c r="D53" s="49" t="s">
+        <v>959</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F53" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G53" s="49">
+      <c r="H53" s="49" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="52"/>
+      <c r="C54" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="G54" s="49">
         <v>1</v>
       </c>
-      <c r="H53" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="C54" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="50" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E54" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="G54" s="49">
-        <v>0.5</v>
-      </c>
       <c r="H54" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+        <v>792</v>
+      </c>
+      <c r="M54" s="49" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N54" s="49" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="52"/>
       <c r="C55" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="50" t="s">
-        <v>1101</v>
+        <v>191</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="F55" s="50" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G55" s="49">
         <v>1</v>
       </c>
       <c r="H55" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="I55" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L55" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="C56" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>1102</v>
+        <v>1000</v>
       </c>
       <c r="E56" s="49" t="s">
-        <v>75</v>
+        <v>982</v>
       </c>
       <c r="F56" s="50" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G56" s="49">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H56" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="C57" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="50" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="E57" s="49" t="s">
-        <v>1104</v>
+        <v>75</v>
       </c>
       <c r="F57" s="50" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G57" s="49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H57" s="49" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I57" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="L57" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="C58" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="50" t="s">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G58" s="49">
         <v>0.5</v>
       </c>
       <c r="H58" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I58" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="L58" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="C59" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E59" s="49" t="s">
-        <v>1106</v>
+        <v>75</v>
       </c>
       <c r="F59" s="50" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G59" s="49">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H59" s="49" t="s">
-        <v>1106</v>
-      </c>
-      <c r="N59" s="49" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="I59" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="O59" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="C60" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D60" s="50" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E60" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="G60" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H60" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="O60" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="48"/>
+      <c r="C61" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E61" s="49" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H61" s="49" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I61" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L61" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="48"/>
+      <c r="C62" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G62" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H62" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="L62" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="48"/>
+      <c r="C63" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F63" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G63" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I63" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="N63" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="O63" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="48"/>
+      <c r="C64" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="50" t="s">
         <v>1124</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E64" s="49" t="s">
         <v>993</v>
       </c>
-      <c r="F60" s="49" t="s">
+      <c r="F64" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="H60" s="49" t="s">
+      <c r="H64" s="49" t="s">
         <v>1002</v>
       </c>
-      <c r="I60" s="49" t="s">
+      <c r="I64" s="49" t="s">
         <v>782</v>
       </c>
-      <c r="L60" s="49" t="s">
+      <c r="L64" s="49" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="D61" s="50" t="s">
+    <row r="65" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="48"/>
+      <c r="D65" s="50" t="s">
         <v>865</v>
       </c>
-      <c r="E61" s="49" t="s">
+      <c r="E65" s="49" t="s">
         <v>973</v>
       </c>
-      <c r="F61" s="50"/>
-    </row>
-    <row r="62" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-    </row>
-    <row r="63" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="49" t="s">
-        <v>556</v>
-      </c>
-      <c r="C63" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="50" t="s">
-        <v>732</v>
-      </c>
-      <c r="E63" s="50" t="s">
-        <v>656</v>
-      </c>
-      <c r="F63" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="G63" s="53">
-        <v>3</v>
-      </c>
-      <c r="H63" s="49" t="s">
-        <v>731</v>
-      </c>
-      <c r="M63" s="49" t="s">
-        <v>795</v>
-      </c>
-      <c r="N63" s="49" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="C64" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="50" t="s">
-        <v>961</v>
-      </c>
-      <c r="E64" s="50" t="s">
-        <v>656</v>
-      </c>
-      <c r="F64" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="G64" s="53">
-        <v>1</v>
-      </c>
-      <c r="H64" s="49" t="s">
-        <v>962</v>
-      </c>
-      <c r="N64" s="49" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="C65" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="50" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E65" s="50" t="s">
-        <v>656</v>
-      </c>
-      <c r="F65" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="G65" s="53">
-        <v>1</v>
-      </c>
-      <c r="H65" s="49" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I65" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="N65" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="50"/>
+    </row>
+    <row r="66" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="54"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="53"/>
-    </row>
-    <row r="67" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="54"/>
       <c r="B67" s="49" t="s">
-        <v>78</v>
+        <v>556</v>
       </c>
       <c r="C67" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>538</v>
-      </c>
-      <c r="E67" s="49" t="s">
-        <v>560</v>
+        <v>732</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>656</v>
       </c>
       <c r="F67" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="G67" s="50">
-        <v>1</v>
-      </c>
-      <c r="H67" s="50" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="G67" s="53">
+        <v>3</v>
+      </c>
+      <c r="H67" s="49" t="s">
+        <v>731</v>
+      </c>
+      <c r="M67" s="49" t="s">
+        <v>795</v>
+      </c>
+      <c r="N67" s="49" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="54"/>
       <c r="C68" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>723</v>
-      </c>
-      <c r="E68" s="49" t="s">
-        <v>560</v>
-      </c>
-      <c r="F68" s="49" t="s">
-        <v>195</v>
+        <v>961</v>
+      </c>
+      <c r="E68" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="F68" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G68" s="53">
+        <v>1</v>
       </c>
       <c r="H68" s="49" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+      <c r="I68" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="N68" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="O68" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="54"/>
       <c r="C69" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="50" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E69" s="49" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G69" s="49">
-        <v>2</v>
+        <v>1003</v>
+      </c>
+      <c r="E69" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="F69" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="G69" s="53">
+        <v>1</v>
       </c>
       <c r="H69" s="49" t="s">
-        <v>739</v>
+        <v>1004</v>
       </c>
       <c r="I69" s="49" t="s">
         <v>782</v>
@@ -21418,667 +21672,675 @@
         <v>782</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="54"/>
-      <c r="C70" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="50" t="s">
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="53"/>
+    </row>
+    <row r="71" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="54"/>
+      <c r="B71" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>560</v>
+      </c>
+      <c r="F71" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G71" s="50">
+        <v>1</v>
+      </c>
+      <c r="H71" s="50" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="54"/>
+      <c r="C72" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>723</v>
+      </c>
+      <c r="E72" s="49" t="s">
+        <v>560</v>
+      </c>
+      <c r="F72" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H72" s="49" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="54"/>
+      <c r="C73" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E73" s="49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F73" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G73" s="49">
+        <v>2</v>
+      </c>
+      <c r="H73" s="49" t="s">
+        <v>739</v>
+      </c>
+      <c r="I73" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="N73" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="54"/>
+      <c r="C74" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="50" t="s">
         <v>974</v>
       </c>
-      <c r="E70" s="49" t="s">
+      <c r="E74" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F70" s="49" t="s">
+      <c r="F74" s="49" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-    </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" t="s">
         <v>118</v>
       </c>
-      <c r="C72" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="66" t="s">
+      <c r="C76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="66" t="s">
+      <c r="E76" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="69" t="s">
+      <c r="F76" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="G72" s="66">
+      <c r="G76" s="66">
         <v>0.5</v>
       </c>
-      <c r="H72" s="66" t="s">
+      <c r="H76" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="I72" s="79" t="s">
+      <c r="I76" s="79" t="s">
         <v>500</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L76" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="C73" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="76" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="76" t="s">
         <v>847</v>
       </c>
-      <c r="E73" s="76" t="s">
+      <c r="E77" s="76" t="s">
         <v>848</v>
       </c>
-      <c r="F73" s="69" t="s">
+      <c r="F77" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="G73" s="76">
+      <c r="G77" s="76">
         <v>0.1</v>
       </c>
-      <c r="H73" s="66" t="s">
+      <c r="H77" s="66" t="s">
         <v>1008</v>
       </c>
-      <c r="I73" s="76" t="s">
+      <c r="I77" s="76" t="s">
         <v>500</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K77" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="18" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="18" t="s">
         <v>880</v>
       </c>
-      <c r="E74" s="76" t="s">
+      <c r="E78" s="76" t="s">
         <v>848</v>
       </c>
-      <c r="F74" s="69" t="s">
+      <c r="F78" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G78" s="18">
         <v>0.25</v>
       </c>
-      <c r="H74" s="66" t="s">
+      <c r="H78" s="66" t="s">
         <v>1009</v>
-      </c>
-      <c r="I74" s="76" t="s">
-        <v>500</v>
-      </c>
-      <c r="K74" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="C75" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="76" t="s">
-        <v>851</v>
-      </c>
-      <c r="E75" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="F75" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1</v>
-      </c>
-      <c r="H75" s="66" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F76" s="69"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="68" t="s">
-        <v>836</v>
-      </c>
-      <c r="E77" s="68" t="s">
-        <v>584</v>
-      </c>
-      <c r="F77" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="G77" s="66">
-        <v>1</v>
-      </c>
-      <c r="H77" s="66" t="s">
-        <v>834</v>
-      </c>
-      <c r="M77" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="C78" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="77" t="s">
-        <v>864</v>
-      </c>
-      <c r="E78" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="F78" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="G78" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="H78" s="76" t="s">
-        <v>1011</v>
       </c>
       <c r="I78" s="76" t="s">
         <v>500</v>
       </c>
       <c r="K78" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="C79" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="68" t="s">
-        <v>1012</v>
+      <c r="C79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="76" t="s">
+        <v>851</v>
       </c>
       <c r="E79" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="F79" s="69"/>
-      <c r="G79" s="82">
+      <c r="F79" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="G79" s="18">
         <v>1</v>
       </c>
-      <c r="H79" s="76" t="s">
+      <c r="H79" s="66" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I79" s="76" t="s">
+        <v>500</v>
+      </c>
+      <c r="O79" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F80" s="69"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="68" t="s">
+        <v>836</v>
+      </c>
+      <c r="E81" s="68" t="s">
+        <v>584</v>
+      </c>
+      <c r="F81" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="G81" s="66">
+        <v>1</v>
+      </c>
+      <c r="H81" s="66" t="s">
+        <v>834</v>
+      </c>
+      <c r="I81" s="79" t="s">
+        <v>500</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O81" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="C82" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="77" t="s">
+        <v>864</v>
+      </c>
+      <c r="E82" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F82" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="G82" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="H82" s="76" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I82" s="76" t="s">
+        <v>500</v>
+      </c>
+      <c r="K82" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="C83" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="68" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E83" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F83" s="69"/>
+      <c r="G83" s="82">
+        <v>1</v>
+      </c>
+      <c r="H83" s="76" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="C80" s="76" t="s">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="C84" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="68" t="s">
+      <c r="D84" s="68" t="s">
         <v>1015</v>
       </c>
-      <c r="E80" s="68" t="s">
+      <c r="E84" s="68" t="s">
         <v>584</v>
       </c>
-      <c r="F80" s="69"/>
-      <c r="G80" s="82">
+      <c r="F84" s="69"/>
+      <c r="G84" s="82">
         <v>1.5</v>
       </c>
-      <c r="H80" s="76" t="s">
+      <c r="H84" s="76" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="F81" s="69"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" t="s">
-        <v>849</v>
-      </c>
-      <c r="E82" t="s">
-        <v>584</v>
-      </c>
-      <c r="F82" t="s">
-        <v>195</v>
-      </c>
-      <c r="G82">
-        <v>0.5</v>
-      </c>
-      <c r="H82" s="76" t="s">
-        <v>1016</v>
-      </c>
-      <c r="N82" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="C83" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="66" t="s">
-        <v>863</v>
-      </c>
-      <c r="E83" t="s">
-        <v>870</v>
-      </c>
-      <c r="F83" t="s">
-        <v>183</v>
-      </c>
-      <c r="G83">
-        <v>0.5</v>
-      </c>
-      <c r="H83" s="76" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L83" t="s">
-        <v>985</v>
-      </c>
-      <c r="M83" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="C84" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="66" t="s">
-        <v>589</v>
-      </c>
-      <c r="E84" t="s">
-        <v>870</v>
-      </c>
-      <c r="F84" t="s">
-        <v>182</v>
-      </c>
-      <c r="G84">
-        <v>0.5</v>
-      </c>
-      <c r="H84" s="76" t="s">
-        <v>1018</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="D85" s="66"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F85" s="69"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" t="s">
-        <v>48</v>
-      </c>
-      <c r="D86" s="66" t="s">
-        <v>717</v>
-      </c>
-      <c r="E86" s="68" t="s">
-        <v>718</v>
-      </c>
-      <c r="F86" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="G86" s="66">
+        <v>136</v>
+      </c>
+      <c r="C86" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" t="s">
+        <v>849</v>
+      </c>
+      <c r="E86" t="s">
+        <v>584</v>
+      </c>
+      <c r="F86" t="s">
+        <v>195</v>
+      </c>
+      <c r="G86">
         <v>0.5</v>
       </c>
-      <c r="H86" s="66" t="s">
-        <v>755</v>
+      <c r="H86" s="76" t="s">
+        <v>1016</v>
       </c>
       <c r="N86" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
-      <c r="C87" t="s">
+      <c r="C87" s="66" t="s">
         <v>48</v>
       </c>
       <c r="D87" s="66" t="s">
-        <v>719</v>
-      </c>
-      <c r="E87" s="68" t="s">
+        <v>863</v>
+      </c>
+      <c r="E87" t="s">
+        <v>870</v>
+      </c>
+      <c r="F87" t="s">
+        <v>183</v>
+      </c>
+      <c r="G87">
+        <v>0.5</v>
+      </c>
+      <c r="H87" s="76" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L87" t="s">
+        <v>985</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="C88" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="E88" t="s">
+        <v>870</v>
+      </c>
+      <c r="F88" t="s">
+        <v>182</v>
+      </c>
+      <c r="G88">
+        <v>0.5</v>
+      </c>
+      <c r="H88" s="76" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="D89" s="66"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="66" t="s">
+        <v>717</v>
+      </c>
+      <c r="E90" s="68" t="s">
         <v>718</v>
       </c>
-      <c r="F87" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G87" s="66">
-        <v>1</v>
-      </c>
-      <c r="H87" s="66" t="s">
-        <v>756</v>
-      </c>
-      <c r="N87" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="C88" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" s="66" t="s">
-        <v>720</v>
-      </c>
-      <c r="E88" s="66" t="s">
-        <v>584</v>
-      </c>
-      <c r="F88" s="66" t="s">
+      <c r="F90" s="66" t="s">
         <v>188</v>
-      </c>
-      <c r="G88" s="66">
-        <v>2</v>
-      </c>
-      <c r="H88" s="66" t="s">
-        <v>757</v>
-      </c>
-      <c r="N88" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="C89" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" s="66" t="s">
-        <v>721</v>
-      </c>
-      <c r="E89" s="66" t="s">
-        <v>584</v>
-      </c>
-      <c r="F89" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G89" s="66">
-        <v>1</v>
-      </c>
-      <c r="H89" s="66" t="s">
-        <v>758</v>
-      </c>
-      <c r="N89" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="C90" t="s">
-        <v>48</v>
-      </c>
-      <c r="D90" s="66" t="s">
-        <v>722</v>
-      </c>
-      <c r="E90" s="66" t="s">
-        <v>584</v>
-      </c>
-      <c r="F90" s="66" t="s">
-        <v>182</v>
       </c>
       <c r="G90" s="66">
         <v>0.5</v>
       </c>
       <c r="H90" s="66" t="s">
-        <v>759</v>
-      </c>
-      <c r="M90" t="s">
-        <v>809</v>
+        <v>755</v>
+      </c>
+      <c r="I90" s="79" t="s">
+        <v>500</v>
       </c>
       <c r="N90" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
       <c r="C91" t="s">
         <v>48</v>
       </c>
-      <c r="D91" s="79" t="s">
-        <v>868</v>
-      </c>
-      <c r="E91" s="79" t="s">
-        <v>869</v>
-      </c>
-      <c r="F91" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="G91" s="76"/>
-      <c r="H91" s="79" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+      <c r="D91" s="66" t="s">
+        <v>719</v>
+      </c>
+      <c r="E91" s="68" t="s">
+        <v>718</v>
+      </c>
+      <c r="F91" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G91" s="66">
+        <v>1</v>
+      </c>
+      <c r="H91" s="66" t="s">
+        <v>756</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1133</v>
+      </c>
+      <c r="O91" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
       <c r="C92" t="s">
         <v>48</v>
       </c>
-      <c r="D92" s="79" t="s">
-        <v>1020</v>
+      <c r="D92" s="66" t="s">
+        <v>720</v>
       </c>
       <c r="E92" s="66" t="s">
         <v>584</v>
       </c>
-      <c r="F92" s="79" t="s">
+      <c r="F92" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="G92" s="66">
+        <v>2</v>
+      </c>
+      <c r="H92" s="66" t="s">
+        <v>757</v>
+      </c>
+      <c r="N92" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O92" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="C93" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="66" t="s">
+        <v>721</v>
+      </c>
+      <c r="E93" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="F93" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G93" s="66">
+        <v>1</v>
+      </c>
+      <c r="H93" s="66" t="s">
+        <v>758</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="C94" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="66" t="s">
+        <v>722</v>
+      </c>
+      <c r="E94" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="F94" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="G94" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H94" s="66" t="s">
+        <v>759</v>
+      </c>
+      <c r="I94" s="79" t="s">
+        <v>500</v>
+      </c>
+      <c r="M94" t="s">
+        <v>809</v>
+      </c>
+      <c r="N94" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="79" t="s">
+        <v>868</v>
+      </c>
+      <c r="E95" s="79" t="s">
+        <v>869</v>
+      </c>
+      <c r="F95" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="G92" s="76"/>
-      <c r="H92" s="79" t="s">
+      <c r="G95" s="76"/>
+      <c r="H95" s="79" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="C96" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="79" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E96" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="F96" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="G96" s="76"/>
+      <c r="H96" s="79" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="80" t="s">
+    <row r="98" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B94" s="49" t="s">
+      <c r="B98" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C94" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" s="55" t="s">
+      <c r="C98" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="55" t="s">
         <v>1029</v>
       </c>
-      <c r="E94" s="50" t="s">
+      <c r="E98" s="50" t="s">
         <v>916</v>
       </c>
-      <c r="F94" s="55" t="s">
+      <c r="F98" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55" t="s">
+      <c r="G98" s="55"/>
+      <c r="H98" s="55" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="80"/>
-      <c r="C95" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" s="50" t="s">
-        <v>900</v>
-      </c>
-      <c r="E95" s="83" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F95" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="G95" s="83">
-        <v>0.2</v>
-      </c>
-      <c r="H95" s="83" t="s">
-        <v>818</v>
-      </c>
-      <c r="I95" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="K95" s="49" t="s">
-        <v>778</v>
-      </c>
-      <c r="L95" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="80"/>
-      <c r="C96" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="50" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E96" s="83" t="s">
-        <v>495</v>
-      </c>
-      <c r="F96" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="G96" s="83">
-        <v>1</v>
-      </c>
-      <c r="H96" s="83" t="s">
-        <v>819</v>
-      </c>
-      <c r="I96" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="K96" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="80"/>
-      <c r="C97" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="50" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E97" s="83" t="s">
-        <v>495</v>
-      </c>
-      <c r="F97" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="G97" s="83">
-        <v>1</v>
-      </c>
-      <c r="H97" s="83" t="s">
-        <v>820</v>
-      </c>
-      <c r="I97" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="K97" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="80"/>
-      <c r="C98" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D98" s="50" t="s">
-        <v>905</v>
-      </c>
-      <c r="E98" s="50" t="s">
-        <v>611</v>
-      </c>
-      <c r="F98" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G98" s="83"/>
-      <c r="H98" s="50" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="80"/>
       <c r="C99" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D99" s="50" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E99" s="83" t="s">
-        <v>817</v>
+        <v>1031</v>
       </c>
       <c r="F99" s="49" t="s">
         <v>194</v>
       </c>
       <c r="G99" s="83">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H99" s="83" t="s">
-        <v>1035</v>
+        <v>818</v>
       </c>
       <c r="I99" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="K99" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="L99" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="80"/>
+      <c r="C100" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="50" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E100" s="83" t="s">
+        <v>495</v>
+      </c>
+      <c r="F100" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="G100" s="83">
+        <v>1</v>
+      </c>
+      <c r="H100" s="83" t="s">
+        <v>819</v>
+      </c>
+      <c r="I100" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="K99" s="49" t="s">
+      <c r="K100" s="49" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="81"/>
-      <c r="C100" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D100" s="50" t="s">
-        <v>904</v>
-      </c>
-      <c r="E100" s="83" t="s">
-        <v>817</v>
-      </c>
-      <c r="F100" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G100" s="83"/>
-      <c r="H100" s="50" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="81"/>
+    <row r="101" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="80"/>
       <c r="C101" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D101" s="55" t="s">
-        <v>903</v>
+      <c r="D101" s="50" t="s">
+        <v>1033</v>
       </c>
       <c r="E101" s="83" t="s">
-        <v>817</v>
-      </c>
-      <c r="F101" s="55" t="s">
+        <v>495</v>
+      </c>
+      <c r="F101" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="G101" s="55">
+      <c r="G101" s="83">
         <v>1</v>
       </c>
-      <c r="H101" s="55" t="s">
-        <v>1037</v>
+      <c r="H101" s="83" t="s">
+        <v>820</v>
       </c>
       <c r="I101" s="49" t="s">
         <v>500</v>
@@ -22087,1416 +22349,1542 @@
         <v>782</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="80"/>
       <c r="C102" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D102" s="55" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E102" s="83" t="s">
-        <v>817</v>
-      </c>
-      <c r="F102" s="55" t="s">
+      <c r="D102" s="50" t="s">
+        <v>905</v>
+      </c>
+      <c r="E102" s="50" t="s">
+        <v>611</v>
+      </c>
+      <c r="F102" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="83"/>
+      <c r="H102" s="50" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="80"/>
       <c r="C103" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D103" s="49" t="s">
-        <v>902</v>
-      </c>
-      <c r="E103" s="49" t="s">
-        <v>483</v>
+      <c r="D103" s="50" t="s">
+        <v>901</v>
+      </c>
+      <c r="E103" s="83" t="s">
+        <v>817</v>
       </c>
       <c r="F103" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G103" s="49">
+        <v>194</v>
+      </c>
+      <c r="G103" s="83">
         <v>0.1</v>
       </c>
-      <c r="H103" s="49" t="s">
-        <v>1040</v>
+      <c r="H103" s="83" t="s">
+        <v>1035</v>
       </c>
       <c r="I103" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="N103" s="49" t="s">
+      <c r="K103" s="49" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="80"/>
+    <row r="104" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="81"/>
       <c r="C104" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="49" t="s">
-        <v>850</v>
-      </c>
-      <c r="E104" s="49" t="s">
-        <v>483</v>
+      <c r="D104" s="50" t="s">
+        <v>904</v>
+      </c>
+      <c r="E104" s="83" t="s">
+        <v>817</v>
       </c>
       <c r="F104" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G104" s="49">
+        <v>195</v>
+      </c>
+      <c r="G104" s="83"/>
+      <c r="H104" s="50" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="81"/>
+      <c r="C105" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="55" t="s">
+        <v>903</v>
+      </c>
+      <c r="E105" s="83" t="s">
+        <v>817</v>
+      </c>
+      <c r="F105" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G105" s="55">
         <v>1</v>
       </c>
-      <c r="H104" s="49" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I104" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="L104" s="49" t="s">
-        <v>1093</v>
-      </c>
-      <c r="M104" s="49" t="s">
-        <v>1118</v>
-      </c>
-      <c r="N104" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="80"/>
-      <c r="C105" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D105" s="49" t="s">
-        <v>914</v>
-      </c>
-      <c r="E105" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="F105" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="H105" s="49" t="s">
-        <v>1042</v>
+      <c r="H105" s="55" t="s">
+        <v>1037</v>
       </c>
       <c r="I105" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="M105" s="49" t="s">
+      <c r="K105" s="49" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="80"/>
       <c r="C106" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D106" s="49" t="s">
-        <v>915</v>
-      </c>
-      <c r="E106" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="F106" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="H106" s="49" t="s">
-        <v>1022</v>
-      </c>
-      <c r="N106" s="49" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D106" s="55" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E106" s="83" t="s">
+        <v>817</v>
+      </c>
+      <c r="F106" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G106" s="55"/>
+      <c r="H106" s="55" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="80"/>
       <c r="C107" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D107" s="49" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="E107" s="49" t="s">
-        <v>1043</v>
+        <v>483</v>
       </c>
       <c r="F107" s="49" t="s">
         <v>184</v>
       </c>
       <c r="G107" s="49">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H107" s="49" t="s">
-        <v>1023</v>
+        <v>1040</v>
+      </c>
+      <c r="I107" s="49" t="s">
+        <v>500</v>
       </c>
       <c r="N107" s="49" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="81"/>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="80"/>
       <c r="C108" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D108" s="49" t="s">
-        <v>975</v>
+        <v>850</v>
       </c>
       <c r="E108" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="F108" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="G108" s="55">
+      <c r="F108" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G108" s="49">
         <v>1</v>
       </c>
-      <c r="H108" s="55" t="s">
-        <v>1045</v>
+      <c r="H108" s="49" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I108" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="L108" s="49" t="s">
+        <v>1093</v>
       </c>
       <c r="M108" s="49" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="N108" s="49" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
-      <c r="C109" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D109" s="55" t="s">
-        <v>842</v>
-      </c>
-      <c r="E109" s="56" t="s">
+    <row r="109" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="80"/>
+      <c r="C109" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="49" t="s">
+        <v>914</v>
+      </c>
+      <c r="E109" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="F109" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="H109" s="49" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I109" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="M109" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="80"/>
+      <c r="C110" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="49" t="s">
+        <v>915</v>
+      </c>
+      <c r="E110" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="F110" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H110" s="49" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N110" s="49" t="s">
+        <v>808</v>
+      </c>
+      <c r="O110" s="49" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="80"/>
+      <c r="C111" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="49" t="s">
+        <v>909</v>
+      </c>
+      <c r="E111" s="49" t="s">
         <v>1043</v>
       </c>
-      <c r="F109" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="G109" s="55">
+      <c r="F111" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G111" s="49">
         <v>1</v>
       </c>
-      <c r="H109" s="55" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I109" s="49"/>
-      <c r="K109" s="55" t="s">
-        <v>778</v>
-      </c>
-      <c r="L109" s="55" t="s">
-        <v>985</v>
-      </c>
-      <c r="M109" s="49" t="s">
-        <v>1119</v>
-      </c>
-      <c r="N109" s="55" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
-      <c r="C110" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D110" s="55" t="s">
-        <v>843</v>
-      </c>
-      <c r="E110" s="56" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F110" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="G110" s="55">
+      <c r="H111" s="49" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N111" s="49" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="81"/>
+      <c r="C112" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="49" t="s">
+        <v>975</v>
+      </c>
+      <c r="E112" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="F112" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="G112" s="55">
         <v>1</v>
       </c>
-      <c r="H110" s="55" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I110" s="49"/>
-      <c r="K110" s="55" t="s">
-        <v>778</v>
-      </c>
-      <c r="L110" s="55" t="s">
-        <v>985</v>
-      </c>
-      <c r="M110" s="49" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
-      <c r="C111" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="55" t="s">
-        <v>844</v>
-      </c>
-      <c r="E111" s="56" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F111" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="G111" s="55">
-        <v>1</v>
-      </c>
-      <c r="H111" s="55" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I111" s="49"/>
-      <c r="L111" s="55" t="s">
-        <v>1094</v>
-      </c>
-      <c r="M111" s="49" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
-      <c r="C112" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="55" t="s">
-        <v>976</v>
-      </c>
-      <c r="E112" s="56" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F112" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="G112" s="55">
-        <v>2</v>
-      </c>
       <c r="H112" s="55" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I112" s="49"/>
+        <v>1045</v>
+      </c>
+      <c r="I112" s="49" t="s">
+        <v>500</v>
+      </c>
       <c r="M112" s="49" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N112" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="48"/>
-      <c r="C113" s="49" t="s">
+      <c r="C113" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>1051</v>
+        <v>842</v>
       </c>
       <c r="E113" s="56" t="s">
         <v>1043</v>
       </c>
       <c r="F113" s="55" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G113" s="55">
         <v>1</v>
       </c>
       <c r="H113" s="55" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I113" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="L113" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1048</v>
+      </c>
+      <c r="I113" s="49"/>
+      <c r="K113" s="55" t="s">
+        <v>778</v>
+      </c>
+      <c r="L113" s="55" t="s">
+        <v>985</v>
+      </c>
+      <c r="M113" s="49" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N113" s="55" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="48"/>
-      <c r="C114" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D114" s="49" t="s">
-        <v>913</v>
-      </c>
-      <c r="E114" s="49" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F114" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G114" s="49">
+      <c r="C114" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="55" t="s">
+        <v>843</v>
+      </c>
+      <c r="E114" s="56" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F114" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G114" s="55">
         <v>1</v>
       </c>
-      <c r="H114" s="49" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I114" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="L114" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="55" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I114" s="49"/>
+      <c r="K114" s="55" t="s">
+        <v>778</v>
+      </c>
+      <c r="L114" s="55" t="s">
+        <v>985</v>
+      </c>
+      <c r="M114" s="49" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="48"/>
-      <c r="C115" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D115" s="49" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E115" s="49" t="s">
-        <v>911</v>
-      </c>
-      <c r="F115" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G115" s="49">
-        <v>5</v>
-      </c>
-      <c r="H115" s="49" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="55" t="s">
+        <v>844</v>
+      </c>
+      <c r="E115" s="56" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F115" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="G115" s="55">
+        <v>1</v>
+      </c>
+      <c r="H115" s="55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I115" s="49"/>
+      <c r="L115" s="55" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M115" s="49" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="48"/>
-      <c r="C116" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D116" s="49" t="s">
-        <v>912</v>
+      <c r="C116" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="55" t="s">
+        <v>976</v>
       </c>
       <c r="E116" s="56" t="s">
         <v>1043</v>
       </c>
-      <c r="F116" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G116" s="49">
-        <v>0.7</v>
-      </c>
-      <c r="H116" s="49" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F116" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="G116" s="55">
+        <v>2</v>
+      </c>
+      <c r="H116" s="55" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I116" s="49"/>
+      <c r="M116" s="49" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="48"/>
       <c r="C117" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D117" s="49" t="s">
+      <c r="D117" s="55" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E117" s="56" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F117" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="G117" s="55">
+        <v>1</v>
+      </c>
+      <c r="H117" s="55" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I117" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L117" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="48"/>
+      <c r="C118" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="49" t="s">
+        <v>913</v>
+      </c>
+      <c r="E118" s="49" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F118" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G118" s="49">
+        <v>1</v>
+      </c>
+      <c r="H118" s="49" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I118" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L118" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="48"/>
+      <c r="C119" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="49" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E119" s="49" t="s">
+        <v>911</v>
+      </c>
+      <c r="F119" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G119" s="49">
+        <v>5</v>
+      </c>
+      <c r="H119" s="49" t="s">
+        <v>1054</v>
+      </c>
+      <c r="O119" s="49" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="48"/>
+      <c r="C120" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" s="49" t="s">
+        <v>912</v>
+      </c>
+      <c r="E120" s="56" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F120" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G120" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="H120" s="49" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O120" s="49" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="48"/>
+      <c r="C121" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" s="49" t="s">
         <v>919</v>
       </c>
-      <c r="E117" s="49" t="s">
+      <c r="E121" s="49" t="s">
         <v>1043</v>
       </c>
-      <c r="F117" s="49" t="s">
+      <c r="F121" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="L117" s="49" t="s">
+      <c r="L121" s="49" t="s">
         <v>985</v>
       </c>
-      <c r="M117" s="49" t="s">
+      <c r="M121" s="49" t="s">
         <v>1119</v>
       </c>
-      <c r="N117" s="49" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="81"/>
-      <c r="C118" s="49" t="s">
+      <c r="N121" s="49" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="81"/>
+      <c r="C122" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D118" s="49" t="s">
+      <c r="D122" s="49" t="s">
         <v>1044</v>
       </c>
-      <c r="E118" s="56" t="s">
+      <c r="E122" s="56" t="s">
         <v>1043</v>
       </c>
-      <c r="F118" s="56" t="s">
+      <c r="F122" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="G118" s="55">
+      <c r="G122" s="55">
         <v>3</v>
       </c>
-      <c r="H118" s="55" t="s">
+      <c r="H122" s="55" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="81"/>
-      <c r="C119" s="49" t="s">
+    <row r="123" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="81"/>
+      <c r="C123" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D119" s="55" t="s">
+      <c r="D123" s="55" t="s">
         <v>1046</v>
       </c>
-      <c r="E119" s="56" t="s">
+      <c r="E123" s="56" t="s">
         <v>1043</v>
       </c>
-      <c r="F119" s="55"/>
-      <c r="G119" s="55"/>
-      <c r="H119" s="55" t="s">
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="81"/>
-      <c r="C120" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D120" s="55" t="s">
+    <row r="124" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="81"/>
+      <c r="C124" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="55" t="s">
         <v>1109</v>
       </c>
-      <c r="E120" s="56" t="s">
+      <c r="E124" s="56" t="s">
         <v>483</v>
       </c>
-      <c r="F120" s="55" t="s">
+      <c r="F124" s="55" t="s">
         <v>810</v>
       </c>
-      <c r="G120" s="55">
+      <c r="G124" s="55">
         <v>0.6</v>
       </c>
-      <c r="H120" s="55" t="s">
+      <c r="H124" s="55" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="121" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="81"/>
-      <c r="C121" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D121" s="55" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E121" s="56" t="s">
-        <v>483</v>
-      </c>
-      <c r="F121" s="55" t="s">
-        <v>810</v>
-      </c>
-      <c r="G121" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="H121" s="55" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="81"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="56"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
-    </row>
-    <row r="123" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="81"/>
-      <c r="E123" s="56"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="55"/>
-    </row>
-    <row r="124" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
-      <c r="B124" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C124" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D124" s="55" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E124" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="F124" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="H124" s="55" t="s">
-        <v>765</v>
-      </c>
-      <c r="I124" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="K124" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="81"/>
       <c r="C125" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D125" s="55" t="s">
-        <v>910</v>
+        <v>1110</v>
       </c>
       <c r="E125" s="56" t="s">
-        <v>911</v>
-      </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="55"/>
-    </row>
-    <row r="126" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="F125" s="55" t="s">
+        <v>810</v>
+      </c>
+      <c r="G125" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="H125" s="55" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="81"/>
       <c r="D126" s="55"/>
       <c r="E126" s="56"/>
-      <c r="F126" s="56"/>
+      <c r="F126" s="55"/>
       <c r="G126" s="55"/>
       <c r="H126" s="55"/>
     </row>
-    <row r="127" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="80"/>
-      <c r="B127" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="C127" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D127" s="55" t="s">
-        <v>977</v>
-      </c>
-      <c r="E127" s="61" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F127" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="G127" s="49">
-        <v>2</v>
-      </c>
-      <c r="H127" s="49" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I127" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="L127" s="49" t="s">
-        <v>778</v>
-      </c>
-      <c r="M127" s="49" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="80"/>
+    <row r="127" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="81"/>
+      <c r="E127" s="56"/>
+      <c r="F127" s="56"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="55"/>
+    </row>
+    <row r="128" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="48"/>
+      <c r="B128" s="49" t="s">
+        <v>155</v>
+      </c>
       <c r="C128" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D128" s="49" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E128" s="49" t="s">
-        <v>1043</v>
+      <c r="D128" s="55" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E128" s="56" t="s">
+        <v>232</v>
       </c>
       <c r="F128" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="N128" s="49" t="s">
+      <c r="H128" s="55" t="s">
+        <v>765</v>
+      </c>
+      <c r="I128" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="K128" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="81"/>
+      <c r="C129" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="55" t="s">
+        <v>910</v>
+      </c>
+      <c r="E129" s="56" t="s">
+        <v>911</v>
+      </c>
+      <c r="F129" s="56"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="55"/>
+    </row>
+    <row r="130" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="81"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="56"/>
+      <c r="F130" s="56"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="55"/>
+    </row>
+    <row r="131" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="80"/>
+      <c r="B131" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="55" t="s">
+        <v>977</v>
+      </c>
+      <c r="E131" s="61" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F131" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="G131" s="49">
+        <v>2</v>
+      </c>
+      <c r="H131" s="49" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I131" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="L131" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="M131" s="49" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="80"/>
+      <c r="C132" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E132" s="49" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F132" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="N132" s="49" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="80"/>
-      <c r="B129" s="55"/>
-      <c r="C129" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D129" s="55" t="s">
+    <row r="133" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="80"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="55" t="s">
         <v>605</v>
       </c>
-      <c r="E129" s="61" t="s">
+      <c r="E133" s="61" t="s">
         <v>1063</v>
       </c>
-      <c r="F129" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G129" s="49">
-        <v>2</v>
-      </c>
-      <c r="H129" s="49" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="80"/>
-      <c r="B130" s="55"/>
-      <c r="C130" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D130" s="55" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E130" s="61" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G130" s="49">
-        <v>2</v>
-      </c>
-      <c r="H130" s="49" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="80"/>
-      <c r="B131" s="55"/>
-      <c r="C131" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D131" s="55" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E131" s="61" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F131" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="H131" s="49" t="s">
-        <v>1068</v>
-      </c>
-      <c r="N131" s="49" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="80"/>
-      <c r="C132" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132" s="55" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E132" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="F132" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="H132" s="49" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="80"/>
-      <c r="C133" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="E133" s="49" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F133" s="55" t="s">
+      <c r="F133" s="49" t="s">
         <v>195</v>
       </c>
       <c r="G133" s="49">
         <v>2</v>
       </c>
       <c r="H133" s="49" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="48"/>
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="80"/>
+      <c r="B134" s="55"/>
       <c r="C134" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D134" s="55" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E134" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="F134" s="55" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E134" s="61" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G134" s="49">
+        <v>2</v>
+      </c>
+      <c r="H134" s="49" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="80"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" s="55" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E135" s="61" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F135" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="G134" s="49">
-        <v>1</v>
-      </c>
-      <c r="H134" s="49" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I134" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="N134" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
-      <c r="C135" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D135" s="55" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E135" s="49" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F135" s="55" t="s">
-        <v>1138</v>
-      </c>
       <c r="H135" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N135" s="49" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
-    </row>
-    <row r="137" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
-      <c r="B137" s="55" t="s">
-        <v>156</v>
-      </c>
+      <c r="O135" s="49" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="80"/>
+      <c r="C136" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="55" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E136" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="F136" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="H136" s="49" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="80"/>
       <c r="C137" s="55" t="s">
-        <v>1073</v>
+        <v>49</v>
       </c>
       <c r="D137" s="55" t="s">
-        <v>1074</v>
+        <v>249</v>
       </c>
       <c r="E137" s="49" t="s">
         <v>1071</v>
       </c>
       <c r="F137" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G137" s="49">
+        <v>2</v>
+      </c>
+      <c r="H137" s="49" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="48"/>
+      <c r="C138" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="55" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E138" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="F138" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G138" s="49">
+        <v>1</v>
+      </c>
+      <c r="H138" s="49" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I138" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="N138" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="48"/>
+      <c r="C139" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" s="55" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E139" s="49" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F139" s="55" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H139" s="49" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I139" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="O139" s="49" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="48"/>
+    </row>
+    <row r="141" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="48"/>
+      <c r="B141" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C141" s="55" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D141" s="55" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E141" s="49" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F141" s="55" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="48"/>
-      <c r="B138" s="55"/>
-      <c r="C138" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="55" t="s">
+      <c r="I141" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="O141" s="49" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="48"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" s="55" t="s">
         <v>978</v>
       </c>
-      <c r="E138" s="49" t="s">
+      <c r="E142" s="49" t="s">
         <v>1071</v>
       </c>
-      <c r="F138" s="55" t="s">
+      <c r="F142" s="55" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
-      <c r="B139" s="55"/>
-      <c r="C139" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" s="55" t="s">
+      <c r="I142" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="O142" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="48"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="55" t="s">
         <v>1075</v>
       </c>
-      <c r="E139" s="49" t="s">
+      <c r="E143" s="49" t="s">
         <v>1071</v>
       </c>
-      <c r="F139" s="55" t="s">
+      <c r="F143" s="55" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="80"/>
-      <c r="B140" s="55"/>
-      <c r="C140" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D140" s="55" t="s">
-        <v>616</v>
-      </c>
-      <c r="E140" s="61" t="s">
-        <v>839</v>
-      </c>
-      <c r="F140" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G140" s="49">
-        <v>5</v>
-      </c>
-      <c r="H140" s="49" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I140" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="N140" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="80"/>
-      <c r="B141" s="55"/>
-      <c r="C141" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="55" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E141" s="61" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F141" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="G141" s="49">
-        <v>1</v>
-      </c>
-      <c r="H141" s="49" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I141" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="L141" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="80"/>
-    </row>
-    <row r="143" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="80"/>
-      <c r="B143" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="C143" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D143" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="E143" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="F143" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="N143" s="49" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I143" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="O143" s="49" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="80"/>
       <c r="B144" s="55"/>
       <c r="C144" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D144" s="55" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E144" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="F144" s="56" t="s">
+        <v>616</v>
+      </c>
+      <c r="E144" s="61" t="s">
+        <v>839</v>
+      </c>
+      <c r="F144" s="49" t="s">
         <v>184</v>
       </c>
+      <c r="G144" s="49">
+        <v>5</v>
+      </c>
+      <c r="H144" s="49" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I144" s="49" t="s">
+        <v>500</v>
+      </c>
       <c r="N144" s="49" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="80"/>
       <c r="B145" s="55"/>
       <c r="C145" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D145" s="55" t="s">
-        <v>612</v>
-      </c>
-      <c r="E145" s="56" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E145" s="61" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F145" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="G145" s="49">
+        <v>1</v>
+      </c>
+      <c r="H145" s="49" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I145" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L145" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="81"/>
+      <c r="C146" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="49" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E146" s="56" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F146" s="56"/>
+      <c r="G146" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="H146" s="55" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="80"/>
+    </row>
+    <row r="148" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="80"/>
+      <c r="B148" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="E148" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F145" s="56" t="s">
+      <c r="F148" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="N145" s="49" t="s">
+      <c r="I148" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="N148" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="O148" s="49" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="146" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="80"/>
-      <c r="B146" s="55"/>
-      <c r="C146" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D146" s="55" t="s">
-        <v>615</v>
-      </c>
-      <c r="E146" s="56" t="s">
-        <v>614</v>
-      </c>
-      <c r="F146" s="56" t="s">
+    <row r="149" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="80"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" s="55" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E149" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F149" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="N146" s="49" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="80"/>
-      <c r="C147" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D147" s="55" t="s">
-        <v>918</v>
-      </c>
-      <c r="E147" s="56" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="80"/>
-      <c r="D148" s="55"/>
-      <c r="E148" s="56"/>
-    </row>
-    <row r="149" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="80"/>
-      <c r="B149" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="C149" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D149" s="49" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I149" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="N149" s="49" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="80"/>
       <c r="B150" s="55"/>
-      <c r="C150" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D150" s="49" t="s">
-        <v>609</v>
-      </c>
-      <c r="E150" s="49" t="s">
-        <v>611</v>
-      </c>
-      <c r="F150" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G150" s="49">
-        <v>2</v>
-      </c>
-      <c r="H150" s="49" t="s">
-        <v>1079</v>
+      <c r="C150" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D150" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="E150" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F150" s="56" t="s">
+        <v>184</v>
       </c>
       <c r="I150" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="L150" s="49" t="s">
-        <v>782</v>
+        <v>579</v>
       </c>
       <c r="N150" s="49" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="80"/>
       <c r="B151" s="55"/>
-      <c r="C151" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D151" s="49" t="s">
-        <v>610</v>
-      </c>
-      <c r="E151" s="49" t="s">
-        <v>611</v>
-      </c>
-      <c r="F151" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G151" s="49">
-        <v>2</v>
-      </c>
-      <c r="H151" s="49" t="s">
-        <v>773</v>
+      <c r="C151" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D151" s="55" t="s">
+        <v>615</v>
+      </c>
+      <c r="E151" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="F151" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="I151" s="49" t="s">
+        <v>579</v>
       </c>
       <c r="N151" s="49" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+      <c r="O151" s="49" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="80"/>
-      <c r="B152" s="55"/>
-      <c r="C152" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D152" s="49" t="s">
-        <v>917</v>
-      </c>
-      <c r="E152" s="49" t="s">
-        <v>611</v>
-      </c>
-      <c r="F152" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="G152" s="49">
-        <v>1</v>
-      </c>
-      <c r="H152" s="49" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="55" t="s">
+        <v>918</v>
+      </c>
+      <c r="E152" s="56" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="80"/>
-      <c r="B153" s="55"/>
-      <c r="C153" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D153" s="49" t="s">
-        <v>921</v>
-      </c>
-      <c r="E153" s="49" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F153" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H153" s="49" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D153" s="55"/>
+      <c r="E153" s="56"/>
+    </row>
+    <row r="154" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="80"/>
-      <c r="B154" s="55"/>
+      <c r="B154" s="55" t="s">
+        <v>153</v>
+      </c>
       <c r="C154" s="49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D154" s="49" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E154" s="49" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F154" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G154" s="49">
-        <v>1</v>
-      </c>
-      <c r="H154" s="49" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="80"/>
       <c r="B155" s="55"/>
       <c r="C155" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D155" s="49" t="s">
-        <v>1113</v>
+        <v>609</v>
       </c>
       <c r="E155" s="49" t="s">
         <v>611</v>
       </c>
       <c r="F155" s="49" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G155" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" s="49" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1079</v>
+      </c>
+      <c r="I155" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="L155" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="N155" s="49" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O155" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="80"/>
       <c r="B156" s="55"/>
       <c r="C156" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D156" s="49" t="s">
-        <v>1111</v>
+        <v>610</v>
       </c>
       <c r="E156" s="49" t="s">
         <v>611</v>
       </c>
+      <c r="F156" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G156" s="49">
+        <v>2</v>
+      </c>
+      <c r="H156" s="49" t="s">
+        <v>773</v>
+      </c>
       <c r="I156" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="N156" s="49" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O156" s="49" t="s">
         <v>782</v>
       </c>
-      <c r="L156" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="80"/>
       <c r="B157" s="55"/>
-    </row>
-    <row r="158" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D157" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="E157" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F157" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G157" s="49">
+        <v>1</v>
+      </c>
+      <c r="H157" s="49" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="80"/>
-    </row>
-    <row r="159" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="81"/>
-      <c r="B159" s="49" t="s">
-        <v>50</v>
-      </c>
+      <c r="B158" s="55"/>
+      <c r="C158" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="49" t="s">
+        <v>921</v>
+      </c>
+      <c r="E158" s="49" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F158" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H158" s="49" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="80"/>
+      <c r="B159" s="55"/>
       <c r="C159" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D159" s="49" t="s">
-        <v>983</v>
+        <v>1112</v>
       </c>
       <c r="E159" s="49" t="s">
-        <v>483</v>
+        <v>1082</v>
       </c>
       <c r="F159" s="49" t="s">
         <v>188</v>
       </c>
       <c r="G159" s="49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H159" s="49" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1083</v>
+      </c>
+      <c r="O159" s="49" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="80"/>
+      <c r="B160" s="55"/>
       <c r="C160" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D160" s="55" t="s">
-        <v>875</v>
-      </c>
-      <c r="E160" s="56" t="s">
+      <c r="D160" s="49" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E160" s="49" t="s">
         <v>611</v>
       </c>
-      <c r="F160" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="G160" s="55"/>
-      <c r="H160" s="55" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I160" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="L160" s="49" t="s">
-        <v>782</v>
+      <c r="F160" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G160" s="49">
+        <v>1</v>
+      </c>
+      <c r="H160" s="49" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="161" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="80"/>
+      <c r="B161" s="55"/>
       <c r="C161" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D161" s="50" t="s">
-        <v>1088</v>
+        <v>48</v>
+      </c>
+      <c r="D161" s="49" t="s">
+        <v>1111</v>
       </c>
       <c r="E161" s="49" t="s">
         <v>611</v>
       </c>
-      <c r="F161" s="49" t="s">
+      <c r="I161" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L161" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="80"/>
+      <c r="B162" s="55"/>
+    </row>
+    <row r="163" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="80"/>
+    </row>
+    <row r="164" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="81"/>
+      <c r="B164" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C164" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D164" s="49" t="s">
+        <v>983</v>
+      </c>
+      <c r="E164" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="F164" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="G161" s="49">
+      <c r="G164" s="49">
+        <v>4</v>
+      </c>
+      <c r="H164" s="49" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="80"/>
+      <c r="C165" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D165" s="55" t="s">
+        <v>875</v>
+      </c>
+      <c r="E165" s="56" t="s">
+        <v>611</v>
+      </c>
+      <c r="F165" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="G165" s="55"/>
+      <c r="H165" s="55" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I165" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="L165" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="80"/>
+      <c r="C166" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" s="50" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E166" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="F166" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G166" s="49">
         <v>0.5</v>
       </c>
-      <c r="H161" s="49" t="s">
+      <c r="H166" s="49" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="162" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="81"/>
-      <c r="C162" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D162" s="49" t="s">
+    <row r="167" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="81"/>
+      <c r="C167" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D167" s="49" t="s">
         <v>1085</v>
       </c>
-      <c r="E162" s="49" t="s">
+      <c r="E167" s="49" t="s">
         <v>611</v>
       </c>
-      <c r="F162" s="49" t="s">
+      <c r="F167" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="H162" s="49" t="s">
+      <c r="H167" s="49" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="81"/>
-      <c r="C163" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D163" s="49" t="s">
+    <row r="168" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="81"/>
+      <c r="C168" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D168" s="49" t="s">
         <v>1086</v>
       </c>
-      <c r="E163" s="49" t="s">
+      <c r="E168" s="49" t="s">
         <v>611</v>
       </c>
-      <c r="F163" s="56" t="s">
+      <c r="F168" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="G163" s="55"/>
-      <c r="H163" s="55" t="s">
+      <c r="G168" s="55"/>
+      <c r="H168" s="55" t="s">
         <v>1087</v>
       </c>
-      <c r="I163" s="49" t="s">
+      <c r="I168" s="49" t="s">
         <v>782</v>
       </c>
-      <c r="M163" s="49" t="s">
+      <c r="M168" s="49" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="164" spans="1:16" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="81"/>
-      <c r="C164" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D164" s="49" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E164" s="56" t="s">
+    <row r="169" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="81"/>
+      <c r="C169" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D169" s="49" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E169" s="56" t="s">
         <v>1096</v>
       </c>
-      <c r="F164" s="56" t="s">
+      <c r="F169" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="G164" s="55">
+      <c r="G169" s="55">
         <v>0.2</v>
       </c>
-      <c r="H164" s="55" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I164" s="49" t="s">
+      <c r="H169" s="55" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I169" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="N164" s="49" t="s">
+      <c r="N169" s="49" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-    </row>
-    <row r="168" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
+    <row r="170" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="81"/>
+      <c r="C170" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D170" s="49" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E170" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="F170" s="56"/>
+      <c r="G170" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="H170" s="55" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+    </row>
+    <row r="172" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-    </row>
-    <row r="169" spans="1:16" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
-      <c r="B169" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="9"/>
-      <c r="J169" s="8"/>
-    </row>
-    <row r="170" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="8"/>
-    </row>
-    <row r="171" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-      <c r="B171" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="9"/>
-      <c r="J171" s="8"/>
-    </row>
-    <row r="172" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B172" s="2"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
       <c r="I172" s="9"/>
       <c r="J172" s="8"/>
-    </row>
-    <row r="173" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+    </row>
+    <row r="173" spans="1:16" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
       <c r="B173" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C173" s="2"/>
-      <c r="D173" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>985</v>
-      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" s="9"/>
       <c r="J173" s="8"/>
     </row>
-    <row r="174" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
+      <c r="B174" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C174" s="2"/>
-      <c r="D174" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>986</v>
-      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="9"/>
       <c r="J174" s="8"/>
     </row>
-    <row r="175" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
+    <row r="175" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="B175" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -23508,75 +23896,78 @@
     </row>
     <row r="176" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
-      <c r="B176" s="2" t="s">
-        <v>26</v>
+      <c r="B176" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C176" s="2"/>
-      <c r="D176" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>920</v>
-      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
       <c r="I176" s="9"/>
-      <c r="J176" s="9"/>
+      <c r="J176" s="8"/>
     </row>
     <row r="177" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
+      <c r="B177" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2" t="s">
-        <v>855</v>
+        <v>984</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
+        <v>985</v>
+      </c>
+      <c r="F177" s="2"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
       <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
+      <c r="J177" s="8"/>
     </row>
     <row r="178" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="E178" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>986</v>
+      </c>
       <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
       <c r="I178" s="9"/>
-      <c r="J178" s="9"/>
+      <c r="J178" s="8"/>
     </row>
     <row r="179" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="2" t="s">
-        <v>845</v>
-      </c>
+      <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
       <c r="I179" s="9"/>
-      <c r="J179" s="9"/>
+      <c r="J179" s="8"/>
     </row>
     <row r="180" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
+      <c r="B180" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C180" s="2"/>
+      <c r="D180" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>920</v>
+      </c>
       <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
     </row>
@@ -23584,382 +23975,398 @@
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
+      <c r="D181" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>988</v>
+      </c>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
     </row>
     <row r="182" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
-      <c r="B182" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="2" t="s">
+        <v>871</v>
+      </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="9"/>
       <c r="J182" s="9"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
-      <c r="P182" s="2"/>
-    </row>
-    <row r="183" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
-      <c r="B183" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E183" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F183" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G183" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H183" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I183" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J183" s="13"/>
-      <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
-      <c r="M183" s="2"/>
-      <c r="N183" s="2"/>
-      <c r="O183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
     </row>
     <row r="184" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E184" s="25"/>
-      <c r="F184" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G184" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H184" s="27"/>
-      <c r="I184" s="28"/>
-      <c r="J184" s="13"/>
-      <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
-      <c r="O184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
     </row>
     <row r="185" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
-      <c r="B185" s="31"/>
-      <c r="C185" s="31"/>
-      <c r="D185" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E185" s="31"/>
-      <c r="F185" s="31"/>
-      <c r="G185" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H185" s="31"/>
-      <c r="I185" s="30"/>
-      <c r="J185" s="13"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
     </row>
     <row r="186" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
-      <c r="B186" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C186" s="24"/>
-      <c r="D186" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E186" s="24"/>
-      <c r="F186" s="24"/>
-      <c r="G186" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="H186" s="24"/>
-      <c r="I186" s="30"/>
-      <c r="J186" s="13"/>
+      <c r="B186" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
-    </row>
-    <row r="187" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C187" s="31"/>
-      <c r="D187" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E187" s="31"/>
-      <c r="F187" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="G187" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H187" s="31"/>
-      <c r="I187" s="30"/>
+      <c r="P186" s="2"/>
+    </row>
+    <row r="187" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H187" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I187" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="J187" s="13"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
     </row>
     <row r="188" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
       <c r="B188" s="24"/>
       <c r="C188" s="24"/>
-      <c r="D188" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="E188" s="24"/>
-      <c r="F188" s="24"/>
-      <c r="G188" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="H188" s="24"/>
-      <c r="I188" s="30" t="s">
-        <v>172</v>
-      </c>
+      <c r="D188" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E188" s="25"/>
+      <c r="F188" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G188" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H188" s="27"/>
+      <c r="I188" s="28"/>
       <c r="J188" s="13"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
     </row>
     <row r="189" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
       <c r="B189" s="31"/>
       <c r="C189" s="31"/>
       <c r="D189" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E189" s="31"/>
+      <c r="F189" s="31"/>
+      <c r="G189" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H189" s="31"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="13"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+    </row>
+    <row r="190" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C190" s="24"/>
+      <c r="D190" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E190" s="24"/>
+      <c r="F190" s="24"/>
+      <c r="G190" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H190" s="24"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="13"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+    </row>
+    <row r="191" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C191" s="31"/>
+      <c r="D191" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E191" s="31"/>
+      <c r="F191" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G191" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H191" s="31"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="13"/>
+    </row>
+    <row r="192" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E192" s="24"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H192" s="24"/>
+      <c r="I192" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="J192" s="13"/>
+    </row>
+    <row r="193" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="31"/>
+      <c r="C193" s="31"/>
+      <c r="D193" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E189" s="31"/>
-      <c r="F189" s="32"/>
-      <c r="G189" s="26" t="s">
+      <c r="E193" s="31"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="H189" s="31"/>
-      <c r="I189" s="30" t="s">
+      <c r="H193" s="31"/>
+      <c r="I193" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="J189" s="13"/>
-    </row>
-    <row r="190" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="31"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="31" t="s">
+      <c r="J193" s="13"/>
+    </row>
+    <row r="194" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="31"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="E190" s="31"/>
-      <c r="F190" s="32" t="s">
+      <c r="E194" s="31"/>
+      <c r="F194" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="G190" s="26" t="s">
+      <c r="G194" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H190" s="31"/>
-      <c r="I190" s="30" t="s">
+      <c r="H194" s="31"/>
+      <c r="I194" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="J190" s="13"/>
-    </row>
-    <row r="191" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="31"/>
-      <c r="C191" s="31"/>
-      <c r="D191" s="31" t="s">
+      <c r="J194" s="13"/>
+    </row>
+    <row r="195" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="31"/>
+      <c r="C195" s="31"/>
+      <c r="D195" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="E191" s="31"/>
-      <c r="F191" s="32"/>
-      <c r="G191" s="26" t="s">
+      <c r="E195" s="31"/>
+      <c r="F195" s="32"/>
+      <c r="G195" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="H191" s="24" t="s">
+      <c r="H195" s="24" t="s">
         <v>866</v>
       </c>
-      <c r="I191" s="11"/>
-      <c r="J191" s="13"/>
-    </row>
-    <row r="192" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="E192" s="11"/>
-      <c r="F192" s="11"/>
-      <c r="G192" s="45" t="s">
-        <v>562</v>
-      </c>
-      <c r="H192" s="11"/>
-      <c r="I192" s="11"/>
-      <c r="J192" s="13"/>
-    </row>
-    <row r="193" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="E193" s="11"/>
-      <c r="F193" s="78">
-        <v>42438</v>
-      </c>
-      <c r="G193" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H193" s="11"/>
-      <c r="I193" s="11"/>
-      <c r="J193" s="13"/>
-    </row>
-    <row r="194" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="E194" s="11"/>
-      <c r="F194" s="78">
-        <v>42438</v>
-      </c>
-      <c r="G194" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H194" s="11"/>
-      <c r="I194" s="11"/>
-      <c r="J194" s="13"/>
-    </row>
-    <row r="195" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="11"/>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11" t="s">
-        <v>867</v>
-      </c>
-      <c r="E195" s="11"/>
-      <c r="F195" s="78">
-        <v>42438</v>
-      </c>
-      <c r="G195" s="45" t="s">
-        <v>673</v>
-      </c>
-      <c r="H195" s="11"/>
       <c r="I195" s="11"/>
       <c r="J195" s="13"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11" t="s">
-        <v>926</v>
+        <v>572</v>
       </c>
       <c r="E196" s="11"/>
-      <c r="F196" s="78">
-        <v>42445</v>
-      </c>
+      <c r="F196" s="11"/>
       <c r="G196" s="45" t="s">
-        <v>927</v>
+        <v>562</v>
       </c>
       <c r="H196" s="11"/>
       <c r="I196" s="11"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="7"/>
+      <c r="J196" s="13"/>
+    </row>
+    <row r="197" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11" t="s">
-        <v>963</v>
+        <v>621</v>
       </c>
       <c r="E197" s="11"/>
       <c r="F197" s="78">
         <v>42438</v>
       </c>
       <c r="G197" s="45" t="s">
-        <v>964</v>
+        <v>90</v>
       </c>
       <c r="H197" s="11"/>
       <c r="I197" s="11"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="7"/>
+      <c r="J197" s="13"/>
+    </row>
+    <row r="198" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11" t="s">
-        <v>965</v>
+        <v>622</v>
       </c>
       <c r="E198" s="11"/>
       <c r="F198" s="78">
-        <v>42432</v>
+        <v>42438</v>
       </c>
       <c r="G198" s="45" t="s">
-        <v>966</v>
+        <v>90</v>
       </c>
       <c r="H198" s="11"/>
       <c r="I198" s="11"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J198" s="13"/>
+    </row>
+    <row r="199" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
+      <c r="D199" s="11" t="s">
+        <v>867</v>
+      </c>
       <c r="E199" s="11"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
+      <c r="F199" s="78">
+        <v>42438</v>
+      </c>
+      <c r="G199" s="45" t="s">
+        <v>673</v>
+      </c>
       <c r="H199" s="11"/>
       <c r="I199" s="11"/>
+      <c r="J199" s="13"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
+      <c r="D200" s="11" t="s">
+        <v>926</v>
+      </c>
       <c r="E200" s="11"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
+      <c r="F200" s="78">
+        <v>42445</v>
+      </c>
+      <c r="G200" s="45" t="s">
+        <v>927</v>
+      </c>
       <c r="H200" s="11"/>
       <c r="I200" s="11"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="7"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
+      <c r="D201" s="11" t="s">
+        <v>963</v>
+      </c>
       <c r="E201" s="11"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
+      <c r="F201" s="78">
+        <v>42438</v>
+      </c>
+      <c r="G201" s="45" t="s">
+        <v>964</v>
+      </c>
       <c r="H201" s="11"/>
       <c r="I201" s="11"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="7"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
+      <c r="D202" s="11" t="s">
+        <v>965</v>
+      </c>
       <c r="E202" s="11"/>
-      <c r="F202" s="11"/>
-      <c r="G202" s="11"/>
+      <c r="F202" s="78">
+        <v>42432</v>
+      </c>
+      <c r="G202" s="45" t="s">
+        <v>966</v>
+      </c>
       <c r="H202" s="11"/>
       <c r="I202" s="11"/>
     </row>
@@ -23993,43 +24400,71 @@
       <c r="H205" s="11"/>
       <c r="I205" s="11"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="7"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="7"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="7"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="7"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="11"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="11"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -24368,111 +24803,103 @@
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="7"/>
     </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="7"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="7"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="7"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P164">
-    <filterColumn colId="8">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P169"/>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="B173 A169:F171 A168:C168 A136:A139 A109:A117 D149:D157">
-    <cfRule type="cellIs" dxfId="23" priority="46" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B177 A173:F175 A172:C172 A140:A143 A113:A121 D154:D162">
+    <cfRule type="cellIs" dxfId="28" priority="51" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A45">
-    <cfRule type="cellIs" dxfId="21" priority="27" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A16:A49">
+    <cfRule type="cellIs" dxfId="26" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" dxfId="20" priority="24" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A74">
+    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I207">
-    <cfRule type="containsText" dxfId="19" priority="214" operator="containsText" text="取消">
-      <formula>NOT(ISERROR(SEARCH("取消",I207)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A128">
+    <cfRule type="cellIs" dxfId="24" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A64">
+    <cfRule type="cellIs" dxfId="23" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A73">
+    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I204">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I204)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="219" operator="containsText" text="取消">
+      <formula>NOT(ISERROR(SEARCH("取消",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O142">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",O142)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="取消">
+      <formula>NOT(ISERROR(SEARCH("取消",O142)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B192:B1048576 B23:B40 B4:B8 B1:B2 B11:B21 B75:B124 B126:B183 B42:B73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B196:B1048576 B23:B40 B4:B8 B1:B2 B11:B21 B79:B128 B42:B77 B130:B187">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I196:I1048576 I1 I165:I167">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I200:I1048576 I1 I146 I170:I171">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F25 F205:F1048576 F27:F38 F40:F45 F137:F141 F143:F164 F47:F135">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F25 F209:F1048576 F27:F38 F40:F49 F51:F139 F148:F169 F141:F145">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C196:C1048576 C1:C45 C137:C141 C143:C167 C47:C135">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C200:C1048576 C148:C171 C51:C139 C141:C146 C1:C49">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I59 I61:I164">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I147:I169 O142 I65:I145 I2:I63">
       <formula1>"完成,未完成,阻碍,取消,暂停"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I64">
       <formula1>"完成,未完成,阻碍,取消"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" text="阻碍" id="{5D898FF8-F5A4-624B-A0D4-3F03C928378C}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160302'!I55)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" text="未完成" id="{A9654182-F71C-9C48-A228-3AC3C3C16DA2}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160302'!I55)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I60</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -25458,46 +25885,46 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="I1:I3 I74:I1048576 I5:I42 I44:I47">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3 A74:A1048576 A52:A55 B52 C52:F55 G48:XFD73 A56:F73 A5:A42 A44:A47">
-    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 A48:F51">
-    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26465,20 +26892,20 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="I1:I47 I74:I1048576">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A47 A74:A1048576 A52:A55 B52 C52:F55 G48:XFD73 A56:F73">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 A48:F51">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20160224'!$A$1:$S$201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20160302'!$A$1:$P$198</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20160309'!$A$1:$P$172</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20160316'!$A$1:$P$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20160316'!$A$1:$P$146</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4185" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1407">
   <si>
     <t>类别</t>
   </si>
@@ -7184,10 +7184,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>第一二章配置（补充）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>通天塔-金钱，经验副本-副本入口，阵容选择配置</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -8650,6 +8646,74 @@
   </si>
   <si>
     <t>MG-2822</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一二章配置（补充）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2837 MG-2838</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading背景图，人物图删除</t>
+  </si>
+  <si>
+    <t>MG-2840</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2841</t>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚</t>
+    <rPh sb="0" eb="1">
+      <t>jiw'nan</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面大图待安排</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'tu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>an'pai</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">贴图尺寸和大小比例查找工具 </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -9288,7 +9352,7 @@
     <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="145">
+  <dxfs count="142">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10747,36 +10811,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -18420,7 +18454,7 @@
         <v>49</v>
       </c>
       <c r="D66" s="50" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E66" s="49" t="s">
         <v>668</v>
@@ -18700,7 +18734,7 @@
         <v>49</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E79" s="49" t="s">
         <v>648</v>
@@ -18712,7 +18746,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="49" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I79" s="49" t="s">
         <v>774</v>
@@ -19650,7 +19684,7 @@
         <v>48</v>
       </c>
       <c r="D124" s="55" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E124" s="56" t="s">
         <v>610</v>
@@ -22032,7 +22066,7 @@
         <v>919</v>
       </c>
       <c r="I14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="N14" t="s">
         <v>800</v>
@@ -22392,7 +22426,7 @@
         <v>928</v>
       </c>
       <c r="I27" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -22410,7 +22444,7 @@
         <v>929</v>
       </c>
       <c r="I28" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -22606,7 +22640,7 @@
         <v>188</v>
       </c>
       <c r="H38" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -23399,7 +23433,7 @@
         <v>48</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E73" s="49" t="s">
         <v>553</v>
@@ -23417,7 +23451,7 @@
         <v>48</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E74" s="49" t="s">
         <v>553</v>
@@ -23459,10 +23493,10 @@
         <v>49</v>
       </c>
       <c r="D76" s="50" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E76" s="49" t="s">
         <v>1206</v>
-      </c>
-      <c r="E76" s="49" t="s">
-        <v>1207</v>
       </c>
       <c r="F76" s="49" t="s">
         <v>188</v>
@@ -23689,7 +23723,7 @@
         <v>572</v>
       </c>
       <c r="J86" s="76" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -23885,7 +23919,7 @@
         <v>572</v>
       </c>
       <c r="J95" s="79" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="N95" t="s">
         <v>1122</v>
@@ -23918,7 +23952,7 @@
         <v>572</v>
       </c>
       <c r="J96" s="79" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="N96" t="s">
         <v>1121</v>
@@ -24645,7 +24679,7 @@
         <v>48</v>
       </c>
       <c r="D124" s="49" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E124" s="49" t="s">
         <v>1032</v>
@@ -26773,12 +26807,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P310"/>
+  <dimension ref="A1:P313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -26865,8 +26899,14 @@
       <c r="H2" s="76" t="s">
         <v>984</v>
       </c>
+      <c r="I2" s="76" t="s">
+        <v>773</v>
+      </c>
       <c r="L2" t="s">
-        <v>1358</v>
+        <v>1357</v>
+      </c>
+      <c r="N2" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -26893,7 +26933,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -26902,7 +26942,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>843</v>
@@ -26914,7 +26954,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -26923,7 +26963,7 @@
         <v>49</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>814</v>
@@ -26935,7 +26975,7 @@
         <v>3.5</v>
       </c>
       <c r="H6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -26944,7 +26984,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>60</v>
@@ -26956,7 +26996,7 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I7" t="s">
         <v>493</v>
@@ -26971,10 +27011,10 @@
         <v>48</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F8" t="s">
         <v>177</v>
@@ -26983,7 +27023,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>1249</v>
+        <v>1248</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -27012,7 +27055,7 @@
         <v>0.5</v>
       </c>
       <c r="H10" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I10" t="s">
         <v>493</v>
@@ -27048,7 +27091,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>47</v>
@@ -27060,7 +27103,7 @@
         <v>0.25</v>
       </c>
       <c r="H12" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I12" t="s">
         <v>493</v>
@@ -27075,7 +27118,7 @@
         <v>48</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>47</v>
@@ -27087,7 +27130,7 @@
         <v>0.25</v>
       </c>
       <c r="H13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I13" t="s">
         <v>493</v>
@@ -27102,7 +27145,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>47</v>
@@ -27114,7 +27157,7 @@
         <v>0.5</v>
       </c>
       <c r="H14" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -27123,7 +27166,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>47</v>
@@ -27135,7 +27178,7 @@
         <v>0.5</v>
       </c>
       <c r="H15" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I15" t="s">
         <v>493</v>
@@ -27150,7 +27193,7 @@
         <v>48</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>47</v>
@@ -27162,7 +27205,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I16" t="s">
         <v>493</v>
@@ -27171,13 +27214,13 @@
         <v>773</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>47</v>
@@ -27189,7 +27232,7 @@
         <v>0.5</v>
       </c>
       <c r="H17" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I17" t="s">
         <v>493</v>
@@ -27198,13 +27241,13 @@
         <v>773</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>47</v>
@@ -27216,7 +27259,7 @@
         <v>0.5</v>
       </c>
       <c r="H18" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I18" t="s">
         <v>493</v>
@@ -27225,7 +27268,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
         <v>48</v>
@@ -27243,16 +27286,16 @@
         <v>0.5</v>
       </c>
       <c r="H19" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E20" s="76" t="s">
         <v>843</v>
@@ -27264,10 +27307,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
         <v>48</v>
@@ -27288,54 +27331,63 @@
         <v>926</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E22" s="76" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F22" s="76" t="s">
         <v>1233</v>
-      </c>
-      <c r="F22" s="76" t="s">
-        <v>1234</v>
       </c>
       <c r="G22">
         <v>0.25</v>
       </c>
       <c r="H22" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I22" t="s">
         <v>493</v>
       </c>
       <c r="K22" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="C23" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>1154</v>
+        <v>1394</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F23" s="76" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I23" t="s">
+        <v>493</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="D24" s="14"/>
       <c r="E24" s="76"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>58</v>
@@ -27344,7 +27396,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E25" s="76" t="s">
         <v>532</v>
@@ -27356,7 +27408,7 @@
         <v>0.5</v>
       </c>
       <c r="H25" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I25" t="s">
         <v>493</v>
@@ -27365,12 +27417,12 @@
         <v>773</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="D26" s="19"/>
       <c r="E26" s="76"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>43</v>
@@ -27391,16 +27443,16 @@
         <v>0.5</v>
       </c>
       <c r="H27" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E28" s="76" t="s">
         <v>532</v>
@@ -27412,27 +27464,27 @@
         <v>0.5</v>
       </c>
       <c r="H28" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E29" s="76"/>
       <c r="H29" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="D30" s="19"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>50</v>
@@ -27441,7 +27493,7 @@
         <v>48</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E31" s="76" t="s">
         <v>555</v>
@@ -27453,13 +27505,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E32" s="76" t="s">
         <v>555</v>
@@ -27470,32 +27522,38 @@
       <c r="G32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F33" s="76" t="s">
         <v>663</v>
       </c>
       <c r="H33" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1272</v>
+      </c>
+      <c r="N33" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="C34" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E34" s="76" t="s">
         <v>875</v>
@@ -27516,13 +27574,13 @@
         <v>773</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E35" s="76" t="s">
         <v>539</v>
@@ -27534,7 +27592,7 @@
         <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I35" t="s">
         <v>493</v>
@@ -27543,13 +27601,13 @@
         <v>773</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E36" s="76" t="s">
         <v>67</v>
@@ -27561,16 +27619,19 @@
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E37" s="76" t="s">
         <v>67</v>
@@ -27582,16 +27643,19 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+      <c r="N37" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E38" s="76" t="s">
         <v>67</v>
@@ -27603,38 +27667,38 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E39" s="76" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F39" s="76" t="s">
         <v>1216</v>
-      </c>
-      <c r="F39" s="76" t="s">
-        <v>1217</v>
       </c>
       <c r="G39" s="76">
         <v>0.5</v>
       </c>
       <c r="H39" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="D40" s="14"/>
       <c r="E40" s="76"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="80" t="s">
         <v>16</v>
       </c>
@@ -27645,28 +27709,28 @@
         <v>48</v>
       </c>
       <c r="D42" s="49" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E42" s="49" t="s">
         <v>1160</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>1161</v>
       </c>
       <c r="F42" s="49" t="s">
         <v>188</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="81"/>
       <c r="C43" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F43" s="49" t="s">
         <v>188</v>
@@ -27675,19 +27739,19 @@
         <v>3</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="81"/>
       <c r="C44" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="49" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E44" s="49" t="s">
         <v>1368</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>1369</v>
       </c>
       <c r="F44" s="49" t="s">
         <v>175</v>
@@ -27696,19 +27760,25 @@
         <v>1</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1369</v>
+      </c>
+      <c r="I44" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="M44" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="81"/>
       <c r="C45" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F45" s="49" t="s">
         <v>177</v>
@@ -27717,19 +27787,25 @@
         <v>1</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1371</v>
+      </c>
+      <c r="I45" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="N45" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="81"/>
       <c r="C46" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F46" s="49" t="s">
         <v>181</v>
@@ -27738,34 +27814,34 @@
         <v>1</v>
       </c>
       <c r="H46" s="49" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81"/>
       <c r="C47" s="49" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G47" s="49">
         <v>2</v>
       </c>
       <c r="H47" s="49" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="81"/>
       <c r="C48" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E48" s="49" t="s">
         <v>83</v>
@@ -27777,16 +27853,22 @@
         <v>1</v>
       </c>
       <c r="H48" s="49" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1381</v>
+      </c>
+      <c r="I48" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="M48" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="81"/>
       <c r="C49" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="49" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E49" s="49" t="s">
         <v>83</v>
@@ -27798,16 +27880,22 @@
         <v>1.5</v>
       </c>
       <c r="H49" s="49" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+      <c r="I49" s="49" t="s">
+        <v>773</v>
+      </c>
+      <c r="N49" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="81"/>
       <c r="C50" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E50" s="49" t="s">
         <v>83</v>
@@ -27819,16 +27907,16 @@
         <v>1</v>
       </c>
       <c r="H50" s="49" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="81"/>
       <c r="C51" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D51" s="49" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E51" s="49" t="s">
         <v>83</v>
@@ -27840,13 +27928,13 @@
         <v>0.5</v>
       </c>
       <c r="H51" s="49" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="81"/>
     </row>
-    <row r="53" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="81"/>
       <c r="B53" s="49" t="s">
         <v>549</v>
@@ -27855,10 +27943,10 @@
         <v>48</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F53" s="49" t="s">
         <v>175</v>
@@ -27867,19 +27955,25 @@
         <v>2</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1290</v>
+      </c>
+      <c r="M53" s="49" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N53" s="49" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="81"/>
       <c r="C54" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E54" s="49" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F54" s="49" t="s">
         <v>181</v>
@@ -27888,19 +27982,19 @@
         <v>2</v>
       </c>
       <c r="H54" s="49" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="81"/>
       <c r="C55" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F55" s="49" t="s">
         <v>176</v>
@@ -27909,13 +28003,16 @@
         <v>1</v>
       </c>
       <c r="H55" s="49" t="s">
-        <v>1290</v>
+        <v>1289</v>
+      </c>
+      <c r="I55" s="49" t="s">
+        <v>493</v>
       </c>
       <c r="L55" s="49" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="54"/>
       <c r="C56" s="49" t="s">
         <v>49</v>
@@ -27936,115 +28033,118 @@
         <v>723</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="81"/>
       <c r="C57" s="49" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E57" s="49" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G57" s="49">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="81"/>
       <c r="C58" s="49" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F58" s="49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="81"/>
-    </row>
-    <row r="60" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="80"/>
-      <c r="B60" s="49" t="s">
+      <c r="C59" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>669</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="G59" s="49">
+        <v>1</v>
+      </c>
+      <c r="H59" s="49" t="s">
+        <v>1398</v>
+      </c>
+      <c r="N59" s="49" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="81"/>
+      <c r="C60" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E60" s="49" t="s">
+        <v>669</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G60" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H60" s="49" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="81"/>
+    </row>
+    <row r="62" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="80"/>
+      <c r="B62" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="50" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E60" s="49" t="s">
+      <c r="C62" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E62" s="49" t="s">
         <v>553</v>
       </c>
-      <c r="F60" s="49" t="s">
+      <c r="F62" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="G60" s="49">
+      <c r="G62" s="49">
         <v>4</v>
       </c>
-      <c r="H60" s="49" t="s">
+      <c r="H62" s="49" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="80"/>
-      <c r="C61" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="50" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F61" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G61" s="49">
-        <v>2</v>
-      </c>
-      <c r="H61" s="49" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
-      <c r="C62" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="50" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E62" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="F62" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="G62" s="49">
-        <v>1</v>
-      </c>
-      <c r="H62" s="49" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="85"/>
+    <row r="63" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="80"/>
       <c r="C63" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="49" t="s">
-        <v>1206</v>
+        <v>48</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>1292</v>
       </c>
       <c r="E63" s="49" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="F63" s="49" t="s">
         <v>188</v>
@@ -28053,353 +28153,361 @@
         <v>2</v>
       </c>
       <c r="H63" s="49" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="85"/>
+      <c r="C64" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E64" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="G64" s="49">
+        <v>1</v>
+      </c>
+      <c r="H64" s="49" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I64" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="M64" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="85"/>
+      <c r="C65" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E65" s="49" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F65" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" s="49">
+        <v>2</v>
+      </c>
+      <c r="H65" s="49" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>111</v>
       </c>
-      <c r="C65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="76" t="s">
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="76" t="s">
         <v>970</v>
       </c>
-      <c r="E65" s="66" t="s">
+      <c r="E67" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="F65" s="76" t="s">
+      <c r="F67" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="G65">
+      <c r="G67">
         <v>0.5</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H67" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I67" s="76" t="s">
+        <v>493</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>1297</v>
       </c>
-      <c r="I65" s="76"/>
-      <c r="L65" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="C66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="14" t="s">
+      <c r="E68" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="G68">
+        <v>0.75</v>
+      </c>
+      <c r="H68" t="s">
         <v>1298</v>
       </c>
-      <c r="E66" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="F66" s="76" t="s">
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E69" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G69">
+        <v>0.25</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E70" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="F70" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G66">
-        <v>0.75</v>
-      </c>
-      <c r="H66" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="C67" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E67" s="68" t="s">
-        <v>577</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G67">
-        <v>0.25</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="G70">
+        <v>0.5</v>
+      </c>
+      <c r="H70" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="C68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="16" t="s">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="18" t="s">
         <v>1302</v>
-      </c>
-      <c r="E68" s="68" t="s">
-        <v>577</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G68">
-        <v>0.5</v>
-      </c>
-      <c r="H68" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E70" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="F70" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="G70" s="82">
-        <v>1</v>
-      </c>
-      <c r="H70" s="76" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I70" s="76" t="s">
-        <v>493</v>
-      </c>
-      <c r="L70" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="C71" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="68" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E71" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="F71" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="G71" s="82">
-        <v>1</v>
-      </c>
-      <c r="H71" s="76" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I71" s="76" t="s">
-        <v>493</v>
-      </c>
-      <c r="L71" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="C72" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>1175</v>
       </c>
       <c r="E72" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="F72" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="G72" s="76">
+      <c r="F72" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="G72" s="82">
         <v>1</v>
       </c>
       <c r="H72" s="76" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+      <c r="I72" s="76" t="s">
+        <v>493</v>
+      </c>
+      <c r="L72" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="C73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="68" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E73" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="G73" s="82">
+        <v>1</v>
+      </c>
+      <c r="H73" s="76" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I73" s="76" t="s">
+        <v>493</v>
+      </c>
+      <c r="L73" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E74" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="G74" s="76">
+        <v>1</v>
+      </c>
+      <c r="H74" s="76" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="C75" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="18" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E73" s="68" t="s">
+      <c r="D75" s="18" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E75" s="68" t="s">
         <v>577</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F75" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G73" s="76">
+      <c r="G75" s="76">
         <v>1</v>
       </c>
-      <c r="H73" s="76" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C75" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E75" s="68" t="s">
-        <v>710</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H75" s="76" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I75" s="76" t="s">
+        <v>493</v>
+      </c>
+      <c r="N75" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="D76" s="16"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E77" s="68" t="s">
+        <v>710</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="D78" s="16"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" t="s">
         <v>130</v>
       </c>
-      <c r="C77" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E77" s="79" t="s">
+      <c r="C79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E79" s="79" t="s">
         <v>859</v>
       </c>
-      <c r="F77" s="79" t="s">
+      <c r="F79" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="G77">
+      <c r="G79">
         <v>0.5</v>
       </c>
-      <c r="I77" s="76" t="s">
-        <v>493</v>
-      </c>
-      <c r="L77" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="C78" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="79" t="s">
-        <v>858</v>
-      </c>
-      <c r="E78" s="79" t="s">
-        <v>859</v>
-      </c>
-      <c r="F78" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="G78" s="76">
-        <v>1</v>
-      </c>
-      <c r="H78" s="79" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="C79" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="66" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E79" s="68" t="s">
-        <v>710</v>
-      </c>
-      <c r="F79" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="G79" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="H79" s="66" t="s">
-        <v>1312</v>
-      </c>
-      <c r="I79" s="79" t="s">
+      <c r="I79" s="76" t="s">
         <v>493</v>
       </c>
       <c r="L79" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="C80" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="66" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E80" s="68" t="s">
-        <v>710</v>
-      </c>
-      <c r="F80" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="G80" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="H80" s="66" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D80" s="79" t="s">
+        <v>858</v>
+      </c>
+      <c r="E80" s="79" t="s">
+        <v>859</v>
+      </c>
+      <c r="F80" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="G80" s="76">
+        <v>1</v>
+      </c>
+      <c r="H80" s="79" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="C81" t="s">
         <v>48</v>
       </c>
       <c r="D81" s="66" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E81" s="66" t="s">
-        <v>577</v>
+        <v>1169</v>
+      </c>
+      <c r="E81" s="68" t="s">
+        <v>710</v>
       </c>
       <c r="F81" s="66" t="s">
         <v>176</v>
       </c>
       <c r="G81" s="66">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H81" s="66" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="I81" s="79" t="s">
         <v>493</v>
@@ -28408,161 +28516,192 @@
         <v>773</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="C82" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="66" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E82" s="66" t="s">
-        <v>577</v>
+        <v>1170</v>
+      </c>
+      <c r="E82" s="68" t="s">
+        <v>710</v>
       </c>
       <c r="F82" s="66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G82" s="66">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H82" s="66" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1315</v>
+      </c>
+      <c r="I82" s="76" t="s">
+        <v>493</v>
+      </c>
+      <c r="M82" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="C83" t="s">
         <v>48</v>
       </c>
       <c r="D83" s="66" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E83" s="66" t="s">
         <v>577</v>
       </c>
       <c r="F83" s="66" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G83" s="66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="66" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1316</v>
+      </c>
+      <c r="I83" s="79"/>
+      <c r="L83" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="C84" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="79" t="s">
-        <v>1313</v>
+        <v>48</v>
+      </c>
+      <c r="D84" s="66" t="s">
+        <v>1171</v>
       </c>
       <c r="E84" s="66" t="s">
-        <v>1314</v>
-      </c>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="79" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+      <c r="F84" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="G84" s="66">
+        <v>2</v>
+      </c>
+      <c r="H84" s="66" t="s">
+        <v>1317</v>
+      </c>
+      <c r="N84" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E85" s="66" t="s">
+        <v>577</v>
+      </c>
+      <c r="F85" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="G85" s="66">
+        <v>1</v>
+      </c>
+      <c r="H85" s="66" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I85" s="79" t="s">
+        <v>493</v>
+      </c>
+      <c r="N85" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="C86" t="s">
         <v>49</v>
       </c>
-      <c r="D85" s="79" t="s">
+      <c r="D86" s="79" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E86" s="66" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="79" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="79" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E87" s="68" t="s">
+        <v>710</v>
+      </c>
+      <c r="H87" s="79" t="s">
         <v>1309</v>
       </c>
-      <c r="E85" s="68" t="s">
-        <v>710</v>
-      </c>
-      <c r="H85" s="79" t="s">
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="49" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E89" s="49" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H89" s="49" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C87" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="49" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E87" s="49" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H87" s="49" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="80"/>
-      <c r="C88" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" s="49" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E88" s="49" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F88" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="G88" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="H88" s="49" t="s">
-        <v>1334</v>
-      </c>
-      <c r="I88" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="K88" s="49" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="80"/>
-      <c r="C89" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" s="49" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E89" s="49" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G89" s="49">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="80"/>
       <c r="C90" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>1367</v>
+        <v>1223</v>
       </c>
       <c r="E90" s="49" t="s">
-        <v>604</v>
+        <v>1224</v>
+      </c>
+      <c r="F90" s="49" t="s">
+        <v>187</v>
       </c>
       <c r="G90" s="49">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="49" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I90" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="K90" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="80"/>
       <c r="C91" s="49" t="s">
         <v>48</v>
@@ -28570,96 +28709,90 @@
       <c r="D91" s="49" t="s">
         <v>1365</v>
       </c>
-      <c r="E91" s="88" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F91" s="88" t="s">
+      <c r="E91" s="49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F91" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="G91" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="I91" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="N91" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="80"/>
+      <c r="C92" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="49" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E92" s="49" t="s">
+        <v>604</v>
+      </c>
+      <c r="F92" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="G92" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="I92" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="N92" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="80"/>
+      <c r="C93" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="49" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E93" s="88" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F93" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="G91" s="86"/>
-      <c r="H91" s="49" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I91" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="L91" s="49" t="s">
+      <c r="G93" s="86"/>
+      <c r="H93" s="49" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I93" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="L93" s="49" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="81"/>
-      <c r="C92" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="49" t="s">
+    <row r="94" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="81"/>
+      <c r="C94" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="49" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E94" s="56" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F94" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="G94" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="H94" s="55" t="s">
         <v>1340</v>
-      </c>
-      <c r="E92" s="56" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F92" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="G92" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="H92" s="55" t="s">
-        <v>1341</v>
-      </c>
-      <c r="I92" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="L92" s="49" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
-      <c r="C93" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D93" s="49" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E93" s="56" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F93" s="49" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G93" s="49">
-        <v>0.7</v>
-      </c>
-      <c r="H93" s="49" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I93" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="K93" s="49" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
-      <c r="C94" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" s="49" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E94" s="56" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F94" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="G94" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H94" s="49" t="s">
-        <v>1344</v>
       </c>
       <c r="I94" s="49" t="s">
         <v>493</v>
@@ -28668,989 +28801,1067 @@
         <v>773</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="48"/>
       <c r="C95" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D95" s="49" t="s">
-        <v>1322</v>
+        <v>1341</v>
       </c>
       <c r="E95" s="56" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F95" s="49" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G95" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="H95" s="49" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I95" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="K95" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="48"/>
+      <c r="C96" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="49" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E96" s="56" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F96" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="G96" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H96" s="49" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I96" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="L96" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="48"/>
+      <c r="C97" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="49" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E97" s="56" t="s">
         <v>476</v>
       </c>
-      <c r="F95" s="49" t="s">
+      <c r="F97" s="49" t="s">
         <v>1108</v>
       </c>
-      <c r="H95" s="49" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I95" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="L95" s="49" t="s">
+      <c r="H97" s="49" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I97" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="L97" s="49" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="80"/>
-      <c r="C96" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="49" t="s">
+    <row r="98" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="80"/>
+      <c r="C98" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="49" t="s">
         <v>905</v>
       </c>
-      <c r="E96" s="49" t="s">
+      <c r="E98" s="49" t="s">
         <v>1085</v>
       </c>
-      <c r="F96" s="49" t="s">
+      <c r="F98" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="G96" s="49">
+      <c r="G98" s="49">
         <v>2</v>
       </c>
-      <c r="H96" s="49" t="s">
+      <c r="H98" s="49" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="80"/>
-      <c r="C97" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="49" t="s">
+    <row r="99" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="80"/>
+      <c r="C99" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="49" t="s">
         <v>899</v>
       </c>
-      <c r="E97" s="49" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F97" s="49" t="s">
+      <c r="E99" s="49" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F99" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="G97" s="49">
+      <c r="G99" s="49">
         <v>2</v>
       </c>
-      <c r="H97" s="49" t="s">
+      <c r="H99" s="49" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="80"/>
-      <c r="C98" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D98" s="55" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E98" s="56" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F98" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="G98" s="55">
-        <v>3</v>
-      </c>
-      <c r="H98" s="55" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I98" s="49"/>
-      <c r="M98" s="49"/>
-    </row>
-    <row r="99" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="80"/>
-      <c r="C99" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D99" s="55" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E99" s="49" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F99" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="G99" s="55">
-        <v>1</v>
-      </c>
-      <c r="H99" s="55" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I99" s="49"/>
-      <c r="M99" s="49"/>
-    </row>
-    <row r="100" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M99" s="49" t="s">
+        <v>1396</v>
+      </c>
+      <c r="N99" s="49" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="80"/>
       <c r="C100" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D100" s="55" t="s">
-        <v>1338</v>
+        <v>1192</v>
       </c>
       <c r="E100" s="56" t="s">
-        <v>591</v>
+        <v>1202</v>
       </c>
       <c r="F100" s="55" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G100" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100" s="55" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="I100" s="49"/>
       <c r="M100" s="49"/>
     </row>
-    <row r="101" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="81"/>
+    <row r="101" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="80"/>
       <c r="C101" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D101" s="49" t="s">
+      <c r="D101" s="55" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E101" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F101" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="G101" s="55">
+        <v>1</v>
+      </c>
+      <c r="H101" s="55" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I101" s="49"/>
+      <c r="M101" s="49"/>
+    </row>
+    <row r="102" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="80"/>
+      <c r="C102" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="55" t="s">
         <v>1337</v>
-      </c>
-      <c r="E101" s="56" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F101" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="G101" s="55">
-        <v>3</v>
-      </c>
-      <c r="H101" s="55" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="81"/>
-      <c r="C102" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="55" t="s">
-        <v>1204</v>
       </c>
       <c r="E102" s="56" t="s">
         <v>591</v>
       </c>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
+      <c r="F102" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="G102" s="55">
+        <v>1</v>
+      </c>
       <c r="H102" s="55" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+      <c r="I102" s="49"/>
+      <c r="M102" s="49"/>
+    </row>
+    <row r="103" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="81"/>
-      <c r="C103" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D103" s="50" t="s">
-        <v>1178</v>
+      <c r="C103" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="49" t="s">
+        <v>1336</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F103" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="G103" s="55"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="L103" s="49" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="80"/>
-      <c r="C104" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D104" s="49" t="s">
-        <v>1179</v>
+        <v>1219</v>
+      </c>
+      <c r="F103" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="G103" s="55">
+        <v>3</v>
+      </c>
+      <c r="H103" s="55" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="81"/>
+      <c r="C104" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="55" t="s">
+        <v>1203</v>
       </c>
       <c r="E104" s="56" t="s">
         <v>591</v>
       </c>
-      <c r="F104" s="49" t="s">
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="55" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="81"/>
+      <c r="C105" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E105" s="56" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F105" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="L105" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="80"/>
+      <c r="C106" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="49" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E106" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="F106" s="49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="80"/>
-      <c r="C105" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D105" s="49" t="s">
+    <row r="107" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="80"/>
+      <c r="C107" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="49" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E107" s="49" t="s">
         <v>1362</v>
       </c>
-      <c r="E105" s="49" t="s">
+      <c r="F107" s="49" t="s">
+        <v>663</v>
+      </c>
+      <c r="H107" s="49" t="s">
         <v>1363</v>
       </c>
-      <c r="F105" s="49" t="s">
-        <v>663</v>
-      </c>
-      <c r="H105" s="49" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="80"/>
-    </row>
-    <row r="107" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="80"/>
-      <c r="B107" s="49" t="s">
+      <c r="N107" s="49" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="80"/>
+      <c r="D108" s="49" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="80"/>
+    </row>
+    <row r="110" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="80"/>
+      <c r="B110" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C107" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="87" t="s">
+      <c r="C110" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="87" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E110" s="49" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F110" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="H110" s="49" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="80"/>
+      <c r="C111" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="55" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E111" s="49" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F111" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="G111" s="49">
+        <v>4</v>
+      </c>
+      <c r="H111" s="49" t="s">
+        <v>1346</v>
+      </c>
+      <c r="N111" s="49" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="80"/>
+      <c r="C112" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="87" t="s">
         <v>1226</v>
       </c>
-      <c r="E107" s="49" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F107" s="49" t="s">
+      <c r="E112" s="49" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F112" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="H107" s="49" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="80"/>
-      <c r="C108" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D108" s="55" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E108" s="49" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F108" s="49" t="s">
+      <c r="H112" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="80"/>
+    </row>
+    <row r="114" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="80"/>
+      <c r="B114" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C114" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="55" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E114" s="49" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F114" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="G108" s="49">
-        <v>4</v>
-      </c>
-      <c r="H108" s="49" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="80"/>
-      <c r="C109" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D109" s="87" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E109" s="49" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F109" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="H109" s="49" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="80"/>
-    </row>
-    <row r="111" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="80"/>
-      <c r="B111" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="C111" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="55" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E111" s="49" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F111" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="G111" s="49">
+      <c r="G114" s="49">
         <v>1</v>
       </c>
-      <c r="H111" s="49" t="s">
+      <c r="H114" s="49" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="80"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="55" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E112" s="61" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F112" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="G112" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H112" s="49" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I112" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="L112" s="49" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="80"/>
-      <c r="C113" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D113" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="E113" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="F113" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="G113" s="49">
-        <v>1</v>
-      </c>
-      <c r="H113" s="49" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="80"/>
-      <c r="C114" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D114" s="55" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E114" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="F114" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="G114" s="49">
-        <v>3</v>
-      </c>
-      <c r="H114" s="49" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N114" s="49" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="80"/>
       <c r="B115" s="55"/>
       <c r="C115" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D115" s="55" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E115" s="61" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F115" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="G115" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H115" s="49" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I115" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="L115" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="80"/>
+      <c r="C116" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="55" t="s">
+        <v>632</v>
+      </c>
+      <c r="E116" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="F116" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="G116" s="49">
+        <v>1</v>
+      </c>
+      <c r="H116" s="49" t="s">
+        <v>759</v>
+      </c>
+      <c r="I116" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="N116" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="80"/>
+      <c r="C117" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D117" s="55" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E117" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="F117" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="G117" s="49">
+        <v>3</v>
+      </c>
+      <c r="H117" s="49" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="80"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="55" t="s">
         <v>598</v>
       </c>
-      <c r="E115" s="61" t="s">
+      <c r="E118" s="61" t="s">
         <v>592</v>
       </c>
-      <c r="F115" s="49" t="s">
+      <c r="F118" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="G115" s="49">
+      <c r="G118" s="49">
         <v>2</v>
       </c>
-      <c r="H115" s="49" t="s">
+      <c r="H118" s="49" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="80"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D116" s="55" t="s">
+      <c r="I118" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="N118" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="80"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="55" t="s">
         <v>1054</v>
       </c>
-      <c r="E116" s="61" t="s">
+      <c r="E119" s="61" t="s">
         <v>640</v>
       </c>
-      <c r="F116" s="49" t="s">
+      <c r="F119" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="G116" s="49">
+      <c r="G119" s="49">
         <v>2</v>
       </c>
-      <c r="H116" s="49" t="s">
+      <c r="H119" s="49" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="80"/>
-      <c r="C117" s="55"/>
-      <c r="D117" s="55"/>
-      <c r="F117" s="55"/>
-    </row>
-    <row r="118" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="80"/>
-      <c r="B118" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C118" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D118" s="55" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E118" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="F118" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="H118" s="49" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="80"/>
-      <c r="C119" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D119" s="49" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E119" s="49" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F119" s="49" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H119" s="49" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I119" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="N119" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="80"/>
-    </row>
-    <row r="121" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
+      <c r="F120" s="55"/>
+    </row>
+    <row r="121" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="80"/>
       <c r="B121" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" s="55" t="s">
+        <v>654</v>
+      </c>
+      <c r="D121" s="55" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E121" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="F121" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="H121" s="49" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="80"/>
+      <c r="C122" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" s="49" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E122" s="49" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F122" s="49" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H122" s="49" t="s">
+        <v>1348</v>
+      </c>
+      <c r="N122" s="49" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="80"/>
+    </row>
+    <row r="124" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="80"/>
+      <c r="B124" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="C121" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D121" s="55" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E121" s="56" t="s">
+      <c r="C124" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="55" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E124" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="F121" s="56" t="s">
+      <c r="F124" s="56" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="80"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D122" s="55" t="s">
+      <c r="N124" s="49" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="80"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="55" t="s">
         <v>605</v>
       </c>
-      <c r="E122" s="56" t="s">
+      <c r="E125" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="F122" s="56" t="s">
+      <c r="F125" s="56" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="80"/>
-      <c r="B123" s="55"/>
-      <c r="C123" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D123" s="55" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E123" s="56" t="s">
-        <v>607</v>
-      </c>
-      <c r="F123" s="56" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="80"/>
-      <c r="C124" s="55"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="56"/>
-    </row>
-    <row r="125" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="80"/>
-      <c r="B125" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C125" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D125" s="49" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E125" s="49" t="s">
-        <v>604</v>
-      </c>
-      <c r="F125" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="G125" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H125" s="49" t="s">
-        <v>1327</v>
-      </c>
-      <c r="I125" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="L125" s="49" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N125" s="49" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="80"/>
       <c r="B126" s="55"/>
-      <c r="C126" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D126" s="49" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E126" s="49" t="s">
-        <v>604</v>
-      </c>
-      <c r="F126" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="H126" s="49" t="s">
-        <v>1328</v>
+      <c r="C126" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="55" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E126" s="56" t="s">
+        <v>607</v>
+      </c>
+      <c r="F126" s="56" t="s">
+        <v>974</v>
       </c>
       <c r="I126" s="49" t="s">
         <v>493</v>
       </c>
-      <c r="L126" s="49" t="s">
+      <c r="M126" s="49" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="80"/>
-      <c r="C127" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D127" s="49" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E127" s="49" t="s">
-        <v>604</v>
-      </c>
-      <c r="F127" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="G127" s="49">
-        <v>1</v>
-      </c>
-      <c r="H127" s="49" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="55"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="56"/>
+    </row>
+    <row r="128" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="80"/>
-      <c r="B128" s="55"/>
+      <c r="B128" s="55" t="s">
+        <v>146</v>
+      </c>
       <c r="C128" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D128" s="49" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E128" s="49" t="s">
         <v>604</v>
       </c>
       <c r="F128" s="49" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G128" s="49">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H128" s="49" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+      <c r="I128" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="L128" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="80"/>
       <c r="B129" s="55"/>
       <c r="C129" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D129" s="49" t="s">
-        <v>1182</v>
+        <v>1320</v>
       </c>
       <c r="E129" s="49" t="s">
         <v>604</v>
       </c>
       <c r="F129" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G129" s="49">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="H129" s="49" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1327</v>
+      </c>
+      <c r="I129" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="L129" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="80"/>
-      <c r="B130" s="55"/>
       <c r="C130" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D130" s="49" t="s">
-        <v>910</v>
+        <v>1195</v>
       </c>
       <c r="E130" s="49" t="s">
-        <v>1069</v>
+        <v>604</v>
       </c>
       <c r="F130" s="49" t="s">
-        <v>188</v>
+        <v>177</v>
+      </c>
+      <c r="G130" s="49">
+        <v>1</v>
       </c>
       <c r="H130" s="49" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+      <c r="N130" s="49" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="80"/>
       <c r="B131" s="55"/>
       <c r="C131" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="49" t="s">
-        <v>1067</v>
+        <v>1180</v>
       </c>
       <c r="E131" s="49" t="s">
         <v>604</v>
       </c>
       <c r="F131" s="49" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G131" s="49">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H131" s="49" t="s">
-        <v>1325</v>
-      </c>
-      <c r="L131" s="49" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="80"/>
+      <c r="B132" s="55"/>
       <c r="C132" s="49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D132" s="49" t="s">
-        <v>1331</v>
+        <v>1181</v>
       </c>
       <c r="E132" s="49" t="s">
-        <v>1197</v>
+        <v>604</v>
       </c>
       <c r="F132" s="49" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G132" s="49">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H132" s="49" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="80"/>
       <c r="B133" s="55"/>
-    </row>
-    <row r="134" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="81"/>
-      <c r="B134" s="49" t="s">
-        <v>50</v>
-      </c>
+      <c r="C133" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="49" t="s">
+        <v>910</v>
+      </c>
+      <c r="E133" s="49" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F133" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="H133" s="49" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="80"/>
+      <c r="B134" s="55"/>
       <c r="C134" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D134" s="50" t="s">
-        <v>1222</v>
+      <c r="D134" s="49" t="s">
+        <v>1067</v>
       </c>
       <c r="E134" s="49" t="s">
         <v>604</v>
       </c>
       <c r="F134" s="49" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G134" s="49">
         <v>0.5</v>
       </c>
       <c r="H134" s="49" t="s">
-        <v>780</v>
+        <v>1324</v>
       </c>
       <c r="I134" s="49" t="s">
         <v>493</v>
       </c>
       <c r="L134" s="49" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1360</v>
+      </c>
+      <c r="M134" s="49" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="80"/>
       <c r="C135" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D135" s="49" t="s">
-        <v>1242</v>
+        <v>1330</v>
       </c>
       <c r="E135" s="49" t="s">
-        <v>604</v>
+        <v>1196</v>
       </c>
       <c r="F135" s="49" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G135" s="49">
         <v>0.5</v>
       </c>
       <c r="H135" s="49" t="s">
-        <v>1078</v>
+        <v>1331</v>
       </c>
       <c r="I135" s="49" t="s">
         <v>493</v>
       </c>
-      <c r="L135" s="49" t="s">
+      <c r="N135" s="49" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="80"/>
-      <c r="C136" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="49" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E136" s="49" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F136" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="H136" s="49" t="s">
-        <v>1351</v>
-      </c>
-      <c r="L136" s="49" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="80"/>
+      <c r="B136" s="55"/>
+    </row>
+    <row r="137" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="81"/>
+      <c r="B137" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="C137" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D137" s="50" t="s">
-        <v>1352</v>
+        <v>1221</v>
       </c>
       <c r="E137" s="49" t="s">
         <v>604</v>
       </c>
       <c r="F137" s="49" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="G137" s="49">
+        <v>0.5</v>
       </c>
       <c r="H137" s="49" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+      <c r="I137" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="L137" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="80"/>
-      <c r="B138" s="55"/>
       <c r="C138" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D138" s="49" t="s">
-        <v>910</v>
+        <v>1241</v>
       </c>
       <c r="E138" s="49" t="s">
-        <v>1069</v>
+        <v>604</v>
       </c>
       <c r="F138" s="49" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="G138" s="49">
+        <v>0.5</v>
       </c>
       <c r="H138" s="49" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1078</v>
+      </c>
+      <c r="I138" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="L138" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="80"/>
       <c r="C139" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" s="49" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E139" s="49" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F139" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H139" s="49" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L139" s="49" t="s">
+        <v>1359</v>
+      </c>
+      <c r="N139" s="49" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="80"/>
+      <c r="C140" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D139" s="49" t="s">
+      <c r="D140" s="50" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E140" s="49" t="s">
+        <v>604</v>
+      </c>
+      <c r="F140" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="H140" s="49" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="80"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="49" t="s">
+        <v>910</v>
+      </c>
+      <c r="E141" s="49" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F141" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="H141" s="49" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="80"/>
+      <c r="C142" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D142" s="49" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E142" s="49" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F142" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="H142" s="49" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="81"/>
+      <c r="C143" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="49" t="s">
+        <v>915</v>
+      </c>
+      <c r="E143" s="49" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F143" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="H143" s="49" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="81"/>
+      <c r="C144" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144" s="50" t="s">
+        <v>952</v>
+      </c>
+      <c r="E144" s="49" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F144" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G144" s="55"/>
+      <c r="H144" s="55"/>
+      <c r="I144" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="K144" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="81"/>
+      <c r="C145" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" s="50" t="s">
         <v>1186</v>
       </c>
-      <c r="E139" s="49" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F139" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="H139" s="49" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="81"/>
-      <c r="C140" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D140" s="49" t="s">
-        <v>915</v>
-      </c>
-      <c r="E140" s="49" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F140" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="H140" s="49" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="81"/>
-      <c r="C141" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="50" t="s">
-        <v>952</v>
-      </c>
-      <c r="E141" s="49" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F141" s="56" t="s">
+      <c r="E145" s="49" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F145" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="G141" s="55"/>
-      <c r="H141" s="55"/>
-      <c r="I141" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="K141" s="49" t="s">
+      <c r="G145" s="55"/>
+      <c r="H145" s="55"/>
+      <c r="I145" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="K145" s="49" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="81"/>
-      <c r="C142" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D142" s="50" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E142" s="49" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F142" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="G142" s="55"/>
-      <c r="H142" s="55"/>
-      <c r="I142" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="K142" s="49" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="81"/>
-      <c r="E143" s="56"/>
-      <c r="F143" s="56"/>
-      <c r="G143" s="55"/>
-      <c r="H143" s="55"/>
-    </row>
-    <row r="145" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
+    <row r="146" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="81"/>
+      <c r="E146" s="56"/>
+      <c r="F146" s="56"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="55"/>
+    </row>
+    <row r="148" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-    </row>
-    <row r="146" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="8"/>
-    </row>
-    <row r="147" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="8"/>
-    </row>
-    <row r="148" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -29659,11 +29870,17 @@
       <c r="H148" s="8"/>
       <c r="I148" s="9"/>
       <c r="J148" s="8"/>
-    </row>
-    <row r="149" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="10" t="s">
-        <v>24</v>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+    </row>
+    <row r="149" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -29674,26 +29891,25 @@
       <c r="I149" s="9"/>
       <c r="J149" s="8"/>
     </row>
-    <row r="150" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C150" s="2"/>
-      <c r="D150" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>1235</v>
-      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
       <c r="I150" s="9"/>
       <c r="J150" s="8"/>
     </row>
-    <row r="151" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
+    <row r="151" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -29705,7 +29921,9 @@
     </row>
     <row r="152" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
+      <c r="B152" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -29717,31 +29935,32 @@
     </row>
     <row r="153" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
-      <c r="B153" s="2" t="s">
-        <v>26</v>
+      <c r="B153" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E153" s="2"/>
+        <v>841</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>1234</v>
+      </c>
       <c r="F153" s="2"/>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
       <c r="I153" s="9"/>
-      <c r="J153" s="9"/>
+      <c r="J153" s="8"/>
     </row>
     <row r="154" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
       <c r="I154" s="9"/>
-      <c r="J154" s="9"/>
+      <c r="J154" s="8"/>
     </row>
     <row r="155" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
@@ -29750,34 +29969,30 @@
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
       <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
+      <c r="J155" s="8"/>
     </row>
     <row r="156" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
+      <c r="B156" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="D156" s="2" t="s">
+        <v>1165</v>
+      </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
     </row>
     <row r="157" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
-      <c r="B157" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -29786,106 +30001,83 @@
       <c r="H157" s="2"/>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-    </row>
-    <row r="158" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
-      <c r="B158" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F158" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H158" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I158" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J158" s="13"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
     </row>
     <row r="159" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E159" s="25"/>
-      <c r="F159" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="G159" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="H159" s="27"/>
-      <c r="I159" s="28"/>
-      <c r="J159" s="13"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
     </row>
     <row r="160" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
-      <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="E160" s="31"/>
-      <c r="F160" s="31"/>
-      <c r="G160" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="H160" s="31"/>
-      <c r="I160" s="30"/>
-      <c r="J160" s="13"/>
+      <c r="B160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
-    </row>
-    <row r="161" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P160" s="2"/>
+    </row>
+    <row r="161" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
-      <c r="B161" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="H161" s="24"/>
-      <c r="I161" s="30"/>
+      <c r="B161" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I161" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="J161" s="13"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
@@ -29894,254 +30086,291 @@
       <c r="O161" s="2"/>
     </row>
     <row r="162" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="31" t="s">
+      <c r="A162" s="2"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E162" s="25"/>
+      <c r="F162" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G162" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="H162" s="27"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+    </row>
+    <row r="163" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E163" s="31"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H163" s="31"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+    </row>
+    <row r="164" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="H164" s="24"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+    </row>
+    <row r="165" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="31"/>
-      <c r="D162" s="14" t="s">
+      <c r="C165" s="31"/>
+      <c r="D165" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E162" s="31"/>
-      <c r="F162" s="24" t="s">
+      <c r="E165" s="31"/>
+      <c r="F165" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="G162" s="26" t="s">
+      <c r="G165" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H162" s="31"/>
-      <c r="I162" s="30"/>
-      <c r="J162" s="13"/>
-    </row>
-    <row r="163" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="24"/>
-      <c r="C163" s="24"/>
-      <c r="D163" s="24" t="s">
+      <c r="H165" s="31"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="13"/>
+    </row>
+    <row r="166" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="24"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="29" t="s">
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="H163" s="24"/>
-      <c r="I163" s="30" t="s">
+      <c r="H166" s="24"/>
+      <c r="I166" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="J163" s="13"/>
-    </row>
-    <row r="164" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="31"/>
-      <c r="C164" s="31"/>
-      <c r="D164" s="31" t="s">
+      <c r="J166" s="13"/>
+    </row>
+    <row r="167" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="E164" s="31"/>
-      <c r="F164" s="32"/>
-      <c r="G164" s="26" t="s">
+      <c r="E167" s="31"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="H164" s="31"/>
-      <c r="I164" s="30" t="s">
+      <c r="H167" s="31"/>
+      <c r="I167" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="J164" s="13"/>
-    </row>
-    <row r="165" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31" t="s">
+      <c r="J167" s="13"/>
+    </row>
+    <row r="168" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="31"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="E165" s="31"/>
-      <c r="F165" s="32" t="s">
+      <c r="E168" s="31"/>
+      <c r="F168" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G165" s="26" t="s">
+      <c r="G168" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="H165" s="31"/>
-      <c r="I165" s="30" t="s">
+      <c r="H168" s="31"/>
+      <c r="I168" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="J165" s="13"/>
-    </row>
-    <row r="166" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="E166" s="11"/>
-      <c r="F166" s="11"/>
-      <c r="G166" s="45" t="s">
-        <v>555</v>
-      </c>
-      <c r="H166" s="11"/>
-      <c r="I166" s="11"/>
-      <c r="J166" s="13"/>
-    </row>
-    <row r="167" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="E167" s="11"/>
-      <c r="F167" s="78">
-        <v>42438</v>
-      </c>
-      <c r="G167" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="H167" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="I167" s="11"/>
-      <c r="J167" s="13"/>
-    </row>
-    <row r="168" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="E168" s="11"/>
-      <c r="F168" s="78">
-        <v>42445</v>
-      </c>
-      <c r="G168" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="H168" s="11"/>
-      <c r="I168" s="11"/>
       <c r="J168" s="13"/>
     </row>
     <row r="169" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11" t="s">
-        <v>665</v>
+        <v>565</v>
       </c>
       <c r="E169" s="11"/>
-      <c r="F169" s="78">
-        <v>42438</v>
-      </c>
+      <c r="F169" s="11"/>
       <c r="G169" s="45" t="s">
-        <v>666</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>856</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="H169" s="11"/>
       <c r="I169" s="11"/>
       <c r="J169" s="13"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11" t="s">
-        <v>915</v>
+        <v>614</v>
       </c>
       <c r="E170" s="11"/>
       <c r="F170" s="78">
-        <v>42445</v>
+        <v>42438</v>
       </c>
       <c r="G170" s="45" t="s">
-        <v>916</v>
-      </c>
-      <c r="H170" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>856</v>
+      </c>
       <c r="I170" s="11"/>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" s="7"/>
+      <c r="J170" s="13"/>
+    </row>
+    <row r="171" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11" t="s">
-        <v>952</v>
+        <v>615</v>
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="78">
         <v>42445</v>
       </c>
       <c r="G171" s="45" t="s">
-        <v>953</v>
+        <v>83</v>
       </c>
       <c r="H171" s="11"/>
       <c r="I171" s="11"/>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172" s="7"/>
+      <c r="J171" s="13"/>
+    </row>
+    <row r="172" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11" t="s">
-        <v>954</v>
+        <v>665</v>
       </c>
       <c r="E172" s="11"/>
       <c r="F172" s="78">
+        <v>42438</v>
+      </c>
+      <c r="G172" s="45" t="s">
+        <v>666</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="I172" s="11"/>
+      <c r="J172" s="13"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="E173" s="11"/>
+      <c r="F173" s="78">
+        <v>42445</v>
+      </c>
+      <c r="G173" s="45" t="s">
+        <v>916</v>
+      </c>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A174" s="7"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="E174" s="11"/>
+      <c r="F174" s="78">
+        <v>42445</v>
+      </c>
+      <c r="G174" s="45" t="s">
+        <v>953</v>
+      </c>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A175" s="7"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="E175" s="11"/>
+      <c r="F175" s="78">
         <v>42432</v>
       </c>
-      <c r="G172" s="45" t="s">
+      <c r="G175" s="45" t="s">
         <v>955</v>
       </c>
-      <c r="H172" s="11" t="s">
-        <v>1238</v>
-      </c>
-      <c r="I172" s="11"/>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B173" s="30"/>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E173" s="30"/>
-      <c r="F173" s="30"/>
-      <c r="G173" s="84" t="s">
-        <v>778</v>
-      </c>
-      <c r="H173" s="30"/>
-      <c r="I173" s="30"/>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B174" s="30"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="30" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E174" s="30"/>
-      <c r="F174" s="30"/>
-      <c r="G174" s="30" t="s">
+      <c r="H175" s="11" t="s">
         <v>1237</v>
       </c>
-      <c r="H174" s="30"/>
-      <c r="I174" s="30"/>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B175" s="30"/>
-      <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
-      <c r="E175" s="30"/>
-      <c r="F175" s="30"/>
-      <c r="G175" s="30"/>
-      <c r="H175" s="30"/>
-      <c r="I175" s="30"/>
+      <c r="I175" s="11"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B176" s="30"/>
       <c r="C176" s="30"/>
-      <c r="D176" s="30"/>
+      <c r="D176" s="30" t="s">
+        <v>1167</v>
+      </c>
       <c r="E176" s="30"/>
       <c r="F176" s="30"/>
-      <c r="G176" s="30"/>
+      <c r="G176" s="84" t="s">
+        <v>778</v>
+      </c>
       <c r="H176" s="30"/>
       <c r="I176" s="30"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B177" s="30"/>
       <c r="C177" s="30"/>
-      <c r="D177" s="30"/>
+      <c r="D177" s="30" t="s">
+        <v>1235</v>
+      </c>
       <c r="E177" s="30"/>
       <c r="F177" s="30"/>
-      <c r="G177" s="30"/>
+      <c r="G177" s="30" t="s">
+        <v>1236</v>
+      </c>
       <c r="H177" s="30"/>
       <c r="I177" s="30"/>
     </row>
@@ -30155,14 +30384,35 @@
       <c r="H178" s="30"/>
       <c r="I178" s="30"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="7"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="7"/>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="30"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="30"/>
+      <c r="I179" s="30"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="30"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="30"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="30"/>
+      <c r="G180" s="30"/>
+      <c r="H180" s="30"/>
+      <c r="I180" s="30"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="30"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="30"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="30"/>
+      <c r="I181" s="30"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
@@ -30530,10 +30780,19 @@
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="7"/>
     </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="7"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="7"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P143"/>
+  <autoFilter ref="A1:P146"/>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="B150 A145:F148">
+  <conditionalFormatting sqref="B153 A148:F151">
     <cfRule type="cellIs" dxfId="21" priority="47" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -30548,17 +30807,17 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D138:D139">
+  <conditionalFormatting sqref="D141:D142">
     <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D140:D141">
+  <conditionalFormatting sqref="D143:D144">
     <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A95">
+  <conditionalFormatting sqref="A95:A97">
     <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -30575,19 +30834,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I170:I1048576 I132 I143:I144 I28:I38 I57:I86 I104:I110 I91 I1:I26 I40:I55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I173:I1048576 I135 I146:I147 I28:I38 I40:I55 I106:I113 I93 I57:I88 I1:I26">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F173:F1048576 F134:F142 F1:F38 F144 F40:F132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F176:F1048576 F137:F145 F1:F38 F147 F40:F135">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C170:C1048576 C1:C38 C134:C144 C40:C132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C173:C1048576 C1:C38 C137:C147 C40:C135">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I27 I56 I133:I142 I87:I90 I92:I103 I111:I131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I27 I56 I136:I145 I89:I92 I94:I105 I114:I134">
       <formula1>"完成,未完成,阻碍,取消,暂停"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B166:B1048576 B1:B5 B7:B38 B118:B126 B128:B158 B40:B116">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169:B1048576 B1:B5 B7:B38 B121:B129 B131:B161 B40:B119">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30722,16 +30981,16 @@
         <v>48</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G21" s="49">
         <v>2</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -30740,16 +30999,16 @@
         <v>48</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G22" s="49">
         <v>1.5</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -30758,16 +31017,16 @@
         <v>48</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G23" s="49">
         <v>1.5</v>
       </c>
       <c r="H23" s="49" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -30776,7 +31035,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E24" s="49" t="s">
         <v>83</v>
@@ -30785,7 +31044,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -30794,7 +31053,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E25" s="49" t="s">
         <v>83</v>
@@ -30803,7 +31062,7 @@
         <v>0.5</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">

--- a/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20160224" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4450" uniqueCount="1434">
   <si>
     <t>类别</t>
   </si>
@@ -8465,10 +8465,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>MG-2819</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MG-2820</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -8714,6 +8710,148 @@
   </si>
   <si>
     <t xml:space="preserve">贴图尺寸和大小比例查找工具 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2715</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2812</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D-角色整理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫芳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2820</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2803</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效美术需求-黑龙，冰龙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2816</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2817 MG-2818</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2776</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找字体贴图重刷问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2590</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2780</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计表拆分优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划验收</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'shou</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城-充值</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落场景-修改第二批</t>
+    <rPh sb="0" eb="1">
+      <t>cun'luo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di'er</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2819</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2819</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2819</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -8960,7 +9098,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -8968,6 +9106,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9243,7 +9385,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="111">
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -9296,6 +9438,8 @@
     <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
@@ -9351,8 +9495,101 @@
     <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="142">
+  <dxfs count="169">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10811,6 +11048,188 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -16567,313 +16986,313 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I232:I1048576 I202:I203 I1 I123:I134 J128 I4:I58 I60:I120">
-    <cfRule type="containsText" dxfId="141" priority="104" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="150" priority="104" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="105" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="149" priority="105" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208:A214 B208:F208 A220:A1048576 J220:XFD227 C209:C214 E209:E214 G204:XFD208 A215:XFD219 I209:XFD214 A1 A34:A46 A146:A203 A123:A144 A48:A120">
-    <cfRule type="cellIs" dxfId="139" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="103" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B211 A204:F207">
-    <cfRule type="cellIs" dxfId="138" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="101" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107 D105">
-    <cfRule type="cellIs" dxfId="137" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="100" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I228:I231">
-    <cfRule type="containsText" dxfId="136" priority="86" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="145" priority="86" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="87" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="144" priority="87" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I227">
-    <cfRule type="cellIs" dxfId="134" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="83" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I221:I225">
-    <cfRule type="containsText" dxfId="133" priority="81" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="142" priority="81" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="82" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="141" priority="82" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212">
-    <cfRule type="cellIs" dxfId="131" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="80" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J158:J159 J172:J173 J181 I146:I191 J186 J188:J189 I198:I201 I137:I144">
-    <cfRule type="expression" dxfId="130" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="68" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",I137)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="69" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",I137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145">
-    <cfRule type="expression" dxfId="128" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="71" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",I145)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="72" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",I145)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="cellIs" dxfId="126" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="73" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212:F213">
-    <cfRule type="cellIs" dxfId="125" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="61" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2 I7:I18 I4:I5 I21:I32">
-    <cfRule type="containsText" dxfId="124" priority="59" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="133" priority="59" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="60" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="132" priority="60" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A31 A2:A5">
-    <cfRule type="cellIs" dxfId="122" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57 D5 D3">
-    <cfRule type="cellIs" dxfId="121" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="57" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12 D56">
-    <cfRule type="cellIs" dxfId="120" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="56" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="119" priority="54" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="128" priority="54" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="55" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="127" priority="55" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="117" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="53" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:I51">
-    <cfRule type="containsText" dxfId="116" priority="51" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="125" priority="51" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="52" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="124" priority="52" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135:I136">
-    <cfRule type="containsText" dxfId="114" priority="49" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="123" priority="49" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="50" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="122" priority="50" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="112" priority="47" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="121" priority="47" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="48" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="120" priority="48" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="110" priority="45" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="119" priority="45" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="46" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="118" priority="46" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="108" priority="43" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="117" priority="43" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="44" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="116" priority="44" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="106" priority="41" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="115" priority="41" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="42" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="114" priority="42" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="104" priority="39" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="113" priority="39" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="40" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="112" priority="40" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="containsText" dxfId="102" priority="37" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="111" priority="37" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="38" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="110" priority="38" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="containsText" dxfId="100" priority="35" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="109" priority="35" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="36" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="108" priority="36" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:I78">
-    <cfRule type="containsText" dxfId="98" priority="33" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="107" priority="33" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="34" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="106" priority="34" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="containsText" dxfId="96" priority="31" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="105" priority="31" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="32" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="104" priority="32" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="94" priority="29" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="103" priority="29" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="30" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="102" priority="30" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="92" priority="27" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="101" priority="27" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="28" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="100" priority="28" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121:I122">
-    <cfRule type="containsText" dxfId="90" priority="25" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="99" priority="25" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I121)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="26" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="98" priority="26" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I192">
-    <cfRule type="containsText" dxfId="88" priority="23" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="97" priority="23" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I192)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="24" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="96" priority="24" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I193">
-    <cfRule type="containsText" dxfId="86" priority="21" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="95" priority="21" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I193)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="22" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="94" priority="22" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194">
-    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="93" priority="19" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="20" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="92" priority="20" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195">
-    <cfRule type="containsText" dxfId="82" priority="17" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="91" priority="17" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="18" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="90" priority="18" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J183">
-    <cfRule type="expression" dxfId="80" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="15" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",J183)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="16" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",J183)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I196:J196">
-    <cfRule type="containsText" dxfId="78" priority="13" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="14" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="86" priority="14" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197">
-    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I197)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="12" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J176">
-    <cfRule type="expression" dxfId="74" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="9" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",J176)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="10" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",J176)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J137">
-    <cfRule type="expression" dxfId="72" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="7" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",J137)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="8" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",J137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J142">
-    <cfRule type="expression" dxfId="70" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="5" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("阻碍",J142)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="6" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("未完成",J142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I59)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21473,124 +21892,124 @@
   <autoFilter ref="A1:P198"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="I199:I1048576 I132:I134 I1:I128 I136:I172">
-    <cfRule type="containsText" dxfId="66" priority="71" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="75" priority="71" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="72" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="74" priority="72" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199:A1048576 A177:A180 G173:XFD186 A187:A194 A195:XFD198 J187:XFD194 A115:A116 A122 A173:C173 E173:F173 C178:F180 B177:C177 A174:F174 A175:C176 E175:F177 A181:C181 E181:F181 A182:F186 A124 A132:A134 D163:D165 A1:A38 A108:A111 A41:A53 A55:A58 A61:A102 A139:A172 A136:A137">
-    <cfRule type="cellIs" dxfId="64" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="70" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178">
-    <cfRule type="cellIs" dxfId="63" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37 D10">
-    <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="66" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="59" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:A60">
-    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="56" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194">
-    <cfRule type="cellIs" dxfId="59" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="50" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I188:I192">
-    <cfRule type="containsText" dxfId="58" priority="48" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="67" priority="48" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I188)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="49" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="66" priority="49" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I188)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" dxfId="56" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="47" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="cellIs" dxfId="55" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="cellIs" dxfId="54" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A121">
-    <cfRule type="cellIs" dxfId="53" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="cellIs" dxfId="52" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:A126">
-    <cfRule type="cellIs" dxfId="51" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="cellIs" dxfId="50" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:A128">
-    <cfRule type="cellIs" dxfId="49" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="cellIs" dxfId="48" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A107">
-    <cfRule type="cellIs" dxfId="46" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56">
-    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",K56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",K56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K112">
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",K112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",K112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26713,69 +27132,69 @@
   <autoFilter ref="A1:P172"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B180 A176:F178 A175:C175 A143:A146 A116:A124 D157:D165">
-    <cfRule type="cellIs" dxfId="36" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="53" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A49">
-    <cfRule type="cellIs" dxfId="34" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="cellIs" dxfId="32" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="31" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A76">
-    <cfRule type="cellIs" dxfId="30" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I207">
-    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576 J86 J95">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="221" operator="containsText" text="取消">
+    <cfRule type="containsText" dxfId="35" priority="221" operator="containsText" text="取消">
       <formula>NOT(ISERROR(SEARCH("取消",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O145">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",O145)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="取消">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="取消">
       <formula>NOT(ISERROR(SEARCH("取消",O145)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",J96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="取消">
+    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="取消">
       <formula>NOT(ISERROR(SEARCH("取消",J96)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26807,12 +27226,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -26903,13 +27323,13 @@
         <v>773</v>
       </c>
       <c r="L2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="N2" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -26935,6 +27355,12 @@
       <c r="H4" t="s">
         <v>1243</v>
       </c>
+      <c r="I4" t="s">
+        <v>493</v>
+      </c>
+      <c r="O4" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -26955,6 +27381,12 @@
       </c>
       <c r="H5" t="s">
         <v>1243</v>
+      </c>
+      <c r="I5" t="s">
+        <v>572</v>
+      </c>
+      <c r="O5" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -27025,11 +27457,17 @@
       <c r="H8" t="s">
         <v>1248</v>
       </c>
+      <c r="I8" t="s">
+        <v>804</v>
+      </c>
       <c r="N8" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1399</v>
+      </c>
+      <c r="O8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="D9" s="16"/>
       <c r="E9" s="76"/>
@@ -27214,7 +27652,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" t="s">
         <v>48</v>
@@ -27241,7 +27679,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" t="s">
         <v>48</v>
@@ -27268,7 +27706,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
         <v>48</v>
@@ -27288,8 +27726,14 @@
       <c r="H19" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>493</v>
+      </c>
+      <c r="O19" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
         <v>48</v>
@@ -27309,8 +27753,14 @@
       <c r="H20" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>572</v>
+      </c>
+      <c r="O20" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
         <v>48</v>
@@ -27331,7 +27781,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
         <v>48</v>
@@ -27355,16 +27805,16 @@
         <v>493</v>
       </c>
       <c r="K22" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="C23" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E23" s="76" t="s">
         <v>1158</v>
@@ -27373,21 +27823,21 @@
         <v>188</v>
       </c>
       <c r="H23" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I23" t="s">
         <v>493</v>
       </c>
       <c r="M23" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="D24" s="14"/>
       <c r="E24" s="76"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>58</v>
@@ -27417,12 +27867,12 @@
         <v>773</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="D26" s="19"/>
       <c r="E26" s="76"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>43</v>
@@ -27446,7 +27896,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" t="s">
         <v>48</v>
@@ -27467,7 +27917,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
         <v>49</v>
@@ -27475,16 +27925,18 @@
       <c r="D29" s="19" t="s">
         <v>1268</v>
       </c>
-      <c r="E29" s="76"/>
+      <c r="E29" s="76" t="s">
+        <v>538</v>
+      </c>
       <c r="H29" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="D30" s="19"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>50</v>
@@ -27505,7 +27957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
         <v>48</v>
@@ -27526,7 +27978,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
         <v>48</v>
@@ -27547,7 +27999,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="C34" t="s">
         <v>48</v>
@@ -27574,7 +28026,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="C35" t="s">
         <v>48</v>
@@ -27601,7 +28053,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
         <v>48</v>
@@ -27622,10 +28074,10 @@
         <v>1277</v>
       </c>
       <c r="N36" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
         <v>48</v>
@@ -27645,11 +28097,14 @@
       <c r="H37" t="s">
         <v>1278</v>
       </c>
+      <c r="I37" t="s">
+        <v>493</v>
+      </c>
       <c r="N37" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
         <v>49</v>
@@ -27670,7 +28125,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>1217</v>
       </c>
@@ -27689,16 +28144,22 @@
       <c r="H39" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>493</v>
+      </c>
+      <c r="O39" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="D40" s="14"/>
       <c r="E40" s="76"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="80" t="s">
         <v>16</v>
       </c>
@@ -27721,7 +28182,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="81"/>
       <c r="C43" s="49" t="s">
         <v>48</v>
@@ -27741,17 +28202,20 @@
       <c r="H43" s="49" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="49" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="81"/>
       <c r="C44" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="49" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E44" s="49" t="s">
         <v>1367</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>1368</v>
       </c>
       <c r="F44" s="49" t="s">
         <v>175</v>
@@ -27760,7 +28224,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I44" s="49" t="s">
         <v>493</v>
@@ -27769,16 +28233,16 @@
         <v>773</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="81"/>
       <c r="C45" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F45" s="49" t="s">
         <v>177</v>
@@ -27787,7 +28251,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I45" s="49" t="s">
         <v>493</v>
@@ -27796,16 +28260,16 @@
         <v>773</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="81"/>
       <c r="C46" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F46" s="49" t="s">
         <v>181</v>
@@ -27814,34 +28278,40 @@
         <v>1</v>
       </c>
       <c r="H46" s="49" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1372</v>
+      </c>
+      <c r="I46" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="O46" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81"/>
       <c r="C47" s="49" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G47" s="49">
         <v>2</v>
       </c>
       <c r="H47" s="49" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="81"/>
       <c r="C48" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E48" s="49" t="s">
         <v>83</v>
@@ -27853,7 +28323,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="49" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I48" s="49" t="s">
         <v>493</v>
@@ -27862,13 +28332,13 @@
         <v>773</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="81"/>
       <c r="C49" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="49" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E49" s="49" t="s">
         <v>83</v>
@@ -27880,7 +28350,7 @@
         <v>1.5</v>
       </c>
       <c r="H49" s="49" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I49" s="49" t="s">
         <v>773</v>
@@ -27889,13 +28359,13 @@
         <v>773</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="81"/>
       <c r="C50" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E50" s="49" t="s">
         <v>83</v>
@@ -27907,16 +28377,19 @@
         <v>1</v>
       </c>
       <c r="H50" s="49" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1384</v>
+      </c>
+      <c r="O50" s="49" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="81"/>
       <c r="C51" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D51" s="49" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E51" s="49" t="s">
         <v>83</v>
@@ -27928,13 +28401,13 @@
         <v>0.5</v>
       </c>
       <c r="H51" s="49" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="81"/>
     </row>
-    <row r="53" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="81"/>
       <c r="B53" s="49" t="s">
         <v>549</v>
@@ -27957,14 +28430,20 @@
       <c r="H53" s="49" t="s">
         <v>1290</v>
       </c>
+      <c r="I53" s="49" t="s">
+        <v>493</v>
+      </c>
       <c r="M53" s="49" t="s">
         <v>1107</v>
       </c>
       <c r="N53" s="49" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="81"/>
       <c r="C54" s="49" t="s">
         <v>48</v>
@@ -27984,8 +28463,11 @@
       <c r="H54" s="49" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="49" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="81"/>
       <c r="C55" s="49" t="s">
         <v>48</v>
@@ -28012,7 +28494,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="54"/>
       <c r="C56" s="49" t="s">
         <v>49</v>
@@ -28033,7 +28515,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="81"/>
       <c r="C57" s="49" t="s">
         <v>49</v>
@@ -28048,7 +28530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="81"/>
       <c r="C58" s="49" t="s">
         <v>49</v>
@@ -28063,13 +28545,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="81"/>
       <c r="C59" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="49" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E59" s="49" t="s">
         <v>669</v>
@@ -28081,19 +28563,22 @@
         <v>1</v>
       </c>
       <c r="H59" s="49" t="s">
-        <v>1398</v>
+        <v>1397</v>
+      </c>
+      <c r="I59" s="49" t="s">
+        <v>493</v>
       </c>
       <c r="N59" s="49" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="81"/>
       <c r="C60" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E60" s="49" t="s">
         <v>669</v>
@@ -28105,13 +28590,19 @@
         <v>0.5</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1398</v>
+      </c>
+      <c r="I60" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="O60" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="81"/>
     </row>
-    <row r="62" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="80"/>
       <c r="B62" s="49" t="s">
         <v>71</v>
@@ -28135,7 +28626,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="80"/>
       <c r="C63" s="49" t="s">
         <v>48</v>
@@ -28155,14 +28646,17 @@
       <c r="H63" s="49" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="49" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="85"/>
       <c r="C64" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E64" s="49" t="s">
         <v>72</v>
@@ -28174,7 +28668,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="49" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I64" s="49" t="s">
         <v>493</v>
@@ -28204,7 +28698,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -28236,7 +28730,7 @@
         <v>493</v>
       </c>
       <c r="L67" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -28279,6 +28773,9 @@
       </c>
       <c r="H69" t="s">
         <v>1299</v>
+      </c>
+      <c r="I69" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -28302,7 +28799,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -28410,7 +28907,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -28437,7 +28934,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="D78" s="16"/>
     </row>
@@ -28651,7 +29148,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
     </row>
     <row r="89" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -28707,7 +29204,7 @@
         <v>48</v>
       </c>
       <c r="D91" s="49" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E91" s="49" t="s">
         <v>1194</v>
@@ -28731,7 +29228,7 @@
         <v>48</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E92" s="49" t="s">
         <v>604</v>
@@ -28755,7 +29252,7 @@
         <v>48</v>
       </c>
       <c r="D93" s="49" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E93" s="88" t="s">
         <v>1200</v>
@@ -28855,7 +29352,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="48"/>
       <c r="C97" s="49" t="s">
         <v>48</v>
@@ -28879,7 +29376,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="80"/>
       <c r="C98" s="49" t="s">
         <v>48</v>
@@ -28899,8 +29396,14 @@
       <c r="H98" s="49" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I98" s="49" t="s">
+        <v>572</v>
+      </c>
+      <c r="O98" s="49" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="80"/>
       <c r="C99" s="49" t="s">
         <v>48</v>
@@ -28921,13 +29424,16 @@
         <v>1012</v>
       </c>
       <c r="M99" s="49" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="N99" s="49" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O99" s="49" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="80"/>
       <c r="C100" s="55" t="s">
         <v>48</v>
@@ -28949,8 +29455,11 @@
       </c>
       <c r="I100" s="49"/>
       <c r="M100" s="49"/>
-    </row>
-    <row r="101" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="55" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="80"/>
       <c r="C101" s="55" t="s">
         <v>48</v>
@@ -28973,7 +29482,7 @@
       <c r="I101" s="49"/>
       <c r="M101" s="49"/>
     </row>
-    <row r="102" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="80"/>
       <c r="C102" s="55" t="s">
         <v>48</v>
@@ -28996,7 +29505,7 @@
       <c r="I102" s="49"/>
       <c r="M102" s="49"/>
     </row>
-    <row r="103" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="81"/>
       <c r="C103" s="55" t="s">
         <v>48</v>
@@ -29016,8 +29525,14 @@
       <c r="H103" s="55" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="49" t="s">
+        <v>773</v>
+      </c>
+      <c r="O103" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="81"/>
       <c r="C104" s="55" t="s">
         <v>49</v>
@@ -29034,7 +29549,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="81"/>
       <c r="C105" s="49" t="s">
         <v>48</v>
@@ -29057,7 +29572,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="80"/>
       <c r="C106" s="49" t="s">
         <v>48</v>
@@ -29072,37 +29587,40 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="80"/>
       <c r="C107" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D107" s="49" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E107" s="49" t="s">
         <v>1361</v>
-      </c>
-      <c r="E107" s="49" t="s">
-        <v>1362</v>
       </c>
       <c r="F107" s="49" t="s">
         <v>663</v>
       </c>
       <c r="H107" s="49" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="N107" s="49" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O107" s="49" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="80"/>
       <c r="D108" s="49" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="80"/>
     </row>
-    <row r="110" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="80"/>
       <c r="B110" s="49" t="s">
         <v>148</v>
@@ -29122,8 +29640,14 @@
       <c r="H110" s="49" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I110" s="49" t="s">
+        <v>572</v>
+      </c>
+      <c r="O110" s="49" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="80"/>
       <c r="C111" s="49" t="s">
         <v>48</v>
@@ -29143,11 +29667,17 @@
       <c r="H111" s="49" t="s">
         <v>1346</v>
       </c>
+      <c r="I111" s="49" t="s">
+        <v>572</v>
+      </c>
       <c r="N111" s="49" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O111" s="49" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="80"/>
       <c r="C112" s="49" t="s">
         <v>48</v>
@@ -29164,11 +29694,17 @@
       <c r="H112" s="49" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I112" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="O112" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="80"/>
     </row>
-    <row r="114" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="80"/>
       <c r="B114" s="49" t="s">
         <v>152</v>
@@ -29191,11 +29727,14 @@
       <c r="H114" s="49" t="s">
         <v>1127</v>
       </c>
+      <c r="I114" s="49" t="s">
+        <v>493</v>
+      </c>
       <c r="N114" s="49" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="80"/>
       <c r="B115" s="55"/>
       <c r="C115" s="55" t="s">
@@ -29223,7 +29762,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="80"/>
       <c r="C116" s="55" t="s">
         <v>48</v>
@@ -29250,7 +29789,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="80"/>
       <c r="C117" s="55" t="s">
         <v>48</v>
@@ -29271,7 +29810,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="80"/>
       <c r="B118" s="55"/>
       <c r="C118" s="55" t="s">
@@ -29299,7 +29838,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="80"/>
       <c r="B119" s="55"/>
       <c r="C119" s="55" t="s">
@@ -29327,13 +29866,13 @@
         <v>773</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="80"/>
       <c r="C120" s="55"/>
       <c r="D120" s="55"/>
       <c r="F120" s="55"/>
     </row>
-    <row r="121" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="80"/>
       <c r="B121" s="55" t="s">
         <v>149</v>
@@ -29351,10 +29890,10 @@
         <v>188</v>
       </c>
       <c r="H121" s="49" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="80"/>
       <c r="C122" s="49" t="s">
         <v>48</v>
@@ -29372,13 +29911,16 @@
         <v>1348</v>
       </c>
       <c r="N122" s="49" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1401</v>
+      </c>
+      <c r="O122" s="49" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="80"/>
     </row>
-    <row r="124" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="80"/>
       <c r="B124" s="55" t="s">
         <v>150</v>
@@ -29395,11 +29937,17 @@
       <c r="F124" s="56" t="s">
         <v>177</v>
       </c>
+      <c r="I124" s="49" t="s">
+        <v>493</v>
+      </c>
       <c r="N124" s="49" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1402</v>
+      </c>
+      <c r="O124" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="80"/>
       <c r="B125" s="55"/>
       <c r="C125" s="55" t="s">
@@ -29414,11 +29962,17 @@
       <c r="F125" s="56" t="s">
         <v>177</v>
       </c>
+      <c r="I125" s="49" t="s">
+        <v>493</v>
+      </c>
       <c r="N125" s="49" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O125" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="80"/>
       <c r="B126" s="55"/>
       <c r="C126" s="55" t="s">
@@ -29440,13 +29994,13 @@
         <v>773</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="80"/>
       <c r="C127" s="55"/>
       <c r="D127" s="55"/>
       <c r="E127" s="56"/>
     </row>
-    <row r="128" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="80"/>
       <c r="B128" s="55" t="s">
         <v>146</v>
@@ -29476,7 +30030,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="80"/>
       <c r="B129" s="55"/>
       <c r="C129" s="49" t="s">
@@ -29501,7 +30055,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="80"/>
       <c r="C130" s="49" t="s">
         <v>48</v>
@@ -29521,11 +30075,14 @@
       <c r="H130" s="49" t="s">
         <v>1325</v>
       </c>
+      <c r="I130" s="49" t="s">
+        <v>493</v>
+      </c>
       <c r="N130" s="49" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="131" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="80"/>
       <c r="B131" s="55"/>
       <c r="C131" s="49" t="s">
@@ -29546,8 +30103,11 @@
       <c r="H131" s="49" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O131" s="49" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="80"/>
       <c r="B132" s="55"/>
       <c r="C132" s="49" t="s">
@@ -29569,7 +30129,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="80"/>
       <c r="B133" s="55"/>
       <c r="C133" s="49" t="s">
@@ -29588,7 +30148,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="80"/>
       <c r="B134" s="55"/>
       <c r="C134" s="49" t="s">
@@ -29613,13 +30173,13 @@
         <v>493</v>
       </c>
       <c r="L134" s="49" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="M134" s="49" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="80"/>
       <c r="C135" s="49" t="s">
         <v>48</v>
@@ -29646,11 +30206,11 @@
         <v>773</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="80"/>
       <c r="B136" s="55"/>
     </row>
-    <row r="137" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="81"/>
       <c r="B137" s="49" t="s">
         <v>50</v>
@@ -29680,7 +30240,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="80"/>
       <c r="C138" s="49" t="s">
         <v>48</v>
@@ -29707,7 +30267,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="80"/>
       <c r="C139" s="49" t="s">
         <v>48</v>
@@ -29724,14 +30284,20 @@
       <c r="H139" s="49" t="s">
         <v>1350</v>
       </c>
+      <c r="I139" s="49" t="s">
+        <v>493</v>
+      </c>
       <c r="L139" s="49" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="N139" s="49" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1403</v>
+      </c>
+      <c r="O139" s="49" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="80"/>
       <c r="C140" s="49" t="s">
         <v>49</v>
@@ -29749,7 +30315,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="80"/>
       <c r="B141" s="55"/>
       <c r="C141" s="49" t="s">
@@ -29768,7 +30334,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="142" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="80"/>
       <c r="C142" s="49" t="s">
         <v>49</v>
@@ -29786,7 +30352,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="81"/>
       <c r="C143" s="49" t="s">
         <v>48</v>
@@ -29801,10 +30367,13 @@
         <v>181</v>
       </c>
       <c r="H143" s="49" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1431</v>
+      </c>
+      <c r="O143" s="49" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="81"/>
       <c r="C144" s="49" t="s">
         <v>48</v>
@@ -29850,7 +30419,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="146" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="81"/>
       <c r="E146" s="56"/>
       <c r="F146" s="56"/>
@@ -30206,7 +30775,9 @@
       <c r="J167" s="13"/>
     </row>
     <row r="168" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="31"/>
+      <c r="B168" s="31" t="s">
+        <v>1432</v>
+      </c>
       <c r="C168" s="31"/>
       <c r="D168" s="31" t="s">
         <v>169</v>
@@ -30790,51 +31361,57 @@
       <c r="A313" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P146"/>
+  <autoFilter ref="A1:P146">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B153 A148:F151">
-    <cfRule type="cellIs" dxfId="21" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="47" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="20" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="19" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141:D142">
-    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D143:D144">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A97">
-    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="取消">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="取消">
       <formula>NOT(ISERROR(SEARCH("取消",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I173:I1048576 I135 I146:I147 I28:I38 I40:I55 I106:I113 I93 I57:I88 I1:I26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I173:I1048576 I135 I146:I147 I28:I55 I106:I113 I93 I57:I88 I1:I26">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F176:F1048576 F137:F145 F1:F38 F147 F40:F135">
@@ -30858,10 +31435,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P219"/>
+  <dimension ref="A1:P236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C25"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -30927,15 +31504,52 @@
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>843</v>
+      </c>
+      <c r="F2" s="76"/>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1243</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
+      <c r="D3" s="16" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1248</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D5" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -30948,103 +31562,145 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>529</v>
+      </c>
+      <c r="F9" s="76"/>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
+      <c r="D10" s="19" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="76"/>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1254</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
+      <c r="D11" s="14" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>843</v>
+      </c>
+      <c r="F11" s="76"/>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1261</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
+      <c r="D14" s="19" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>538</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1269</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="C21" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G21" s="49">
-        <v>2</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="C22" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G22" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="C23" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G23" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
+      <c r="B24" s="49" t="s">
+        <v>70</v>
+      </c>
       <c r="C24" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>1388</v>
+        <v>1373</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>83</v>
+        <v>1367</v>
       </c>
       <c r="G24" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>1389</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -31053,529 +31709,1033 @@
         <v>48</v>
       </c>
       <c r="D25" s="49" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G25" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="81"/>
+      <c r="C26" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G26" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="81"/>
+      <c r="C27" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="49">
+        <v>1</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="81"/>
+      <c r="C28" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="49" t="s">
         <v>1390</v>
       </c>
-      <c r="E25" s="49" t="s">
+    </row>
+    <row r="29" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="81"/>
+      <c r="C29" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G29" s="49">
+        <v>3</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="81"/>
+      <c r="D30" s="49" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81"/>
+    </row>
+    <row r="32" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="81"/>
+      <c r="B32" s="49" t="s">
+        <v>549</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>649</v>
+      </c>
+      <c r="G32" s="49">
+        <v>3</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="81"/>
+      <c r="D33" s="49" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G33" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="81"/>
+      <c r="D34" s="49" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="81"/>
+    </row>
+    <row r="36" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="81"/>
+      <c r="B36" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G36" s="49">
+        <v>2</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="81"/>
+      <c r="C37" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G37" s="49">
+        <v>2</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="76"/>
+      <c r="G42">
+        <v>0.75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43">
+        <v>0.25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="D44" s="16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44">
+        <v>0.5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E46" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" s="76">
+        <v>1</v>
+      </c>
+      <c r="H46" s="76" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E48" s="66" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="79" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="D49" s="79" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>710</v>
+      </c>
+      <c r="H49" s="79" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="80"/>
+      <c r="C56" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>898</v>
+      </c>
+      <c r="E56" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="F56" s="56"/>
+      <c r="H56" s="55" t="s">
+        <v>897</v>
+      </c>
+      <c r="I56" s="49"/>
+    </row>
+    <row r="57" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="80"/>
+      <c r="C57" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="58" t="s">
+        <v>905</v>
+      </c>
+      <c r="E57" s="56" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F57" s="56"/>
+      <c r="G57" s="55">
+        <v>2</v>
+      </c>
+      <c r="H57" s="55" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I57" s="49"/>
+    </row>
+    <row r="58" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="80"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="I58" s="49"/>
+    </row>
+    <row r="59" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="80"/>
+      <c r="C59" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E59" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="F59" s="56"/>
+      <c r="H59" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I59" s="49"/>
+    </row>
+    <row r="60" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="80"/>
+      <c r="C60" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="58" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E60" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="F60" s="56"/>
+      <c r="H60" s="55" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I60" s="49"/>
+    </row>
+    <row r="61" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="80"/>
+      <c r="C61" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="58" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E61" s="56" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F61" s="56"/>
+      <c r="G61" s="55">
+        <v>4</v>
+      </c>
+      <c r="H61" s="55" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I61" s="49"/>
+    </row>
+    <row r="62" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="80"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="I62" s="49"/>
+    </row>
+    <row r="63" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="80"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="I63" s="49"/>
+    </row>
+    <row r="64" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="80"/>
+      <c r="D64" s="55" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I64" s="49"/>
+    </row>
+    <row r="65" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="80"/>
+      <c r="I65" s="49"/>
+    </row>
+    <row r="66" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="80"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="I66" s="49"/>
+    </row>
+    <row r="67" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="80"/>
+      <c r="C67" s="55" t="s">
+        <v>654</v>
+      </c>
+      <c r="D67" s="58" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E67" s="56" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F67" s="56"/>
+      <c r="H67" s="55" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I67" s="49"/>
+    </row>
+    <row r="68" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="80"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="I68" s="49"/>
+    </row>
+    <row r="69" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="80"/>
+      <c r="C69" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E69" s="56" t="s">
+        <v>604</v>
+      </c>
+      <c r="F69" s="56"/>
+      <c r="G69" s="55">
+        <v>2</v>
+      </c>
+      <c r="H69" s="55" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I69" s="49"/>
+    </row>
+    <row r="70" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="80"/>
+      <c r="C70" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E70" s="56" t="s">
+        <v>604</v>
+      </c>
+      <c r="F70" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="H70" s="55" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I70" s="49"/>
+    </row>
+    <row r="71" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="80"/>
+      <c r="C71" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="58" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E71" s="56" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F71" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="H71" s="55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I71" s="49"/>
+    </row>
+    <row r="73" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+    </row>
+    <row r="83" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+    </row>
+    <row r="84" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+    </row>
+    <row r="85" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+    </row>
+    <row r="86" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J86" s="13"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="H87" s="27"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H88" s="31"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="H89" s="24"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="31"/>
+      <c r="D90" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E90" s="31"/>
+      <c r="F90" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H90" s="31"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="13"/>
+    </row>
+    <row r="91" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H91" s="24"/>
+      <c r="I91" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="J91" s="13"/>
+    </row>
+    <row r="92" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E92" s="31"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H92" s="31"/>
+      <c r="I92" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="J92" s="13"/>
+    </row>
+    <row r="93" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="31" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E93" s="31"/>
+      <c r="F93" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G93" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H93" s="31"/>
+      <c r="I93" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="J93" s="13"/>
+    </row>
+    <row r="94" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="13"/>
+    </row>
+    <row r="95" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="E95" s="11"/>
+      <c r="F95" s="78">
+        <v>42445</v>
+      </c>
+      <c r="G95" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="80"/>
-      <c r="C48" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>898</v>
-      </c>
-      <c r="E48" s="56" t="s">
-        <v>591</v>
-      </c>
-      <c r="F48" s="56"/>
-      <c r="H48" s="55" t="s">
-        <v>897</v>
-      </c>
-      <c r="I48" s="49"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="53" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-    </row>
-    <row r="62" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-    </row>
-    <row r="63" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-    </row>
-    <row r="64" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-    </row>
-    <row r="65" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-    </row>
-    <row r="66" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J66" s="13"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-    </row>
-    <row r="68" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-    </row>
-    <row r="69" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-    </row>
-    <row r="70" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="13"/>
-    </row>
-    <row r="71" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="13"/>
-    </row>
-    <row r="72" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="13"/>
-    </row>
-    <row r="73" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="13"/>
-    </row>
-    <row r="74" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="13"/>
-    </row>
-    <row r="75" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="13"/>
-    </row>
-    <row r="76" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="13"/>
-    </row>
-    <row r="77" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="13"/>
-    </row>
-    <row r="78" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="13"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="13"/>
+    </row>
+    <row r="96" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="E96" s="11"/>
+      <c r="F96" s="78">
+        <v>42445</v>
+      </c>
+      <c r="G96" s="45" t="s">
+        <v>916</v>
+      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="13"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="78">
+        <v>42445</v>
+      </c>
+      <c r="G97" s="45" t="s">
+        <v>953</v>
+      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="84" t="s">
+        <v>778</v>
+      </c>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -31899,53 +33059,128 @@
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
     </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="7"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="7"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="7"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="7"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="7"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="7"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="7"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="7"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="7"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="7"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="7"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="7"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="7"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="7"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I20 I79:I1048576 I49:I52 I26:I47">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I104:I1048576 I72 I1:I13 I15:I23 I38:I55">
+    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A20 A79:A1048576 A57:A60 B57 C57:F60 G53:XFD78 A61:F78 A49:A52 A26:A47">
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:A23 A77:A80 B77 C77:F80 G73:XFD86 A81:F86 A72 A38:A55 J87:XFD96 A87:A1048576">
+    <cfRule type="cellIs" dxfId="19" priority="24" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58 A53:F56">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B78 A73:F76">
+    <cfRule type="cellIs" dxfId="18" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A56">
+    <cfRule type="cellIs" dxfId="17" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I48)))</formula>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I48)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="22" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14 I87:I103">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="取消">
+      <formula>NOT(ISERROR(SEARCH("取消",I14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:A71">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57:I71">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I79:I1048576 I49:I52 I1:I47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I38:I55 I57:I72 I1:I34 I96:I1048576">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F79:F1048576 F1:F52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F66:F72 F1:F34 F36:F63 F98:F1048576">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79:C1048576 C1:C52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66:C72 C1:C34 C36:C63 C96:C1048576">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I56">
       <formula1>"完成,未完成,阻碍,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B86 B94:B1048576">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
   </dataValidations>
@@ -31955,7 +33190,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" text="取消" id="{7425DFE5-00BC-9C47-8C79-E09DAA66B874}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" text="取消" id="{7425DFE5-00BC-9C47-8C79-E09DAA66B874}">
             <xm:f>NOT(ISERROR(SEARCH("取消",'20160316'!I21)))</xm:f>
             <x14:dxf>
               <font>
@@ -31968,7 +33203,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" text="阻碍" id="{FDB7BB0A-5879-5740-8A8F-5289B50D9109}">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" text="阻碍" id="{FDB7BB0A-5879-5740-8A8F-5289B50D9109}">
             <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160316'!I21)))</xm:f>
             <x14:dxf>
               <font>
@@ -31981,7 +33216,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" text="未完成" id="{CACB47CB-C644-DC4A-9BE8-CD47E4B44AED}">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" text="未完成" id="{CACB47CB-C644-DC4A-9BE8-CD47E4B44AED}">
             <xm:f>NOT(ISERROR(SEARCH("未完成",'20160316'!I21)))</xm:f>
             <x14:dxf>
               <font>
@@ -31994,10 +33229,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I21:I23</xm:sqref>
+          <xm:sqref>I24:I26 I29:I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="229" operator="containsText" text="取消" id="{7425DFE5-00BC-9C47-8C79-E09DAA66B874}">
+          <x14:cfRule type="containsText" priority="245" operator="containsText" text="取消" id="{7425DFE5-00BC-9C47-8C79-E09DAA66B874}">
             <xm:f>NOT(ISERROR(SEARCH("取消",'20160316'!I28)))</xm:f>
             <x14:dxf>
               <font>
@@ -32010,7 +33245,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="230" operator="containsText" text="阻碍" id="{FDB7BB0A-5879-5740-8A8F-5289B50D9109}">
+          <x14:cfRule type="containsText" priority="246" operator="containsText" text="阻碍" id="{FDB7BB0A-5879-5740-8A8F-5289B50D9109}">
             <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160316'!I28)))</xm:f>
             <x14:dxf>
               <font>
@@ -32023,7 +33258,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="231" operator="containsText" text="未完成" id="{CACB47CB-C644-DC4A-9BE8-CD47E4B44AED}">
+          <x14:cfRule type="containsText" priority="247" operator="containsText" text="未完成" id="{CACB47CB-C644-DC4A-9BE8-CD47E4B44AED}">
             <xm:f>NOT(ISERROR(SEARCH("未完成",'20160316'!I28)))</xm:f>
             <x14:dxf>
               <font>
@@ -32036,7 +33271,49 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I24:I25</xm:sqref>
+          <xm:sqref>I27:I28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="261" operator="containsText" text="取消" id="{8B48D559-13CD-2F43-8D8C-DAB5D8D9864F}">
+            <xm:f>NOT(ISERROR(SEARCH("取消",'20160316'!I27)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="262" operator="containsText" text="阻碍" id="{87E454D5-5DCF-154B-8D57-426D55FB6418}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20160316'!I27)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="263" operator="containsText" text="未完成" id="{1961C445-F147-5D4C-8EEE-BFE9977E6910}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20160316'!I27)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I31:I37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-460" yWindow="460" windowWidth="38720" windowHeight="20000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="38400" windowHeight="20000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20160224" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20160302'!$A$1:$P$198</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20160309'!$A$1:$P$172</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20160316'!$A$1:$P$148</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20160323'!$A$1:$P$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20160323'!$A$1:$P$158</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5124" uniqueCount="1657">
   <si>
     <t>类别</t>
   </si>
@@ -9446,10 +9446,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>新手引导对局0流程插入</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>师叔</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -10354,6 +10350,42 @@
   </si>
   <si>
     <t>D6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan'c'ne</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导对局0流程插入</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MG-2924 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP场景新增需求</t>
+    <rPh sb="3" eb="4">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -10920,10 +10952,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="139">
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -12854,7 +12886,7 @@
   <dimension ref="A1:S368"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D73" sqref="D73:D77"/>
     </sheetView>
   </sheetViews>
@@ -16008,7 +16040,7 @@
       <c r="I137" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="J137" s="91" t="s">
+      <c r="J137" s="92" t="s">
         <v>625</v>
       </c>
       <c r="M137" s="33" t="s">
@@ -16044,7 +16076,7 @@
       <c r="I138" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="J138" s="91"/>
+      <c r="J138" s="92"/>
       <c r="M138" s="33" t="s">
         <v>252</v>
       </c>
@@ -16162,7 +16194,7 @@
       <c r="I142" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="J142" s="91" t="s">
+      <c r="J142" s="92" t="s">
         <v>625</v>
       </c>
       <c r="Q142" s="33" t="s">
@@ -16195,7 +16227,7 @@
       <c r="I143" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="J143" s="91"/>
+      <c r="J143" s="92"/>
       <c r="N143" s="33" t="s">
         <v>493</v>
       </c>
@@ -16622,7 +16654,7 @@
       <c r="I159" s="41" t="s">
         <v>567</v>
       </c>
-      <c r="J159" s="91" t="s">
+      <c r="J159" s="92" t="s">
         <v>617</v>
       </c>
     </row>
@@ -16630,7 +16662,7 @@
       <c r="A160" s="4"/>
       <c r="D160" s="22"/>
       <c r="E160" s="20"/>
-      <c r="J160" s="91"/>
+      <c r="J160" s="92"/>
     </row>
     <row r="161" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
@@ -16955,7 +16987,7 @@
       <c r="I176" s="41" t="s">
         <v>567</v>
       </c>
-      <c r="J176" s="91" t="s">
+      <c r="J176" s="92" t="s">
         <v>625</v>
       </c>
       <c r="N176" s="33" t="s">
@@ -16985,7 +17017,7 @@
       <c r="I177" s="41" t="s">
         <v>567</v>
       </c>
-      <c r="J177" s="91"/>
+      <c r="J177" s="92"/>
     </row>
     <row r="178" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
@@ -18669,8 +18701,8 @@
   <dimension ref="A1:P339"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -23457,8 +23489,8 @@
   <dimension ref="A1:P343"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86:D87"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -28574,9 +28606,9 @@
   <dimension ref="A1:P315"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
+      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -30045,13 +30077,13 @@
         <v>48</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E63" s="49" t="s">
         <v>63</v>
       </c>
       <c r="H63" s="49" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="I63" s="49" t="s">
         <v>488</v>
@@ -32965,10 +32997,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P327"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:P328"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -33053,7 +33086,7 @@
         <v>0.25</v>
       </c>
       <c r="H2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -33073,7 +33106,7 @@
         <v>0.25</v>
       </c>
       <c r="H3" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -33115,7 +33148,7 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -33124,7 +33157,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>838</v>
@@ -33139,7 +33172,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
         <v>48</v>
@@ -33157,7 +33190,7 @@
         <v>0.25</v>
       </c>
       <c r="H7" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="I7" t="s">
         <v>488</v>
@@ -33166,7 +33199,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>48</v>
       </c>
@@ -33183,7 +33216,7 @@
         <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I8" t="s">
         <v>488</v>
@@ -33207,7 +33240,7 @@
         <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -33248,7 +33281,10 @@
         <v>0.25</v>
       </c>
       <c r="H12" t="s">
-        <v>1526</v>
+        <v>1525</v>
+      </c>
+      <c r="L12" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -33269,7 +33305,7 @@
         <v>0.25</v>
       </c>
       <c r="H13" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -33311,7 +33347,7 @@
         <v>0.5</v>
       </c>
       <c r="H15" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -33332,7 +33368,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" t="s">
         <v>48</v>
@@ -33350,16 +33386,16 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E18" s="76" t="s">
         <v>1183</v>
@@ -33371,10 +33407,16 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1528</v>
+      </c>
+      <c r="I18" t="s">
+        <v>768</v>
+      </c>
+      <c r="L18" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
         <v>49</v>
@@ -33392,7 +33434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
         <v>49</v>
@@ -33404,132 +33446,135 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="76"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E21" s="76" t="s">
+        <v>524</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G21">
+        <v>0.25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="76"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
         <v>1414</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>836</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E23" s="76" t="s">
         <v>1183</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F23" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="H22" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="19" t="s">
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>1448</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>524</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>182</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1531</v>
-      </c>
-      <c r="I24" t="s">
-        <v>488</v>
-      </c>
-      <c r="K24" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>869</v>
-      </c>
-      <c r="E25" s="76" t="s">
-        <v>870</v>
       </c>
       <c r="F25" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="G25">
-        <v>0.5</v>
-      </c>
       <c r="H25" t="s">
-        <v>921</v>
+        <v>1530</v>
+      </c>
+      <c r="I25" t="s">
+        <v>488</v>
       </c>
       <c r="K25" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>1444</v>
+        <v>869</v>
       </c>
       <c r="E26" s="76" t="s">
-        <v>47</v>
+        <v>870</v>
       </c>
       <c r="F26" s="76" t="s">
         <v>182</v>
       </c>
       <c r="G26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="s">
-        <v>1532</v>
+        <v>921</v>
       </c>
       <c r="K26" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>1534</v>
+        <v>1444</v>
       </c>
       <c r="E27" s="76" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F27" s="76" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="H27" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1531</v>
+      </c>
+      <c r="I27" t="s">
+        <v>768</v>
+      </c>
+      <c r="K27" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" t="s">
         <v>48</v>
@@ -33538,100 +33583,103 @@
         <v>1533</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>973</v>
+        <v>60</v>
       </c>
       <c r="F28" s="76" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1549</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>1491</v>
+        <v>1532</v>
       </c>
       <c r="E29" s="76" t="s">
-        <v>1457</v>
+        <v>973</v>
       </c>
       <c r="F29" s="76" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>1498</v>
+      <c r="D30" s="19" t="s">
+        <v>1490</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>1210</v>
+        <v>1457</v>
       </c>
       <c r="F30" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="G30" s="76">
-        <v>0.5</v>
+      <c r="G30">
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="C31" t="s">
         <v>48</v>
       </c>
-      <c r="D31" t="s">
-        <v>1553</v>
+      <c r="D31" s="14" t="s">
+        <v>1497</v>
       </c>
       <c r="E31" s="76" t="s">
-        <v>527</v>
+        <v>1210</v>
       </c>
       <c r="F31" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="76">
         <v>0.5</v>
       </c>
       <c r="H31" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>1519</v>
+      <c r="D32" t="s">
+        <v>1552</v>
       </c>
       <c r="E32" s="76" t="s">
-        <v>838</v>
+        <v>527</v>
       </c>
       <c r="F32" s="76" t="s">
         <v>183</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="s">
-        <v>1238</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -33639,20 +33687,20 @@
       <c r="C33" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>907</v>
+      <c r="D33" s="14" t="s">
+        <v>1518</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>524</v>
+        <v>838</v>
       </c>
       <c r="F33" s="76" t="s">
         <v>183</v>
       </c>
       <c r="G33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>915</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -33661,10 +33709,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>1489</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>47</v>
+        <v>907</v>
+      </c>
+      <c r="E34" s="76" t="s">
+        <v>524</v>
       </c>
       <c r="F34" s="76" t="s">
         <v>183</v>
@@ -33673,7 +33721,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" t="s">
-        <v>1249</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -33682,40 +33730,40 @@
         <v>48</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>1556</v>
-      </c>
-      <c r="E35" s="76" t="s">
-        <v>534</v>
+        <v>1488</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="F35" s="76" t="s">
         <v>183</v>
       </c>
       <c r="G35">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>1557</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>1425</v>
+        <v>1555</v>
       </c>
       <c r="E36" s="76" t="s">
-        <v>809</v>
+        <v>534</v>
       </c>
       <c r="F36" s="76" t="s">
         <v>183</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -33723,59 +33771,59 @@
       <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="D37" t="s">
-        <v>1560</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1490</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D37" s="19" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E37" s="76" t="s">
+        <v>809</v>
+      </c>
+      <c r="F37" s="76" t="s">
         <v>183</v>
       </c>
       <c r="G37">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1558</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E39" s="76" t="s">
-        <v>533</v>
-      </c>
-      <c r="F39" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="G39">
-        <v>0.5</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1264</v>
-      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
       <c r="C40" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>1430</v>
+        <v>1263</v>
       </c>
       <c r="E40" s="76" t="s">
         <v>533</v>
@@ -33787,61 +33835,61 @@
         <v>0.5</v>
       </c>
       <c r="H40" t="s">
-        <v>1561</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E41" s="76" t="s">
+        <v>533</v>
+      </c>
+      <c r="F41" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1560</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="C42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
         <v>1429</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>524</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>182</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>0.25</v>
       </c>
-      <c r="H42" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I42" t="s">
-        <v>488</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="H43" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I43" t="s">
+        <v>488</v>
+      </c>
+      <c r="K43" t="s">
         <v>768</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -33850,7 +33898,7 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E44" t="s">
         <v>62</v>
@@ -33859,47 +33907,52 @@
         <v>172</v>
       </c>
       <c r="G44">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E45" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E45" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="76" t="s">
-        <v>183</v>
+      <c r="F45" t="s">
+        <v>172</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>1569</v>
-      </c>
-      <c r="E46" t="s">
-        <v>550</v>
-      </c>
-      <c r="F46" s="76"/>
+        <v>1516</v>
+      </c>
+      <c r="E46" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
       <c r="H46" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -33907,17 +33960,17 @@
       <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>1186</v>
+      <c r="D47" s="14" t="s">
+        <v>1568</v>
       </c>
       <c r="E47" t="s">
         <v>550</v>
       </c>
-      <c r="F47" t="s">
-        <v>183</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
+      <c r="F47" s="76" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -33925,184 +33978,193 @@
       <c r="C48" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="15" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E48" s="76" t="s">
+      <c r="D48" s="19" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E48" t="s">
         <v>550</v>
       </c>
-      <c r="F48" s="76" t="s">
+      <c r="F48" t="s">
         <v>183</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="C49" t="s">
         <v>48</v>
       </c>
-      <c r="D49" t="s">
-        <v>1568</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="15" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E49" s="76" t="s">
+        <v>550</v>
+      </c>
+      <c r="F49" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E50" t="s">
         <v>607</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>183</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <v>0.5</v>
       </c>
-      <c r="H49" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="76"/>
-    </row>
-    <row r="51" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="81"/>
-      <c r="B51" s="49" t="s">
+      <c r="H50" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="76"/>
+    </row>
+    <row r="52" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="81"/>
+      <c r="B52" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="49" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="G51" s="49">
-        <v>1</v>
-      </c>
-      <c r="H51" s="49" t="s">
-        <v>1574</v>
-      </c>
-      <c r="K51" s="49" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="81"/>
       <c r="C52" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D52" s="49" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="E52" s="49" t="s">
         <v>78</v>
       </c>
       <c r="F52" s="49" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G52" s="49">
         <v>1</v>
       </c>
       <c r="H52" s="49" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1573</v>
+      </c>
+      <c r="I52" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="K52" s="49" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="81"/>
       <c r="C53" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>1380</v>
+        <v>1653</v>
       </c>
       <c r="E53" s="49" t="s">
         <v>78</v>
       </c>
       <c r="F53" s="49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G53" s="49">
         <v>1</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1574</v>
+      </c>
+      <c r="L53" s="49" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="81"/>
       <c r="C54" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E54" s="49" t="s">
         <v>78</v>
       </c>
       <c r="F54" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G54" s="49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H54" s="49" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="81"/>
       <c r="C55" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>1469</v>
+        <v>1382</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G55" s="49">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H55" s="49" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="81"/>
       <c r="C56" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>1369</v>
+        <v>1469</v>
       </c>
       <c r="E56" s="49" t="s">
-        <v>1361</v>
+        <v>63</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G56" s="49">
         <v>1.5</v>
       </c>
       <c r="H56" s="49" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1575</v>
+      </c>
+      <c r="I56" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L56" s="49" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="81"/>
       <c r="C57" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>1479</v>
+        <v>1369</v>
       </c>
       <c r="E57" s="49" t="s">
         <v>1361</v>
@@ -34114,310 +34176,313 @@
         <v>1.5</v>
       </c>
       <c r="H57" s="49" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="81"/>
       <c r="C58" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>1577</v>
+        <v>1478</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>1478</v>
+        <v>1361</v>
       </c>
       <c r="F58" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G58" s="49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H58" s="49" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="81"/>
       <c r="C59" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="49" t="s">
-        <v>1486</v>
+        <v>1576</v>
       </c>
       <c r="E59" s="49" t="s">
-        <v>1202</v>
+        <v>1477</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G59" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" s="49" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="81"/>
       <c r="C60" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="E60" s="49" t="s">
-        <v>1494</v>
+        <v>1202</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>183</v>
+        <v>170</v>
+      </c>
+      <c r="G60" s="49">
+        <v>3</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="81"/>
       <c r="C61" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D61" s="49" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E61" s="49" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="H61" s="49" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="81"/>
+      <c r="C62" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="49" t="s">
         <v>1435</v>
       </c>
-      <c r="E61" s="49" t="s">
+      <c r="E62" s="49" t="s">
         <v>1406</v>
       </c>
-      <c r="G61" s="49">
+      <c r="G62" s="49">
         <v>3</v>
       </c>
-      <c r="H61" s="49" t="s">
+      <c r="H62" s="49" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="81"/>
-      <c r="D62" s="49" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E62" s="49" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="81"/>
       <c r="D63" s="49" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E63" s="49" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="81"/>
       <c r="D64" s="49" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E64" s="49" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="81"/>
+      <c r="D65" s="49" t="s">
         <v>1440</v>
       </c>
-      <c r="E64" s="49" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="81"/>
-    </row>
-    <row r="66" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="49" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="81"/>
-      <c r="B66" s="49" t="s">
+    </row>
+    <row r="67" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="81"/>
+      <c r="B67" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C67" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="49" t="s">
-        <v>1516</v>
-      </c>
-      <c r="E66" s="49" t="s">
-        <v>1582</v>
-      </c>
-      <c r="H66" s="49" t="s">
+      <c r="D67" s="49" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E67" s="49" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="81"/>
-      <c r="C67" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="49" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E67" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G67" s="49">
-        <v>3</v>
-      </c>
       <c r="H67" s="49" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="81"/>
       <c r="C68" s="49" t="s">
-        <v>649</v>
+        <v>48</v>
       </c>
       <c r="D68" s="49" t="s">
-        <v>1157</v>
+        <v>1408</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>1410</v>
+        <v>63</v>
       </c>
       <c r="F68" s="49" t="s">
         <v>183</v>
       </c>
       <c r="G68" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H68" s="49" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="81"/>
       <c r="C69" s="49" t="s">
+        <v>649</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G69" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="81"/>
+      <c r="C70" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D69" s="49" t="s">
+      <c r="D70" s="49" t="s">
         <v>1156</v>
       </c>
-      <c r="E69" s="49" t="s">
+      <c r="E70" s="49" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="81"/>
-    </row>
-    <row r="71" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="81"/>
-      <c r="B71" s="49" t="s">
+    </row>
+    <row r="72" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="81"/>
+      <c r="B72" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="49" t="s">
+      <c r="C72" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="49" t="s">
         <v>1286</v>
       </c>
-      <c r="E71" s="49" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F71" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G71" s="49">
-        <v>2</v>
-      </c>
-      <c r="H71" s="49" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="81"/>
-      <c r="C72" s="49" t="s">
-        <v>649</v>
-      </c>
-      <c r="D72" s="49" t="s">
-        <v>1467</v>
-      </c>
       <c r="E72" s="49" t="s">
-        <v>548</v>
+        <v>1519</v>
       </c>
       <c r="F72" s="49" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="49">
+        <v>2</v>
+      </c>
+      <c r="H72" s="49" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="81"/>
       <c r="C73" s="49" t="s">
-        <v>48</v>
+        <v>649</v>
       </c>
       <c r="D73" s="49" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E73" s="49" t="s">
         <v>548</v>
       </c>
       <c r="F73" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="G73" s="49">
-        <v>2</v>
-      </c>
-      <c r="H73" s="49" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="81"/>
       <c r="C74" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D74" s="49" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
       <c r="E74" s="49" t="s">
-        <v>1482</v>
+        <v>548</v>
       </c>
       <c r="F74" s="49" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G74" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" s="49" t="s">
-        <v>1586</v>
-      </c>
-      <c r="I74" s="49" t="s">
-        <v>768</v>
-      </c>
-      <c r="K74" s="49" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1582</v>
+      </c>
+      <c r="L74" s="49" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="81"/>
       <c r="C75" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="49" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E75" s="49" t="s">
         <v>1481</v>
       </c>
-      <c r="E75" s="49" t="s">
-        <v>1413</v>
-      </c>
       <c r="F75" s="49" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="G75" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="49" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="K75" s="49" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="81"/>
       <c r="C76" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="E76" s="49" t="s">
-        <v>1484</v>
+        <v>1413</v>
       </c>
       <c r="F76" s="49" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G76" s="49">
         <v>2</v>
@@ -34426,63 +34491,57 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="81"/>
-    </row>
-    <row r="78" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E77" s="49" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F77" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G77" s="49">
+        <v>2</v>
+      </c>
+      <c r="H77" s="49" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="81"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="81"/>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>106</v>
       </c>
-      <c r="C79" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="14" t="s">
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>1291</v>
       </c>
-      <c r="E79" s="66" t="s">
+      <c r="E80" s="66" t="s">
         <v>130</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G79">
-        <v>0.75</v>
-      </c>
-      <c r="H79" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I79" t="s">
-        <v>488</v>
-      </c>
-      <c r="K79" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="C80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E80" s="68" t="s">
-        <v>572</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>182</v>
       </c>
       <c r="G80">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H80" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I80" t="s">
         <v>488</v>
@@ -34491,13 +34550,13 @@
         <v>768</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="C81" t="s">
         <v>48</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>1424</v>
+        <v>1239</v>
       </c>
       <c r="E81" s="68" t="s">
         <v>572</v>
@@ -34506,66 +34565,72 @@
         <v>182</v>
       </c>
       <c r="G81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="s">
-        <v>1587</v>
-      </c>
-      <c r="I81" s="76" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I81" t="s">
         <v>488</v>
       </c>
       <c r="K81" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="C82" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="E82" s="68" t="s">
-        <v>647</v>
+        <v>572</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="G82">
         <v>0.25</v>
       </c>
       <c r="H82" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1586</v>
+      </c>
+      <c r="I82" s="76" t="s">
+        <v>488</v>
+      </c>
+      <c r="K82" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
       <c r="C83" t="s">
         <v>48</v>
       </c>
-      <c r="D83" s="18" t="s">
-        <v>1213</v>
+      <c r="D83" s="16" t="s">
+        <v>1431</v>
       </c>
       <c r="E83" s="68" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G83">
         <v>0.25</v>
       </c>
       <c r="H83" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="16" t="s">
-        <v>1427</v>
+      <c r="D84" s="18" t="s">
+        <v>1213</v>
       </c>
       <c r="E84" s="68" t="s">
         <v>572</v>
@@ -34577,37 +34642,37 @@
         <v>0.25</v>
       </c>
       <c r="H84" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="C85" t="s">
         <v>48</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="E85" s="68" t="s">
         <v>572</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G85">
         <v>0.25</v>
       </c>
       <c r="H85" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="C86" t="s">
         <v>48</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>1594</v>
+        <v>1439</v>
       </c>
       <c r="E86" s="68" t="s">
         <v>572</v>
@@ -34616,59 +34681,60 @@
         <v>176</v>
       </c>
       <c r="G86">
+        <v>0.25</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E87" s="68" t="s">
+        <v>572</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G87">
         <v>0.5</v>
       </c>
-      <c r="H86" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="C87" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E87" s="68" t="s">
-        <v>573</v>
-      </c>
-      <c r="F87" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="G87">
-        <v>0.25</v>
-      </c>
       <c r="H87" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
       <c r="C88" t="s">
         <v>48</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="E88" s="68" t="s">
         <v>573</v>
       </c>
-      <c r="F88" s="18" t="s">
-        <v>183</v>
+      <c r="F88" s="76" t="s">
+        <v>176</v>
       </c>
       <c r="G88">
         <v>0.25</v>
       </c>
       <c r="H88" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>1442</v>
+        <v>1595</v>
       </c>
       <c r="E89" s="68" t="s">
         <v>573</v>
@@ -34679,228 +34745,251 @@
       <c r="G89">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="18"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" t="s">
+      <c r="H89" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I89" t="s">
+        <v>768</v>
+      </c>
+      <c r="L89" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E90" s="68" t="s">
+        <v>573</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G90">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="18"/>
+    </row>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" t="s">
         <v>108</v>
       </c>
-      <c r="C91" t="s">
-        <v>48</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" t="s">
         <v>1446</v>
       </c>
-      <c r="E91" s="68" t="s">
+      <c r="E92" s="68" t="s">
         <v>572</v>
       </c>
-      <c r="F91" s="18" t="s">
+      <c r="F92" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="G91">
+      <c r="G92">
         <v>0.25</v>
       </c>
-      <c r="H91" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I91" s="76" t="s">
-        <v>488</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="H92" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I92" s="76" t="s">
+        <v>488</v>
+      </c>
+      <c r="K92" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="C92" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E92" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G92" s="76">
-        <v>1.5</v>
-      </c>
-      <c r="H92" s="76" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="C93" t="s">
         <v>48</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>1443</v>
+        <v>1169</v>
       </c>
       <c r="E93" s="66" t="s">
         <v>130</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G93" s="76">
         <v>1.5</v>
       </c>
-      <c r="H93" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H93" s="76" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I93" s="76" t="s">
+        <v>768</v>
+      </c>
+      <c r="L93" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="C94" t="s">
         <v>48</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E94" s="68" t="s">
-        <v>572</v>
+        <v>1443</v>
+      </c>
+      <c r="E94" s="66" t="s">
+        <v>130</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G94" s="76">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="C95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" s="68" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E95" s="66" t="s">
-        <v>647</v>
-      </c>
-      <c r="F95" s="76" t="s">
-        <v>183</v>
+        <v>48</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E95" s="68" t="s">
+        <v>572</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="G95" s="76">
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="C96" t="s">
         <v>49</v>
       </c>
       <c r="D96" s="68" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E96" s="79" t="s">
-        <v>572</v>
+        <v>1597</v>
+      </c>
+      <c r="E96" s="66" t="s">
+        <v>647</v>
+      </c>
+      <c r="F96" s="76" t="s">
+        <v>183</v>
       </c>
       <c r="G96" s="76">
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
-      <c r="D97" s="77"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" t="s">
+      <c r="C97" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="68" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E97" s="79" t="s">
+        <v>572</v>
+      </c>
+      <c r="G97" s="76">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="D98" s="77"/>
+    </row>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" t="s">
         <v>125</v>
       </c>
-      <c r="C98" t="s">
-        <v>48</v>
-      </c>
-      <c r="D98" s="19" t="s">
+      <c r="C99" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="19" t="s">
         <v>1449</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>573</v>
-      </c>
-      <c r="F98" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="G98">
-        <v>0.5</v>
-      </c>
-      <c r="H98" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="C99" t="s">
-        <v>48</v>
-      </c>
-      <c r="D99" s="76" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E99" s="66" t="s">
-        <v>1488</v>
       </c>
       <c r="F99" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="G99" s="76">
-        <v>1</v>
+      <c r="G99">
+        <v>0.5</v>
       </c>
       <c r="H99" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1604</v>
+      </c>
+      <c r="I99" t="s">
+        <v>768</v>
+      </c>
+      <c r="L99" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="C100" t="s">
         <v>48</v>
       </c>
       <c r="D100" s="76" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E100" s="66" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F100" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="G100" s="76">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I100" t="s">
+        <v>768</v>
+      </c>
+      <c r="L100" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="C101" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" s="76" t="s">
         <v>1436</v>
       </c>
-      <c r="E100" s="66" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F100" s="76" t="s">
+      <c r="E101" s="66" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F101" s="76" t="s">
         <v>183</v>
-      </c>
-      <c r="G100">
-        <v>0.5</v>
-      </c>
-      <c r="H100" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="C101" t="s">
-        <v>48</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1445</v>
-      </c>
-      <c r="E101" s="66" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F101" s="76" t="s">
-        <v>170</v>
       </c>
       <c r="G101">
         <v>0.5</v>
@@ -34909,214 +34998,210 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
       <c r="C102" t="s">
         <v>48</v>
       </c>
       <c r="D102" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E102" s="66" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F102" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="G102">
+        <v>0.5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="C103" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" t="s">
         <v>1437</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>1438</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F103" t="s">
         <v>170</v>
       </c>
-      <c r="G102">
+      <c r="G103">
         <v>0.25</v>
       </c>
-      <c r="H102" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="C103" t="s">
+      <c r="H103" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="C104" t="s">
         <v>49</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D104" s="18" t="s">
         <v>1447</v>
       </c>
-      <c r="E103" s="66" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F103" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="G103" s="76">
-        <v>1</v>
-      </c>
-      <c r="H103" s="76" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="C104" t="s">
-        <v>48</v>
-      </c>
-      <c r="D104" s="79" t="s">
+      <c r="E104" s="66" t="s">
         <v>1487</v>
-      </c>
-      <c r="E104" s="66" t="s">
-        <v>1488</v>
       </c>
       <c r="F104" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="G104">
-        <v>0.25</v>
-      </c>
-      <c r="H104" s="79" t="s">
+      <c r="G104" s="76">
+        <v>1</v>
+      </c>
+      <c r="H104" s="76" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="C105" t="s">
         <v>48</v>
       </c>
       <c r="D105" s="79" t="s">
-        <v>1306</v>
+        <v>1486</v>
       </c>
       <c r="E105" s="66" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F105" s="76" t="s">
         <v>183</v>
       </c>
       <c r="G105">
+        <v>0.25</v>
+      </c>
+      <c r="H105" s="79" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="C106" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="79" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E106" s="66" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F106" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G106">
         <v>0.5</v>
       </c>
-      <c r="H105" s="79" t="s">
+      <c r="H106" s="79" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="C106" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E106" t="s">
-        <v>647</v>
-      </c>
-      <c r="F106" t="s">
-        <v>183</v>
-      </c>
-      <c r="G106" s="76">
-        <v>1</v>
-      </c>
-      <c r="H106" s="76" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="C107" t="s">
         <v>48</v>
       </c>
       <c r="D107" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E107" s="66" t="s">
-        <v>1307</v>
-      </c>
-      <c r="F107" s="76" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E107" t="s">
+        <v>647</v>
+      </c>
+      <c r="F107" t="s">
         <v>183</v>
       </c>
       <c r="G107" s="76">
         <v>1</v>
       </c>
       <c r="H107" s="76" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="C108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E108" s="66" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F108" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G108" s="76">
+        <v>1</v>
+      </c>
+      <c r="H108" s="76" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="80"/>
-      <c r="B110" s="55" t="s">
+    <row r="111" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="80"/>
+      <c r="B111" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C110" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D110" s="58" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E110" s="56" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F110" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="G110" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="H110" s="56" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I110" s="49"/>
-      <c r="K110" s="55" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="80"/>
       <c r="C111" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D111" s="58" t="s">
-        <v>1617</v>
+        <v>1491</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="F111" s="56" t="s">
         <v>182</v>
       </c>
       <c r="G111" s="55">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H111" s="56" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="I111" s="49" t="s">
         <v>768</v>
       </c>
       <c r="K111" s="55" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="80"/>
       <c r="C112" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D112" s="58" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="E112" s="56" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="F112" s="56" t="s">
-        <v>1512</v>
+        <v>182</v>
       </c>
       <c r="G112" s="55">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H112" s="56" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="I112" s="49" t="s">
         <v>768</v>
@@ -35125,77 +35210,88 @@
         <v>768</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="80"/>
-      <c r="C113" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D113" s="49" t="s">
+      <c r="C113" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="58" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E113" s="56" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F113" s="56" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G113" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="H113" s="56" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I113" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="K113" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="80"/>
+      <c r="C114" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="49" t="s">
         <v>1475</v>
       </c>
-      <c r="E113" s="49" t="s">
+      <c r="E114" s="49" t="s">
         <v>1194</v>
       </c>
-      <c r="F113" s="49" t="s">
+      <c r="F114" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="G113" s="49">
+      <c r="G114" s="49">
         <v>2</v>
       </c>
-      <c r="H113" s="49" t="s">
+      <c r="H114" s="49" t="s">
         <v>1007</v>
       </c>
-      <c r="K113" s="49" t="s">
+      <c r="K114" s="49" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="80"/>
-      <c r="C114" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D114" s="55" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E114" s="56" t="s">
-        <v>586</v>
-      </c>
-      <c r="F114" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="G114" s="55">
-        <v>1</v>
-      </c>
-      <c r="H114" s="55" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I114" s="49"/>
-      <c r="K114" s="55" t="s">
+      <c r="L114" s="49" t="s">
         <v>764</v>
       </c>
-      <c r="M114" s="49"/>
     </row>
     <row r="115" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="80"/>
       <c r="C115" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D115" s="58" t="s">
-        <v>1621</v>
+      <c r="D115" s="55" t="s">
+        <v>1331</v>
       </c>
       <c r="E115" s="56" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F115" s="56" t="s">
-        <v>171</v>
+        <v>586</v>
+      </c>
+      <c r="F115" s="55" t="s">
+        <v>182</v>
       </c>
       <c r="G115" s="55">
         <v>1</v>
       </c>
       <c r="H115" s="55" t="s">
-        <v>1622</v>
+        <v>1332</v>
       </c>
       <c r="I115" s="49"/>
+      <c r="K115" s="55" t="s">
+        <v>764</v>
+      </c>
+      <c r="L115" s="55" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M115" s="49"/>
     </row>
     <row r="116" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="80"/>
@@ -35203,43 +35299,51 @@
         <v>48</v>
       </c>
       <c r="D116" s="58" t="s">
-        <v>900</v>
+        <v>1620</v>
       </c>
       <c r="E116" s="56" t="s">
-        <v>471</v>
+        <v>1496</v>
       </c>
       <c r="F116" s="56" t="s">
         <v>171</v>
       </c>
       <c r="G116" s="55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H116" s="55" t="s">
-        <v>1402</v>
+        <v>1621</v>
       </c>
       <c r="I116" s="49"/>
-    </row>
-    <row r="117" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L116" s="55" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="80"/>
       <c r="C117" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D117" s="58" t="s">
-        <v>1419</v>
+        <v>900</v>
       </c>
       <c r="E117" s="56" t="s">
         <v>471</v>
       </c>
-      <c r="F117" s="87" t="s">
-        <v>170</v>
+      <c r="F117" s="56" t="s">
+        <v>171</v>
       </c>
       <c r="G117" s="55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H117" s="55" t="s">
-        <v>1623</v>
-      </c>
-      <c r="I117" s="49"/>
+        <v>1402</v>
+      </c>
+      <c r="I117" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="L117" s="55" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="118" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="80"/>
@@ -35247,7 +35351,7 @@
         <v>48</v>
       </c>
       <c r="D118" s="58" t="s">
-        <v>1432</v>
+        <v>1419</v>
       </c>
       <c r="E118" s="56" t="s">
         <v>471</v>
@@ -35256,10 +35360,10 @@
         <v>170</v>
       </c>
       <c r="G118" s="55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H118" s="55" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="I118" s="49"/>
     </row>
@@ -35269,32 +35373,32 @@
         <v>48</v>
       </c>
       <c r="D119" s="58" t="s">
-        <v>1625</v>
+        <v>1432</v>
       </c>
       <c r="E119" s="56" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F119" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="F119" s="87" t="s">
         <v>170</v>
       </c>
       <c r="G119" s="55">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H119" s="55" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="I119" s="49"/>
     </row>
-    <row r="120" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="80"/>
       <c r="C120" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D120" s="58" t="s">
-        <v>1514</v>
+        <v>1624</v>
       </c>
       <c r="E120" s="56" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F120" s="56" t="s">
         <v>170</v>
@@ -35303,31 +35407,41 @@
         <v>0.1</v>
       </c>
       <c r="H120" s="55" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I120" s="49"/>
-    </row>
-    <row r="121" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1625</v>
+      </c>
+      <c r="I120" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L120" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="80"/>
       <c r="C121" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D121" s="58" t="s">
-        <v>1458</v>
+        <v>1513</v>
       </c>
       <c r="E121" s="56" t="s">
-        <v>588</v>
+        <v>1510</v>
       </c>
       <c r="F121" s="56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G121" s="55">
         <v>0.1</v>
       </c>
       <c r="H121" s="55" t="s">
-        <v>1627</v>
-      </c>
-      <c r="I121" s="49"/>
+        <v>1625</v>
+      </c>
+      <c r="I121" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L121" s="55" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="122" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="80"/>
@@ -35335,19 +35449,19 @@
         <v>48</v>
       </c>
       <c r="D122" s="58" t="s">
-        <v>1198</v>
+        <v>1458</v>
       </c>
       <c r="E122" s="56" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F122" s="56" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G122" s="55">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H122" s="55" t="s">
-        <v>1031</v>
+        <v>1626</v>
       </c>
       <c r="I122" s="49"/>
     </row>
@@ -35357,7 +35471,7 @@
         <v>48</v>
       </c>
       <c r="D123" s="58" t="s">
-        <v>893</v>
+        <v>1198</v>
       </c>
       <c r="E123" s="56" t="s">
         <v>586</v>
@@ -35366,10 +35480,10 @@
         <v>176</v>
       </c>
       <c r="G123" s="55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H123" s="55" t="s">
-        <v>892</v>
+        <v>1031</v>
       </c>
       <c r="I123" s="49"/>
     </row>
@@ -35379,19 +35493,19 @@
         <v>48</v>
       </c>
       <c r="D124" s="58" t="s">
-        <v>1220</v>
+        <v>893</v>
       </c>
       <c r="E124" s="56" t="s">
         <v>586</v>
       </c>
       <c r="F124" s="56" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G124" s="55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H124" s="55" t="s">
-        <v>1339</v>
+        <v>892</v>
       </c>
       <c r="I124" s="49"/>
     </row>
@@ -35401,49 +35515,51 @@
         <v>48</v>
       </c>
       <c r="D125" s="58" t="s">
-        <v>1628</v>
+        <v>1220</v>
       </c>
       <c r="E125" s="56" t="s">
-        <v>1511</v>
+        <v>586</v>
       </c>
       <c r="F125" s="56" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G125" s="55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H125" s="55" t="s">
-        <v>1629</v>
+        <v>1339</v>
       </c>
       <c r="I125" s="49"/>
     </row>
     <row r="126" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="80"/>
+      <c r="C126" s="55" t="s">
+        <v>48</v>
+      </c>
       <c r="D126" s="58" t="s">
-        <v>1499</v>
-      </c>
-      <c r="E126" s="56"/>
-      <c r="F126" s="56"/>
+        <v>1627</v>
+      </c>
+      <c r="E126" s="56" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F126" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="G126" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="H126" s="55" t="s">
+        <v>1628</v>
+      </c>
       <c r="I126" s="49"/>
     </row>
     <row r="127" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="80"/>
-      <c r="C127" s="55" t="s">
-        <v>49</v>
-      </c>
       <c r="D127" s="58" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E127" s="56" t="s">
-        <v>1040</v>
-      </c>
+        <v>1498</v>
+      </c>
+      <c r="E127" s="56"/>
       <c r="F127" s="56"/>
-      <c r="G127" s="55">
-        <v>9</v>
-      </c>
-      <c r="H127" s="55" t="s">
-        <v>1630</v>
-      </c>
       <c r="I127" s="49"/>
     </row>
     <row r="128" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
@@ -35452,264 +35568,283 @@
         <v>49</v>
       </c>
       <c r="D128" s="58" t="s">
-        <v>1222</v>
+        <v>1456</v>
       </c>
       <c r="E128" s="56" t="s">
         <v>1040</v>
       </c>
       <c r="F128" s="56"/>
-      <c r="H128" s="49" t="s">
-        <v>1340</v>
+      <c r="G128" s="55">
+        <v>9</v>
+      </c>
+      <c r="H128" s="55" t="s">
+        <v>1629</v>
       </c>
       <c r="I128" s="49"/>
     </row>
-    <row r="129" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="80"/>
       <c r="C129" s="55" t="s">
         <v>49</v>
       </c>
       <c r="D129" s="58" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E129" s="56" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F129" s="56"/>
+      <c r="H129" s="49" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I129" s="49"/>
+    </row>
+    <row r="130" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="80"/>
+      <c r="C130" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="58" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E130" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="F130" s="56"/>
+      <c r="G130" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="H130" s="55" t="s">
         <v>1631</v>
       </c>
-      <c r="E129" s="56" t="s">
-        <v>471</v>
-      </c>
-      <c r="F129" s="56"/>
-      <c r="G129" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="H129" s="55" t="s">
-        <v>1632</v>
-      </c>
-      <c r="I129" s="49"/>
-    </row>
-    <row r="130" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="80"/>
-      <c r="D130" s="58"/>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
       <c r="I130" s="49"/>
     </row>
-    <row r="131" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="80"/>
-      <c r="B131" s="55" t="s">
+      <c r="D131" s="58"/>
+      <c r="E131" s="56"/>
+      <c r="F131" s="56"/>
+      <c r="I131" s="49"/>
+    </row>
+    <row r="132" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="80"/>
+      <c r="B132" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C131" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D131" s="55" t="s">
+      <c r="C132" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="55" t="s">
         <v>1415</v>
-      </c>
-      <c r="E131" s="55" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F131" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="G131" s="55">
-        <v>2</v>
-      </c>
-      <c r="H131" s="55" t="s">
-        <v>1633</v>
-      </c>
-      <c r="I131" s="49"/>
-    </row>
-    <row r="132" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="80"/>
-      <c r="C132" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132" s="55" t="s">
-        <v>1455</v>
       </c>
       <c r="E132" s="55" t="s">
         <v>1080</v>
       </c>
       <c r="F132" s="56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G132" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" s="55" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="I132" s="49"/>
-    </row>
-    <row r="133" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L132" s="55" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="80"/>
       <c r="C133" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D133" s="58" t="s">
+      <c r="D133" s="55" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E133" s="55" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F133" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G133" s="55">
+        <v>1</v>
+      </c>
+      <c r="H133" s="55" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I133" s="49"/>
+    </row>
+    <row r="134" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="80"/>
+      <c r="C134" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" s="58" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E134" s="56" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F134" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="G134" s="55">
+        <v>2</v>
+      </c>
+      <c r="H134" s="55" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I134" s="49"/>
+    </row>
+    <row r="135" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="80"/>
+      <c r="I135" s="49"/>
+    </row>
+    <row r="136" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="80"/>
+      <c r="B136" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="58" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E136" s="56" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F136" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="G136" s="55">
+        <v>0</v>
+      </c>
+      <c r="I136" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L136" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="80"/>
+      <c r="C137" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="58" t="s">
         <v>1636</v>
       </c>
-      <c r="E133" s="56" t="s">
+      <c r="E137" s="56" t="s">
         <v>1403</v>
       </c>
-      <c r="F133" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="G133" s="55">
-        <v>2</v>
-      </c>
-      <c r="H133" s="55" t="s">
-        <v>1635</v>
-      </c>
-      <c r="I133" s="49"/>
-    </row>
-    <row r="134" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="80"/>
-      <c r="I134" s="49"/>
-    </row>
-    <row r="135" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="80"/>
-      <c r="B135" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="C135" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D135" s="58" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E135" s="56" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F135" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="G135" s="55">
-        <v>0</v>
-      </c>
-      <c r="I135" s="49"/>
-    </row>
-    <row r="136" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="80"/>
-      <c r="C136" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="58" t="s">
+      <c r="F137" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G137" s="55">
+        <v>3</v>
+      </c>
+      <c r="H137" s="55" t="s">
         <v>1637</v>
       </c>
-      <c r="E136" s="56" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F136" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="G136" s="55">
-        <v>3</v>
-      </c>
-      <c r="H136" s="55" t="s">
-        <v>1638</v>
-      </c>
-      <c r="I136" s="49"/>
-    </row>
-    <row r="137" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="80"/>
-      <c r="D137" s="58"/>
-      <c r="E137" s="56"/>
-      <c r="F137" s="56"/>
-      <c r="I137" s="49"/>
-    </row>
-    <row r="138" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I137" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L137" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="80"/>
-      <c r="B138" s="55" t="s">
+      <c r="D138" s="58"/>
+      <c r="E138" s="56"/>
+      <c r="F138" s="56"/>
+      <c r="I138" s="49"/>
+    </row>
+    <row r="139" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="80"/>
+      <c r="B139" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="C138" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="55" t="s">
+      <c r="C139" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" s="55" t="s">
         <v>1452</v>
       </c>
-      <c r="E138" s="55" t="s">
+      <c r="E139" s="55" t="s">
         <v>1453</v>
       </c>
-      <c r="F138" s="56" t="s">
+      <c r="F139" s="56" t="s">
         <v>171</v>
-      </c>
-      <c r="G138" s="55">
-        <v>0</v>
-      </c>
-      <c r="I138" s="49"/>
-    </row>
-    <row r="139" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="80"/>
-      <c r="C139" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" s="58" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E139" s="56" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F139" s="56" t="s">
-        <v>170</v>
       </c>
       <c r="G139" s="55">
         <v>0</v>
       </c>
       <c r="I139" s="49"/>
-    </row>
-    <row r="140" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L139" s="55" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="80"/>
-      <c r="D140" s="58"/>
-      <c r="E140" s="56"/>
-      <c r="F140" s="56"/>
+      <c r="C140" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="58" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E140" s="56" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F140" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G140" s="55">
+        <v>0</v>
+      </c>
       <c r="I140" s="49"/>
     </row>
-    <row r="141" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="80"/>
-      <c r="B141" s="55" t="s">
+      <c r="D141" s="58"/>
+      <c r="E141" s="56"/>
+      <c r="F141" s="56"/>
+      <c r="I141" s="49"/>
+    </row>
+    <row r="142" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="80"/>
+      <c r="B142" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="58" t="s">
+      <c r="C142" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" s="58" t="s">
         <v>1176</v>
       </c>
-      <c r="E141" s="56" t="s">
+      <c r="E142" s="56" t="s">
         <v>599</v>
       </c>
-      <c r="F141" s="56" t="s">
+      <c r="F142" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="G141" s="55">
+      <c r="G142" s="55">
         <v>2</v>
       </c>
-      <c r="H141" s="55" t="s">
+      <c r="H142" s="55" t="s">
         <v>1404</v>
       </c>
-      <c r="I141" s="49"/>
-    </row>
-    <row r="142" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="80"/>
-      <c r="C142" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D142" s="58" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E142" s="56" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F142" s="56" t="s">
-        <v>1509</v>
-      </c>
-      <c r="G142" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="H142" s="55" t="s">
-        <v>1641</v>
-      </c>
-      <c r="I142" s="49"/>
-    </row>
-    <row r="143" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I142" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="L142" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="80"/>
       <c r="C143" s="55" t="s">
         <v>48</v>
@@ -35718,159 +35853,162 @@
         <v>1639</v>
       </c>
       <c r="E143" s="56" t="s">
-        <v>588</v>
+        <v>1507</v>
       </c>
       <c r="F143" s="56" t="s">
-        <v>172</v>
+        <v>1508</v>
       </c>
       <c r="G143" s="55">
         <v>0.5</v>
       </c>
       <c r="H143" s="55" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="I143" s="49"/>
     </row>
-    <row r="144" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="80"/>
       <c r="C144" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="90" t="s">
-        <v>1644</v>
+      <c r="D144" s="58" t="s">
+        <v>1638</v>
       </c>
       <c r="E144" s="56" t="s">
-        <v>1508</v>
+        <v>588</v>
       </c>
       <c r="F144" s="56" t="s">
-        <v>1510</v>
+        <v>172</v>
       </c>
       <c r="G144" s="55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H144" s="55" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="I144" s="49"/>
     </row>
     <row r="145" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="80"/>
       <c r="C145" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D145" s="58" t="s">
-        <v>1421</v>
+        <v>48</v>
+      </c>
+      <c r="D145" s="90" t="s">
+        <v>1643</v>
       </c>
       <c r="E145" s="56" t="s">
-        <v>599</v>
+        <v>1507</v>
       </c>
       <c r="F145" s="56" t="s">
-        <v>183</v>
+        <v>1509</v>
       </c>
       <c r="G145" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" s="55" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="I145" s="49"/>
     </row>
     <row r="146" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="80"/>
-      <c r="D146" s="58"/>
-      <c r="E146" s="56"/>
-      <c r="F146" s="56"/>
+      <c r="C146" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D146" s="58" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E146" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="F146" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="G146" s="55">
+        <v>2</v>
+      </c>
+      <c r="H146" s="55" t="s">
+        <v>1644</v>
+      </c>
       <c r="I146" s="49"/>
     </row>
     <row r="147" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="80"/>
-      <c r="B147" s="55" t="s">
+      <c r="D147" s="58"/>
+      <c r="E147" s="56"/>
+      <c r="F147" s="56"/>
+      <c r="I147" s="49"/>
+    </row>
+    <row r="148" spans="1:16" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="80"/>
+      <c r="B148" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C147" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D147" s="49" t="s">
+      <c r="C148" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" s="49" t="s">
         <v>910</v>
       </c>
-      <c r="E147" s="56" t="s">
+      <c r="E148" s="56" t="s">
         <v>1459</v>
       </c>
-      <c r="F147" s="56" t="s">
+      <c r="F148" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="G147" s="55">
+      <c r="G148" s="55">
         <v>0.1</v>
       </c>
-      <c r="H147" s="55" t="s">
+      <c r="H148" s="55" t="s">
         <v>1416</v>
       </c>
-      <c r="I147" s="49" t="s">
+      <c r="I148" s="49" t="s">
         <v>768</v>
       </c>
-      <c r="K147" s="55" t="s">
+      <c r="K148" s="55" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="148" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="80"/>
-      <c r="C148" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D148" s="49" t="s">
+    <row r="149" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="80"/>
+      <c r="C149" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" s="49" t="s">
         <v>1474</v>
       </c>
-      <c r="E148" s="56" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F148" s="56" t="s">
+      <c r="E149" s="56" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F149" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="G148" s="55">
+      <c r="G149" s="55">
         <v>1</v>
       </c>
-      <c r="H148" s="56" t="s">
-        <v>1646</v>
-      </c>
-      <c r="I148" s="49"/>
-    </row>
-    <row r="149" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="80"/>
-      <c r="B149" s="55"/>
-      <c r="C149" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D149" s="49" t="s">
+      <c r="H149" s="56" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I149" s="49"/>
+    </row>
+    <row r="150" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="80"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D150" s="49" t="s">
         <v>905</v>
       </c>
-      <c r="E149" s="49" t="s">
+      <c r="E150" s="49" t="s">
         <v>1064</v>
       </c>
-      <c r="F149" s="49" t="s">
+      <c r="F150" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="H149" s="49" t="s">
+      <c r="H150" s="49" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="80"/>
-      <c r="C150" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D150" s="58" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E150" s="56" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F150" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="H150" s="55" t="s">
-        <v>1405</v>
-      </c>
-      <c r="I150" s="49"/>
     </row>
     <row r="151" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="80"/>
@@ -35878,16 +36016,16 @@
         <v>48</v>
       </c>
       <c r="D151" s="58" t="s">
-        <v>1450</v>
+        <v>1180</v>
       </c>
       <c r="E151" s="56" t="s">
-        <v>1451</v>
+        <v>1064</v>
       </c>
       <c r="F151" s="56" t="s">
         <v>183</v>
       </c>
       <c r="H151" s="55" t="s">
-        <v>1647</v>
+        <v>1405</v>
       </c>
       <c r="I151" s="49"/>
     </row>
@@ -35897,16 +36035,16 @@
         <v>48</v>
       </c>
       <c r="D152" s="58" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="E152" s="56" t="s">
-        <v>824</v>
+        <v>1451</v>
       </c>
       <c r="F152" s="56" t="s">
         <v>183</v>
       </c>
       <c r="H152" s="55" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="I152" s="49"/>
     </row>
@@ -35915,48 +36053,60 @@
       <c r="C153" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D153" s="50" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E153" s="49" t="s">
-        <v>599</v>
-      </c>
-      <c r="F153" s="49" t="s">
+      <c r="D153" s="58" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E153" s="56" t="s">
+        <v>824</v>
+      </c>
+      <c r="F153" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="G153" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="H153" s="49" t="s">
-        <v>1346</v>
+      <c r="H153" s="55" t="s">
+        <v>1647</v>
       </c>
       <c r="I153" s="49"/>
     </row>
     <row r="154" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="80"/>
       <c r="C154" s="55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D154" s="50" t="s">
-        <v>1649</v>
+        <v>1345</v>
       </c>
       <c r="E154" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="F154" s="56"/>
-      <c r="G154" s="55">
+      <c r="F154" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G154" s="49">
         <v>0.1</v>
       </c>
-      <c r="H154" s="55" t="s">
-        <v>1650</v>
+      <c r="H154" s="49" t="s">
+        <v>1346</v>
       </c>
       <c r="I154" s="49"/>
     </row>
     <row r="155" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="80"/>
-      <c r="D155" s="49"/>
-      <c r="E155" s="56"/>
+      <c r="C155" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155" s="50" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E155" s="49" t="s">
+        <v>599</v>
+      </c>
       <c r="F155" s="56"/>
+      <c r="G155" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="H155" s="55" t="s">
+        <v>1649</v>
+      </c>
       <c r="I155" s="49"/>
     </row>
     <row r="156" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
@@ -35968,39 +36118,26 @@
     </row>
     <row r="157" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="80"/>
-      <c r="D157" s="58"/>
+      <c r="D157" s="49"/>
       <c r="E157" s="56"/>
       <c r="F157" s="56"/>
       <c r="I157" s="49"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
+    <row r="158" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="80"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="56"/>
+      <c r="F158" s="56"/>
+      <c r="I158" s="49"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="8"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-    </row>
-    <row r="160" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -36009,11 +36146,17 @@
       <c r="H160" s="8"/>
       <c r="I160" s="9"/>
       <c r="J160" s="8"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
     </row>
     <row r="161" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
+      <c r="A161" s="3"/>
       <c r="B161" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -36025,9 +36168,9 @@
       <c r="J161" s="8"/>
     </row>
     <row r="162" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
+      <c r="A162" s="2"/>
       <c r="B162" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -36038,12 +36181,13 @@
       <c r="I162" s="9"/>
       <c r="J162" s="8"/>
     </row>
-    <row r="163" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="10" t="s">
-        <v>24</v>
+    <row r="163" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="8"/>
@@ -36053,16 +36197,12 @@
     </row>
     <row r="164" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
-      <c r="B164" s="8" t="s">
-        <v>25</v>
+      <c r="B164" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C164" s="2"/>
-      <c r="D164" s="16" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E164" s="76" t="s">
-        <v>172</v>
-      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="9"/>
@@ -36070,12 +36210,15 @@
     </row>
     <row r="165" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
+      <c r="B165" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C165" s="2"/>
       <c r="D165" s="16" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="E165" s="76" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
@@ -36084,10 +36227,9 @@
     </row>
     <row r="166" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="16" t="s">
-        <v>1244</v>
+        <v>1427</v>
       </c>
       <c r="E166" s="76" t="s">
         <v>176</v>
@@ -36102,10 +36244,10 @@
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="16" t="s">
-        <v>1439</v>
+        <v>1244</v>
       </c>
       <c r="E167" s="76" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
@@ -36116,9 +36258,12 @@
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
+      <c r="D168" s="16" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E168" s="76" t="s">
+        <v>183</v>
+      </c>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
       <c r="I168" s="9"/>
@@ -36138,33 +36283,29 @@
     </row>
     <row r="170" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
-      <c r="B170" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B170" s="2"/>
       <c r="C170" s="2"/>
-      <c r="D170" s="2" t="s">
-        <v>1460</v>
-      </c>
+      <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
       <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
+      <c r="J170" s="8"/>
     </row>
     <row r="171" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
+      <c r="B171" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>1502</v>
-      </c>
+        <v>1460</v>
+      </c>
+      <c r="E171" s="2"/>
       <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
     </row>
@@ -36173,7 +36314,7 @@
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>1501</v>
@@ -36189,32 +36330,26 @@
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="9"/>
       <c r="J173" s="9"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
     </row>
     <row r="174" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -36233,10 +36368,10 @@
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>1466</v>
+        <v>1503</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -36252,12 +36387,14 @@
     </row>
     <row r="176" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
-      <c r="B176" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B176" s="2"/>
       <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
+      <c r="D176" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>1466</v>
+      </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
@@ -36270,55 +36407,52 @@
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
-      <c r="B177" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E177" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F177" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G177" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H177" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J177" s="13"/>
+      <c r="B177" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
-    </row>
-    <row r="178" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P177" s="2"/>
+    </row>
+    <row r="178" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
-      <c r="B178" s="24"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E178" s="25"/>
-      <c r="F178" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G178" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H178" s="27"/>
-      <c r="I178" s="28"/>
+      <c r="B178" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I178" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="J178" s="13"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
@@ -36326,20 +36460,22 @@
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
-      <c r="B179" s="31"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E179" s="31"/>
-      <c r="F179" s="31"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E179" s="25"/>
+      <c r="F179" s="25" t="s">
+        <v>149</v>
+      </c>
       <c r="G179" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H179" s="31"/>
-      <c r="I179" s="30"/>
+        <v>150</v>
+      </c>
+      <c r="H179" s="27"/>
+      <c r="I179" s="28"/>
       <c r="J179" s="13"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
@@ -36347,21 +36483,19 @@
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
-      <c r="B180" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C180" s="24"/>
-      <c r="D180" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E180" s="24"/>
-      <c r="F180" s="24"/>
-      <c r="G180" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="H180" s="24"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H180" s="31"/>
       <c r="I180" s="30"/>
       <c r="J180" s="13"/>
       <c r="K180" s="2"/>
@@ -36370,193 +36504,206 @@
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C181" s="31"/>
-      <c r="D181" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E181" s="31"/>
-      <c r="F181" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G181" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H181" s="31"/>
+    <row r="181" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C181" s="24"/>
+      <c r="D181" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E181" s="24"/>
+      <c r="F181" s="24"/>
+      <c r="G181" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H181" s="24"/>
       <c r="I181" s="30"/>
       <c r="J181" s="13"/>
-    </row>
-    <row r="182" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="24"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="24" t="s">
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+    </row>
+    <row r="182" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C182" s="31"/>
+      <c r="D182" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E182" s="31"/>
+      <c r="F182" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G182" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H182" s="31"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="13"/>
+    </row>
+    <row r="183" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="24"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E182" s="24"/>
-      <c r="F182" s="24"/>
-      <c r="G182" s="29" t="s">
+      <c r="E183" s="24"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H182" s="24" t="s">
+      <c r="H183" s="24" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I183" s="30" t="s">
         <v>1505</v>
       </c>
-      <c r="I182" s="30" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J182" s="13"/>
-    </row>
-    <row r="183" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E183" s="31"/>
-      <c r="F183" s="32"/>
-      <c r="G183" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H183" s="31" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I183" s="30" t="s">
-        <v>1507</v>
-      </c>
       <c r="J183" s="13"/>
     </row>
-    <row r="184" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="31" t="s">
-        <v>1418</v>
-      </c>
+    <row r="184" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="31"/>
       <c r="C184" s="31"/>
       <c r="D184" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E184" s="31"/>
+      <c r="F184" s="32"/>
+      <c r="G184" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H184" s="31" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I184" s="30" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J184" s="13"/>
+    </row>
+    <row r="185" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="31" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="E184" s="31"/>
-      <c r="F184" s="32">
+      <c r="E185" s="31"/>
+      <c r="F185" s="32">
         <v>42452</v>
       </c>
-      <c r="G184" s="26" t="s">
+      <c r="G185" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="H184" s="31"/>
-      <c r="I184" s="30" t="s">
+      <c r="H185" s="31"/>
+      <c r="I185" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="J184" s="13"/>
-    </row>
-    <row r="185" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="E185" s="11"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="45" t="s">
-        <v>550</v>
-      </c>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
       <c r="J185" s="13"/>
     </row>
-    <row r="186" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="E186" s="11"/>
-      <c r="F186" s="78">
-        <v>42452</v>
-      </c>
+      <c r="F186" s="11"/>
       <c r="G186" s="45" t="s">
-        <v>78</v>
+        <v>550</v>
       </c>
       <c r="H186" s="11"/>
       <c r="I186" s="11"/>
       <c r="J186" s="13"/>
     </row>
-    <row r="187" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11" t="s">
-        <v>910</v>
+        <v>610</v>
       </c>
       <c r="E187" s="11"/>
       <c r="F187" s="78">
         <v>42452</v>
       </c>
       <c r="G187" s="45" t="s">
-        <v>911</v>
+        <v>78</v>
       </c>
       <c r="H187" s="11"/>
       <c r="I187" s="11"/>
       <c r="J187" s="13"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11" t="s">
-        <v>947</v>
+        <v>910</v>
       </c>
       <c r="E188" s="11"/>
       <c r="F188" s="78">
+        <v>42452</v>
+      </c>
+      <c r="G188" s="45" t="s">
+        <v>911</v>
+      </c>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="13"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="E189" s="11"/>
+      <c r="F189" s="78">
         <v>42445</v>
       </c>
-      <c r="G188" s="45" t="s">
+      <c r="G189" s="45" t="s">
         <v>948</v>
       </c>
-      <c r="H188" s="11" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I188" s="11"/>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189" s="7"/>
-      <c r="B189" s="30"/>
-      <c r="C189" s="30"/>
-      <c r="D189" s="30" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E189" s="30"/>
-      <c r="F189" s="78">
-        <v>42452</v>
-      </c>
-      <c r="G189" s="84" t="s">
-        <v>773</v>
-      </c>
-      <c r="H189" s="30"/>
-      <c r="I189" s="30"/>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H189" s="11" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I189" s="11"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" s="7"/>
       <c r="B190" s="30"/>
       <c r="C190" s="30"/>
       <c r="D190" s="30" t="s">
-        <v>1230</v>
+        <v>1162</v>
       </c>
       <c r="E190" s="30"/>
-      <c r="F190" s="30"/>
-      <c r="G190" s="30" t="s">
-        <v>1231</v>
+      <c r="F190" s="78">
+        <v>42452</v>
+      </c>
+      <c r="G190" s="84" t="s">
+        <v>773</v>
       </c>
       <c r="H190" s="30"/>
       <c r="I190" s="30"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B191" s="30"/>
       <c r="C191" s="30"/>
-      <c r="D191" s="30"/>
+      <c r="D191" s="30" t="s">
+        <v>1230</v>
+      </c>
       <c r="E191" s="30"/>
       <c r="F191" s="30"/>
-      <c r="G191" s="30"/>
+      <c r="G191" s="30" t="s">
+        <v>1231</v>
+      </c>
       <c r="H191" s="30"/>
       <c r="I191" s="30"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B192" s="30"/>
       <c r="C192" s="30"/>
       <c r="D192" s="30"/>
@@ -36586,8 +36733,15 @@
       <c r="H194" s="30"/>
       <c r="I194" s="30"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="7"/>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="30"/>
+      <c r="C195" s="30"/>
+      <c r="D195" s="30"/>
+      <c r="E195" s="30"/>
+      <c r="F195" s="30"/>
+      <c r="G195" s="30"/>
+      <c r="H195" s="30"/>
+      <c r="I195" s="30"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
@@ -36961,20 +37115,27 @@
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="7"/>
     </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P157"/>
+  <autoFilter ref="A1:P158">
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B164 A159:F162">
+  <conditionalFormatting sqref="B165 A160:F163">
     <cfRule type="cellIs" dxfId="14" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
+  <conditionalFormatting sqref="A124">
     <cfRule type="cellIs" dxfId="13" priority="66" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D158">
+  <conditionalFormatting sqref="D159">
     <cfRule type="cellIs" dxfId="12" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -36989,12 +37150,12 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
+  <conditionalFormatting sqref="A99">
     <cfRule type="cellIs" dxfId="9" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D147:D148 D155:D156">
+  <conditionalFormatting sqref="D148:D149 D156:D157">
     <cfRule type="cellIs" dxfId="8" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -37004,7 +37165,7 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
+  <conditionalFormatting sqref="A38">
     <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -37014,17 +37175,17 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
+  <conditionalFormatting sqref="A90">
     <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
+  <conditionalFormatting sqref="A88">
     <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A33">
     <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -37038,22 +37199,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I187:I1048576 I73 I115:I122 I78:I112 I124:I158 I1:I69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I188:I1048576 I74 I116:I123 I79:I113 I125:I159 I1:I70">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F190:F1048576 E164:E167 F71:F133 F135:F158 F1:F69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F191:F1048576 E165:E168 F72:F134 F136:F159 F1:F70">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C187:C1048576 C71:C133 C135:C158 C1:C69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C188:C1048576 C72:C134 C136:C159 C1:C70">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I124">
       <formula1>"完成,未完成,阻碍,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B185:B1048576 B1:B2 B155:B177 B4:B7 B9:B12 B34:B46 B14:B32 B57:B66 B68:B91 B93:B103 B151:B153 B105:B149 B48:B55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B186:B1048576 B1:B2 B156:B178 B4:B7 B9:B12 B35:B47 B14:B33 B58:B67 B69:B92 B94:B104 B152:B154 B106:B150 B49:B56">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I113:I114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I114:I115">
       <formula1>"完成,未完成,阻碍,取消,暂停"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37077,99 +37238,99 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="91" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C4" s="91" t="s">
         <v>1535</v>
       </c>
-      <c r="C4" s="92" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="91" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="92" t="s">
+      <c r="C5" s="91" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="91" t="s">
         <v>1537</v>
       </c>
-      <c r="C5" s="92" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="92" t="s">
+      <c r="C6" s="91" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="91" t="s">
         <v>1538</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="92" t="s">
+      <c r="C7" s="91" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="91" t="s">
         <v>1539</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="92" t="s">
+      <c r="C8" s="91" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="91" t="s">
         <v>1540</v>
       </c>
-      <c r="C8" s="92" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="92" t="s">
+      <c r="C9" s="91" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="91" t="s">
         <v>1541</v>
       </c>
-      <c r="C9" s="92" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="92" t="s">
+      <c r="C10" s="91" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="91" t="s">
         <v>1542</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="92" t="s">
+      <c r="C11" s="91" t="s">
         <v>1543</v>
       </c>
-      <c r="C11" s="92" t="s">
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="91" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="92" t="s">
+      <c r="C12" s="91" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="91" t="s">
         <v>1545</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="92" t="s">
+      <c r="C13" s="91" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="91" t="s">
         <v>1546</v>
       </c>
-      <c r="C13" s="92" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="92" t="s">
+      <c r="C14" s="91" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="91" t="s">
         <v>1547</v>
       </c>
-      <c r="C14" s="92" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="92" t="s">
+      <c r="C15" s="91" t="s">
         <v>1548</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>1549</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/里程碑9-周版本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="38400" windowHeight="20000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="38400" windowHeight="20000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20160224" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20160302'!$A$1:$P$198</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20160309'!$A$1:$P$172</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20160316'!$A$1:$P$148</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20160323'!$A$1:$P$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20160323'!$A$1:$P$162</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5124" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5216" uniqueCount="1676">
   <si>
     <t>类别</t>
   </si>
@@ -8792,22 +8792,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>UI-商城充值设计</t>
-    <rPh sb="3" eb="4">
-      <t>shang'dian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cheng</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chong'zhi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>she'ji</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>第五六章新需求-动作-梦魇*2，冰岩*1，嫦娥，卡戎</t>
     <rPh sb="8" eb="9">
       <t>dong'zuo</t>
@@ -9018,19 +9002,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>登录-创建角色（待排期）</t>
-    <rPh sb="0" eb="1">
-      <t>deng'l</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>chuang'jian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jue'se</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>试炼副本复查bug</t>
     <rPh sb="0" eb="1">
       <t>shi'lian</t>
@@ -9074,22 +9045,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>试炼，通天塔界面（待排期）</t>
-    <rPh sb="0" eb="1">
-      <t>shi'lian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>tong'tian'ta</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dai'pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1-2章副本修改用例设计</t>
     <rPh sb="6" eb="7">
       <t>xiu'gai</t>
@@ -10386,6 +10341,183 @@
   </si>
   <si>
     <t>D3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-商城设计（充值，排版）</t>
+    <rPh sb="3" eb="4">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pai'ban</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <rPh sb="0" eb="1">
+      <t>tui'song</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，等策划反馈</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan'kui</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2850</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城修改文档分析</t>
+    <rPh sb="4" eb="5">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需求文档分析</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归等级开放</t>
+  </si>
+  <si>
+    <t>MG-2926</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼，通天塔界面</t>
+    <rPh sb="0" eb="1">
+      <t>shi'lian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送功能</t>
+    <rPh sb="0" eb="1">
+      <t>tui'song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-服务器-创建角色</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2927</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2928</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2929</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP场景相机</t>
+    <rPh sb="3" eb="4">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang'ji</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2933</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔商店图标</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'biao</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2931</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，3个需求到4-8</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>g</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dao</t>
+    </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -12886,7 +13018,7 @@
   <dimension ref="A1:S368"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D73" sqref="D73:D77"/>
     </sheetView>
   </sheetViews>
@@ -28887,7 +29019,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>524</v>
@@ -29557,7 +29689,7 @@
         <v>1212</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E40" s="76" t="s">
         <v>1210</v>
@@ -29864,7 +29996,7 @@
         <v>567</v>
       </c>
       <c r="J53" s="49" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -30077,13 +30209,13 @@
         <v>48</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="E63" s="49" t="s">
         <v>63</v>
       </c>
       <c r="H63" s="49" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="I63" s="49" t="s">
         <v>488</v>
@@ -32998,10 +33130,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P328"/>
+  <dimension ref="A1:P333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57:J63"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="I16" sqref="F15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -33074,7 +33206,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E2" s="76" t="s">
         <v>524</v>
@@ -33086,15 +33218,18 @@
         <v>0.25</v>
       </c>
       <c r="H2" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1523</v>
+      </c>
+      <c r="N2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E3" s="76" t="s">
         <v>524</v>
@@ -33106,10 +33241,10 @@
         <v>0.25</v>
       </c>
       <c r="H3" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" t="s">
         <v>48</v>
@@ -33130,13 +33265,13 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>809</v>
@@ -33148,16 +33283,16 @@
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="C6" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>838</v>
@@ -33172,13 +33307,13 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>809</v>
@@ -33190,7 +33325,7 @@
         <v>0.25</v>
       </c>
       <c r="H7" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="I7" t="s">
         <v>488</v>
@@ -33199,12 +33334,12 @@
         <v>768</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E8" t="s">
         <v>809</v>
@@ -33216,7 +33351,7 @@
         <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="I8" t="s">
         <v>488</v>
@@ -33225,13 +33360,13 @@
         <v>768</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>60</v>
@@ -33240,22 +33375,22 @@
         <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="D11" s="16"/>
       <c r="E11" s="76"/>
@@ -33269,7 +33404,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>524</v>
@@ -33281,7 +33416,10 @@
         <v>0.25</v>
       </c>
       <c r="H12" t="s">
-        <v>1525</v>
+        <v>1522</v>
+      </c>
+      <c r="I12" t="s">
+        <v>768</v>
       </c>
       <c r="L12" t="s">
         <v>764</v>
@@ -33293,7 +33431,7 @@
         <v>48</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>524</v>
@@ -33305,7 +33443,13 @@
         <v>0.25</v>
       </c>
       <c r="H13" t="s">
-        <v>1520</v>
+        <v>1517</v>
+      </c>
+      <c r="I13" t="s">
+        <v>768</v>
+      </c>
+      <c r="N13" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -33328,6 +33472,12 @@
       <c r="H14" t="s">
         <v>1243</v>
       </c>
+      <c r="I14" t="s">
+        <v>768</v>
+      </c>
+      <c r="N14" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -33335,7 +33485,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>809</v>
@@ -33347,7 +33497,13 @@
         <v>0.5</v>
       </c>
       <c r="H15" t="s">
-        <v>1521</v>
+        <v>1518</v>
+      </c>
+      <c r="I15" t="s">
+        <v>768</v>
+      </c>
+      <c r="N15" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -33356,7 +33512,7 @@
         <v>48</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>1183</v>
@@ -33367,14 +33523,20 @@
       <c r="G16">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>1660</v>
+      </c>
+      <c r="N16" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E17" s="76" t="s">
         <v>60</v>
@@ -33386,7 +33548,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -33395,7 +33557,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="E18" s="76" t="s">
         <v>1183</v>
@@ -33407,7 +33569,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="I18" t="s">
         <v>768</v>
@@ -33416,13 +33578,13 @@
         <v>768</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="E19" s="76" t="s">
         <v>1183</v>
@@ -33434,13 +33596,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E20" s="76" t="s">
         <v>527</v>
@@ -33452,27 +33614,33 @@
         <v>48</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E21" s="76" t="s">
         <v>524</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="G21">
         <v>0.25</v>
       </c>
       <c r="H21" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1651</v>
+      </c>
+      <c r="I21" t="s">
+        <v>768</v>
+      </c>
+      <c r="L21" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="D22" s="16"/>
       <c r="E22" s="76"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>1414</v>
@@ -33490,13 +33658,13 @@
         <v>183</v>
       </c>
       <c r="H23" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>55</v>
@@ -33505,7 +33673,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>524</v>
@@ -33514,7 +33682,7 @@
         <v>182</v>
       </c>
       <c r="H25" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="I25" t="s">
         <v>488</v>
@@ -33544,16 +33712,16 @@
         <v>921</v>
       </c>
       <c r="K26" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E27" s="76" t="s">
         <v>47</v>
@@ -33565,7 +33733,7 @@
         <v>0.25</v>
       </c>
       <c r="H27" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="I27" t="s">
         <v>768</v>
@@ -33574,13 +33742,13 @@
         <v>764</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="E28" s="76" t="s">
         <v>60</v>
@@ -33592,19 +33760,19 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="I28" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="E29" s="76" t="s">
         <v>973</v>
@@ -33616,19 +33784,19 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="F30" s="76" t="s">
         <v>183</v>
@@ -33637,16 +33805,16 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="C31" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E31" s="76" t="s">
         <v>1210</v>
@@ -33658,16 +33826,16 @@
         <v>0.5</v>
       </c>
       <c r="H31" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="E32" s="76" t="s">
         <v>527</v>
@@ -33679,16 +33847,16 @@
         <v>0.5</v>
       </c>
       <c r="H32" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="E33" s="76" t="s">
         <v>838</v>
@@ -33703,7 +33871,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="C34" t="s">
         <v>48</v>
@@ -33724,13 +33892,13 @@
         <v>915</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>47</v>
@@ -33745,13 +33913,13 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="E36" s="76" t="s">
         <v>534</v>
@@ -33763,16 +33931,16 @@
         <v>1.5</v>
       </c>
       <c r="H36" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E37" s="76" t="s">
         <v>809</v>
@@ -33784,19 +33952,19 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
         <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="E38" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="F38" t="s">
         <v>183</v>
@@ -33805,46 +33973,46 @@
         <v>0.5</v>
       </c>
       <c r="H38" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E39" t="s">
+        <v>534</v>
+      </c>
+      <c r="F39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39">
+        <v>0.2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" t="s">
+      <c r="D40" s="19"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>1263</v>
-      </c>
-      <c r="E40" s="76" t="s">
-        <v>533</v>
-      </c>
-      <c r="F40" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="G40">
-        <v>0.5</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="C41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>1430</v>
       </c>
       <c r="E41" s="76" t="s">
         <v>533</v>
@@ -33856,70 +34024,70 @@
         <v>0.5</v>
       </c>
       <c r="H41" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E42" s="76" t="s">
+        <v>533</v>
+      </c>
+      <c r="F42" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42">
+        <v>0.5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E44" t="s">
         <v>524</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>182</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>0.25</v>
       </c>
-      <c r="H43" t="s">
-        <v>1561</v>
-      </c>
-      <c r="I43" t="s">
-        <v>488</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="H44" t="s">
+        <v>1558</v>
+      </c>
+      <c r="I44" t="s">
+        <v>488</v>
+      </c>
+      <c r="K44" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1562</v>
-      </c>
-      <c r="E44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44">
-        <v>3</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="E45" t="s">
         <v>62</v>
@@ -33928,264 +34096,291 @@
         <v>172</v>
       </c>
       <c r="G45">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1561</v>
+      </c>
+      <c r="I45" t="s">
+        <v>768</v>
+      </c>
+      <c r="N45" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="C46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>1516</v>
-      </c>
-      <c r="E46" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E46" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="76" t="s">
-        <v>183</v>
+      <c r="F46" t="s">
+        <v>172</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1562</v>
+      </c>
+      <c r="I46" t="s">
+        <v>768</v>
+      </c>
+      <c r="N46" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>1568</v>
-      </c>
-      <c r="E47" t="s">
-        <v>550</v>
+        <v>1513</v>
+      </c>
+      <c r="E47" s="76" t="s">
+        <v>62</v>
       </c>
       <c r="F47" s="76" t="s">
-        <v>1350</v>
+        <v>183</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="C48" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>1186</v>
+      <c r="D48" s="14" t="s">
+        <v>1565</v>
       </c>
       <c r="E48" t="s">
         <v>550</v>
       </c>
-      <c r="F48" t="s">
-        <v>183</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F48" s="76" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I48" t="s">
+        <v>768</v>
+      </c>
+      <c r="N48" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="C49" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E49" s="76" t="s">
+      <c r="D49" s="19" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E49" t="s">
         <v>550</v>
       </c>
-      <c r="F49" s="76" t="s">
+      <c r="F49" t="s">
         <v>183</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="C50" t="s">
         <v>48</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="15" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E50" s="76" t="s">
+        <v>550</v>
+      </c>
+      <c r="F50" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E51" t="s">
+        <v>607</v>
+      </c>
+      <c r="F51" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51">
+        <v>0.5</v>
+      </c>
+      <c r="H51" t="s">
         <v>1567</v>
       </c>
-      <c r="E50" t="s">
-        <v>607</v>
-      </c>
-      <c r="F50" t="s">
-        <v>183</v>
-      </c>
-      <c r="G50">
-        <v>0.5</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="76"/>
-    </row>
-    <row r="52" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="81"/>
-      <c r="B52" s="49" t="s">
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="76"/>
+    </row>
+    <row r="53" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="81"/>
+      <c r="B53" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="49" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="G52" s="49">
-        <v>1</v>
-      </c>
-      <c r="H52" s="49" t="s">
-        <v>1573</v>
-      </c>
-      <c r="I52" s="49" t="s">
-        <v>768</v>
-      </c>
-      <c r="K52" s="49" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
       <c r="C53" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>1653</v>
+        <v>1476</v>
       </c>
       <c r="E53" s="49" t="s">
         <v>78</v>
       </c>
       <c r="F53" s="49" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G53" s="49">
         <v>1</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>1574</v>
-      </c>
-      <c r="L53" s="49" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I53" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="K53" s="49" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="81"/>
       <c r="C54" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>1380</v>
+        <v>1650</v>
       </c>
       <c r="E54" s="49" t="s">
         <v>78</v>
       </c>
       <c r="F54" s="49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G54" s="49">
         <v>1</v>
       </c>
       <c r="H54" s="49" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1571</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L54" s="49" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="81"/>
       <c r="C55" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E55" s="49" t="s">
         <v>78</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G55" s="49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H55" s="49" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1381</v>
+      </c>
+      <c r="I55" s="49" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="81"/>
       <c r="C56" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>1469</v>
+        <v>1382</v>
       </c>
       <c r="E56" s="49" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G56" s="49">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H56" s="49" t="s">
-        <v>1575</v>
-      </c>
-      <c r="I56" s="49" t="s">
-        <v>488</v>
-      </c>
-      <c r="L56" s="49" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+      <c r="N56" s="49" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="81"/>
       <c r="C57" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>1369</v>
+        <v>1466</v>
       </c>
       <c r="E57" s="49" t="s">
-        <v>1361</v>
+        <v>63</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G57" s="49">
         <v>1.5</v>
       </c>
       <c r="H57" s="49" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1572</v>
+      </c>
+      <c r="I57" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L57" s="49" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="81"/>
       <c r="C58" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>1478</v>
+        <v>1369</v>
       </c>
       <c r="E58" s="49" t="s">
         <v>1361</v>
@@ -34197,407 +34392,449 @@
         <v>1.5</v>
       </c>
       <c r="H58" s="49" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1370</v>
+      </c>
+      <c r="I58" s="49" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="81"/>
       <c r="C59" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="49" t="s">
-        <v>1576</v>
+        <v>1475</v>
       </c>
       <c r="E59" s="49" t="s">
-        <v>1477</v>
+        <v>1361</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G59" s="49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H59" s="49" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1371</v>
+      </c>
+      <c r="I59" s="49" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="81"/>
       <c r="C60" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>1485</v>
+        <v>1573</v>
       </c>
       <c r="E60" s="49" t="s">
-        <v>1202</v>
+        <v>1474</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G60" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1574</v>
+      </c>
+      <c r="I60" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="N60" s="49" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="81"/>
       <c r="C61" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D61" s="49" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="E61" s="49" t="s">
-        <v>1493</v>
+        <v>1202</v>
       </c>
       <c r="F61" s="49" t="s">
-        <v>183</v>
+        <v>170</v>
+      </c>
+      <c r="G61" s="49">
+        <v>3</v>
       </c>
       <c r="H61" s="49" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1575</v>
+      </c>
+      <c r="M61" s="49" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N61" s="49" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="81"/>
       <c r="C62" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D62" s="49" t="s">
-        <v>1435</v>
+        <v>1489</v>
       </c>
       <c r="E62" s="49" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="H62" s="49" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="81"/>
+      <c r="C63" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G63" s="49">
+        <v>1</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="81"/>
+      <c r="C64" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E64" s="49" t="s">
         <v>1406</v>
       </c>
-      <c r="G62" s="49">
-        <v>3</v>
-      </c>
-      <c r="H62" s="49" t="s">
+      <c r="F64" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G64" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="H64" s="49" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="81"/>
-      <c r="D63" s="49" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E63" s="49" t="s">
+    <row r="65" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="81"/>
+      <c r="C65" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E65" s="49" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G65" s="49">
+        <v>1</v>
+      </c>
+      <c r="H65" s="49" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="81"/>
+      <c r="D66" s="49" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E66" s="49" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="81"/>
-      <c r="D64" s="49" t="s">
-        <v>1433</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="81"/>
-      <c r="D65" s="49" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E65" s="49" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="81"/>
-    </row>
-    <row r="67" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="81"/>
-      <c r="B67" s="49" t="s">
+      <c r="D67" s="49" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E67" s="49" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="81"/>
+    </row>
+    <row r="69" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="81"/>
+      <c r="B69" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C69" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="49" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E67" s="49" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H67" s="49" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="81"/>
-      <c r="C68" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="49" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E68" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68" s="49">
-        <v>3</v>
-      </c>
-      <c r="H68" s="49" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="81"/>
-      <c r="C69" s="49" t="s">
-        <v>649</v>
-      </c>
       <c r="D69" s="49" t="s">
-        <v>1157</v>
+        <v>1512</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>1410</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G69" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1578</v>
+      </c>
+      <c r="H69" s="49" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="81"/>
       <c r="C70" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E70" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G70" s="49">
+        <v>3</v>
+      </c>
+      <c r="H70" s="49" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="81"/>
+      <c r="C71" s="49" t="s">
+        <v>649</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F71" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G71" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="81"/>
+      <c r="C72" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D72" s="49" t="s">
         <v>1156</v>
       </c>
-      <c r="E70" s="49" t="s">
+      <c r="E72" s="49" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="81"/>
-    </row>
-    <row r="72" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="81"/>
-      <c r="B72" s="49" t="s">
+    <row r="73" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="81"/>
+    </row>
+    <row r="74" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="81"/>
+      <c r="B74" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="49" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E72" s="49" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F72" s="49" t="s">
+      <c r="C74" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F74" s="49" t="s">
         <v>183</v>
-      </c>
-      <c r="G72" s="49">
-        <v>2</v>
-      </c>
-      <c r="H72" s="49" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="81"/>
-      <c r="C73" s="49" t="s">
-        <v>649</v>
-      </c>
-      <c r="D73" s="49" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E73" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="F73" s="49" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="81"/>
-      <c r="C74" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="49" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E74" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="F74" s="49" t="s">
-        <v>171</v>
       </c>
       <c r="G74" s="49">
         <v>2</v>
       </c>
       <c r="H74" s="49" t="s">
-        <v>1582</v>
-      </c>
-      <c r="L74" s="49" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="81"/>
       <c r="C75" s="49" t="s">
-        <v>48</v>
+        <v>649</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>1482</v>
+        <v>1464</v>
       </c>
       <c r="E75" s="49" t="s">
-        <v>1481</v>
+        <v>548</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="G75" s="49">
-        <v>1</v>
-      </c>
-      <c r="H75" s="49" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I75" s="49" t="s">
-        <v>768</v>
-      </c>
-      <c r="K75" s="49" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="81"/>
       <c r="C76" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="E76" s="49" t="s">
-        <v>1413</v>
+        <v>548</v>
       </c>
       <c r="F76" s="49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G76" s="49">
         <v>2</v>
       </c>
       <c r="H76" s="49" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1579</v>
+      </c>
+      <c r="L76" s="49" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M76" s="49" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="81"/>
       <c r="C77" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="E77" s="49" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="F77" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="G77" s="49">
+        <v>1</v>
+      </c>
+      <c r="H77" s="49" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I77" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="K77" s="49" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="81"/>
+      <c r="C78" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E78" s="49" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F78" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="G78" s="49">
+        <v>2</v>
+      </c>
+      <c r="H78" s="49" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I78" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="M78" s="49" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="81"/>
+      <c r="C79" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="49" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E79" s="49" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F79" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="G77" s="49">
+      <c r="G79" s="49">
         <v>2</v>
       </c>
-      <c r="H77" s="49" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="81"/>
-    </row>
-    <row r="79" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="81"/>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="H79" s="49" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="81"/>
+      <c r="D80" s="49" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E80" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G80" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H80" s="49" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="81"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>106</v>
       </c>
-      <c r="C80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="14" t="s">
+      <c r="C82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>1291</v>
       </c>
-      <c r="E80" s="66" t="s">
+      <c r="E82" s="66" t="s">
         <v>130</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G80">
-        <v>0.75</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I80" t="s">
-        <v>488</v>
-      </c>
-      <c r="K80" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="C81" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E81" s="68" t="s">
-        <v>572</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G81">
-        <v>0.5</v>
-      </c>
-      <c r="H81" t="s">
-        <v>1294</v>
-      </c>
-      <c r="I81" t="s">
-        <v>488</v>
-      </c>
-      <c r="K81" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="C82" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E82" s="68" t="s">
-        <v>572</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>182</v>
       </c>
       <c r="G82">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H82" t="s">
-        <v>1586</v>
-      </c>
-      <c r="I82" s="76" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I82" t="s">
         <v>488</v>
       </c>
       <c r="K82" t="s">
@@ -34610,39 +34847,52 @@
         <v>48</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>1431</v>
+        <v>1239</v>
       </c>
       <c r="E83" s="68" t="s">
-        <v>647</v>
+        <v>572</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="G83">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="s">
-        <v>1587</v>
+        <v>1294</v>
+      </c>
+      <c r="I83" t="s">
+        <v>488</v>
+      </c>
+      <c r="K83" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
       <c r="C84" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="18" t="s">
-        <v>1213</v>
+      <c r="D84" s="16" t="s">
+        <v>1423</v>
       </c>
       <c r="E84" s="68" t="s">
         <v>572</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G84">
         <v>0.25</v>
       </c>
       <c r="H84" t="s">
-        <v>1293</v>
+        <v>1583</v>
+      </c>
+      <c r="I84" s="76" t="s">
+        <v>488</v>
+      </c>
+      <c r="K84" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -34651,40 +34901,48 @@
         <v>48</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="E85" s="68" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G85">
         <v>0.25</v>
       </c>
       <c r="H85" t="s">
-        <v>1588</v>
+        <v>1584</v>
+      </c>
+      <c r="I85" t="s">
+        <v>488</v>
+      </c>
+      <c r="L85" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
       <c r="C86" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="16" t="s">
-        <v>1439</v>
+      <c r="D86" s="18" t="s">
+        <v>1661</v>
       </c>
       <c r="E86" s="68" t="s">
         <v>572</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G86">
         <v>0.25</v>
       </c>
       <c r="H86" t="s">
-        <v>1589</v>
+        <v>1293</v>
+      </c>
+      <c r="I86" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -34693,167 +34951,164 @@
         <v>48</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>1593</v>
+        <v>1662</v>
       </c>
       <c r="E87" s="68" t="s">
         <v>572</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G87">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H87" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+        <v>1585</v>
+      </c>
+      <c r="I87" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
       <c r="C88" t="s">
         <v>48</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>1594</v>
+        <v>1437</v>
       </c>
       <c r="E88" s="68" t="s">
-        <v>573</v>
-      </c>
-      <c r="F88" s="76" t="s">
+        <v>572</v>
+      </c>
+      <c r="F88" s="18" t="s">
         <v>176</v>
       </c>
       <c r="G88">
         <v>0.25</v>
       </c>
       <c r="H88" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E89" s="68" t="s">
+        <v>572</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G89">
+        <v>0.5</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="16" t="s">
         <v>1591</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E89" s="68" t="s">
-        <v>573</v>
-      </c>
-      <c r="F89" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="G89">
-        <v>0.25</v>
-      </c>
-      <c r="H89" t="s">
-        <v>1592</v>
-      </c>
-      <c r="I89" t="s">
-        <v>768</v>
-      </c>
-      <c r="L89" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>1442</v>
       </c>
       <c r="E90" s="68" t="s">
         <v>573</v>
       </c>
-      <c r="F90" s="18" t="s">
-        <v>183</v>
+      <c r="F90" s="76" t="s">
+        <v>176</v>
       </c>
       <c r="G90">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="18"/>
+      <c r="H90" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E91" s="68" t="s">
+        <v>573</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G91">
+        <v>0.25</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I91" t="s">
+        <v>768</v>
+      </c>
+      <c r="L91" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" t="s">
-        <v>108</v>
-      </c>
       <c r="C92" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1446</v>
+        <v>49</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>1439</v>
       </c>
       <c r="E92" s="68" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G92">
         <v>0.25</v>
       </c>
-      <c r="H92" t="s">
-        <v>1596</v>
-      </c>
-      <c r="I92" s="76" t="s">
-        <v>488</v>
-      </c>
-      <c r="K92" t="s">
-        <v>768</v>
-      </c>
     </row>
     <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="C93" t="s">
-        <v>48</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E93" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="F93" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G93" s="76">
-        <v>1.5</v>
-      </c>
-      <c r="H93" s="76" t="s">
-        <v>1298</v>
-      </c>
-      <c r="I93" s="76" t="s">
-        <v>768</v>
-      </c>
-      <c r="L93" t="s">
-        <v>768</v>
-      </c>
+      <c r="A93" s="4"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
       <c r="C94" t="s">
         <v>48</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" t="s">
         <v>1443</v>
       </c>
-      <c r="E94" s="66" t="s">
-        <v>130</v>
+      <c r="E94" s="68" t="s">
+        <v>572</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G94" s="76">
-        <v>1.5</v>
+        <v>182</v>
+      </c>
+      <c r="G94">
+        <v>0.25</v>
       </c>
       <c r="H94" t="s">
-        <v>1600</v>
+        <v>1593</v>
+      </c>
+      <c r="I94" s="76" t="s">
+        <v>488</v>
+      </c>
+      <c r="K94" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -34862,1393 +35117,1503 @@
         <v>48</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E95" s="68" t="s">
-        <v>572</v>
+        <v>1169</v>
+      </c>
+      <c r="E95" s="66" t="s">
+        <v>130</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G95" s="76">
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="H95" s="76" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I95" s="76" t="s">
+        <v>768</v>
+      </c>
+      <c r="L95" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="C96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E96" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G96" s="76">
+        <v>1.5</v>
+      </c>
+      <c r="H96" t="s">
         <v>1597</v>
       </c>
-      <c r="E96" s="66" t="s">
-        <v>647</v>
-      </c>
-      <c r="F96" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="G96" s="76">
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="C97" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="68" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E97" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E97" s="68" t="s">
         <v>572</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="G97" s="76">
         <v>1</v>
       </c>
       <c r="H97" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="C98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="68" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E98" s="66" t="s">
+        <v>647</v>
+      </c>
+      <c r="F98" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G98" s="76">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="D98" s="77"/>
-    </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" t="s">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="C99" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="68" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E99" s="79" t="s">
+        <v>572</v>
+      </c>
+      <c r="G99" s="76">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="D100" s="77"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" t="s">
         <v>125</v>
       </c>
-      <c r="C99" t="s">
-        <v>48</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="C101" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E101" t="s">
         <v>573</v>
       </c>
-      <c r="F99" s="76" t="s">
+      <c r="F101" s="76" t="s">
         <v>171</v>
-      </c>
-      <c r="G99">
-        <v>0.5</v>
-      </c>
-      <c r="H99" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I99" t="s">
-        <v>768</v>
-      </c>
-      <c r="L99" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="C100" t="s">
-        <v>48</v>
-      </c>
-      <c r="D100" s="76" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E100" s="66" t="s">
-        <v>1487</v>
-      </c>
-      <c r="F100" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="G100" s="76">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>1605</v>
-      </c>
-      <c r="I100" t="s">
-        <v>768</v>
-      </c>
-      <c r="L100" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="C101" t="s">
-        <v>48</v>
-      </c>
-      <c r="D101" s="76" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E101" s="66" t="s">
-        <v>1487</v>
-      </c>
-      <c r="F101" s="76" t="s">
-        <v>183</v>
       </c>
       <c r="G101">
         <v>0.5</v>
       </c>
       <c r="H101" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
+        <v>1601</v>
+      </c>
+      <c r="I101" t="s">
+        <v>768</v>
+      </c>
+      <c r="L101" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
       <c r="C102" t="s">
         <v>48</v>
       </c>
-      <c r="D102" t="s">
-        <v>1445</v>
+      <c r="D102" s="76" t="s">
+        <v>1600</v>
       </c>
       <c r="E102" s="66" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="F102" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="G102">
-        <v>0.5</v>
+        <v>171</v>
+      </c>
+      <c r="G102" s="76">
+        <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1602</v>
+      </c>
+      <c r="I102" t="s">
+        <v>768</v>
+      </c>
+      <c r="L102" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="C103" t="s">
         <v>48</v>
       </c>
-      <c r="D103" t="s">
-        <v>1437</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F103" t="s">
-        <v>170</v>
+      <c r="D103" s="76" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E103" s="66" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F103" s="76" t="s">
+        <v>183</v>
       </c>
       <c r="G103">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="C104" t="s">
-        <v>49</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>1447</v>
+        <v>48</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1442</v>
       </c>
       <c r="E104" s="66" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="F104" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="G104" s="76">
-        <v>1</v>
-      </c>
-      <c r="H104" s="76" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="G104">
+        <v>0.5</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I104" t="s">
+        <v>488</v>
+      </c>
+      <c r="M104" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="C105" t="s">
         <v>48</v>
       </c>
-      <c r="D105" s="79" t="s">
-        <v>1486</v>
-      </c>
-      <c r="E105" s="66" t="s">
-        <v>1487</v>
-      </c>
-      <c r="F105" s="76" t="s">
-        <v>183</v>
+      <c r="D105" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F105" t="s">
+        <v>170</v>
       </c>
       <c r="G105">
         <v>0.25</v>
       </c>
-      <c r="H105" s="79" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
+      <c r="H105" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I105" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
       <c r="C106" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="79" t="s">
-        <v>1306</v>
+        <v>49</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>1444</v>
       </c>
       <c r="E106" s="66" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="F106" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="G106">
-        <v>0.5</v>
-      </c>
-      <c r="H106" s="79" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
+      <c r="G106" s="76">
+        <v>1</v>
+      </c>
+      <c r="H106" s="76" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
       <c r="C107" t="s">
         <v>48</v>
       </c>
-      <c r="D107" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E107" t="s">
-        <v>647</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="D107" s="79" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E107" s="66" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F107" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="G107" s="76">
-        <v>1</v>
-      </c>
-      <c r="H107" s="76" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
+      <c r="G107">
+        <v>0.25</v>
+      </c>
+      <c r="H107" s="79" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
       <c r="C108" t="s">
         <v>48</v>
       </c>
-      <c r="D108" t="s">
-        <v>1613</v>
+      <c r="D108" s="79" t="s">
+        <v>1306</v>
       </c>
       <c r="E108" s="66" t="s">
-        <v>1307</v>
+        <v>1484</v>
       </c>
       <c r="F108" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="G108" s="76">
+      <c r="G108">
+        <v>0.5</v>
+      </c>
+      <c r="H108" s="79" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="C109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E109" t="s">
+        <v>647</v>
+      </c>
+      <c r="F109" t="s">
+        <v>183</v>
+      </c>
+      <c r="G109" s="76">
         <v>1</v>
       </c>
-      <c r="H108" s="76" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="H109" s="76" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="C110" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E110" s="66" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F110" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G110" s="76">
+        <v>1</v>
+      </c>
+      <c r="H110" s="76" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="80"/>
-      <c r="B111" s="55" t="s">
+    <row r="113" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="80"/>
+      <c r="B113" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C111" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="58" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E111" s="56" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F111" s="56" t="s">
+      <c r="C113" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="58" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E113" s="56" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F113" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="G111" s="55">
+      <c r="G113" s="55">
         <v>0.5</v>
       </c>
-      <c r="H111" s="56" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I111" s="49" t="s">
-        <v>768</v>
-      </c>
-      <c r="K111" s="55" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="80"/>
-      <c r="C112" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="58" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E112" s="56" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F112" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="G112" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="H112" s="56" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I112" s="49" t="s">
-        <v>768</v>
-      </c>
-      <c r="K112" s="55" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="80"/>
-      <c r="C113" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D113" s="58" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E113" s="56" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F113" s="56" t="s">
-        <v>1511</v>
-      </c>
-      <c r="G113" s="55">
-        <v>0.2</v>
-      </c>
       <c r="H113" s="56" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="I113" s="49" t="s">
         <v>768</v>
       </c>
       <c r="K113" s="55" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="80"/>
+      <c r="C114" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="58" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E114" s="56" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F114" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="G114" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="H114" s="56" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I114" s="49" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="80"/>
-      <c r="C114" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D114" s="49" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E114" s="49" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F114" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="G114" s="49">
-        <v>2</v>
-      </c>
-      <c r="H114" s="49" t="s">
-        <v>1007</v>
-      </c>
-      <c r="K114" s="49" t="s">
-        <v>764</v>
-      </c>
-      <c r="L114" s="49" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K114" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="80"/>
       <c r="C115" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D115" s="55" t="s">
-        <v>1331</v>
+      <c r="D115" s="58" t="s">
+        <v>1616</v>
       </c>
       <c r="E115" s="56" t="s">
-        <v>586</v>
-      </c>
-      <c r="F115" s="55" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F115" s="56" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G115" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="H115" s="56" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I115" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="K115" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="80"/>
+      <c r="C116" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="49" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E116" s="49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F116" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="G115" s="55">
-        <v>1</v>
-      </c>
-      <c r="H115" s="55" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I115" s="49"/>
-      <c r="K115" s="55" t="s">
+      <c r="G116" s="49">
+        <v>2</v>
+      </c>
+      <c r="H116" s="49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K116" s="49" t="s">
         <v>764</v>
       </c>
-      <c r="L115" s="55" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M115" s="49"/>
-    </row>
-    <row r="116" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="80"/>
-      <c r="C116" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D116" s="58" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E116" s="56" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F116" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="G116" s="55">
-        <v>1</v>
-      </c>
-      <c r="H116" s="55" t="s">
-        <v>1621</v>
-      </c>
-      <c r="I116" s="49"/>
-      <c r="L116" s="55" t="s">
+      <c r="L116" s="49" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="49" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="80"/>
       <c r="C117" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D117" s="58" t="s">
-        <v>900</v>
+      <c r="D117" s="55" t="s">
+        <v>1331</v>
       </c>
       <c r="E117" s="56" t="s">
-        <v>471</v>
-      </c>
-      <c r="F117" s="56" t="s">
-        <v>171</v>
+        <v>586</v>
+      </c>
+      <c r="F117" s="55" t="s">
+        <v>182</v>
       </c>
       <c r="G117" s="55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H117" s="55" t="s">
-        <v>1402</v>
-      </c>
-      <c r="I117" s="49" t="s">
-        <v>768</v>
+        <v>1332</v>
+      </c>
+      <c r="I117" s="49"/>
+      <c r="K117" s="55" t="s">
+        <v>764</v>
       </c>
       <c r="L117" s="55" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+      <c r="M117" s="49" t="s">
+        <v>764</v>
+      </c>
+      <c r="N117" s="55" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="80"/>
       <c r="C118" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D118" s="58" t="s">
-        <v>1419</v>
+        <v>1617</v>
       </c>
       <c r="E118" s="56" t="s">
-        <v>471</v>
-      </c>
-      <c r="F118" s="87" t="s">
-        <v>170</v>
+        <v>1493</v>
+      </c>
+      <c r="F118" s="56" t="s">
+        <v>171</v>
       </c>
       <c r="G118" s="55">
         <v>1</v>
       </c>
       <c r="H118" s="55" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="I118" s="49"/>
-    </row>
-    <row r="119" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L118" s="55" t="s">
+        <v>764</v>
+      </c>
+      <c r="M118" s="55" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="80"/>
       <c r="C119" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D119" s="58" t="s">
-        <v>1432</v>
+        <v>900</v>
       </c>
       <c r="E119" s="56" t="s">
         <v>471</v>
       </c>
-      <c r="F119" s="87" t="s">
-        <v>170</v>
+      <c r="F119" s="56" t="s">
+        <v>171</v>
       </c>
       <c r="G119" s="55">
         <v>0.5</v>
       </c>
       <c r="H119" s="55" t="s">
-        <v>1623</v>
-      </c>
-      <c r="I119" s="49"/>
-    </row>
-    <row r="120" spans="1:13" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1402</v>
+      </c>
+      <c r="I119" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="L119" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="80"/>
       <c r="C120" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D120" s="58" t="s">
-        <v>1624</v>
+        <v>1654</v>
       </c>
       <c r="E120" s="56" t="s">
-        <v>1510</v>
+        <v>471</v>
       </c>
       <c r="F120" s="56" t="s">
         <v>170</v>
       </c>
       <c r="G120" s="55">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H120" s="55" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="I120" s="49" t="s">
-        <v>488</v>
-      </c>
-      <c r="L120" s="55" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M120" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="80"/>
       <c r="C121" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D121" s="58" t="s">
-        <v>1513</v>
+        <v>1431</v>
       </c>
       <c r="E121" s="56" t="s">
-        <v>1510</v>
+        <v>471</v>
       </c>
       <c r="F121" s="56" t="s">
         <v>170</v>
       </c>
       <c r="G121" s="55">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H121" s="55" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="I121" s="49" t="s">
-        <v>488</v>
-      </c>
-      <c r="L121" s="55" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M121" s="55" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="80"/>
       <c r="C122" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D122" s="58" t="s">
-        <v>1458</v>
+        <v>1621</v>
       </c>
       <c r="E122" s="56" t="s">
-        <v>588</v>
+        <v>1507</v>
       </c>
       <c r="F122" s="56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G122" s="55">
         <v>0.1</v>
       </c>
       <c r="H122" s="55" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I122" s="49"/>
-    </row>
-    <row r="123" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1622</v>
+      </c>
+      <c r="I122" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L122" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="80"/>
       <c r="C123" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D123" s="58" t="s">
-        <v>1198</v>
+        <v>1510</v>
       </c>
       <c r="E123" s="56" t="s">
-        <v>586</v>
+        <v>1507</v>
       </c>
       <c r="F123" s="56" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G123" s="55">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H123" s="55" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I123" s="49"/>
-    </row>
-    <row r="124" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1622</v>
+      </c>
+      <c r="I123" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L123" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="80"/>
       <c r="C124" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="58" t="s">
-        <v>893</v>
+        <v>1455</v>
       </c>
       <c r="E124" s="56" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F124" s="56" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G124" s="55">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H124" s="55" t="s">
-        <v>892</v>
-      </c>
-      <c r="I124" s="49"/>
-    </row>
-    <row r="125" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1623</v>
+      </c>
+      <c r="I124" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="N124" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="80"/>
       <c r="C125" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D125" s="58" t="s">
-        <v>1220</v>
+        <v>1198</v>
       </c>
       <c r="E125" s="56" t="s">
         <v>586</v>
       </c>
       <c r="F125" s="56" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G125" s="55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H125" s="55" t="s">
-        <v>1339</v>
+        <v>1031</v>
       </c>
       <c r="I125" s="49"/>
     </row>
-    <row r="126" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="80"/>
       <c r="C126" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D126" s="58" t="s">
-        <v>1627</v>
+        <v>893</v>
       </c>
       <c r="E126" s="56" t="s">
-        <v>1510</v>
+        <v>586</v>
       </c>
       <c r="F126" s="56" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G126" s="55">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H126" s="55" t="s">
-        <v>1628</v>
+        <v>892</v>
       </c>
       <c r="I126" s="49"/>
     </row>
-    <row r="127" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="80"/>
+      <c r="C127" s="55" t="s">
+        <v>48</v>
+      </c>
       <c r="D127" s="58" t="s">
-        <v>1498</v>
-      </c>
-      <c r="E127" s="56"/>
-      <c r="F127" s="56"/>
-      <c r="I127" s="49"/>
-    </row>
-    <row r="128" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+      <c r="E127" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="F127" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="G127" s="55">
+        <v>0</v>
+      </c>
+      <c r="H127" s="55" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I127" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="N127" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="80"/>
       <c r="C128" s="55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D128" s="58" t="s">
-        <v>1456</v>
+        <v>1624</v>
       </c>
       <c r="E128" s="56" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F128" s="56"/>
+        <v>1507</v>
+      </c>
+      <c r="F128" s="56" t="s">
+        <v>183</v>
+      </c>
       <c r="G128" s="55">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="H128" s="55" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="I128" s="49"/>
     </row>
-    <row r="129" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="80"/>
       <c r="C129" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D129" s="58" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E129" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="F129" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="G129" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="H129" s="55" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I129" s="49"/>
+      <c r="N129" s="55" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="80"/>
+      <c r="D130" s="58" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E130" s="56"/>
+      <c r="F130" s="56"/>
+      <c r="I130" s="49"/>
+    </row>
+    <row r="131" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="80"/>
+      <c r="C131" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="58" t="s">
+      <c r="D131" s="58" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E131" s="56" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F131" s="56"/>
+      <c r="G131" s="55">
+        <v>9</v>
+      </c>
+      <c r="H131" s="55" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I131" s="49"/>
+    </row>
+    <row r="132" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="80"/>
+      <c r="C132" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="58" t="s">
         <v>1222</v>
       </c>
-      <c r="E129" s="56" t="s">
+      <c r="E132" s="56" t="s">
         <v>1040</v>
       </c>
-      <c r="F129" s="56"/>
-      <c r="H129" s="49" t="s">
+      <c r="F132" s="56"/>
+      <c r="H132" s="49" t="s">
         <v>1340</v>
       </c>
-      <c r="I129" s="49"/>
-    </row>
-    <row r="130" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="80"/>
-      <c r="C130" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" s="58" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E130" s="56" t="s">
-        <v>471</v>
-      </c>
-      <c r="F130" s="56"/>
-      <c r="G130" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="H130" s="55" t="s">
-        <v>1631</v>
-      </c>
-      <c r="I130" s="49"/>
-    </row>
-    <row r="131" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="80"/>
-      <c r="D131" s="58"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-      <c r="I131" s="49"/>
-    </row>
-    <row r="132" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="80"/>
-      <c r="B132" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="C132" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132" s="55" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E132" s="55" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F132" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="G132" s="55">
-        <v>2</v>
-      </c>
-      <c r="H132" s="55" t="s">
-        <v>1632</v>
-      </c>
       <c r="I132" s="49"/>
-      <c r="L132" s="55" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="80"/>
       <c r="C133" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D133" s="55" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E133" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="58" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E133" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="F133" s="56"/>
+      <c r="G133" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="H133" s="55" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I133" s="49"/>
+    </row>
+    <row r="134" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="80"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="56"/>
+      <c r="F134" s="56"/>
+      <c r="I134" s="49"/>
+    </row>
+    <row r="135" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="80"/>
+      <c r="B135" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" s="55" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E135" s="55" t="s">
         <v>1080</v>
       </c>
-      <c r="F133" s="56" t="s">
+      <c r="F135" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="G135" s="55">
+        <v>2</v>
+      </c>
+      <c r="H135" s="55" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I135" s="49"/>
+      <c r="L135" s="55" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M135" s="55" t="s">
+        <v>1658</v>
+      </c>
+      <c r="N135" s="55" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="80"/>
+      <c r="C136" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="55" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E136" s="55" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F136" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="G133" s="55">
+      <c r="G136" s="55">
         <v>1</v>
       </c>
-      <c r="H133" s="55" t="s">
-        <v>1633</v>
-      </c>
-      <c r="I133" s="49"/>
-    </row>
-    <row r="134" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="80"/>
-      <c r="C134" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D134" s="58" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E134" s="56" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F134" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="G134" s="55">
-        <v>2</v>
-      </c>
-      <c r="H134" s="55" t="s">
-        <v>1634</v>
-      </c>
-      <c r="I134" s="49"/>
-    </row>
-    <row r="135" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="80"/>
-      <c r="I135" s="49"/>
-    </row>
-    <row r="136" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="80"/>
-      <c r="B136" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="C136" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="58" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E136" s="56" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F136" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="G136" s="55">
-        <v>0</v>
+      <c r="H136" s="55" t="s">
+        <v>1630</v>
       </c>
       <c r="I136" s="49" t="s">
-        <v>488</v>
-      </c>
-      <c r="L136" s="55" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M136" s="55" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="80"/>
       <c r="C137" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D137" s="58" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="E137" s="56" t="s">
         <v>1403</v>
       </c>
       <c r="F137" s="56" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G137" s="55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H137" s="55" t="s">
-        <v>1637</v>
-      </c>
-      <c r="I137" s="49" t="s">
-        <v>488</v>
-      </c>
-      <c r="L137" s="55" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1631</v>
+      </c>
+      <c r="I137" s="49"/>
+    </row>
+    <row r="138" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="80"/>
-      <c r="D138" s="58"/>
-      <c r="E138" s="56"/>
-      <c r="F138" s="56"/>
+      <c r="C138" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="55" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E138" s="55" t="s">
+        <v>599</v>
+      </c>
+      <c r="F138" s="55" t="s">
+        <v>793</v>
+      </c>
+      <c r="G138" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="H138" s="55" t="s">
+        <v>1672</v>
+      </c>
       <c r="I138" s="49"/>
     </row>
-    <row r="139" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="80"/>
-      <c r="B139" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="C139" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" s="55" t="s">
-        <v>1452</v>
-      </c>
-      <c r="E139" s="55" t="s">
-        <v>1453</v>
-      </c>
-      <c r="F139" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="G139" s="55">
-        <v>0</v>
-      </c>
       <c r="I139" s="49"/>
-      <c r="L139" s="55" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="80"/>
+      <c r="B140" s="55" t="s">
+        <v>144</v>
+      </c>
       <c r="C140" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D140" s="58" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E140" s="56" t="s">
         <v>1055</v>
       </c>
       <c r="F140" s="56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G140" s="55">
         <v>0</v>
       </c>
-      <c r="I140" s="49"/>
-    </row>
-    <row r="141" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I140" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L140" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="80"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="56"/>
-      <c r="F141" s="56"/>
-      <c r="I141" s="49"/>
-    </row>
-    <row r="142" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="58" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E141" s="56" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F141" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G141" s="55">
+        <v>3</v>
+      </c>
+      <c r="H141" s="55" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I141" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L141" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="80"/>
-      <c r="B142" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="C142" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D142" s="58" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E142" s="56" t="s">
-        <v>599</v>
-      </c>
-      <c r="F142" s="56" t="s">
+      <c r="D142" s="58"/>
+      <c r="E142" s="56"/>
+      <c r="F142" s="56"/>
+      <c r="I142" s="49"/>
+    </row>
+    <row r="143" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="80"/>
+      <c r="B143" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="55" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E143" s="55" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F143" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="G142" s="55">
-        <v>2</v>
-      </c>
-      <c r="H142" s="55" t="s">
-        <v>1404</v>
-      </c>
-      <c r="I142" s="49" t="s">
+      <c r="G143" s="55">
+        <v>0</v>
+      </c>
+      <c r="I143" s="49" t="s">
         <v>768</v>
       </c>
-      <c r="L142" s="55" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="80"/>
-      <c r="C143" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D143" s="58" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E143" s="56" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F143" s="56" t="s">
-        <v>1508</v>
-      </c>
-      <c r="G143" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="H143" s="55" t="s">
-        <v>1640</v>
-      </c>
-      <c r="I143" s="49"/>
-    </row>
-    <row r="144" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L143" s="55" t="s">
+        <v>764</v>
+      </c>
+      <c r="M143" s="55" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="80"/>
       <c r="C144" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D144" s="58" t="s">
-        <v>1638</v>
+        <v>1419</v>
       </c>
       <c r="E144" s="56" t="s">
-        <v>588</v>
+        <v>1055</v>
       </c>
       <c r="F144" s="56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G144" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="H144" s="55" t="s">
-        <v>1641</v>
-      </c>
-      <c r="I144" s="49"/>
-    </row>
-    <row r="145" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I144" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="M144" s="55" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="80"/>
-      <c r="C145" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D145" s="90" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E145" s="56" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F145" s="56" t="s">
-        <v>1509</v>
-      </c>
-      <c r="G145" s="55">
-        <v>1</v>
-      </c>
-      <c r="H145" s="55" t="s">
-        <v>1642</v>
-      </c>
+      <c r="D145" s="58"/>
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
       <c r="I145" s="49"/>
     </row>
-    <row r="146" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="80"/>
+      <c r="B146" s="55" t="s">
+        <v>141</v>
+      </c>
       <c r="C146" s="55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D146" s="58" t="s">
-        <v>1421</v>
+        <v>1176</v>
       </c>
       <c r="E146" s="56" t="s">
         <v>599</v>
       </c>
       <c r="F146" s="56" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G146" s="55">
         <v>2</v>
       </c>
       <c r="H146" s="55" t="s">
-        <v>1644</v>
-      </c>
-      <c r="I146" s="49"/>
-    </row>
-    <row r="147" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1404</v>
+      </c>
+      <c r="I146" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="L146" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="80"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="56"/>
-      <c r="F147" s="56"/>
-      <c r="I147" s="49"/>
-    </row>
-    <row r="148" spans="1:16" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D147" s="58" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E147" s="56" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F147" s="56" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G147" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="H147" s="55" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I147" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="M147" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="80"/>
-      <c r="B148" s="55" t="s">
-        <v>50</v>
-      </c>
       <c r="C148" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D148" s="49" t="s">
-        <v>910</v>
+      <c r="D148" s="58" t="s">
+        <v>1635</v>
       </c>
       <c r="E148" s="56" t="s">
-        <v>1459</v>
+        <v>588</v>
       </c>
       <c r="F148" s="56" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G148" s="55">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H148" s="55" t="s">
-        <v>1416</v>
+        <v>1638</v>
       </c>
       <c r="I148" s="49" t="s">
         <v>768</v>
       </c>
-      <c r="K148" s="55" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="80"/>
       <c r="C149" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D149" s="49" t="s">
-        <v>1474</v>
+      <c r="D149" s="90" t="s">
+        <v>1640</v>
       </c>
       <c r="E149" s="56" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="F149" s="56" t="s">
-        <v>170</v>
+        <v>1506</v>
       </c>
       <c r="G149" s="55">
         <v>1</v>
       </c>
-      <c r="H149" s="56" t="s">
-        <v>1645</v>
+      <c r="H149" s="55" t="s">
+        <v>1639</v>
       </c>
       <c r="I149" s="49"/>
     </row>
-    <row r="150" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="80"/>
-      <c r="B150" s="55"/>
-      <c r="C150" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D150" s="49" t="s">
-        <v>905</v>
-      </c>
-      <c r="E150" s="49" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F150" s="49" t="s">
+      <c r="C150" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" s="58" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E150" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="F150" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="H150" s="49" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G150" s="55">
+        <v>2</v>
+      </c>
+      <c r="H150" s="55" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I150" s="49"/>
+    </row>
+    <row r="151" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="80"/>
-      <c r="C151" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D151" s="58" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E151" s="56" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F151" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="H151" s="55" t="s">
-        <v>1405</v>
-      </c>
+      <c r="D151" s="58"/>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
       <c r="I151" s="49"/>
     </row>
-    <row r="152" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="80"/>
+      <c r="B152" s="55" t="s">
+        <v>50</v>
+      </c>
       <c r="C152" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D152" s="58" t="s">
-        <v>1450</v>
+      <c r="D152" s="49" t="s">
+        <v>910</v>
       </c>
       <c r="E152" s="56" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="F152" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="G152" s="55">
+        <v>0.1</v>
       </c>
       <c r="H152" s="55" t="s">
-        <v>1646</v>
-      </c>
-      <c r="I152" s="49"/>
-    </row>
-    <row r="153" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1416</v>
+      </c>
+      <c r="I152" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="K152" s="55" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="80"/>
       <c r="C153" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D153" s="58" t="s">
-        <v>1454</v>
+      <c r="D153" s="49" t="s">
+        <v>1471</v>
       </c>
       <c r="E153" s="56" t="s">
-        <v>824</v>
+        <v>1511</v>
       </c>
       <c r="F153" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="H153" s="55" t="s">
-        <v>1647</v>
+        <v>170</v>
+      </c>
+      <c r="G153" s="55">
+        <v>1</v>
+      </c>
+      <c r="H153" s="56" t="s">
+        <v>1642</v>
       </c>
       <c r="I153" s="49"/>
-    </row>
-    <row r="154" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M153" s="55" t="s">
+        <v>780</v>
+      </c>
+      <c r="N153" s="55" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="80"/>
-      <c r="C154" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D154" s="50" t="s">
-        <v>1345</v>
+      <c r="B154" s="55"/>
+      <c r="C154" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="49" t="s">
+        <v>905</v>
       </c>
       <c r="E154" s="49" t="s">
-        <v>599</v>
+        <v>1064</v>
       </c>
       <c r="F154" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="G154" s="49">
-        <v>0.1</v>
-      </c>
       <c r="H154" s="49" t="s">
-        <v>1346</v>
-      </c>
-      <c r="I154" s="49"/>
-    </row>
-    <row r="155" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="80"/>
       <c r="C155" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="58" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E155" s="56" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F155" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="H155" s="55" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I155" s="49"/>
+    </row>
+    <row r="156" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="80"/>
+      <c r="C156" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D156" s="58" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E156" s="56" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F156" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="H156" s="55" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I156" s="49"/>
+    </row>
+    <row r="157" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="80"/>
+      <c r="C157" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D157" s="58" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E157" s="56" t="s">
+        <v>824</v>
+      </c>
+      <c r="F157" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="H157" s="55" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I157" s="49"/>
+    </row>
+    <row r="158" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="80"/>
+      <c r="C158" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="50" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E158" s="49" t="s">
+        <v>599</v>
+      </c>
+      <c r="F158" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G158" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="H158" s="49" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I158" s="49"/>
+    </row>
+    <row r="159" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="80"/>
+      <c r="C159" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D155" s="50" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E155" s="49" t="s">
+      <c r="D159" s="50" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E159" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="F155" s="56"/>
-      <c r="G155" s="55">
+      <c r="F159" s="56"/>
+      <c r="G159" s="55">
         <v>0.1</v>
       </c>
-      <c r="H155" s="55" t="s">
-        <v>1649</v>
-      </c>
-      <c r="I155" s="49"/>
-    </row>
-    <row r="156" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="80"/>
-      <c r="D156" s="49"/>
-      <c r="E156" s="56"/>
-      <c r="F156" s="56"/>
-      <c r="I156" s="49"/>
-    </row>
-    <row r="157" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="80"/>
-      <c r="D157" s="49"/>
-      <c r="E157" s="56"/>
-      <c r="F157" s="56"/>
-      <c r="I157" s="49"/>
-    </row>
-    <row r="158" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="80"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="56"/>
-      <c r="F158" s="56"/>
-      <c r="I158" s="49"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
+      <c r="H159" s="55" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I159" s="49"/>
+    </row>
+    <row r="160" spans="1:14" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="80"/>
+      <c r="D160" s="49"/>
+      <c r="E160" s="56"/>
+      <c r="F160" s="56"/>
+      <c r="I160" s="49"/>
+    </row>
+    <row r="161" spans="1:16" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="80"/>
+      <c r="D161" s="49"/>
+      <c r="E161" s="56"/>
+      <c r="F161" s="56"/>
+      <c r="I161" s="49"/>
+    </row>
+    <row r="162" spans="1:16" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="80"/>
+      <c r="D162" s="58"/>
+      <c r="E162" s="56"/>
+      <c r="F162" s="56"/>
+      <c r="I162" s="49"/>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="8"/>
-      <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-    </row>
-    <row r="161" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="8"/>
-    </row>
-    <row r="162" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="8"/>
-    </row>
-    <row r="163" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="8"/>
-    </row>
-    <row r="164" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B164" s="2"/>
       <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="9"/>
       <c r="J164" s="8"/>
-    </row>
-    <row r="165" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+    </row>
+    <row r="165" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
       <c r="B165" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C165" s="2"/>
-      <c r="D165" s="16" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E165" s="76" t="s">
-        <v>172</v>
-      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
       <c r="I165" s="9"/>
       <c r="J165" s="8"/>
     </row>
-    <row r="166" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
+      <c r="B166" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C166" s="2"/>
-      <c r="D166" s="16" t="s">
-        <v>1427</v>
-      </c>
-      <c r="E166" s="76" t="s">
-        <v>176</v>
-      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" s="9"/>
       <c r="J166" s="8"/>
     </row>
-    <row r="167" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+    <row r="167" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="B167" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C167" s="2"/>
-      <c r="D167" s="16" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E167" s="76" t="s">
-        <v>176</v>
-      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" s="9"/>
@@ -36256,14 +36621,12 @@
     </row>
     <row r="168" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
+      <c r="B168" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C168" s="2"/>
-      <c r="D168" s="16" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E168" s="76" t="s">
-        <v>183</v>
-      </c>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
       <c r="I168" s="9"/>
@@ -36271,11 +36634,16 @@
     </row>
     <row r="169" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
+      <c r="B169" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
+      <c r="D169" s="16" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E169" s="76" t="s">
+        <v>172</v>
+      </c>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
       <c r="I169" s="9"/>
@@ -36283,11 +36651,14 @@
     </row>
     <row r="170" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
+      <c r="B170" s="8"/>
       <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
+      <c r="D170" s="16" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E170" s="76" t="s">
+        <v>1656</v>
+      </c>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
       <c r="I170" s="9"/>
@@ -36295,468 +36666,521 @@
     </row>
     <row r="171" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
-      <c r="B171" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="2" t="s">
-        <v>1460</v>
-      </c>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
+      <c r="D171" s="16" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E171" s="76" t="s">
+        <v>183</v>
+      </c>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
       <c r="I171" s="9"/>
-      <c r="J171" s="9"/>
+      <c r="J171" s="8"/>
     </row>
     <row r="172" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
+      <c r="D172" s="16" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E172" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
       <c r="I172" s="9"/>
-      <c r="J172" s="9"/>
+      <c r="J172" s="8"/>
     </row>
     <row r="173" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
-      <c r="D173" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
+      <c r="D173" s="16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E173" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
       <c r="I173" s="9"/>
-      <c r="J173" s="9"/>
+      <c r="J173" s="8"/>
     </row>
     <row r="174" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>1502</v>
-      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
       <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
       <c r="I174" s="9"/>
-      <c r="J174" s="9"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
+      <c r="J174" s="8"/>
     </row>
     <row r="175" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>1503</v>
-      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
       <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
       <c r="I175" s="9"/>
-      <c r="J175" s="9"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
+      <c r="J175" s="8"/>
     </row>
     <row r="176" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
+      <c r="B176" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>1466</v>
-      </c>
+        <v>1457</v>
+      </c>
+      <c r="E176" s="2"/>
       <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
     </row>
     <row r="177" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
-      <c r="B177" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B177" s="2"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
+      <c r="D177" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>1498</v>
+      </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-    </row>
-    <row r="178" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
-      <c r="B178" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F178" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G178" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H178" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I178" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J178" s="13"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
     </row>
     <row r="179" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
-      <c r="B179" s="24"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E179" s="25"/>
-      <c r="F179" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G179" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H179" s="27"/>
-      <c r="I179" s="28"/>
-      <c r="J179" s="13"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
     </row>
     <row r="180" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
-      <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E180" s="31"/>
-      <c r="F180" s="31"/>
-      <c r="G180" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H180" s="31"/>
-      <c r="I180" s="30"/>
-      <c r="J180" s="13"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
     </row>
     <row r="181" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
-      <c r="B181" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C181" s="24"/>
-      <c r="D181" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="H181" s="24"/>
-      <c r="I181" s="30"/>
-      <c r="J181" s="13"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
     </row>
     <row r="182" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C182" s="31"/>
-      <c r="D182" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E182" s="31"/>
-      <c r="F182" s="24" t="s">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+    </row>
+    <row r="183" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G183" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I183" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J183" s="13"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+    </row>
+    <row r="184" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E184" s="25"/>
+      <c r="F184" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="G182" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H182" s="31"/>
-      <c r="I182" s="30"/>
-      <c r="J182" s="13"/>
-    </row>
-    <row r="183" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="24"/>
-      <c r="C183" s="24"/>
-      <c r="D183" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E183" s="24"/>
-      <c r="F183" s="24"/>
-      <c r="G183" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="H183" s="24" t="s">
-        <v>1504</v>
-      </c>
-      <c r="I183" s="30" t="s">
-        <v>1505</v>
-      </c>
-      <c r="J183" s="13"/>
-    </row>
-    <row r="184" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="31"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E184" s="31"/>
-      <c r="F184" s="32"/>
       <c r="G184" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H184" s="31" t="s">
-        <v>1504</v>
-      </c>
-      <c r="I184" s="30" t="s">
-        <v>1506</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="H184" s="27"/>
+      <c r="I184" s="28"/>
       <c r="J184" s="13"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
     </row>
     <row r="185" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="31" t="s">
-        <v>1418</v>
-      </c>
+      <c r="A185" s="2"/>
+      <c r="B185" s="31"/>
       <c r="C185" s="31"/>
       <c r="D185" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H185" s="31"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="13"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+    </row>
+    <row r="186" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H186" s="24"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="13"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+    </row>
+    <row r="187" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C187" s="31"/>
+      <c r="D187" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E187" s="31"/>
+      <c r="F187" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G187" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H187" s="31"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="13"/>
+    </row>
+    <row r="188" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="24"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E188" s="24"/>
+      <c r="F188" s="24"/>
+      <c r="G188" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H188" s="24" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I188" s="30" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J188" s="13"/>
+    </row>
+    <row r="189" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E189" s="31"/>
+      <c r="F189" s="32"/>
+      <c r="G189" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H189" s="31" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I189" s="30" t="s">
+        <v>1503</v>
+      </c>
+      <c r="J189" s="13"/>
+    </row>
+    <row r="190" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="31" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="E185" s="31"/>
-      <c r="F185" s="32">
+      <c r="E190" s="31"/>
+      <c r="F190" s="32">
         <v>42452</v>
       </c>
-      <c r="G185" s="26" t="s">
+      <c r="G190" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="H185" s="31"/>
-      <c r="I185" s="30" t="s">
+      <c r="H190" s="31"/>
+      <c r="I190" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="J185" s="13"/>
-    </row>
-    <row r="186" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11" t="s">
+      <c r="J190" s="13"/>
+    </row>
+    <row r="191" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="E186" s="11"/>
-      <c r="F186" s="11"/>
-      <c r="G186" s="45" t="s">
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="45" t="s">
         <v>550</v>
       </c>
-      <c r="H186" s="11"/>
-      <c r="I186" s="11"/>
-      <c r="J186" s="13"/>
-    </row>
-    <row r="187" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11" t="s">
+      <c r="H191" s="11"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="13"/>
+    </row>
+    <row r="192" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="E187" s="11"/>
-      <c r="F187" s="78">
+      <c r="E192" s="11"/>
+      <c r="F192" s="78">
         <v>42452</v>
       </c>
-      <c r="G187" s="45" t="s">
+      <c r="G192" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
-      <c r="J187" s="13"/>
-    </row>
-    <row r="188" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11" t="s">
+      <c r="H192" s="11"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="13"/>
+    </row>
+    <row r="193" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="E188" s="11"/>
-      <c r="F188" s="78">
+      <c r="E193" s="11"/>
+      <c r="F193" s="78">
         <v>42452</v>
       </c>
-      <c r="G188" s="45" t="s">
+      <c r="G193" s="45" t="s">
         <v>911</v>
       </c>
-      <c r="H188" s="11"/>
-      <c r="I188" s="11"/>
-      <c r="J188" s="13"/>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11" t="s">
+      <c r="H193" s="11"/>
+      <c r="I193" s="11"/>
+      <c r="J193" s="13"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11" t="s">
         <v>947</v>
       </c>
-      <c r="E189" s="11"/>
-      <c r="F189" s="78">
+      <c r="E194" s="11"/>
+      <c r="F194" s="78">
         <v>42445</v>
       </c>
-      <c r="G189" s="45" t="s">
+      <c r="G194" s="45" t="s">
         <v>948</v>
       </c>
-      <c r="H189" s="11" t="s">
-        <v>1504</v>
-      </c>
-      <c r="I189" s="11"/>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A190" s="7"/>
-      <c r="B190" s="30"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="30" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E190" s="30"/>
-      <c r="F190" s="78">
-        <v>42452</v>
-      </c>
-      <c r="G190" s="84" t="s">
-        <v>773</v>
-      </c>
-      <c r="H190" s="30"/>
-      <c r="I190" s="30"/>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B191" s="30"/>
-      <c r="C191" s="30"/>
-      <c r="D191" s="30" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E191" s="30"/>
-      <c r="F191" s="30"/>
-      <c r="G191" s="30" t="s">
-        <v>1231</v>
-      </c>
-      <c r="H191" s="30"/>
-      <c r="I191" s="30"/>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B192" s="30"/>
-      <c r="C192" s="30"/>
-      <c r="D192" s="30"/>
-      <c r="E192" s="30"/>
-      <c r="F192" s="30"/>
-      <c r="G192" s="30"/>
-      <c r="H192" s="30"/>
-      <c r="I192" s="30"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="30"/>
-      <c r="C193" s="30"/>
-      <c r="D193" s="30"/>
-      <c r="E193" s="30"/>
-      <c r="F193" s="30"/>
-      <c r="G193" s="30"/>
-      <c r="H193" s="30"/>
-      <c r="I193" s="30"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B194" s="30"/>
-      <c r="C194" s="30"/>
-      <c r="D194" s="30"/>
-      <c r="E194" s="30"/>
-      <c r="F194" s="30"/>
-      <c r="G194" s="30"/>
-      <c r="H194" s="30"/>
-      <c r="I194" s="30"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H194" s="11" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I194" s="11"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="7"/>
       <c r="B195" s="30"/>
       <c r="C195" s="30"/>
-      <c r="D195" s="30"/>
+      <c r="D195" s="30" t="s">
+        <v>1162</v>
+      </c>
       <c r="E195" s="30"/>
-      <c r="F195" s="30"/>
-      <c r="G195" s="30"/>
+      <c r="F195" s="78">
+        <v>42452</v>
+      </c>
+      <c r="G195" s="84" t="s">
+        <v>773</v>
+      </c>
       <c r="H195" s="30"/>
       <c r="I195" s="30"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="7"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="7"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="7"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="7"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="7"/>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B196" s="30"/>
+      <c r="C196" s="30"/>
+      <c r="D196" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E196" s="30"/>
+      <c r="F196" s="30"/>
+      <c r="G196" s="30" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H196" s="30"/>
+      <c r="I196" s="30"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B197" s="30"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="30"/>
+      <c r="F197" s="30"/>
+      <c r="G197" s="30"/>
+      <c r="H197" s="30"/>
+      <c r="I197" s="30"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B198" s="30"/>
+      <c r="C198" s="30"/>
+      <c r="D198" s="30"/>
+      <c r="E198" s="30"/>
+      <c r="F198" s="30"/>
+      <c r="G198" s="30"/>
+      <c r="H198" s="30"/>
+      <c r="I198" s="30"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="30"/>
+      <c r="C199" s="30"/>
+      <c r="D199" s="30"/>
+      <c r="E199" s="30"/>
+      <c r="F199" s="30"/>
+      <c r="G199" s="30"/>
+      <c r="H199" s="30"/>
+      <c r="I199" s="30"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="30"/>
+      <c r="C200" s="30"/>
+      <c r="D200" s="30"/>
+      <c r="E200" s="30"/>
+      <c r="F200" s="30"/>
+      <c r="G200" s="30"/>
+      <c r="H200" s="30"/>
+      <c r="I200" s="30"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
@@ -37118,24 +37542,44 @@
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="7"/>
     </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="7"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="7"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="7"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="7"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P158">
-    <filterColumn colId="8">
-      <filters blank="1"/>
+  <autoFilter ref="A1:P162">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="D1"/>
+        <filter val="D2"/>
+        <filter val="D3"/>
+        <filter val="D4"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B165 A160:F163">
+  <conditionalFormatting sqref="B169:B170 A164:F167">
     <cfRule type="cellIs" dxfId="14" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
+  <conditionalFormatting sqref="A126">
     <cfRule type="cellIs" dxfId="13" priority="66" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D159">
+  <conditionalFormatting sqref="D163">
     <cfRule type="cellIs" dxfId="12" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -37150,12 +37594,12 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
+  <conditionalFormatting sqref="A101">
     <cfRule type="cellIs" dxfId="9" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D148:D149 D156:D157">
+  <conditionalFormatting sqref="D152:D153 D160:D161">
     <cfRule type="cellIs" dxfId="8" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -37165,7 +37609,7 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+  <conditionalFormatting sqref="A38:A39">
     <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -37175,12 +37619,12 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
+  <conditionalFormatting sqref="A92">
     <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
+  <conditionalFormatting sqref="A90">
     <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -37199,22 +37643,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I188:I1048576 I74 I116:I123 I79:I113 I125:I159 I1:I70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I193:I1048576 I76 I118:I125 I81:I115 I127:I163 I78 I1:I72">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F191:F1048576 E165:E168 F72:F134 F136:F159 F1:F70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F196:F1048576 E169:E173 F74:F137 F140:F163 F1:F72">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C188:C1048576 C72:C134 C136:C159 C1:C70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C193:C1048576 C74:C138 C140:C163 C1:C72">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I126">
       <formula1>"完成,未完成,阻碍,取消"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B186:B1048576 B1:B2 B156:B178 B4:B7 B9:B12 B35:B47 B14:B33 B58:B67 B69:B92 B94:B104 B152:B154 B106:B150 B49:B56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B191:B1048576 B1:B2 B50:B57 B4:B7 B9:B12 B35:B48 B14:B33 B160:B183 B71:B94 B96:B106 B156:B158 B108:B154 B59:B69">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I114:I115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I116:I117">
       <formula1>"完成,未完成,阻碍,取消,暂停"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37239,98 +37683,98 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="91" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="91" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="91" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="91" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="91" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="91" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="91" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="91" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="91" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="91" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="91" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="91" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
   </sheetData>
